--- a/2.コンピュータ教育学院_2021カリキュラム_0324.xlsx
+++ b/2.コンピュータ教育学院_2021カリキュラム_0324.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hiroshi Watanabe\Documents\1.CKG\03_年度計画\2021年度\3.カリキュラム\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ueda-l540\Desktop\syllabus2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56F8A89E-DFF0-4D61-AC51-00245BE2196C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3300" yWindow="0" windowWidth="17208" windowHeight="11748"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="統合カリキュラム" sheetId="17" r:id="rId1"/>
@@ -27,7 +28,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">統合カリキュラム!$A$1:$Q$148</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">統合カリキュラム!$2:$3</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -35,6 +36,7 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -42,12 +44,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Windows User</author>
   </authors>
   <commentList>
-    <comment ref="C39" authorId="0" shapeId="0">
+    <comment ref="C39" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -62,7 +64,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C95" authorId="0" shapeId="0">
+    <comment ref="C95" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
       <text>
         <r>
           <rPr>
@@ -77,7 +79,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C162" authorId="0" shapeId="0">
+    <comment ref="C162" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
       <text>
         <r>
           <rPr>
@@ -2877,7 +2879,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="5" formatCode="&quot;¥&quot;#,##0;&quot;¥&quot;\-#,##0"/>
     <numFmt numFmtId="176" formatCode="#,##0_ "/>
@@ -4595,28 +4597,43 @@
     <xf numFmtId="0" fontId="18" fillId="9" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="40" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="56" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="49" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4624,93 +4641,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
@@ -4721,6 +4651,33 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
@@ -4730,20 +4687,35 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4751,26 +4723,68 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="49" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4778,11 +4792,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
@@ -4790,19 +4801,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="40" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
-    <cellStyle name="標準 2" xfId="1"/>
+    <cellStyle name="標準 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -4904,6 +4906,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -4939,6 +4958,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -5114,79 +5150,79 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1">
     <tabColor rgb="FFFF0000"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:S148"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A92" zoomScale="107" zoomScaleNormal="100" zoomScaleSheetLayoutView="107" workbookViewId="0">
-      <selection activeCell="A100" sqref="A100"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A46" zoomScale="107" zoomScaleNormal="100" zoomScaleSheetLayoutView="107" workbookViewId="0">
+      <selection activeCell="L90" sqref="L90:L107"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="1.77734375" customWidth="1"/>
-    <col min="2" max="2" width="11.5546875" style="204" customWidth="1"/>
-    <col min="3" max="3" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.88671875" customWidth="1"/>
-    <col min="6" max="7" width="10.5546875" style="204" bestFit="1" customWidth="1"/>
-    <col min="8" max="13" width="8.88671875" customWidth="1"/>
-    <col min="14" max="17" width="8.88671875" style="206"/>
-    <col min="18" max="18" width="1.77734375" customWidth="1"/>
-    <col min="19" max="19" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="1.75" customWidth="1"/>
+    <col min="2" max="2" width="11.5" style="204" customWidth="1"/>
+    <col min="3" max="3" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.875" customWidth="1"/>
+    <col min="6" max="7" width="10.5" style="204" bestFit="1" customWidth="1"/>
+    <col min="8" max="13" width="8.875" customWidth="1"/>
+    <col min="14" max="17" width="8.875" style="206"/>
+    <col min="18" max="18" width="1.75" customWidth="1"/>
+    <col min="19" max="19" width="10.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="14.4">
+    <row r="1" spans="1:17" ht="14.25">
       <c r="A1" s="205" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="2" spans="1:17">
-      <c r="B2" s="283" t="s">
+      <c r="B2" s="286" t="s">
         <v>157</v>
       </c>
-      <c r="C2" s="283" t="s">
+      <c r="C2" s="286" t="s">
         <v>204</v>
       </c>
-      <c r="D2" s="283"/>
-      <c r="E2" s="283" t="s">
+      <c r="D2" s="286"/>
+      <c r="E2" s="286" t="s">
         <v>156</v>
       </c>
-      <c r="F2" s="283" t="s">
+      <c r="F2" s="286" t="s">
         <v>177</v>
       </c>
-      <c r="G2" s="283" t="s">
+      <c r="G2" s="286" t="s">
         <v>160</v>
       </c>
-      <c r="H2" s="283" t="s">
+      <c r="H2" s="286" t="s">
         <v>107</v>
       </c>
-      <c r="I2" s="283"/>
-      <c r="J2" s="283"/>
-      <c r="K2" s="283"/>
-      <c r="L2" s="283"/>
-      <c r="M2" s="283"/>
-      <c r="N2" s="283" t="s">
+      <c r="I2" s="286"/>
+      <c r="J2" s="286"/>
+      <c r="K2" s="286"/>
+      <c r="L2" s="286"/>
+      <c r="M2" s="286"/>
+      <c r="N2" s="286" t="s">
         <v>231</v>
       </c>
-      <c r="O2" s="283"/>
-      <c r="P2" s="283"/>
-      <c r="Q2" s="283"/>
-    </row>
-    <row r="3" spans="1:17" ht="43.2">
-      <c r="B3" s="283"/>
+      <c r="O2" s="286"/>
+      <c r="P2" s="286"/>
+      <c r="Q2" s="286"/>
+    </row>
+    <row r="3" spans="1:17" ht="45">
+      <c r="B3" s="286"/>
       <c r="C3" s="226" t="s">
         <v>205</v>
       </c>
       <c r="D3" s="226" t="s">
         <v>206</v>
       </c>
-      <c r="E3" s="283"/>
-      <c r="F3" s="283"/>
-      <c r="G3" s="283"/>
+      <c r="E3" s="286"/>
+      <c r="F3" s="286"/>
+      <c r="G3" s="286"/>
       <c r="H3" s="227" t="s">
         <v>158</v>
       </c>
@@ -5318,7 +5354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:17" hidden="1">
       <c r="B6" s="209">
         <v>3</v>
       </c>
@@ -5468,7 +5504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:17" hidden="1">
       <c r="B9" s="225">
         <v>6</v>
       </c>
@@ -5518,7 +5554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:17" hidden="1">
       <c r="B10" s="225">
         <v>7</v>
       </c>
@@ -5718,7 +5754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:17" s="207" customFormat="1">
+    <row r="14" spans="1:17" s="207" customFormat="1" hidden="1">
       <c r="B14" s="225">
         <v>11</v>
       </c>
@@ -5768,7 +5804,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:17" s="207" customFormat="1">
+    <row r="15" spans="1:17" s="207" customFormat="1" hidden="1">
       <c r="B15" s="225">
         <v>12</v>
       </c>
@@ -5818,7 +5854,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:17" s="207" customFormat="1">
+    <row r="16" spans="1:17" s="207" customFormat="1" hidden="1">
       <c r="B16" s="225">
         <v>13</v>
       </c>
@@ -5868,7 +5904,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="2:17" s="207" customFormat="1">
+    <row r="17" spans="2:17" s="207" customFormat="1" hidden="1">
       <c r="B17" s="225">
         <v>14</v>
       </c>
@@ -5918,7 +5954,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="2:17" s="207" customFormat="1">
+    <row r="18" spans="2:17" s="207" customFormat="1" hidden="1">
       <c r="B18" s="225">
         <v>15</v>
       </c>
@@ -5968,7 +6004,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="2:17" s="207" customFormat="1">
+    <row r="19" spans="2:17" s="207" customFormat="1" hidden="1">
       <c r="B19" s="225">
         <v>16</v>
       </c>
@@ -6018,7 +6054,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="2:17" s="207" customFormat="1">
+    <row r="20" spans="2:17" s="207" customFormat="1" hidden="1">
       <c r="B20" s="225">
         <v>17</v>
       </c>
@@ -6068,7 +6104,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="2:17" s="207" customFormat="1">
+    <row r="21" spans="2:17" s="207" customFormat="1" hidden="1">
       <c r="B21" s="225">
         <v>18</v>
       </c>
@@ -6118,7 +6154,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="2:17" s="207" customFormat="1">
+    <row r="22" spans="2:17" s="207" customFormat="1" hidden="1">
       <c r="B22" s="225">
         <v>19</v>
       </c>
@@ -6168,7 +6204,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="2:17" s="207" customFormat="1">
+    <row r="23" spans="2:17" s="207" customFormat="1" hidden="1">
       <c r="B23" s="225">
         <v>20</v>
       </c>
@@ -6218,7 +6254,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="2:17" s="207" customFormat="1">
+    <row r="24" spans="2:17" s="207" customFormat="1" hidden="1">
       <c r="B24" s="225">
         <v>21</v>
       </c>
@@ -6268,7 +6304,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="2:17" s="207" customFormat="1">
+    <row r="25" spans="2:17" s="207" customFormat="1" hidden="1">
       <c r="B25" s="225">
         <v>22</v>
       </c>
@@ -6318,7 +6354,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="2:17" s="207" customFormat="1">
+    <row r="26" spans="2:17" s="207" customFormat="1" hidden="1">
       <c r="B26" s="225">
         <v>23</v>
       </c>
@@ -6368,7 +6404,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="2:17" s="207" customFormat="1">
+    <row r="27" spans="2:17" s="207" customFormat="1" hidden="1">
       <c r="B27" s="225">
         <v>24</v>
       </c>
@@ -6418,7 +6454,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="2:17" s="207" customFormat="1">
+    <row r="28" spans="2:17" s="207" customFormat="1" hidden="1">
       <c r="B28" s="225">
         <v>25</v>
       </c>
@@ -6468,7 +6504,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="2:17" s="207" customFormat="1">
+    <row r="29" spans="2:17" s="207" customFormat="1" hidden="1">
       <c r="B29" s="225">
         <v>26</v>
       </c>
@@ -6518,7 +6554,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="2:17" s="207" customFormat="1">
+    <row r="30" spans="2:17" s="207" customFormat="1" hidden="1">
       <c r="B30" s="225">
         <v>27</v>
       </c>
@@ -6618,7 +6654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:17">
+    <row r="32" spans="2:17" hidden="1">
       <c r="B32" s="225">
         <v>29</v>
       </c>
@@ -6718,7 +6754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:17">
+    <row r="34" spans="2:17" hidden="1">
       <c r="B34" s="225">
         <v>31</v>
       </c>
@@ -7118,7 +7154,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="42" spans="2:17">
+    <row r="42" spans="2:17" hidden="1">
       <c r="B42" s="225">
         <v>39</v>
       </c>
@@ -7168,7 +7204,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="2:17">
+    <row r="43" spans="2:17" hidden="1">
       <c r="B43" s="225">
         <v>40</v>
       </c>
@@ -7218,7 +7254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="2:17">
+    <row r="44" spans="2:17" hidden="1">
       <c r="B44" s="225">
         <v>41</v>
       </c>
@@ -7268,7 +7304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="2:17">
+    <row r="45" spans="2:17" hidden="1">
       <c r="B45" s="225">
         <v>42</v>
       </c>
@@ -7368,7 +7404,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="47" spans="2:17">
+    <row r="47" spans="2:17" hidden="1">
       <c r="B47" s="278">
         <v>44</v>
       </c>
@@ -7418,7 +7454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:17">
+    <row r="48" spans="2:17" hidden="1">
       <c r="B48" s="278">
         <v>45</v>
       </c>
@@ -7468,7 +7504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="2:17">
+    <row r="49" spans="2:17" hidden="1">
       <c r="B49" s="278">
         <v>46</v>
       </c>
@@ -7518,7 +7554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="2:17">
+    <row r="50" spans="2:17" hidden="1">
       <c r="B50" s="278">
         <v>47</v>
       </c>
@@ -7568,7 +7604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="2:17">
+    <row r="51" spans="2:17" hidden="1">
       <c r="B51" s="225">
         <v>48</v>
       </c>
@@ -7618,7 +7654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="2:17">
+    <row r="52" spans="2:17" hidden="1">
       <c r="B52" s="225">
         <v>49</v>
       </c>
@@ -7668,7 +7704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="2:17">
+    <row r="53" spans="2:17" hidden="1">
       <c r="B53" s="225">
         <v>50</v>
       </c>
@@ -7718,7 +7754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="2:17">
+    <row r="54" spans="2:17" hidden="1">
       <c r="B54" s="225">
         <v>51</v>
       </c>
@@ -7918,7 +7954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="2:17">
+    <row r="58" spans="2:17" hidden="1">
       <c r="B58" s="225">
         <v>55</v>
       </c>
@@ -8268,7 +8304,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="65" spans="2:17">
+    <row r="65" spans="2:17" hidden="1">
       <c r="B65" s="225">
         <v>62</v>
       </c>
@@ -8318,7 +8354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="2:17">
+    <row r="66" spans="2:17" hidden="1">
       <c r="B66" s="225">
         <v>63</v>
       </c>
@@ -8368,7 +8404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="2:17">
+    <row r="67" spans="2:17" hidden="1">
       <c r="B67" s="225">
         <v>64</v>
       </c>
@@ -8418,7 +8454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="2:17">
+    <row r="68" spans="2:17" hidden="1">
       <c r="B68" s="225">
         <v>65</v>
       </c>
@@ -8468,7 +8504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="2:17">
+    <row r="69" spans="2:17" hidden="1">
       <c r="B69" s="225">
         <v>66</v>
       </c>
@@ -8518,7 +8554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="2:17">
+    <row r="70" spans="2:17" hidden="1">
       <c r="B70" s="225">
         <v>67</v>
       </c>
@@ -8968,7 +9004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="2:17">
+    <row r="79" spans="2:17" hidden="1">
       <c r="B79" s="225">
         <v>76</v>
       </c>
@@ -9068,7 +9104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="2:17">
+    <row r="81" spans="2:17" hidden="1">
       <c r="B81" s="225">
         <v>78</v>
       </c>
@@ -9618,7 +9654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="2:17">
+    <row r="92" spans="2:17" hidden="1">
       <c r="B92" s="225">
         <v>89</v>
       </c>
@@ -9668,7 +9704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="2:17">
+    <row r="93" spans="2:17" hidden="1">
       <c r="B93" s="225">
         <v>90</v>
       </c>
@@ -9718,7 +9754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="2:17">
+    <row r="94" spans="2:17" hidden="1">
       <c r="B94" s="225">
         <v>91</v>
       </c>
@@ -9768,7 +9804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="2:17">
+    <row r="95" spans="2:17" hidden="1">
       <c r="B95" s="225">
         <v>92</v>
       </c>
@@ -9818,7 +9854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="2:17">
+    <row r="96" spans="2:17" hidden="1">
       <c r="B96" s="225">
         <v>93</v>
       </c>
@@ -9868,7 +9904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="2:17">
+    <row r="97" spans="2:17" hidden="1">
       <c r="B97" s="225">
         <v>94</v>
       </c>
@@ -9918,7 +9954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="2:17">
+    <row r="98" spans="2:17" hidden="1">
       <c r="B98" s="225">
         <v>95</v>
       </c>
@@ -9968,7 +10004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="2:17">
+    <row r="99" spans="2:17" hidden="1">
       <c r="B99" s="225">
         <v>96</v>
       </c>
@@ -10018,7 +10054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="2:17">
+    <row r="100" spans="2:17" hidden="1">
       <c r="B100" s="225">
         <v>97</v>
       </c>
@@ -10068,7 +10104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="2:17">
+    <row r="101" spans="2:17" hidden="1">
       <c r="B101" s="225">
         <v>98</v>
       </c>
@@ -10118,7 +10154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="2:17">
+    <row r="102" spans="2:17" hidden="1">
       <c r="B102" s="225">
         <v>99</v>
       </c>
@@ -10168,7 +10204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="2:17">
+    <row r="103" spans="2:17" hidden="1">
       <c r="B103" s="225">
         <v>100</v>
       </c>
@@ -10218,7 +10254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="2:17">
+    <row r="104" spans="2:17" hidden="1">
       <c r="B104" s="225">
         <v>101</v>
       </c>
@@ -10268,7 +10304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="2:17">
+    <row r="105" spans="2:17" hidden="1">
       <c r="B105" s="225">
         <v>102</v>
       </c>
@@ -10318,7 +10354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="2:17">
+    <row r="106" spans="2:17" hidden="1">
       <c r="B106" s="225">
         <v>103</v>
       </c>
@@ -10418,7 +10454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="2:17">
+    <row r="108" spans="2:17" hidden="1">
       <c r="B108" s="225">
         <v>105</v>
       </c>
@@ -10468,14 +10504,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="2:17">
+    <row r="109" spans="2:17" hidden="1">
       <c r="B109" s="278">
         <v>106</v>
       </c>
       <c r="C109" s="278" t="s">
         <v>207</v>
       </c>
-      <c r="D109" s="349" t="s">
+      <c r="D109" s="284" t="s">
         <v>379</v>
       </c>
       <c r="E109" s="279" t="s">
@@ -10484,7 +10520,7 @@
       <c r="F109" s="280" t="s">
         <v>108</v>
       </c>
-      <c r="G109" s="350" t="s">
+      <c r="G109" s="285" t="s">
         <v>28</v>
       </c>
       <c r="H109" s="282">
@@ -10493,7 +10529,7 @@
       <c r="I109" s="282">
         <v>0</v>
       </c>
-      <c r="J109" s="349">
+      <c r="J109" s="284">
         <v>6</v>
       </c>
       <c r="K109" s="282">
@@ -10518,7 +10554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="2:17">
+    <row r="110" spans="2:17" hidden="1">
       <c r="B110" s="225">
         <v>107</v>
       </c>
@@ -10568,7 +10604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="2:17">
+    <row r="111" spans="2:17" hidden="1">
       <c r="B111" s="225">
         <v>108</v>
       </c>
@@ -10618,7 +10654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="2:17">
+    <row r="112" spans="2:17" hidden="1">
       <c r="B112" s="225">
         <v>109</v>
       </c>
@@ -10668,7 +10704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="2:17">
+    <row r="113" spans="2:17" hidden="1">
       <c r="B113" s="225">
         <v>110</v>
       </c>
@@ -10718,7 +10754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="2:17">
+    <row r="114" spans="2:17" hidden="1">
       <c r="B114" s="225">
         <v>111</v>
       </c>
@@ -10768,7 +10804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="2:17">
+    <row r="115" spans="2:17" hidden="1">
       <c r="B115" s="225">
         <v>112</v>
       </c>
@@ -10818,7 +10854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="2:17">
+    <row r="116" spans="2:17" hidden="1">
       <c r="B116" s="225">
         <v>113</v>
       </c>
@@ -11168,7 +11204,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="123" spans="2:17">
+    <row r="123" spans="2:17" hidden="1">
       <c r="B123" s="225">
         <v>120</v>
       </c>
@@ -11368,7 +11404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="2:17">
+    <row r="127" spans="2:17" hidden="1">
       <c r="B127" s="225">
         <v>124</v>
       </c>
@@ -11418,7 +11454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="2:17">
+    <row r="128" spans="2:17" hidden="1">
       <c r="B128" s="225">
         <v>125</v>
       </c>
@@ -11468,7 +11504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="2:19">
+    <row r="129" spans="2:19" hidden="1">
       <c r="B129" s="225">
         <v>126</v>
       </c>
@@ -12259,7 +12295,22 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="H3:R136"/>
+  <autoFilter ref="H3:R136" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <filterColumn colId="4">
+      <filters>
+        <filter val="↑"/>
+        <filter val="↓"/>
+        <filter val="1"/>
+        <filter val="10"/>
+        <filter val="136"/>
+        <filter val="2"/>
+        <filter val="4"/>
+        <filter val="5"/>
+        <filter val="6"/>
+        <filter val="8"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <mergeCells count="7">
     <mergeCell ref="N2:Q2"/>
     <mergeCell ref="B2:B3"/>
@@ -12276,7 +12327,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
     <pageSetUpPr fitToPage="1"/>
@@ -12287,20 +12338,20 @@
       <selection activeCell="C180" sqref="C180"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="9.25" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="1.77734375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="9.21875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="28.6640625" style="15" customWidth="1"/>
-    <col min="4" max="4" width="10.6640625" style="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="1.75" style="2" customWidth="1"/>
+    <col min="2" max="2" width="9.25" style="2" customWidth="1"/>
+    <col min="3" max="3" width="28.625" style="15" customWidth="1"/>
+    <col min="4" max="4" width="10.625" style="15" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10" style="2" customWidth="1"/>
-    <col min="6" max="7" width="9.109375" style="2" customWidth="1"/>
+    <col min="6" max="7" width="9.125" style="2" customWidth="1"/>
     <col min="8" max="18" width="7" style="2" customWidth="1"/>
     <col min="19" max="20" width="6" style="6" customWidth="1"/>
-    <col min="21" max="16384" width="9.21875" style="2"/>
+    <col min="21" max="16384" width="9.25" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="14.4">
+    <row r="1" spans="1:20" ht="14.25">
       <c r="E1" s="2" t="s">
         <v>56</v>
       </c>
@@ -12338,7 +12389,7 @@
       </c>
       <c r="B4" s="3"/>
     </row>
-    <row r="5" spans="1:20" ht="21.6" thickBot="1">
+    <row r="5" spans="1:20" ht="21.75" thickBot="1">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
         <v>20</v>
@@ -12346,55 +12397,55 @@
       <c r="S5" s="36"/>
     </row>
     <row r="6" spans="1:20" ht="18" customHeight="1" thickBot="1">
-      <c r="B6" s="312" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="328" t="s">
+      <c r="B6" s="316" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="331" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="335" t="s">
+      <c r="D6" s="321" t="s">
         <v>106</v>
       </c>
-      <c r="E6" s="312" t="s">
-        <v>4</v>
-      </c>
-      <c r="F6" s="333" t="s">
+      <c r="E6" s="316" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="323" t="s">
         <v>51</v>
       </c>
-      <c r="G6" s="333" t="s">
+      <c r="G6" s="323" t="s">
         <v>52</v>
       </c>
-      <c r="H6" s="304" t="s">
+      <c r="H6" s="307" t="s">
         <v>5</v>
       </c>
-      <c r="I6" s="305"/>
-      <c r="J6" s="304" t="s">
+      <c r="I6" s="325"/>
+      <c r="J6" s="307" t="s">
         <v>6</v>
       </c>
-      <c r="K6" s="305"/>
-      <c r="L6" s="316" t="s">
+      <c r="K6" s="325"/>
+      <c r="L6" s="326" t="s">
         <v>26</v>
       </c>
-      <c r="M6" s="304" t="s">
+      <c r="M6" s="307" t="s">
         <v>7</v>
       </c>
-      <c r="N6" s="310"/>
-      <c r="O6" s="310"/>
-      <c r="P6" s="310"/>
-      <c r="Q6" s="311"/>
-      <c r="R6" s="312" t="s">
+      <c r="N6" s="308"/>
+      <c r="O6" s="308"/>
+      <c r="P6" s="308"/>
+      <c r="Q6" s="309"/>
+      <c r="R6" s="316" t="s">
         <v>35</v>
       </c>
       <c r="S6" s="58"/>
       <c r="T6" s="58"/>
     </row>
     <row r="7" spans="1:20" ht="18" customHeight="1" thickBot="1">
-      <c r="B7" s="313"/>
-      <c r="C7" s="339"/>
-      <c r="D7" s="336"/>
-      <c r="E7" s="313"/>
-      <c r="F7" s="334"/>
-      <c r="G7" s="334"/>
+      <c r="B7" s="317"/>
+      <c r="C7" s="332"/>
+      <c r="D7" s="322"/>
+      <c r="E7" s="317"/>
+      <c r="F7" s="324"/>
+      <c r="G7" s="324"/>
       <c r="H7" s="86" t="s">
         <v>8</v>
       </c>
@@ -12407,7 +12458,7 @@
       <c r="K7" s="60" t="s">
         <v>30</v>
       </c>
-      <c r="L7" s="317"/>
+      <c r="L7" s="327"/>
       <c r="M7" s="10" t="s">
         <v>22</v>
       </c>
@@ -12423,12 +12474,12 @@
       <c r="Q7" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="R7" s="313"/>
+      <c r="R7" s="317"/>
       <c r="S7" s="59"/>
       <c r="T7" s="59"/>
     </row>
     <row r="8" spans="1:20" ht="16.5" customHeight="1">
-      <c r="B8" s="325" t="s">
+      <c r="B8" s="310" t="s">
         <v>15</v>
       </c>
       <c r="C8" s="19" t="s">
@@ -12480,7 +12531,7 @@
       <c r="T8" s="47"/>
     </row>
     <row r="9" spans="1:20" ht="16.5" customHeight="1">
-      <c r="B9" s="325"/>
+      <c r="B9" s="310"/>
       <c r="C9" s="43" t="s">
         <v>260</v>
       </c>
@@ -12530,7 +12581,7 @@
       <c r="T9" s="47"/>
     </row>
     <row r="10" spans="1:20" ht="16.5" customHeight="1">
-      <c r="B10" s="325"/>
+      <c r="B10" s="310"/>
       <c r="C10" s="43" t="s">
         <v>103</v>
       </c>
@@ -12580,7 +12631,7 @@
       <c r="T10" s="47"/>
     </row>
     <row r="11" spans="1:20" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B11" s="325"/>
+      <c r="B11" s="310"/>
       <c r="C11" s="147" t="s">
         <v>16</v>
       </c>
@@ -12630,7 +12681,7 @@
       <c r="T11" s="47"/>
     </row>
     <row r="12" spans="1:20" ht="16.5" customHeight="1">
-      <c r="B12" s="325"/>
+      <c r="B12" s="310"/>
       <c r="C12" s="19" t="s">
         <v>68</v>
       </c>
@@ -12680,7 +12731,7 @@
       <c r="T12" s="47"/>
     </row>
     <row r="13" spans="1:20" ht="16.5" customHeight="1">
-      <c r="B13" s="325"/>
+      <c r="B13" s="310"/>
       <c r="C13" s="43" t="s">
         <v>263</v>
       </c>
@@ -12730,7 +12781,7 @@
       <c r="T13" s="47"/>
     </row>
     <row r="14" spans="1:20" ht="16.5" customHeight="1">
-      <c r="B14" s="325"/>
+      <c r="B14" s="310"/>
       <c r="C14" s="43" t="s">
         <v>264</v>
       </c>
@@ -12780,7 +12831,7 @@
       <c r="T14" s="47"/>
     </row>
     <row r="15" spans="1:20" ht="16.5" customHeight="1">
-      <c r="B15" s="325"/>
+      <c r="B15" s="310"/>
       <c r="C15" s="43" t="s">
         <v>335</v>
       </c>
@@ -12830,7 +12881,7 @@
       <c r="T15" s="47"/>
     </row>
     <row r="16" spans="1:20" ht="16.5" customHeight="1">
-      <c r="B16" s="325"/>
+      <c r="B16" s="310"/>
       <c r="C16" s="43" t="s">
         <v>77</v>
       </c>
@@ -12880,7 +12931,7 @@
       <c r="T16" s="47"/>
     </row>
     <row r="17" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B17" s="325"/>
+      <c r="B17" s="310"/>
       <c r="C17" s="43" t="s">
         <v>78</v>
       </c>
@@ -12930,7 +12981,7 @@
       <c r="T17" s="47"/>
     </row>
     <row r="18" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B18" s="325"/>
+      <c r="B18" s="310"/>
       <c r="C18" s="22" t="s">
         <v>272</v>
       </c>
@@ -12980,7 +13031,7 @@
       <c r="T18" s="47"/>
     </row>
     <row r="19" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B19" s="325"/>
+      <c r="B19" s="310"/>
       <c r="C19" s="22" t="s">
         <v>273</v>
       </c>
@@ -13030,7 +13081,7 @@
       <c r="T19" s="47"/>
     </row>
     <row r="20" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B20" s="325"/>
+      <c r="B20" s="310"/>
       <c r="C20" s="22" t="s">
         <v>119</v>
       </c>
@@ -13080,7 +13131,7 @@
       <c r="T20" s="47"/>
     </row>
     <row r="21" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B21" s="325"/>
+      <c r="B21" s="310"/>
       <c r="C21" s="22" t="s">
         <v>266</v>
       </c>
@@ -13130,7 +13181,7 @@
       <c r="T21" s="47"/>
     </row>
     <row r="22" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B22" s="325"/>
+      <c r="B22" s="310"/>
       <c r="C22" s="22" t="s">
         <v>290</v>
       </c>
@@ -13180,7 +13231,7 @@
       <c r="T22" s="47"/>
     </row>
     <row r="23" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B23" s="325"/>
+      <c r="B23" s="310"/>
       <c r="C23" s="22" t="s">
         <v>120</v>
       </c>
@@ -13230,7 +13281,7 @@
       <c r="T23" s="47"/>
     </row>
     <row r="24" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B24" s="325"/>
+      <c r="B24" s="310"/>
       <c r="C24" s="22" t="s">
         <v>100</v>
       </c>
@@ -13280,7 +13331,7 @@
       <c r="T24" s="47"/>
     </row>
     <row r="25" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B25" s="325"/>
+      <c r="B25" s="310"/>
       <c r="C25" s="22" t="s">
         <v>98</v>
       </c>
@@ -13330,7 +13381,7 @@
       <c r="T25" s="47"/>
     </row>
     <row r="26" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B26" s="325"/>
+      <c r="B26" s="310"/>
       <c r="C26" s="22" t="s">
         <v>88</v>
       </c>
@@ -13380,7 +13431,7 @@
       <c r="T26" s="47"/>
     </row>
     <row r="27" spans="2:20" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B27" s="325"/>
+      <c r="B27" s="310"/>
       <c r="C27" s="27" t="s">
         <v>96</v>
       </c>
@@ -13430,7 +13481,7 @@
       <c r="T27" s="47"/>
     </row>
     <row r="28" spans="2:20" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B28" s="326"/>
+      <c r="B28" s="311"/>
       <c r="C28" s="17" t="s">
         <v>11</v>
       </c>
@@ -13486,7 +13537,7 @@
       <c r="T28" s="47"/>
     </row>
     <row r="29" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B29" s="327" t="s">
+      <c r="B29" s="312" t="s">
         <v>58</v>
       </c>
       <c r="C29" s="19" t="s">
@@ -13538,7 +13589,7 @@
       <c r="T29" s="47"/>
     </row>
     <row r="30" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B30" s="325"/>
+      <c r="B30" s="310"/>
       <c r="C30" s="43" t="s">
         <v>261</v>
       </c>
@@ -13588,7 +13639,7 @@
       <c r="T30" s="47"/>
     </row>
     <row r="31" spans="2:20" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B31" s="325"/>
+      <c r="B31" s="310"/>
       <c r="C31" s="146" t="s">
         <v>116</v>
       </c>
@@ -13638,7 +13689,7 @@
       <c r="T31" s="47"/>
     </row>
     <row r="32" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B32" s="325"/>
+      <c r="B32" s="310"/>
       <c r="C32" s="19" t="s">
         <v>336</v>
       </c>
@@ -13688,7 +13739,7 @@
       <c r="T32" s="47"/>
     </row>
     <row r="33" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B33" s="325"/>
+      <c r="B33" s="310"/>
       <c r="C33" s="22" t="s">
         <v>337</v>
       </c>
@@ -13738,7 +13789,7 @@
       <c r="T33" s="47"/>
     </row>
     <row r="34" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B34" s="325"/>
+      <c r="B34" s="310"/>
       <c r="C34" s="22" t="s">
         <v>338</v>
       </c>
@@ -13788,7 +13839,7 @@
       <c r="T34" s="47"/>
     </row>
     <row r="35" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B35" s="325"/>
+      <c r="B35" s="310"/>
       <c r="C35" s="22" t="s">
         <v>339</v>
       </c>
@@ -13838,7 +13889,7 @@
       <c r="T35" s="47"/>
     </row>
     <row r="36" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B36" s="325"/>
+      <c r="B36" s="310"/>
       <c r="C36" s="43" t="s">
         <v>274</v>
       </c>
@@ -13888,7 +13939,7 @@
       <c r="T36" s="47"/>
     </row>
     <row r="37" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B37" s="325"/>
+      <c r="B37" s="310"/>
       <c r="C37" s="22" t="s">
         <v>275</v>
       </c>
@@ -13938,7 +13989,7 @@
       <c r="T37" s="47"/>
     </row>
     <row r="38" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B38" s="325"/>
+      <c r="B38" s="310"/>
       <c r="C38" s="22" t="s">
         <v>104</v>
       </c>
@@ -13988,7 +14039,7 @@
       <c r="T38" s="47"/>
     </row>
     <row r="39" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B39" s="325"/>
+      <c r="B39" s="310"/>
       <c r="C39" s="22" t="s">
         <v>280</v>
       </c>
@@ -14038,7 +14089,7 @@
       <c r="T39" s="47"/>
     </row>
     <row r="40" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B40" s="325"/>
+      <c r="B40" s="310"/>
       <c r="C40" s="22" t="s">
         <v>105</v>
       </c>
@@ -14088,7 +14139,7 @@
       <c r="T40" s="47"/>
     </row>
     <row r="41" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B41" s="325"/>
+      <c r="B41" s="310"/>
       <c r="C41" s="22" t="s">
         <v>99</v>
       </c>
@@ -14138,49 +14189,49 @@
       <c r="T41" s="47"/>
     </row>
     <row r="42" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B42" s="325"/>
+      <c r="B42" s="310"/>
       <c r="C42" s="22" t="s">
         <v>124</v>
       </c>
       <c r="D42" s="150" t="s">
         <v>108</v>
       </c>
-      <c r="E42" s="330" t="s">
+      <c r="E42" s="292" t="s">
         <v>41</v>
       </c>
-      <c r="F42" s="288">
+      <c r="F42" s="289">
         <f t="shared" si="17"/>
         <v>64</v>
       </c>
-      <c r="G42" s="288">
+      <c r="G42" s="289">
         <f t="shared" si="21"/>
         <v>64</v>
       </c>
-      <c r="H42" s="288"/>
-      <c r="I42" s="286" t="s">
-        <v>1</v>
-      </c>
-      <c r="J42" s="286" t="s">
-        <v>1</v>
-      </c>
-      <c r="K42" s="286"/>
-      <c r="L42" s="286"/>
-      <c r="M42" s="288">
-        <v>2</v>
-      </c>
-      <c r="N42" s="288">
-        <v>2</v>
-      </c>
-      <c r="O42" s="288">
-        <v>2</v>
-      </c>
-      <c r="P42" s="288">
-        <v>2</v>
-      </c>
-      <c r="Q42" s="288">
-        <v>0</v>
-      </c>
-      <c r="R42" s="288">
+      <c r="H42" s="289"/>
+      <c r="I42" s="287" t="s">
+        <v>1</v>
+      </c>
+      <c r="J42" s="287" t="s">
+        <v>1</v>
+      </c>
+      <c r="K42" s="287"/>
+      <c r="L42" s="287"/>
+      <c r="M42" s="289">
+        <v>2</v>
+      </c>
+      <c r="N42" s="289">
+        <v>2</v>
+      </c>
+      <c r="O42" s="289">
+        <v>2</v>
+      </c>
+      <c r="P42" s="289">
+        <v>2</v>
+      </c>
+      <c r="Q42" s="289">
+        <v>0</v>
+      </c>
+      <c r="R42" s="289">
         <f t="shared" si="16"/>
         <v>4</v>
       </c>
@@ -14188,32 +14239,32 @@
       <c r="T42" s="47"/>
     </row>
     <row r="43" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B43" s="325"/>
+      <c r="B43" s="310"/>
       <c r="C43" s="22" t="s">
         <v>89</v>
       </c>
       <c r="D43" s="150" t="s">
         <v>108</v>
       </c>
-      <c r="E43" s="331"/>
-      <c r="F43" s="303"/>
-      <c r="G43" s="303"/>
-      <c r="H43" s="303"/>
-      <c r="I43" s="340"/>
-      <c r="J43" s="340"/>
-      <c r="K43" s="340"/>
-      <c r="L43" s="314"/>
-      <c r="M43" s="289"/>
-      <c r="N43" s="289"/>
-      <c r="O43" s="289"/>
-      <c r="P43" s="289"/>
-      <c r="Q43" s="289"/>
-      <c r="R43" s="315"/>
+      <c r="E43" s="313"/>
+      <c r="F43" s="305"/>
+      <c r="G43" s="305"/>
+      <c r="H43" s="305"/>
+      <c r="I43" s="314"/>
+      <c r="J43" s="314"/>
+      <c r="K43" s="314"/>
+      <c r="L43" s="337"/>
+      <c r="M43" s="304"/>
+      <c r="N43" s="304"/>
+      <c r="O43" s="304"/>
+      <c r="P43" s="304"/>
+      <c r="Q43" s="304"/>
+      <c r="R43" s="303"/>
       <c r="S43" s="47"/>
       <c r="T43" s="47"/>
     </row>
     <row r="44" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B44" s="325"/>
+      <c r="B44" s="310"/>
       <c r="C44" s="22" t="s">
         <v>152</v>
       </c>
@@ -14265,49 +14316,49 @@
       <c r="T44" s="47"/>
     </row>
     <row r="45" spans="2:20">
-      <c r="B45" s="325"/>
+      <c r="B45" s="310"/>
       <c r="C45" s="114" t="s">
         <v>175</v>
       </c>
-      <c r="D45" s="295" t="s">
+      <c r="D45" s="328" t="s">
         <v>108</v>
       </c>
-      <c r="E45" s="330" t="s">
+      <c r="E45" s="292" t="s">
         <v>41</v>
       </c>
-      <c r="F45" s="288">
+      <c r="F45" s="289">
         <f>SUM(M45:Q45)*$F$1</f>
         <v>48</v>
       </c>
-      <c r="G45" s="288">
+      <c r="G45" s="289">
         <f>F45</f>
         <v>48</v>
       </c>
-      <c r="H45" s="286"/>
-      <c r="I45" s="286" t="s">
-        <v>0</v>
-      </c>
-      <c r="J45" s="286" t="s">
-        <v>0</v>
-      </c>
-      <c r="K45" s="286"/>
-      <c r="L45" s="286"/>
-      <c r="M45" s="291">
+      <c r="H45" s="287"/>
+      <c r="I45" s="287" t="s">
+        <v>0</v>
+      </c>
+      <c r="J45" s="287" t="s">
+        <v>0</v>
+      </c>
+      <c r="K45" s="287"/>
+      <c r="L45" s="287"/>
+      <c r="M45" s="296">
         <v>6</v>
       </c>
-      <c r="N45" s="291">
-        <v>0</v>
-      </c>
-      <c r="O45" s="291">
-        <v>0</v>
-      </c>
-      <c r="P45" s="291">
-        <v>0</v>
-      </c>
-      <c r="Q45" s="291">
-        <v>0</v>
-      </c>
-      <c r="R45" s="288">
+      <c r="N45" s="296">
+        <v>0</v>
+      </c>
+      <c r="O45" s="296">
+        <v>0</v>
+      </c>
+      <c r="P45" s="296">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="296">
+        <v>0</v>
+      </c>
+      <c r="R45" s="289">
         <f>F45/$F$2</f>
         <v>3</v>
       </c>
@@ -14315,72 +14366,72 @@
       <c r="T45" s="47"/>
     </row>
     <row r="46" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B46" s="325"/>
+      <c r="B46" s="310"/>
       <c r="C46" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="D46" s="337"/>
-      <c r="E46" s="332"/>
-      <c r="F46" s="338"/>
-      <c r="G46" s="338"/>
-      <c r="H46" s="298"/>
-      <c r="I46" s="298"/>
-      <c r="J46" s="298"/>
-      <c r="K46" s="298"/>
-      <c r="L46" s="306"/>
-      <c r="M46" s="307"/>
-      <c r="N46" s="307"/>
-      <c r="O46" s="307"/>
-      <c r="P46" s="307"/>
-      <c r="Q46" s="307"/>
-      <c r="R46" s="318"/>
+      <c r="D46" s="320"/>
+      <c r="E46" s="293"/>
+      <c r="F46" s="294"/>
+      <c r="G46" s="294"/>
+      <c r="H46" s="315"/>
+      <c r="I46" s="315"/>
+      <c r="J46" s="315"/>
+      <c r="K46" s="315"/>
+      <c r="L46" s="334"/>
+      <c r="M46" s="318"/>
+      <c r="N46" s="318"/>
+      <c r="O46" s="318"/>
+      <c r="P46" s="318"/>
+      <c r="Q46" s="318"/>
+      <c r="R46" s="291"/>
       <c r="S46" s="47"/>
       <c r="T46" s="47"/>
     </row>
     <row r="47" spans="2:20">
-      <c r="B47" s="325"/>
+      <c r="B47" s="310"/>
       <c r="C47" s="114" t="s">
         <v>174</v>
       </c>
-      <c r="D47" s="295" t="s">
+      <c r="D47" s="328" t="s">
         <v>108</v>
       </c>
-      <c r="E47" s="330" t="s">
+      <c r="E47" s="292" t="s">
         <v>42</v>
       </c>
-      <c r="F47" s="288">
+      <c r="F47" s="289">
         <f>SUM(M47:Q47)*$F$1</f>
         <v>48</v>
       </c>
-      <c r="G47" s="288">
+      <c r="G47" s="289">
         <f>F47</f>
         <v>48</v>
       </c>
-      <c r="H47" s="286"/>
-      <c r="I47" s="286" t="s">
-        <v>0</v>
-      </c>
-      <c r="J47" s="286" t="s">
-        <v>0</v>
-      </c>
-      <c r="K47" s="286"/>
-      <c r="L47" s="286"/>
-      <c r="M47" s="291">
-        <v>0</v>
-      </c>
-      <c r="N47" s="291">
+      <c r="H47" s="287"/>
+      <c r="I47" s="287" t="s">
+        <v>0</v>
+      </c>
+      <c r="J47" s="287" t="s">
+        <v>0</v>
+      </c>
+      <c r="K47" s="287"/>
+      <c r="L47" s="287"/>
+      <c r="M47" s="296">
+        <v>0</v>
+      </c>
+      <c r="N47" s="296">
         <v>6</v>
       </c>
-      <c r="O47" s="291">
-        <v>0</v>
-      </c>
-      <c r="P47" s="291">
-        <v>0</v>
-      </c>
-      <c r="Q47" s="291">
-        <v>0</v>
-      </c>
-      <c r="R47" s="288">
+      <c r="O47" s="296">
+        <v>0</v>
+      </c>
+      <c r="P47" s="296">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="296">
+        <v>0</v>
+      </c>
+      <c r="R47" s="289">
         <f>F47/$F$2</f>
         <v>3</v>
       </c>
@@ -14388,72 +14439,72 @@
       <c r="T47" s="47"/>
     </row>
     <row r="48" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B48" s="325"/>
+      <c r="B48" s="310"/>
       <c r="C48" s="22" t="s">
         <v>92</v>
       </c>
-      <c r="D48" s="337"/>
-      <c r="E48" s="332"/>
-      <c r="F48" s="338"/>
-      <c r="G48" s="338"/>
-      <c r="H48" s="298"/>
-      <c r="I48" s="298"/>
-      <c r="J48" s="298"/>
-      <c r="K48" s="298"/>
-      <c r="L48" s="306"/>
-      <c r="M48" s="307"/>
-      <c r="N48" s="307"/>
-      <c r="O48" s="307"/>
-      <c r="P48" s="307"/>
-      <c r="Q48" s="307"/>
-      <c r="R48" s="318"/>
+      <c r="D48" s="320"/>
+      <c r="E48" s="293"/>
+      <c r="F48" s="294"/>
+      <c r="G48" s="294"/>
+      <c r="H48" s="315"/>
+      <c r="I48" s="315"/>
+      <c r="J48" s="315"/>
+      <c r="K48" s="315"/>
+      <c r="L48" s="334"/>
+      <c r="M48" s="318"/>
+      <c r="N48" s="318"/>
+      <c r="O48" s="318"/>
+      <c r="P48" s="318"/>
+      <c r="Q48" s="318"/>
+      <c r="R48" s="291"/>
       <c r="S48" s="47"/>
       <c r="T48" s="47"/>
     </row>
     <row r="49" spans="1:20" ht="16.5" customHeight="1">
-      <c r="B49" s="325"/>
+      <c r="B49" s="310"/>
       <c r="C49" s="22" t="s">
         <v>291</v>
       </c>
-      <c r="D49" s="297" t="s">
+      <c r="D49" s="319" t="s">
         <v>108</v>
       </c>
-      <c r="E49" s="330" t="s">
+      <c r="E49" s="292" t="s">
         <v>42</v>
       </c>
-      <c r="F49" s="288">
+      <c r="F49" s="289">
         <f>SUM(M49:Q49)*$F$1</f>
         <v>48</v>
       </c>
-      <c r="G49" s="288">
+      <c r="G49" s="289">
         <f>F49</f>
         <v>48</v>
       </c>
-      <c r="H49" s="286"/>
-      <c r="I49" s="286" t="s">
-        <v>0</v>
-      </c>
-      <c r="J49" s="286" t="s">
-        <v>0</v>
-      </c>
-      <c r="K49" s="286"/>
-      <c r="L49" s="286"/>
-      <c r="M49" s="291">
-        <v>0</v>
-      </c>
-      <c r="N49" s="291">
-        <v>0</v>
-      </c>
-      <c r="O49" s="291">
+      <c r="H49" s="287"/>
+      <c r="I49" s="287" t="s">
+        <v>0</v>
+      </c>
+      <c r="J49" s="287" t="s">
+        <v>0</v>
+      </c>
+      <c r="K49" s="287"/>
+      <c r="L49" s="287"/>
+      <c r="M49" s="296">
+        <v>0</v>
+      </c>
+      <c r="N49" s="296">
+        <v>0</v>
+      </c>
+      <c r="O49" s="296">
         <v>6</v>
       </c>
-      <c r="P49" s="291">
-        <v>0</v>
-      </c>
-      <c r="Q49" s="291">
-        <v>0</v>
-      </c>
-      <c r="R49" s="288">
+      <c r="P49" s="296">
+        <v>0</v>
+      </c>
+      <c r="Q49" s="296">
+        <v>0</v>
+      </c>
+      <c r="R49" s="289">
         <f>F49/$F$2</f>
         <v>3</v>
       </c>
@@ -14461,72 +14512,72 @@
       <c r="T49" s="47"/>
     </row>
     <row r="50" spans="1:20" ht="16.5" customHeight="1">
-      <c r="B50" s="325"/>
+      <c r="B50" s="310"/>
       <c r="C50" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="D50" s="337"/>
-      <c r="E50" s="332"/>
-      <c r="F50" s="338"/>
-      <c r="G50" s="338"/>
-      <c r="H50" s="298"/>
-      <c r="I50" s="298"/>
-      <c r="J50" s="298"/>
-      <c r="K50" s="298"/>
-      <c r="L50" s="306"/>
-      <c r="M50" s="307"/>
-      <c r="N50" s="307"/>
-      <c r="O50" s="307"/>
-      <c r="P50" s="307"/>
-      <c r="Q50" s="307"/>
-      <c r="R50" s="318"/>
+      <c r="D50" s="320"/>
+      <c r="E50" s="293"/>
+      <c r="F50" s="294"/>
+      <c r="G50" s="294"/>
+      <c r="H50" s="315"/>
+      <c r="I50" s="315"/>
+      <c r="J50" s="315"/>
+      <c r="K50" s="315"/>
+      <c r="L50" s="334"/>
+      <c r="M50" s="318"/>
+      <c r="N50" s="318"/>
+      <c r="O50" s="318"/>
+      <c r="P50" s="318"/>
+      <c r="Q50" s="318"/>
+      <c r="R50" s="291"/>
       <c r="S50" s="47"/>
       <c r="T50" s="47"/>
     </row>
     <row r="51" spans="1:20" ht="16.5" customHeight="1">
-      <c r="B51" s="325"/>
+      <c r="B51" s="310"/>
       <c r="C51" s="22" t="s">
         <v>292</v>
       </c>
-      <c r="D51" s="297" t="s">
+      <c r="D51" s="319" t="s">
         <v>108</v>
       </c>
-      <c r="E51" s="330" t="s">
+      <c r="E51" s="292" t="s">
         <v>42</v>
       </c>
-      <c r="F51" s="288">
+      <c r="F51" s="289">
         <f>SUM(M51:Q51)*$F$1</f>
         <v>48</v>
       </c>
-      <c r="G51" s="288">
+      <c r="G51" s="289">
         <f>F51</f>
         <v>48</v>
       </c>
-      <c r="H51" s="286"/>
-      <c r="I51" s="286" t="s">
-        <v>0</v>
-      </c>
-      <c r="J51" s="286" t="s">
-        <v>0</v>
-      </c>
-      <c r="K51" s="286"/>
-      <c r="L51" s="286"/>
-      <c r="M51" s="291">
-        <v>0</v>
-      </c>
-      <c r="N51" s="291">
-        <v>0</v>
-      </c>
-      <c r="O51" s="291">
-        <v>0</v>
-      </c>
-      <c r="P51" s="291">
+      <c r="H51" s="287"/>
+      <c r="I51" s="287" t="s">
+        <v>0</v>
+      </c>
+      <c r="J51" s="287" t="s">
+        <v>0</v>
+      </c>
+      <c r="K51" s="287"/>
+      <c r="L51" s="287"/>
+      <c r="M51" s="296">
+        <v>0</v>
+      </c>
+      <c r="N51" s="296">
+        <v>0</v>
+      </c>
+      <c r="O51" s="296">
+        <v>0</v>
+      </c>
+      <c r="P51" s="296">
         <v>6</v>
       </c>
-      <c r="Q51" s="291">
-        <v>0</v>
-      </c>
-      <c r="R51" s="288">
+      <c r="Q51" s="296">
+        <v>0</v>
+      </c>
+      <c r="R51" s="289">
         <f>F51/$F$2</f>
         <v>3</v>
       </c>
@@ -14534,30 +14585,30 @@
       <c r="T51" s="47"/>
     </row>
     <row r="52" spans="1:20" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B52" s="325"/>
+      <c r="B52" s="310"/>
       <c r="C52" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="D52" s="337"/>
-      <c r="E52" s="332"/>
-      <c r="F52" s="338"/>
-      <c r="G52" s="338"/>
-      <c r="H52" s="298"/>
-      <c r="I52" s="298"/>
-      <c r="J52" s="298"/>
-      <c r="K52" s="298"/>
-      <c r="L52" s="306"/>
-      <c r="M52" s="307"/>
-      <c r="N52" s="307"/>
-      <c r="O52" s="307"/>
-      <c r="P52" s="307"/>
-      <c r="Q52" s="307"/>
-      <c r="R52" s="318"/>
+      <c r="D52" s="320"/>
+      <c r="E52" s="293"/>
+      <c r="F52" s="294"/>
+      <c r="G52" s="294"/>
+      <c r="H52" s="315"/>
+      <c r="I52" s="315"/>
+      <c r="J52" s="315"/>
+      <c r="K52" s="315"/>
+      <c r="L52" s="334"/>
+      <c r="M52" s="318"/>
+      <c r="N52" s="318"/>
+      <c r="O52" s="318"/>
+      <c r="P52" s="318"/>
+      <c r="Q52" s="318"/>
+      <c r="R52" s="291"/>
       <c r="S52" s="47"/>
       <c r="T52" s="47"/>
     </row>
     <row r="53" spans="1:20" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B53" s="326"/>
+      <c r="B53" s="311"/>
       <c r="C53" s="17" t="s">
         <v>11</v>
       </c>
@@ -14643,14 +14694,14 @@
       <c r="I55" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="J55" s="299" t="s">
+      <c r="J55" s="329" t="s">
         <v>8</v>
       </c>
-      <c r="K55" s="300"/>
-      <c r="L55" s="320" t="s">
+      <c r="K55" s="330"/>
+      <c r="L55" s="335" t="s">
         <v>48</v>
       </c>
-      <c r="M55" s="321"/>
+      <c r="M55" s="336"/>
       <c r="N55" s="118" t="s">
         <v>49</v>
       </c>
@@ -14811,7 +14862,7 @@
       <c r="S60" s="36"/>
       <c r="T60" s="36"/>
     </row>
-    <row r="61" spans="1:20" ht="13.8" thickBot="1">
+    <row r="61" spans="1:20" ht="14.25" thickBot="1">
       <c r="B61" s="3"/>
       <c r="C61" s="16"/>
       <c r="D61" s="16"/>
@@ -14833,55 +14884,55 @@
       <c r="T61" s="57"/>
     </row>
     <row r="62" spans="1:20" ht="18" customHeight="1" thickBot="1">
-      <c r="B62" s="312" t="s">
-        <v>2</v>
-      </c>
-      <c r="C62" s="328" t="s">
+      <c r="B62" s="316" t="s">
+        <v>2</v>
+      </c>
+      <c r="C62" s="331" t="s">
         <v>3</v>
       </c>
-      <c r="D62" s="335" t="s">
+      <c r="D62" s="321" t="s">
         <v>106</v>
       </c>
-      <c r="E62" s="312" t="s">
-        <v>4</v>
-      </c>
-      <c r="F62" s="333" t="s">
+      <c r="E62" s="316" t="s">
+        <v>4</v>
+      </c>
+      <c r="F62" s="323" t="s">
         <v>51</v>
       </c>
-      <c r="G62" s="333" t="s">
+      <c r="G62" s="323" t="s">
         <v>52</v>
       </c>
-      <c r="H62" s="304" t="s">
+      <c r="H62" s="307" t="s">
         <v>5</v>
       </c>
-      <c r="I62" s="305"/>
-      <c r="J62" s="304" t="s">
+      <c r="I62" s="325"/>
+      <c r="J62" s="307" t="s">
         <v>6</v>
       </c>
-      <c r="K62" s="305"/>
-      <c r="L62" s="316" t="s">
+      <c r="K62" s="325"/>
+      <c r="L62" s="326" t="s">
         <v>26</v>
       </c>
-      <c r="M62" s="304" t="s">
+      <c r="M62" s="307" t="s">
         <v>7</v>
       </c>
-      <c r="N62" s="310"/>
-      <c r="O62" s="310"/>
-      <c r="P62" s="310"/>
-      <c r="Q62" s="311"/>
-      <c r="R62" s="312" t="s">
+      <c r="N62" s="308"/>
+      <c r="O62" s="308"/>
+      <c r="P62" s="308"/>
+      <c r="Q62" s="309"/>
+      <c r="R62" s="316" t="s">
         <v>35</v>
       </c>
       <c r="S62" s="58"/>
       <c r="T62" s="58"/>
     </row>
     <row r="63" spans="1:20" ht="18" customHeight="1" thickBot="1">
-      <c r="B63" s="313"/>
-      <c r="C63" s="329"/>
-      <c r="D63" s="336"/>
-      <c r="E63" s="313"/>
-      <c r="F63" s="334"/>
-      <c r="G63" s="334"/>
+      <c r="B63" s="317"/>
+      <c r="C63" s="333"/>
+      <c r="D63" s="322"/>
+      <c r="E63" s="317"/>
+      <c r="F63" s="324"/>
+      <c r="G63" s="324"/>
       <c r="H63" s="56" t="s">
         <v>8</v>
       </c>
@@ -14894,7 +14945,7 @@
       <c r="K63" s="60" t="s">
         <v>30</v>
       </c>
-      <c r="L63" s="317"/>
+      <c r="L63" s="327"/>
       <c r="M63" s="10" t="s">
         <v>32</v>
       </c>
@@ -14910,12 +14961,12 @@
       <c r="Q63" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="R63" s="313"/>
+      <c r="R63" s="317"/>
       <c r="S63" s="59"/>
       <c r="T63" s="59"/>
     </row>
     <row r="64" spans="1:20" ht="16.5" customHeight="1">
-      <c r="B64" s="325" t="s">
+      <c r="B64" s="310" t="s">
         <v>18</v>
       </c>
       <c r="C64" s="19" t="s">
@@ -14967,7 +15018,7 @@
       <c r="T64" s="47"/>
     </row>
     <row r="65" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B65" s="325"/>
+      <c r="B65" s="310"/>
       <c r="C65" s="43" t="s">
         <v>103</v>
       </c>
@@ -15017,7 +15068,7 @@
       <c r="T65" s="47"/>
     </row>
     <row r="66" spans="2:20" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B66" s="325"/>
+      <c r="B66" s="310"/>
       <c r="C66" s="147" t="s">
         <v>16</v>
       </c>
@@ -15067,7 +15118,7 @@
       <c r="T66" s="47"/>
     </row>
     <row r="67" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B67" s="325"/>
+      <c r="B67" s="310"/>
       <c r="C67" s="231" t="s">
         <v>68</v>
       </c>
@@ -15117,7 +15168,7 @@
       <c r="T67" s="47"/>
     </row>
     <row r="68" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B68" s="325"/>
+      <c r="B68" s="310"/>
       <c r="C68" s="43" t="s">
         <v>263</v>
       </c>
@@ -15167,7 +15218,7 @@
       <c r="T68" s="47"/>
     </row>
     <row r="69" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B69" s="325"/>
+      <c r="B69" s="310"/>
       <c r="C69" s="43" t="s">
         <v>264</v>
       </c>
@@ -15217,7 +15268,7 @@
       <c r="T69" s="47"/>
     </row>
     <row r="70" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B70" s="325"/>
+      <c r="B70" s="310"/>
       <c r="C70" s="43" t="s">
         <v>335</v>
       </c>
@@ -15267,7 +15318,7 @@
       <c r="T70" s="47"/>
     </row>
     <row r="71" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B71" s="325"/>
+      <c r="B71" s="310"/>
       <c r="C71" s="43" t="s">
         <v>77</v>
       </c>
@@ -15317,7 +15368,7 @@
       <c r="T71" s="47"/>
     </row>
     <row r="72" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B72" s="325"/>
+      <c r="B72" s="310"/>
       <c r="C72" s="43" t="s">
         <v>78</v>
       </c>
@@ -15367,7 +15418,7 @@
       <c r="T72" s="47"/>
     </row>
     <row r="73" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B73" s="325"/>
+      <c r="B73" s="310"/>
       <c r="C73" s="22" t="s">
         <v>272</v>
       </c>
@@ -15417,7 +15468,7 @@
       <c r="T73" s="47"/>
     </row>
     <row r="74" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B74" s="325"/>
+      <c r="B74" s="310"/>
       <c r="C74" s="22" t="s">
         <v>273</v>
       </c>
@@ -15467,7 +15518,7 @@
       <c r="T74" s="47"/>
     </row>
     <row r="75" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B75" s="325"/>
+      <c r="B75" s="310"/>
       <c r="C75" s="22" t="s">
         <v>119</v>
       </c>
@@ -15517,7 +15568,7 @@
       <c r="T75" s="47"/>
     </row>
     <row r="76" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B76" s="325"/>
+      <c r="B76" s="310"/>
       <c r="C76" s="22" t="s">
         <v>266</v>
       </c>
@@ -15567,7 +15618,7 @@
       <c r="T76" s="47"/>
     </row>
     <row r="77" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B77" s="325"/>
+      <c r="B77" s="310"/>
       <c r="C77" s="22" t="s">
         <v>267</v>
       </c>
@@ -15617,7 +15668,7 @@
       <c r="T77" s="47"/>
     </row>
     <row r="78" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B78" s="325"/>
+      <c r="B78" s="310"/>
       <c r="C78" s="22" t="s">
         <v>120</v>
       </c>
@@ -15667,7 +15718,7 @@
       <c r="T78" s="47"/>
     </row>
     <row r="79" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B79" s="325"/>
+      <c r="B79" s="310"/>
       <c r="C79" s="22" t="s">
         <v>100</v>
       </c>
@@ -15717,7 +15768,7 @@
       <c r="T79" s="47"/>
     </row>
     <row r="80" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B80" s="325"/>
+      <c r="B80" s="310"/>
       <c r="C80" s="22" t="s">
         <v>94</v>
       </c>
@@ -15767,7 +15818,7 @@
       <c r="T80" s="47"/>
     </row>
     <row r="81" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B81" s="325"/>
+      <c r="B81" s="310"/>
       <c r="C81" s="22" t="s">
         <v>88</v>
       </c>
@@ -15817,7 +15868,7 @@
       <c r="T81" s="47"/>
     </row>
     <row r="82" spans="2:20" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B82" s="325"/>
+      <c r="B82" s="310"/>
       <c r="C82" s="22" t="s">
         <v>96</v>
       </c>
@@ -15867,7 +15918,7 @@
       <c r="T82" s="47"/>
     </row>
     <row r="83" spans="2:20" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B83" s="326"/>
+      <c r="B83" s="311"/>
       <c r="C83" s="17" t="s">
         <v>11</v>
       </c>
@@ -15923,7 +15974,7 @@
       <c r="T83" s="47"/>
     </row>
     <row r="84" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B84" s="327" t="s">
+      <c r="B84" s="312" t="s">
         <v>40</v>
       </c>
       <c r="C84" s="19" t="s">
@@ -15975,7 +16026,7 @@
       <c r="T84" s="47"/>
     </row>
     <row r="85" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B85" s="325"/>
+      <c r="B85" s="310"/>
       <c r="C85" s="43" t="s">
         <v>260</v>
       </c>
@@ -16025,7 +16076,7 @@
       <c r="T85" s="47"/>
     </row>
     <row r="86" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B86" s="325"/>
+      <c r="B86" s="310"/>
       <c r="C86" s="43" t="s">
         <v>16</v>
       </c>
@@ -16075,7 +16126,7 @@
       <c r="T86" s="47"/>
     </row>
     <row r="87" spans="2:20" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B87" s="325"/>
+      <c r="B87" s="310"/>
       <c r="C87" s="146" t="s">
         <v>70</v>
       </c>
@@ -16125,7 +16176,7 @@
       <c r="T87" s="47"/>
     </row>
     <row r="88" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B88" s="325"/>
+      <c r="B88" s="310"/>
       <c r="C88" s="19" t="s">
         <v>336</v>
       </c>
@@ -16175,7 +16226,7 @@
       <c r="T88" s="47"/>
     </row>
     <row r="89" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B89" s="325"/>
+      <c r="B89" s="310"/>
       <c r="C89" s="22" t="s">
         <v>337</v>
       </c>
@@ -16225,7 +16276,7 @@
       <c r="T89" s="47"/>
     </row>
     <row r="90" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B90" s="325"/>
+      <c r="B90" s="310"/>
       <c r="C90" s="22" t="s">
         <v>338</v>
       </c>
@@ -16275,7 +16326,7 @@
       <c r="T90" s="47"/>
     </row>
     <row r="91" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B91" s="325"/>
+      <c r="B91" s="310"/>
       <c r="C91" s="22" t="s">
         <v>339</v>
       </c>
@@ -16325,7 +16376,7 @@
       <c r="T91" s="47"/>
     </row>
     <row r="92" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B92" s="325"/>
+      <c r="B92" s="310"/>
       <c r="C92" s="43" t="s">
         <v>274</v>
       </c>
@@ -16375,7 +16426,7 @@
       <c r="T92" s="47"/>
     </row>
     <row r="93" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B93" s="325"/>
+      <c r="B93" s="310"/>
       <c r="C93" s="22" t="s">
         <v>275</v>
       </c>
@@ -16425,7 +16476,7 @@
       <c r="T93" s="47"/>
     </row>
     <row r="94" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B94" s="325"/>
+      <c r="B94" s="310"/>
       <c r="C94" s="22" t="s">
         <v>104</v>
       </c>
@@ -16475,7 +16526,7 @@
       <c r="T94" s="47"/>
     </row>
     <row r="95" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B95" s="325"/>
+      <c r="B95" s="310"/>
       <c r="C95" s="22" t="s">
         <v>280</v>
       </c>
@@ -16525,7 +16576,7 @@
       <c r="T95" s="47"/>
     </row>
     <row r="96" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B96" s="325"/>
+      <c r="B96" s="310"/>
       <c r="C96" s="22" t="s">
         <v>105</v>
       </c>
@@ -16575,7 +16626,7 @@
       <c r="T96" s="47"/>
     </row>
     <row r="97" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B97" s="325"/>
+      <c r="B97" s="310"/>
       <c r="C97" s="22" t="s">
         <v>99</v>
       </c>
@@ -16625,374 +16676,374 @@
       <c r="T97" s="47"/>
     </row>
     <row r="98" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B98" s="325"/>
+      <c r="B98" s="310"/>
       <c r="C98" s="22" t="s">
         <v>124</v>
       </c>
       <c r="D98" s="150" t="s">
         <v>108</v>
       </c>
-      <c r="E98" s="330" t="s">
+      <c r="E98" s="292" t="s">
         <v>41</v>
       </c>
-      <c r="F98" s="288">
+      <c r="F98" s="289">
         <f t="shared" si="42"/>
         <v>64</v>
       </c>
-      <c r="G98" s="288">
+      <c r="G98" s="289">
         <f t="shared" si="43"/>
         <v>64</v>
       </c>
-      <c r="H98" s="288"/>
-      <c r="I98" s="286" t="s">
-        <v>1</v>
-      </c>
-      <c r="J98" s="286" t="s">
-        <v>1</v>
-      </c>
-      <c r="K98" s="286"/>
-      <c r="L98" s="286"/>
-      <c r="M98" s="288">
-        <v>2</v>
-      </c>
-      <c r="N98" s="288">
-        <v>2</v>
-      </c>
-      <c r="O98" s="288">
-        <v>2</v>
-      </c>
-      <c r="P98" s="288">
-        <v>2</v>
-      </c>
-      <c r="Q98" s="288">
-        <v>0</v>
-      </c>
-      <c r="R98" s="288">
+      <c r="H98" s="289"/>
+      <c r="I98" s="287" t="s">
+        <v>1</v>
+      </c>
+      <c r="J98" s="287" t="s">
+        <v>1</v>
+      </c>
+      <c r="K98" s="287"/>
+      <c r="L98" s="287"/>
+      <c r="M98" s="289">
+        <v>2</v>
+      </c>
+      <c r="N98" s="289">
+        <v>2</v>
+      </c>
+      <c r="O98" s="289">
+        <v>2</v>
+      </c>
+      <c r="P98" s="289">
+        <v>2</v>
+      </c>
+      <c r="Q98" s="289">
+        <v>0</v>
+      </c>
+      <c r="R98" s="289">
         <f t="shared" si="41"/>
         <v>4</v>
       </c>
-      <c r="S98" s="284"/>
+      <c r="S98" s="342"/>
       <c r="T98" s="47"/>
     </row>
     <row r="99" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B99" s="325"/>
+      <c r="B99" s="310"/>
       <c r="C99" s="22" t="s">
         <v>89</v>
       </c>
       <c r="D99" s="150" t="s">
         <v>108</v>
       </c>
-      <c r="E99" s="331"/>
-      <c r="F99" s="303"/>
-      <c r="G99" s="303"/>
-      <c r="H99" s="315"/>
-      <c r="I99" s="287"/>
-      <c r="J99" s="287"/>
-      <c r="K99" s="287"/>
-      <c r="L99" s="290"/>
-      <c r="M99" s="289"/>
-      <c r="N99" s="289"/>
-      <c r="O99" s="289"/>
-      <c r="P99" s="289"/>
-      <c r="Q99" s="289"/>
-      <c r="R99" s="315"/>
-      <c r="S99" s="285"/>
+      <c r="E99" s="313"/>
+      <c r="F99" s="305"/>
+      <c r="G99" s="305"/>
+      <c r="H99" s="303"/>
+      <c r="I99" s="306"/>
+      <c r="J99" s="306"/>
+      <c r="K99" s="306"/>
+      <c r="L99" s="340"/>
+      <c r="M99" s="304"/>
+      <c r="N99" s="304"/>
+      <c r="O99" s="304"/>
+      <c r="P99" s="304"/>
+      <c r="Q99" s="304"/>
+      <c r="R99" s="303"/>
+      <c r="S99" s="343"/>
       <c r="T99" s="152"/>
     </row>
     <row r="100" spans="2:20">
-      <c r="B100" s="325"/>
+      <c r="B100" s="310"/>
       <c r="C100" s="114" t="s">
         <v>175</v>
       </c>
-      <c r="D100" s="295" t="s">
+      <c r="D100" s="328" t="s">
         <v>108</v>
       </c>
-      <c r="E100" s="330" t="s">
+      <c r="E100" s="292" t="s">
         <v>41</v>
       </c>
-      <c r="F100" s="288">
+      <c r="F100" s="289">
         <f>SUM(M100:Q100)*$F$1</f>
         <v>48</v>
       </c>
-      <c r="G100" s="288">
+      <c r="G100" s="289">
         <f>F100</f>
         <v>48</v>
       </c>
-      <c r="H100" s="286"/>
-      <c r="I100" s="286" t="s">
+      <c r="H100" s="287"/>
+      <c r="I100" s="287" t="s">
         <v>43</v>
       </c>
-      <c r="J100" s="286" t="s">
+      <c r="J100" s="287" t="s">
         <v>43</v>
       </c>
-      <c r="K100" s="286"/>
-      <c r="L100" s="286"/>
-      <c r="M100" s="291">
+      <c r="K100" s="287"/>
+      <c r="L100" s="287"/>
+      <c r="M100" s="296">
         <v>6</v>
       </c>
-      <c r="N100" s="291">
-        <v>0</v>
-      </c>
-      <c r="O100" s="291">
-        <v>0</v>
-      </c>
-      <c r="P100" s="291">
-        <v>0</v>
-      </c>
-      <c r="Q100" s="291">
-        <v>0</v>
-      </c>
-      <c r="R100" s="288">
+      <c r="N100" s="296">
+        <v>0</v>
+      </c>
+      <c r="O100" s="296">
+        <v>0</v>
+      </c>
+      <c r="P100" s="296">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="296">
+        <v>0</v>
+      </c>
+      <c r="R100" s="289">
         <f>F100/$F$2</f>
         <v>3</v>
       </c>
-      <c r="S100" s="284"/>
+      <c r="S100" s="342"/>
       <c r="T100" s="47"/>
     </row>
     <row r="101" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B101" s="325"/>
+      <c r="B101" s="310"/>
       <c r="C101" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="D101" s="337"/>
-      <c r="E101" s="332"/>
-      <c r="F101" s="338"/>
-      <c r="G101" s="338"/>
-      <c r="H101" s="294"/>
-      <c r="I101" s="294"/>
-      <c r="J101" s="294"/>
-      <c r="K101" s="294"/>
-      <c r="L101" s="293"/>
-      <c r="M101" s="292"/>
-      <c r="N101" s="292"/>
-      <c r="O101" s="292"/>
-      <c r="P101" s="292"/>
-      <c r="Q101" s="292"/>
-      <c r="R101" s="318"/>
-      <c r="S101" s="285"/>
+      <c r="D101" s="320"/>
+      <c r="E101" s="293"/>
+      <c r="F101" s="294"/>
+      <c r="G101" s="294"/>
+      <c r="H101" s="295"/>
+      <c r="I101" s="295"/>
+      <c r="J101" s="295"/>
+      <c r="K101" s="295"/>
+      <c r="L101" s="301"/>
+      <c r="M101" s="297"/>
+      <c r="N101" s="297"/>
+      <c r="O101" s="297"/>
+      <c r="P101" s="297"/>
+      <c r="Q101" s="297"/>
+      <c r="R101" s="291"/>
+      <c r="S101" s="343"/>
       <c r="T101" s="152"/>
     </row>
     <row r="102" spans="2:20">
-      <c r="B102" s="325"/>
+      <c r="B102" s="310"/>
       <c r="C102" s="114" t="s">
         <v>174</v>
       </c>
-      <c r="D102" s="295" t="s">
+      <c r="D102" s="328" t="s">
         <v>108</v>
       </c>
-      <c r="E102" s="330" t="s">
+      <c r="E102" s="292" t="s">
         <v>42</v>
       </c>
-      <c r="F102" s="288">
+      <c r="F102" s="289">
         <f>SUM(M102:Q102)*$F$1</f>
         <v>48</v>
       </c>
-      <c r="G102" s="288">
+      <c r="G102" s="289">
         <f>F102</f>
         <v>48</v>
       </c>
-      <c r="H102" s="286"/>
-      <c r="I102" s="286" t="s">
+      <c r="H102" s="287"/>
+      <c r="I102" s="287" t="s">
         <v>44</v>
       </c>
-      <c r="J102" s="286" t="s">
+      <c r="J102" s="287" t="s">
         <v>44</v>
       </c>
-      <c r="K102" s="286"/>
-      <c r="L102" s="286"/>
-      <c r="M102" s="291">
-        <v>0</v>
-      </c>
-      <c r="N102" s="291">
+      <c r="K102" s="287"/>
+      <c r="L102" s="287"/>
+      <c r="M102" s="296">
+        <v>0</v>
+      </c>
+      <c r="N102" s="296">
         <v>6</v>
       </c>
-      <c r="O102" s="291">
-        <v>0</v>
-      </c>
-      <c r="P102" s="291">
-        <v>0</v>
-      </c>
-      <c r="Q102" s="291">
-        <v>0</v>
-      </c>
-      <c r="R102" s="288">
+      <c r="O102" s="296">
+        <v>0</v>
+      </c>
+      <c r="P102" s="296">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="296">
+        <v>0</v>
+      </c>
+      <c r="R102" s="289">
         <f>F102/$F$2</f>
         <v>3</v>
       </c>
-      <c r="S102" s="284"/>
+      <c r="S102" s="342"/>
       <c r="T102" s="47"/>
     </row>
     <row r="103" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B103" s="325"/>
+      <c r="B103" s="310"/>
       <c r="C103" s="22" t="s">
         <v>92</v>
       </c>
-      <c r="D103" s="337"/>
-      <c r="E103" s="332"/>
-      <c r="F103" s="338"/>
-      <c r="G103" s="338"/>
-      <c r="H103" s="294"/>
-      <c r="I103" s="294"/>
-      <c r="J103" s="294"/>
-      <c r="K103" s="294"/>
-      <c r="L103" s="293"/>
-      <c r="M103" s="292"/>
-      <c r="N103" s="292"/>
-      <c r="O103" s="292"/>
-      <c r="P103" s="292"/>
-      <c r="Q103" s="292"/>
-      <c r="R103" s="318"/>
-      <c r="S103" s="285"/>
+      <c r="D103" s="320"/>
+      <c r="E103" s="293"/>
+      <c r="F103" s="294"/>
+      <c r="G103" s="294"/>
+      <c r="H103" s="295"/>
+      <c r="I103" s="295"/>
+      <c r="J103" s="295"/>
+      <c r="K103" s="295"/>
+      <c r="L103" s="301"/>
+      <c r="M103" s="297"/>
+      <c r="N103" s="297"/>
+      <c r="O103" s="297"/>
+      <c r="P103" s="297"/>
+      <c r="Q103" s="297"/>
+      <c r="R103" s="291"/>
+      <c r="S103" s="343"/>
       <c r="T103" s="152"/>
     </row>
     <row r="104" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B104" s="325"/>
+      <c r="B104" s="310"/>
       <c r="C104" s="22" t="s">
         <v>293</v>
       </c>
-      <c r="D104" s="297" t="s">
+      <c r="D104" s="319" t="s">
         <v>108</v>
       </c>
-      <c r="E104" s="330" t="s">
+      <c r="E104" s="292" t="s">
         <v>42</v>
       </c>
-      <c r="F104" s="288">
+      <c r="F104" s="289">
         <f>SUM(M104:Q104)*$F$1</f>
         <v>48</v>
       </c>
-      <c r="G104" s="288">
+      <c r="G104" s="289">
         <f>F104</f>
         <v>48</v>
       </c>
-      <c r="H104" s="286"/>
-      <c r="I104" s="286" t="s">
+      <c r="H104" s="287"/>
+      <c r="I104" s="287" t="s">
         <v>43</v>
       </c>
-      <c r="J104" s="286" t="s">
+      <c r="J104" s="287" t="s">
         <v>43</v>
       </c>
-      <c r="K104" s="286"/>
-      <c r="L104" s="286"/>
-      <c r="M104" s="291">
-        <v>0</v>
-      </c>
-      <c r="N104" s="291">
-        <v>0</v>
-      </c>
-      <c r="O104" s="291">
+      <c r="K104" s="287"/>
+      <c r="L104" s="287"/>
+      <c r="M104" s="296">
+        <v>0</v>
+      </c>
+      <c r="N104" s="296">
+        <v>0</v>
+      </c>
+      <c r="O104" s="296">
         <v>6</v>
       </c>
-      <c r="P104" s="291">
-        <v>0</v>
-      </c>
-      <c r="Q104" s="291">
-        <v>0</v>
-      </c>
-      <c r="R104" s="288">
+      <c r="P104" s="296">
+        <v>0</v>
+      </c>
+      <c r="Q104" s="296">
+        <v>0</v>
+      </c>
+      <c r="R104" s="289">
         <f>F104/$F$2</f>
         <v>3</v>
       </c>
-      <c r="S104" s="284"/>
+      <c r="S104" s="342"/>
       <c r="T104" s="47"/>
     </row>
     <row r="105" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B105" s="325"/>
+      <c r="B105" s="310"/>
       <c r="C105" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="D105" s="337"/>
-      <c r="E105" s="332"/>
-      <c r="F105" s="338"/>
-      <c r="G105" s="338"/>
-      <c r="H105" s="294"/>
-      <c r="I105" s="294"/>
-      <c r="J105" s="294"/>
-      <c r="K105" s="294"/>
-      <c r="L105" s="293"/>
-      <c r="M105" s="292"/>
-      <c r="N105" s="292"/>
-      <c r="O105" s="292"/>
-      <c r="P105" s="292"/>
-      <c r="Q105" s="292"/>
-      <c r="R105" s="318"/>
-      <c r="S105" s="285"/>
+      <c r="D105" s="320"/>
+      <c r="E105" s="293"/>
+      <c r="F105" s="294"/>
+      <c r="G105" s="294"/>
+      <c r="H105" s="295"/>
+      <c r="I105" s="295"/>
+      <c r="J105" s="295"/>
+      <c r="K105" s="295"/>
+      <c r="L105" s="301"/>
+      <c r="M105" s="297"/>
+      <c r="N105" s="297"/>
+      <c r="O105" s="297"/>
+      <c r="P105" s="297"/>
+      <c r="Q105" s="297"/>
+      <c r="R105" s="291"/>
+      <c r="S105" s="343"/>
       <c r="T105" s="152"/>
     </row>
     <row r="106" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B106" s="325"/>
+      <c r="B106" s="310"/>
       <c r="C106" s="22" t="s">
         <v>294</v>
       </c>
-      <c r="D106" s="297" t="s">
+      <c r="D106" s="319" t="s">
         <v>108</v>
       </c>
-      <c r="E106" s="330" t="s">
+      <c r="E106" s="292" t="s">
         <v>42</v>
       </c>
-      <c r="F106" s="288">
+      <c r="F106" s="289">
         <f>SUM(M106:Q106)*$F$1</f>
         <v>48</v>
       </c>
-      <c r="G106" s="288">
+      <c r="G106" s="289">
         <f>F106</f>
         <v>48</v>
       </c>
-      <c r="H106" s="286"/>
-      <c r="I106" s="286" t="s">
+      <c r="H106" s="287"/>
+      <c r="I106" s="287" t="s">
         <v>43</v>
       </c>
-      <c r="J106" s="286" t="s">
+      <c r="J106" s="287" t="s">
         <v>43</v>
       </c>
-      <c r="K106" s="286"/>
-      <c r="L106" s="286"/>
-      <c r="M106" s="291">
-        <v>0</v>
-      </c>
-      <c r="N106" s="291">
-        <v>0</v>
-      </c>
-      <c r="O106" s="291">
-        <v>0</v>
-      </c>
-      <c r="P106" s="291">
+      <c r="K106" s="287"/>
+      <c r="L106" s="287"/>
+      <c r="M106" s="296">
+        <v>0</v>
+      </c>
+      <c r="N106" s="296">
+        <v>0</v>
+      </c>
+      <c r="O106" s="296">
+        <v>0</v>
+      </c>
+      <c r="P106" s="296">
         <v>6</v>
       </c>
-      <c r="Q106" s="291">
-        <v>0</v>
-      </c>
-      <c r="R106" s="288">
+      <c r="Q106" s="296">
+        <v>0</v>
+      </c>
+      <c r="R106" s="289">
         <f>F106/$F$2</f>
         <v>3</v>
       </c>
-      <c r="S106" s="284"/>
+      <c r="S106" s="342"/>
       <c r="T106" s="47"/>
     </row>
     <row r="107" spans="2:20" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B107" s="325"/>
+      <c r="B107" s="310"/>
       <c r="C107" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="D107" s="337"/>
-      <c r="E107" s="332"/>
-      <c r="F107" s="338"/>
-      <c r="G107" s="338"/>
-      <c r="H107" s="294"/>
-      <c r="I107" s="294"/>
-      <c r="J107" s="294"/>
-      <c r="K107" s="294"/>
-      <c r="L107" s="293"/>
-      <c r="M107" s="292"/>
-      <c r="N107" s="292"/>
-      <c r="O107" s="292"/>
-      <c r="P107" s="292"/>
-      <c r="Q107" s="292"/>
-      <c r="R107" s="318"/>
-      <c r="S107" s="285"/>
+      <c r="D107" s="320"/>
+      <c r="E107" s="293"/>
+      <c r="F107" s="294"/>
+      <c r="G107" s="294"/>
+      <c r="H107" s="295"/>
+      <c r="I107" s="295"/>
+      <c r="J107" s="295"/>
+      <c r="K107" s="295"/>
+      <c r="L107" s="301"/>
+      <c r="M107" s="297"/>
+      <c r="N107" s="297"/>
+      <c r="O107" s="297"/>
+      <c r="P107" s="297"/>
+      <c r="Q107" s="297"/>
+      <c r="R107" s="291"/>
+      <c r="S107" s="343"/>
       <c r="T107" s="152"/>
     </row>
     <row r="108" spans="2:20" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B108" s="326"/>
+      <c r="B108" s="311"/>
       <c r="C108" s="17" t="s">
         <v>11</v>
       </c>
@@ -17048,7 +17099,7 @@
       <c r="T108" s="47"/>
     </row>
     <row r="109" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B109" s="322" t="s">
+      <c r="B109" s="298" t="s">
         <v>45</v>
       </c>
       <c r="C109" s="19" t="s">
@@ -17100,7 +17151,7 @@
       <c r="T109" s="47"/>
     </row>
     <row r="110" spans="2:20" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B110" s="323"/>
+      <c r="B110" s="299"/>
       <c r="C110" s="147" t="s">
         <v>261</v>
       </c>
@@ -17150,7 +17201,7 @@
       <c r="T110" s="47"/>
     </row>
     <row r="111" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B111" s="323"/>
+      <c r="B111" s="299"/>
       <c r="C111" s="19" t="s">
         <v>340</v>
       </c>
@@ -17200,7 +17251,7 @@
       <c r="T111" s="47"/>
     </row>
     <row r="112" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B112" s="323"/>
+      <c r="B112" s="299"/>
       <c r="C112" s="43" t="s">
         <v>341</v>
       </c>
@@ -17250,7 +17301,7 @@
       <c r="T112" s="47"/>
     </row>
     <row r="113" spans="1:20" ht="16.5" customHeight="1">
-      <c r="B113" s="323"/>
+      <c r="B113" s="299"/>
       <c r="C113" s="43" t="s">
         <v>265</v>
       </c>
@@ -17300,7 +17351,7 @@
       <c r="T113" s="47"/>
     </row>
     <row r="114" spans="1:20" ht="16.5" customHeight="1">
-      <c r="B114" s="323"/>
+      <c r="B114" s="299"/>
       <c r="C114" s="43" t="s">
         <v>295</v>
       </c>
@@ -17350,7 +17401,7 @@
       <c r="T114" s="47"/>
     </row>
     <row r="115" spans="1:20" ht="16.5" customHeight="1">
-      <c r="B115" s="323"/>
+      <c r="B115" s="299"/>
       <c r="C115" s="43" t="s">
         <v>276</v>
       </c>
@@ -17400,7 +17451,7 @@
       <c r="T115" s="47"/>
     </row>
     <row r="116" spans="1:20" ht="16.5" customHeight="1">
-      <c r="B116" s="323"/>
+      <c r="B116" s="299"/>
       <c r="C116" s="22" t="s">
         <v>277</v>
       </c>
@@ -17450,7 +17501,7 @@
       <c r="T116" s="47"/>
     </row>
     <row r="117" spans="1:20" ht="16.5" customHeight="1">
-      <c r="B117" s="323"/>
+      <c r="B117" s="299"/>
       <c r="C117" s="22" t="s">
         <v>152</v>
       </c>
@@ -17502,49 +17553,49 @@
       <c r="T117" s="47"/>
     </row>
     <row r="118" spans="1:20" ht="16.5" customHeight="1">
-      <c r="B118" s="323"/>
+      <c r="B118" s="299"/>
       <c r="C118" s="22" t="s">
         <v>367</v>
       </c>
       <c r="D118" s="258" t="s">
         <v>108</v>
       </c>
-      <c r="E118" s="330" t="s">
+      <c r="E118" s="292" t="s">
         <v>42</v>
       </c>
-      <c r="F118" s="288">
+      <c r="F118" s="289">
         <f>SUM(M118:Q118)*$F$1</f>
         <v>384</v>
       </c>
-      <c r="G118" s="288">
+      <c r="G118" s="289">
         <f t="shared" ref="G118" si="53">F118</f>
         <v>384</v>
       </c>
-      <c r="H118" s="288"/>
-      <c r="I118" s="286" t="s">
-        <v>0</v>
-      </c>
-      <c r="J118" s="286"/>
-      <c r="K118" s="286" t="s">
-        <v>0</v>
-      </c>
-      <c r="L118" s="286"/>
-      <c r="M118" s="288">
+      <c r="H118" s="289"/>
+      <c r="I118" s="287" t="s">
+        <v>0</v>
+      </c>
+      <c r="J118" s="287"/>
+      <c r="K118" s="287" t="s">
+        <v>0</v>
+      </c>
+      <c r="L118" s="287"/>
+      <c r="M118" s="289">
         <v>12</v>
       </c>
-      <c r="N118" s="288">
+      <c r="N118" s="289">
         <v>12</v>
       </c>
-      <c r="O118" s="288">
+      <c r="O118" s="289">
         <v>12</v>
       </c>
-      <c r="P118" s="288">
+      <c r="P118" s="289">
         <v>12</v>
       </c>
-      <c r="Q118" s="288">
-        <v>0</v>
-      </c>
-      <c r="R118" s="319">
+      <c r="Q118" s="289">
+        <v>0</v>
+      </c>
+      <c r="R118" s="302">
         <f>F118/$F$2/3*2</f>
         <v>16</v>
       </c>
@@ -17552,32 +17603,32 @@
       <c r="T118" s="47"/>
     </row>
     <row r="119" spans="1:20" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B119" s="323"/>
+      <c r="B119" s="299"/>
       <c r="C119" s="147" t="s">
         <v>369</v>
       </c>
       <c r="D119" s="154" t="s">
         <v>368</v>
       </c>
-      <c r="E119" s="332"/>
-      <c r="F119" s="302"/>
-      <c r="G119" s="302"/>
-      <c r="H119" s="302"/>
-      <c r="I119" s="301"/>
-      <c r="J119" s="301"/>
-      <c r="K119" s="301"/>
-      <c r="L119" s="301"/>
-      <c r="M119" s="302"/>
-      <c r="N119" s="302"/>
-      <c r="O119" s="302"/>
-      <c r="P119" s="302"/>
-      <c r="Q119" s="302"/>
-      <c r="R119" s="302"/>
+      <c r="E119" s="293"/>
+      <c r="F119" s="290"/>
+      <c r="G119" s="290"/>
+      <c r="H119" s="290"/>
+      <c r="I119" s="288"/>
+      <c r="J119" s="288"/>
+      <c r="K119" s="288"/>
+      <c r="L119" s="288"/>
+      <c r="M119" s="290"/>
+      <c r="N119" s="290"/>
+      <c r="O119" s="290"/>
+      <c r="P119" s="290"/>
+      <c r="Q119" s="290"/>
+      <c r="R119" s="290"/>
       <c r="S119" s="47"/>
       <c r="T119" s="47"/>
     </row>
     <row r="120" spans="1:20" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B120" s="324"/>
+      <c r="B120" s="300"/>
       <c r="C120" s="33" t="s">
         <v>11</v>
       </c>
@@ -17663,14 +17714,14 @@
       <c r="I122" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="J122" s="299" t="s">
+      <c r="J122" s="329" t="s">
         <v>8</v>
       </c>
-      <c r="K122" s="300"/>
-      <c r="L122" s="320" t="s">
+      <c r="K122" s="330"/>
+      <c r="L122" s="335" t="s">
         <v>48</v>
       </c>
-      <c r="M122" s="321"/>
+      <c r="M122" s="336"/>
       <c r="N122" s="118" t="s">
         <v>49</v>
       </c>
@@ -17858,7 +17909,7 @@
       <c r="S128" s="36"/>
       <c r="T128" s="36"/>
     </row>
-    <row r="129" spans="2:20" ht="13.8" thickBot="1">
+    <row r="129" spans="2:20" ht="14.25" thickBot="1">
       <c r="B129" s="3"/>
       <c r="C129" s="16"/>
       <c r="D129" s="16"/>
@@ -17880,55 +17931,55 @@
       <c r="T129" s="57"/>
     </row>
     <row r="130" spans="2:20" ht="18" customHeight="1" thickBot="1">
-      <c r="B130" s="312" t="s">
-        <v>2</v>
-      </c>
-      <c r="C130" s="328" t="s">
+      <c r="B130" s="316" t="s">
+        <v>2</v>
+      </c>
+      <c r="C130" s="331" t="s">
         <v>3</v>
       </c>
-      <c r="D130" s="335" t="s">
+      <c r="D130" s="321" t="s">
         <v>106</v>
       </c>
-      <c r="E130" s="312" t="s">
-        <v>4</v>
-      </c>
-      <c r="F130" s="333" t="s">
+      <c r="E130" s="316" t="s">
+        <v>4</v>
+      </c>
+      <c r="F130" s="323" t="s">
         <v>51</v>
       </c>
-      <c r="G130" s="333" t="s">
+      <c r="G130" s="323" t="s">
         <v>52</v>
       </c>
-      <c r="H130" s="304" t="s">
+      <c r="H130" s="307" t="s">
         <v>5</v>
       </c>
-      <c r="I130" s="305"/>
-      <c r="J130" s="304" t="s">
+      <c r="I130" s="325"/>
+      <c r="J130" s="307" t="s">
         <v>6</v>
       </c>
-      <c r="K130" s="305"/>
-      <c r="L130" s="316" t="s">
+      <c r="K130" s="325"/>
+      <c r="L130" s="326" t="s">
         <v>26</v>
       </c>
-      <c r="M130" s="304" t="s">
+      <c r="M130" s="307" t="s">
         <v>7</v>
       </c>
-      <c r="N130" s="310"/>
-      <c r="O130" s="310"/>
-      <c r="P130" s="310"/>
-      <c r="Q130" s="311"/>
-      <c r="R130" s="312" t="s">
+      <c r="N130" s="308"/>
+      <c r="O130" s="308"/>
+      <c r="P130" s="308"/>
+      <c r="Q130" s="309"/>
+      <c r="R130" s="316" t="s">
         <v>35</v>
       </c>
       <c r="S130" s="58"/>
       <c r="T130" s="58"/>
     </row>
     <row r="131" spans="2:20" ht="18" customHeight="1" thickBot="1">
-      <c r="B131" s="313"/>
-      <c r="C131" s="329"/>
-      <c r="D131" s="336"/>
-      <c r="E131" s="313"/>
-      <c r="F131" s="334"/>
-      <c r="G131" s="334"/>
+      <c r="B131" s="317"/>
+      <c r="C131" s="333"/>
+      <c r="D131" s="322"/>
+      <c r="E131" s="317"/>
+      <c r="F131" s="324"/>
+      <c r="G131" s="324"/>
       <c r="H131" s="86" t="s">
         <v>8</v>
       </c>
@@ -17941,7 +17992,7 @@
       <c r="K131" s="60" t="s">
         <v>30</v>
       </c>
-      <c r="L131" s="317"/>
+      <c r="L131" s="327"/>
       <c r="M131" s="10" t="s">
         <v>22</v>
       </c>
@@ -17957,12 +18008,12 @@
       <c r="Q131" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="R131" s="313"/>
+      <c r="R131" s="317"/>
       <c r="S131" s="59"/>
       <c r="T131" s="59"/>
     </row>
     <row r="132" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B132" s="325" t="s">
+      <c r="B132" s="310" t="s">
         <v>84</v>
       </c>
       <c r="C132" s="19" t="s">
@@ -18014,7 +18065,7 @@
       <c r="T132" s="47"/>
     </row>
     <row r="133" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B133" s="325"/>
+      <c r="B133" s="310"/>
       <c r="C133" s="43" t="s">
         <v>103</v>
       </c>
@@ -18064,7 +18115,7 @@
       <c r="T133" s="47"/>
     </row>
     <row r="134" spans="2:20" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B134" s="325"/>
+      <c r="B134" s="310"/>
       <c r="C134" s="43" t="s">
         <v>16</v>
       </c>
@@ -18114,7 +18165,7 @@
       <c r="T134" s="47"/>
     </row>
     <row r="135" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B135" s="325"/>
+      <c r="B135" s="310"/>
       <c r="C135" s="231" t="s">
         <v>68</v>
       </c>
@@ -18164,7 +18215,7 @@
       <c r="T135" s="47"/>
     </row>
     <row r="136" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B136" s="325"/>
+      <c r="B136" s="310"/>
       <c r="C136" s="43" t="s">
         <v>263</v>
       </c>
@@ -18214,7 +18265,7 @@
       <c r="T136" s="47"/>
     </row>
     <row r="137" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B137" s="325"/>
+      <c r="B137" s="310"/>
       <c r="C137" s="43" t="s">
         <v>264</v>
       </c>
@@ -18264,7 +18315,7 @@
       <c r="T137" s="47"/>
     </row>
     <row r="138" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B138" s="325"/>
+      <c r="B138" s="310"/>
       <c r="C138" s="43" t="s">
         <v>335</v>
       </c>
@@ -18314,7 +18365,7 @@
       <c r="T138" s="47"/>
     </row>
     <row r="139" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B139" s="325"/>
+      <c r="B139" s="310"/>
       <c r="C139" s="22" t="s">
         <v>77</v>
       </c>
@@ -18364,7 +18415,7 @@
       <c r="T139" s="47"/>
     </row>
     <row r="140" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B140" s="325"/>
+      <c r="B140" s="310"/>
       <c r="C140" s="43" t="s">
         <v>78</v>
       </c>
@@ -18414,7 +18465,7 @@
       <c r="T140" s="47"/>
     </row>
     <row r="141" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B141" s="325"/>
+      <c r="B141" s="310"/>
       <c r="C141" s="22" t="s">
         <v>272</v>
       </c>
@@ -18464,7 +18515,7 @@
       <c r="T141" s="47"/>
     </row>
     <row r="142" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B142" s="325"/>
+      <c r="B142" s="310"/>
       <c r="C142" s="22" t="s">
         <v>273</v>
       </c>
@@ -18514,7 +18565,7 @@
       <c r="T142" s="47"/>
     </row>
     <row r="143" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B143" s="325"/>
+      <c r="B143" s="310"/>
       <c r="C143" s="22" t="s">
         <v>119</v>
       </c>
@@ -18564,7 +18615,7 @@
       <c r="T143" s="47"/>
     </row>
     <row r="144" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B144" s="325"/>
+      <c r="B144" s="310"/>
       <c r="C144" s="22" t="s">
         <v>266</v>
       </c>
@@ -18614,7 +18665,7 @@
       <c r="T144" s="47"/>
     </row>
     <row r="145" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B145" s="325"/>
+      <c r="B145" s="310"/>
       <c r="C145" s="22" t="s">
         <v>267</v>
       </c>
@@ -18664,7 +18715,7 @@
       <c r="T145" s="47"/>
     </row>
     <row r="146" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B146" s="325"/>
+      <c r="B146" s="310"/>
       <c r="C146" s="22" t="s">
         <v>120</v>
       </c>
@@ -18714,7 +18765,7 @@
       <c r="T146" s="47"/>
     </row>
     <row r="147" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B147" s="325"/>
+      <c r="B147" s="310"/>
       <c r="C147" s="22" t="s">
         <v>100</v>
       </c>
@@ -18764,7 +18815,7 @@
       <c r="T147" s="47"/>
     </row>
     <row r="148" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B148" s="325"/>
+      <c r="B148" s="310"/>
       <c r="C148" s="22" t="s">
         <v>94</v>
       </c>
@@ -18814,7 +18865,7 @@
       <c r="T148" s="47"/>
     </row>
     <row r="149" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B149" s="325"/>
+      <c r="B149" s="310"/>
       <c r="C149" s="22" t="s">
         <v>88</v>
       </c>
@@ -18864,7 +18915,7 @@
       <c r="T149" s="47"/>
     </row>
     <row r="150" spans="2:20" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B150" s="325"/>
+      <c r="B150" s="310"/>
       <c r="C150" s="22" t="s">
         <v>96</v>
       </c>
@@ -18914,7 +18965,7 @@
       <c r="T150" s="47"/>
     </row>
     <row r="151" spans="2:20" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B151" s="326"/>
+      <c r="B151" s="311"/>
       <c r="C151" s="17" t="s">
         <v>11</v>
       </c>
@@ -18970,7 +19021,7 @@
       <c r="T151" s="47"/>
     </row>
     <row r="152" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B152" s="327" t="s">
+      <c r="B152" s="312" t="s">
         <v>85</v>
       </c>
       <c r="C152" s="19" t="s">
@@ -19022,7 +19073,7 @@
       <c r="T152" s="47"/>
     </row>
     <row r="153" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B153" s="325"/>
+      <c r="B153" s="310"/>
       <c r="C153" s="43" t="s">
         <v>16</v>
       </c>
@@ -19072,7 +19123,7 @@
       <c r="T153" s="47"/>
     </row>
     <row r="154" spans="2:20" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B154" s="325"/>
+      <c r="B154" s="310"/>
       <c r="C154" s="146" t="s">
         <v>70</v>
       </c>
@@ -19122,7 +19173,7 @@
       <c r="T154" s="47"/>
     </row>
     <row r="155" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B155" s="325"/>
+      <c r="B155" s="310"/>
       <c r="C155" s="19" t="s">
         <v>336</v>
       </c>
@@ -19172,7 +19223,7 @@
       <c r="T155" s="47"/>
     </row>
     <row r="156" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B156" s="325"/>
+      <c r="B156" s="310"/>
       <c r="C156" s="22" t="s">
         <v>337</v>
       </c>
@@ -19222,7 +19273,7 @@
       <c r="T156" s="47"/>
     </row>
     <row r="157" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B157" s="325"/>
+      <c r="B157" s="310"/>
       <c r="C157" s="22" t="s">
         <v>338</v>
       </c>
@@ -19272,7 +19323,7 @@
       <c r="T157" s="47"/>
     </row>
     <row r="158" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B158" s="325"/>
+      <c r="B158" s="310"/>
       <c r="C158" s="22" t="s">
         <v>339</v>
       </c>
@@ -19322,7 +19373,7 @@
       <c r="T158" s="47"/>
     </row>
     <row r="159" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B159" s="325"/>
+      <c r="B159" s="310"/>
       <c r="C159" s="43" t="s">
         <v>274</v>
       </c>
@@ -19372,7 +19423,7 @@
       <c r="T159" s="47"/>
     </row>
     <row r="160" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B160" s="325"/>
+      <c r="B160" s="310"/>
       <c r="C160" s="22" t="s">
         <v>275</v>
       </c>
@@ -19422,7 +19473,7 @@
       <c r="T160" s="47"/>
     </row>
     <row r="161" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B161" s="325"/>
+      <c r="B161" s="310"/>
       <c r="C161" s="22" t="s">
         <v>104</v>
       </c>
@@ -19472,7 +19523,7 @@
       <c r="T161" s="47"/>
     </row>
     <row r="162" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B162" s="325"/>
+      <c r="B162" s="310"/>
       <c r="C162" s="22" t="s">
         <v>280</v>
       </c>
@@ -19522,7 +19573,7 @@
       <c r="T162" s="47"/>
     </row>
     <row r="163" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B163" s="325"/>
+      <c r="B163" s="310"/>
       <c r="C163" s="22" t="s">
         <v>105</v>
       </c>
@@ -19572,7 +19623,7 @@
       <c r="T163" s="47"/>
     </row>
     <row r="164" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B164" s="325"/>
+      <c r="B164" s="310"/>
       <c r="C164" s="22" t="s">
         <v>99</v>
       </c>
@@ -19622,49 +19673,49 @@
       <c r="T164" s="47"/>
     </row>
     <row r="165" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B165" s="325"/>
+      <c r="B165" s="310"/>
       <c r="C165" s="22" t="s">
         <v>124</v>
       </c>
       <c r="D165" s="150" t="s">
         <v>110</v>
       </c>
-      <c r="E165" s="330" t="s">
+      <c r="E165" s="292" t="s">
         <v>41</v>
       </c>
-      <c r="F165" s="288">
+      <c r="F165" s="289">
         <f t="shared" si="75"/>
         <v>64</v>
       </c>
-      <c r="G165" s="288">
+      <c r="G165" s="289">
         <f t="shared" si="76"/>
         <v>64</v>
       </c>
-      <c r="H165" s="288"/>
-      <c r="I165" s="286" t="s">
-        <v>1</v>
-      </c>
-      <c r="J165" s="286" t="s">
-        <v>1</v>
-      </c>
-      <c r="K165" s="286"/>
-      <c r="L165" s="286"/>
-      <c r="M165" s="288">
-        <v>2</v>
-      </c>
-      <c r="N165" s="288">
-        <v>2</v>
-      </c>
-      <c r="O165" s="288">
-        <v>2</v>
-      </c>
-      <c r="P165" s="288">
-        <v>2</v>
-      </c>
-      <c r="Q165" s="288">
-        <v>0</v>
-      </c>
-      <c r="R165" s="288">
+      <c r="H165" s="289"/>
+      <c r="I165" s="287" t="s">
+        <v>1</v>
+      </c>
+      <c r="J165" s="287" t="s">
+        <v>1</v>
+      </c>
+      <c r="K165" s="287"/>
+      <c r="L165" s="287"/>
+      <c r="M165" s="289">
+        <v>2</v>
+      </c>
+      <c r="N165" s="289">
+        <v>2</v>
+      </c>
+      <c r="O165" s="289">
+        <v>2</v>
+      </c>
+      <c r="P165" s="289">
+        <v>2</v>
+      </c>
+      <c r="Q165" s="289">
+        <v>0</v>
+      </c>
+      <c r="R165" s="289">
         <f t="shared" si="70"/>
         <v>4</v>
       </c>
@@ -19672,74 +19723,74 @@
       <c r="T165" s="47"/>
     </row>
     <row r="166" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B166" s="325"/>
+      <c r="B166" s="310"/>
       <c r="C166" s="22" t="s">
         <v>89</v>
       </c>
       <c r="D166" s="150" t="s">
         <v>110</v>
       </c>
-      <c r="E166" s="331"/>
-      <c r="F166" s="303"/>
-      <c r="G166" s="303"/>
-      <c r="H166" s="315"/>
-      <c r="I166" s="287"/>
-      <c r="J166" s="287"/>
-      <c r="K166" s="287"/>
-      <c r="L166" s="290"/>
-      <c r="M166" s="289"/>
-      <c r="N166" s="289"/>
-      <c r="O166" s="289"/>
-      <c r="P166" s="289"/>
-      <c r="Q166" s="289"/>
-      <c r="R166" s="315"/>
+      <c r="E166" s="313"/>
+      <c r="F166" s="305"/>
+      <c r="G166" s="305"/>
+      <c r="H166" s="303"/>
+      <c r="I166" s="306"/>
+      <c r="J166" s="306"/>
+      <c r="K166" s="306"/>
+      <c r="L166" s="340"/>
+      <c r="M166" s="304"/>
+      <c r="N166" s="304"/>
+      <c r="O166" s="304"/>
+      <c r="P166" s="304"/>
+      <c r="Q166" s="304"/>
+      <c r="R166" s="303"/>
       <c r="S166" s="47"/>
       <c r="T166" s="47"/>
     </row>
     <row r="167" spans="2:20">
-      <c r="B167" s="325"/>
+      <c r="B167" s="310"/>
       <c r="C167" s="114" t="s">
         <v>175</v>
       </c>
-      <c r="D167" s="295" t="s">
+      <c r="D167" s="328" t="s">
         <v>110</v>
       </c>
-      <c r="E167" s="330" t="s">
+      <c r="E167" s="292" t="s">
         <v>41</v>
       </c>
-      <c r="F167" s="288">
+      <c r="F167" s="289">
         <f>SUM(M167:Q167)*$F$1</f>
         <v>48</v>
       </c>
-      <c r="G167" s="288">
+      <c r="G167" s="289">
         <f>F167</f>
         <v>48</v>
       </c>
-      <c r="H167" s="286"/>
-      <c r="I167" s="286" t="s">
-        <v>0</v>
-      </c>
-      <c r="J167" s="286" t="s">
-        <v>0</v>
-      </c>
-      <c r="K167" s="286"/>
-      <c r="L167" s="286"/>
-      <c r="M167" s="291">
+      <c r="H167" s="287"/>
+      <c r="I167" s="287" t="s">
+        <v>0</v>
+      </c>
+      <c r="J167" s="287" t="s">
+        <v>0</v>
+      </c>
+      <c r="K167" s="287"/>
+      <c r="L167" s="287"/>
+      <c r="M167" s="296">
         <v>6</v>
       </c>
-      <c r="N167" s="291">
-        <v>0</v>
-      </c>
-      <c r="O167" s="291">
-        <v>0</v>
-      </c>
-      <c r="P167" s="291">
-        <v>0</v>
-      </c>
-      <c r="Q167" s="291">
-        <v>0</v>
-      </c>
-      <c r="R167" s="288">
+      <c r="N167" s="296">
+        <v>0</v>
+      </c>
+      <c r="O167" s="296">
+        <v>0</v>
+      </c>
+      <c r="P167" s="296">
+        <v>0</v>
+      </c>
+      <c r="Q167" s="296">
+        <v>0</v>
+      </c>
+      <c r="R167" s="289">
         <f>F167/$F$2</f>
         <v>3</v>
       </c>
@@ -19747,72 +19798,72 @@
       <c r="T167" s="47"/>
     </row>
     <row r="168" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B168" s="325"/>
+      <c r="B168" s="310"/>
       <c r="C168" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="D168" s="296"/>
-      <c r="E168" s="332"/>
-      <c r="F168" s="338"/>
-      <c r="G168" s="338"/>
-      <c r="H168" s="294"/>
-      <c r="I168" s="294"/>
-      <c r="J168" s="294"/>
-      <c r="K168" s="294"/>
-      <c r="L168" s="293"/>
-      <c r="M168" s="292"/>
-      <c r="N168" s="292"/>
-      <c r="O168" s="292"/>
-      <c r="P168" s="292"/>
-      <c r="Q168" s="292"/>
-      <c r="R168" s="318"/>
+      <c r="D168" s="341"/>
+      <c r="E168" s="293"/>
+      <c r="F168" s="294"/>
+      <c r="G168" s="294"/>
+      <c r="H168" s="295"/>
+      <c r="I168" s="295"/>
+      <c r="J168" s="295"/>
+      <c r="K168" s="295"/>
+      <c r="L168" s="301"/>
+      <c r="M168" s="297"/>
+      <c r="N168" s="297"/>
+      <c r="O168" s="297"/>
+      <c r="P168" s="297"/>
+      <c r="Q168" s="297"/>
+      <c r="R168" s="291"/>
       <c r="S168" s="47"/>
       <c r="T168" s="47"/>
     </row>
     <row r="169" spans="2:20">
-      <c r="B169" s="325"/>
+      <c r="B169" s="310"/>
       <c r="C169" s="114" t="s">
         <v>174</v>
       </c>
-      <c r="D169" s="295" t="s">
+      <c r="D169" s="328" t="s">
         <v>110</v>
       </c>
-      <c r="E169" s="330" t="s">
+      <c r="E169" s="292" t="s">
         <v>42</v>
       </c>
-      <c r="F169" s="288">
+      <c r="F169" s="289">
         <f>SUM(M169:Q169)*$F$1</f>
         <v>48</v>
       </c>
-      <c r="G169" s="288">
+      <c r="G169" s="289">
         <f>F169</f>
         <v>48</v>
       </c>
-      <c r="H169" s="286"/>
-      <c r="I169" s="286" t="s">
-        <v>0</v>
-      </c>
-      <c r="J169" s="286" t="s">
-        <v>0</v>
-      </c>
-      <c r="K169" s="286"/>
-      <c r="L169" s="286"/>
-      <c r="M169" s="291">
-        <v>0</v>
-      </c>
-      <c r="N169" s="291">
+      <c r="H169" s="287"/>
+      <c r="I169" s="287" t="s">
+        <v>0</v>
+      </c>
+      <c r="J169" s="287" t="s">
+        <v>0</v>
+      </c>
+      <c r="K169" s="287"/>
+      <c r="L169" s="287"/>
+      <c r="M169" s="296">
+        <v>0</v>
+      </c>
+      <c r="N169" s="296">
         <v>6</v>
       </c>
-      <c r="O169" s="291">
-        <v>0</v>
-      </c>
-      <c r="P169" s="291">
-        <v>0</v>
-      </c>
-      <c r="Q169" s="291">
-        <v>0</v>
-      </c>
-      <c r="R169" s="288">
+      <c r="O169" s="296">
+        <v>0</v>
+      </c>
+      <c r="P169" s="296">
+        <v>0</v>
+      </c>
+      <c r="Q169" s="296">
+        <v>0</v>
+      </c>
+      <c r="R169" s="289">
         <f>F169/$F$2</f>
         <v>3</v>
       </c>
@@ -19820,72 +19871,72 @@
       <c r="T169" s="47"/>
     </row>
     <row r="170" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B170" s="325"/>
+      <c r="B170" s="310"/>
       <c r="C170" s="22" t="s">
         <v>92</v>
       </c>
-      <c r="D170" s="296"/>
-      <c r="E170" s="332"/>
-      <c r="F170" s="338"/>
-      <c r="G170" s="338"/>
-      <c r="H170" s="294"/>
-      <c r="I170" s="294"/>
-      <c r="J170" s="294"/>
-      <c r="K170" s="294"/>
-      <c r="L170" s="293"/>
-      <c r="M170" s="292"/>
-      <c r="N170" s="292"/>
-      <c r="O170" s="292"/>
-      <c r="P170" s="292"/>
-      <c r="Q170" s="292"/>
-      <c r="R170" s="318"/>
+      <c r="D170" s="341"/>
+      <c r="E170" s="293"/>
+      <c r="F170" s="294"/>
+      <c r="G170" s="294"/>
+      <c r="H170" s="295"/>
+      <c r="I170" s="295"/>
+      <c r="J170" s="295"/>
+      <c r="K170" s="295"/>
+      <c r="L170" s="301"/>
+      <c r="M170" s="297"/>
+      <c r="N170" s="297"/>
+      <c r="O170" s="297"/>
+      <c r="P170" s="297"/>
+      <c r="Q170" s="297"/>
+      <c r="R170" s="291"/>
       <c r="S170" s="47"/>
       <c r="T170" s="47"/>
     </row>
     <row r="171" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B171" s="325"/>
+      <c r="B171" s="310"/>
       <c r="C171" s="22" t="s">
         <v>291</v>
       </c>
-      <c r="D171" s="295" t="s">
+      <c r="D171" s="328" t="s">
         <v>110</v>
       </c>
-      <c r="E171" s="330" t="s">
+      <c r="E171" s="292" t="s">
         <v>42</v>
       </c>
-      <c r="F171" s="288">
+      <c r="F171" s="289">
         <f>SUM(M171:Q171)*$F$1</f>
         <v>48</v>
       </c>
-      <c r="G171" s="288">
+      <c r="G171" s="289">
         <f>F171</f>
         <v>48</v>
       </c>
-      <c r="H171" s="286"/>
-      <c r="I171" s="286" t="s">
-        <v>0</v>
-      </c>
-      <c r="J171" s="286" t="s">
-        <v>0</v>
-      </c>
-      <c r="K171" s="286"/>
-      <c r="L171" s="286"/>
-      <c r="M171" s="291">
-        <v>0</v>
-      </c>
-      <c r="N171" s="291">
-        <v>0</v>
-      </c>
-      <c r="O171" s="291">
+      <c r="H171" s="287"/>
+      <c r="I171" s="287" t="s">
+        <v>0</v>
+      </c>
+      <c r="J171" s="287" t="s">
+        <v>0</v>
+      </c>
+      <c r="K171" s="287"/>
+      <c r="L171" s="287"/>
+      <c r="M171" s="296">
+        <v>0</v>
+      </c>
+      <c r="N171" s="296">
+        <v>0</v>
+      </c>
+      <c r="O171" s="296">
         <v>6</v>
       </c>
-      <c r="P171" s="291">
-        <v>0</v>
-      </c>
-      <c r="Q171" s="291">
-        <v>0</v>
-      </c>
-      <c r="R171" s="288">
+      <c r="P171" s="296">
+        <v>0</v>
+      </c>
+      <c r="Q171" s="296">
+        <v>0</v>
+      </c>
+      <c r="R171" s="289">
         <f>F171/$F$2</f>
         <v>3</v>
       </c>
@@ -19893,72 +19944,72 @@
       <c r="T171" s="47"/>
     </row>
     <row r="172" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B172" s="325"/>
+      <c r="B172" s="310"/>
       <c r="C172" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="D172" s="296"/>
-      <c r="E172" s="332"/>
-      <c r="F172" s="338"/>
-      <c r="G172" s="338"/>
-      <c r="H172" s="294"/>
-      <c r="I172" s="294"/>
-      <c r="J172" s="294"/>
-      <c r="K172" s="294"/>
-      <c r="L172" s="293"/>
-      <c r="M172" s="292"/>
-      <c r="N172" s="292"/>
-      <c r="O172" s="292"/>
-      <c r="P172" s="292"/>
-      <c r="Q172" s="292"/>
-      <c r="R172" s="318"/>
+      <c r="D172" s="341"/>
+      <c r="E172" s="293"/>
+      <c r="F172" s="294"/>
+      <c r="G172" s="294"/>
+      <c r="H172" s="295"/>
+      <c r="I172" s="295"/>
+      <c r="J172" s="295"/>
+      <c r="K172" s="295"/>
+      <c r="L172" s="301"/>
+      <c r="M172" s="297"/>
+      <c r="N172" s="297"/>
+      <c r="O172" s="297"/>
+      <c r="P172" s="297"/>
+      <c r="Q172" s="297"/>
+      <c r="R172" s="291"/>
       <c r="S172" s="47"/>
       <c r="T172" s="47"/>
     </row>
     <row r="173" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B173" s="325"/>
+      <c r="B173" s="310"/>
       <c r="C173" s="22" t="s">
         <v>292</v>
       </c>
-      <c r="D173" s="297" t="s">
+      <c r="D173" s="319" t="s">
         <v>110</v>
       </c>
-      <c r="E173" s="330" t="s">
+      <c r="E173" s="292" t="s">
         <v>42</v>
       </c>
-      <c r="F173" s="288">
+      <c r="F173" s="289">
         <f>SUM(M173:Q173)*$F$1</f>
         <v>48</v>
       </c>
-      <c r="G173" s="288">
+      <c r="G173" s="289">
         <f>F173</f>
         <v>48</v>
       </c>
-      <c r="H173" s="286"/>
-      <c r="I173" s="286" t="s">
-        <v>0</v>
-      </c>
-      <c r="J173" s="286" t="s">
-        <v>0</v>
-      </c>
-      <c r="K173" s="286"/>
-      <c r="L173" s="286"/>
-      <c r="M173" s="291">
-        <v>0</v>
-      </c>
-      <c r="N173" s="291">
-        <v>0</v>
-      </c>
-      <c r="O173" s="291">
-        <v>0</v>
-      </c>
-      <c r="P173" s="291">
+      <c r="H173" s="287"/>
+      <c r="I173" s="287" t="s">
+        <v>0</v>
+      </c>
+      <c r="J173" s="287" t="s">
+        <v>0</v>
+      </c>
+      <c r="K173" s="287"/>
+      <c r="L173" s="287"/>
+      <c r="M173" s="296">
+        <v>0</v>
+      </c>
+      <c r="N173" s="296">
+        <v>0</v>
+      </c>
+      <c r="O173" s="296">
+        <v>0</v>
+      </c>
+      <c r="P173" s="296">
         <v>6</v>
       </c>
-      <c r="Q173" s="291">
-        <v>0</v>
-      </c>
-      <c r="R173" s="288">
+      <c r="Q173" s="296">
+        <v>0</v>
+      </c>
+      <c r="R173" s="289">
         <f>F173/$F$2</f>
         <v>3</v>
       </c>
@@ -19966,30 +20017,30 @@
       <c r="T173" s="47"/>
     </row>
     <row r="174" spans="2:20" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B174" s="325"/>
+      <c r="B174" s="310"/>
       <c r="C174" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="D174" s="296"/>
-      <c r="E174" s="332"/>
-      <c r="F174" s="338"/>
-      <c r="G174" s="338"/>
-      <c r="H174" s="294"/>
-      <c r="I174" s="294"/>
-      <c r="J174" s="294"/>
-      <c r="K174" s="294"/>
-      <c r="L174" s="293"/>
-      <c r="M174" s="292"/>
-      <c r="N174" s="292"/>
-      <c r="O174" s="292"/>
-      <c r="P174" s="292"/>
-      <c r="Q174" s="292"/>
-      <c r="R174" s="318"/>
+      <c r="D174" s="341"/>
+      <c r="E174" s="293"/>
+      <c r="F174" s="294"/>
+      <c r="G174" s="294"/>
+      <c r="H174" s="295"/>
+      <c r="I174" s="295"/>
+      <c r="J174" s="295"/>
+      <c r="K174" s="295"/>
+      <c r="L174" s="301"/>
+      <c r="M174" s="297"/>
+      <c r="N174" s="297"/>
+      <c r="O174" s="297"/>
+      <c r="P174" s="297"/>
+      <c r="Q174" s="297"/>
+      <c r="R174" s="291"/>
       <c r="S174" s="47"/>
       <c r="T174" s="47"/>
     </row>
     <row r="175" spans="2:20" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B175" s="326"/>
+      <c r="B175" s="311"/>
       <c r="C175" s="17" t="s">
         <v>11</v>
       </c>
@@ -20045,7 +20096,7 @@
       <c r="T175" s="47"/>
     </row>
     <row r="176" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B176" s="322" t="s">
+      <c r="B176" s="298" t="s">
         <v>86</v>
       </c>
       <c r="C176" s="19" t="s">
@@ -20097,7 +20148,7 @@
       <c r="T176" s="47"/>
     </row>
     <row r="177" spans="2:20" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B177" s="323"/>
+      <c r="B177" s="299"/>
       <c r="C177" s="147" t="s">
         <v>260</v>
       </c>
@@ -20147,7 +20198,7 @@
       <c r="T177" s="47"/>
     </row>
     <row r="178" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B178" s="323"/>
+      <c r="B178" s="299"/>
       <c r="C178" s="19" t="s">
         <v>340</v>
       </c>
@@ -20197,7 +20248,7 @@
       <c r="T178" s="47"/>
     </row>
     <row r="179" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B179" s="323"/>
+      <c r="B179" s="299"/>
       <c r="C179" s="43" t="s">
         <v>341</v>
       </c>
@@ -20247,7 +20298,7 @@
       <c r="T179" s="47"/>
     </row>
     <row r="180" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B180" s="323"/>
+      <c r="B180" s="299"/>
       <c r="C180" s="43" t="s">
         <v>265</v>
       </c>
@@ -20297,7 +20348,7 @@
       <c r="T180" s="47"/>
     </row>
     <row r="181" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B181" s="323"/>
+      <c r="B181" s="299"/>
       <c r="C181" s="43" t="s">
         <v>295</v>
       </c>
@@ -20347,7 +20398,7 @@
       <c r="T181" s="47"/>
     </row>
     <row r="182" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B182" s="323"/>
+      <c r="B182" s="299"/>
       <c r="C182" s="43" t="s">
         <v>276</v>
       </c>
@@ -20397,7 +20448,7 @@
       <c r="T182" s="47"/>
     </row>
     <row r="183" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B183" s="323"/>
+      <c r="B183" s="299"/>
       <c r="C183" s="22" t="s">
         <v>277</v>
       </c>
@@ -20447,49 +20498,49 @@
       <c r="T183" s="47"/>
     </row>
     <row r="184" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B184" s="323"/>
+      <c r="B184" s="299"/>
       <c r="C184" s="22" t="s">
         <v>367</v>
       </c>
       <c r="D184" s="258" t="s">
         <v>108</v>
       </c>
-      <c r="E184" s="330" t="s">
+      <c r="E184" s="292" t="s">
         <v>42</v>
       </c>
-      <c r="F184" s="288">
+      <c r="F184" s="289">
         <f>SUM(M184:Q184)*$F$1</f>
         <v>384</v>
       </c>
-      <c r="G184" s="288">
+      <c r="G184" s="289">
         <f t="shared" si="82"/>
         <v>384</v>
       </c>
-      <c r="H184" s="288"/>
-      <c r="I184" s="286" t="s">
-        <v>0</v>
-      </c>
-      <c r="J184" s="286"/>
-      <c r="K184" s="286" t="s">
-        <v>0</v>
-      </c>
-      <c r="L184" s="286"/>
-      <c r="M184" s="288">
+      <c r="H184" s="289"/>
+      <c r="I184" s="287" t="s">
+        <v>0</v>
+      </c>
+      <c r="J184" s="287"/>
+      <c r="K184" s="287" t="s">
+        <v>0</v>
+      </c>
+      <c r="L184" s="287"/>
+      <c r="M184" s="289">
         <v>12</v>
       </c>
-      <c r="N184" s="288">
+      <c r="N184" s="289">
         <v>12</v>
       </c>
-      <c r="O184" s="288">
+      <c r="O184" s="289">
         <v>12</v>
       </c>
-      <c r="P184" s="288">
+      <c r="P184" s="289">
         <v>12</v>
       </c>
-      <c r="Q184" s="288">
-        <v>0</v>
-      </c>
-      <c r="R184" s="319">
+      <c r="Q184" s="289">
+        <v>0</v>
+      </c>
+      <c r="R184" s="302">
         <f>F184/$F$2/3*2</f>
         <v>16</v>
       </c>
@@ -20497,32 +20548,32 @@
       <c r="T184" s="47"/>
     </row>
     <row r="185" spans="2:20" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B185" s="323"/>
+      <c r="B185" s="299"/>
       <c r="C185" s="147" t="s">
         <v>369</v>
       </c>
       <c r="D185" s="154" t="s">
         <v>368</v>
       </c>
-      <c r="E185" s="332"/>
-      <c r="F185" s="302"/>
-      <c r="G185" s="302"/>
-      <c r="H185" s="302"/>
-      <c r="I185" s="301"/>
-      <c r="J185" s="301"/>
-      <c r="K185" s="301"/>
-      <c r="L185" s="301"/>
-      <c r="M185" s="302"/>
-      <c r="N185" s="302"/>
-      <c r="O185" s="302"/>
-      <c r="P185" s="302"/>
-      <c r="Q185" s="302"/>
-      <c r="R185" s="302"/>
+      <c r="E185" s="293"/>
+      <c r="F185" s="290"/>
+      <c r="G185" s="290"/>
+      <c r="H185" s="290"/>
+      <c r="I185" s="288"/>
+      <c r="J185" s="288"/>
+      <c r="K185" s="288"/>
+      <c r="L185" s="288"/>
+      <c r="M185" s="290"/>
+      <c r="N185" s="290"/>
+      <c r="O185" s="290"/>
+      <c r="P185" s="290"/>
+      <c r="Q185" s="290"/>
+      <c r="R185" s="290"/>
       <c r="S185" s="47"/>
       <c r="T185" s="47"/>
     </row>
     <row r="186" spans="2:20" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B186" s="324"/>
+      <c r="B186" s="300"/>
       <c r="C186" s="33" t="s">
         <v>11</v>
       </c>
@@ -20578,7 +20629,7 @@
       <c r="T186" s="47"/>
     </row>
     <row r="187" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B187" s="322" t="s">
+      <c r="B187" s="298" t="s">
         <v>87</v>
       </c>
       <c r="C187" s="19" t="s">
@@ -20630,7 +20681,7 @@
       <c r="T187" s="47"/>
     </row>
     <row r="188" spans="2:20" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B188" s="323"/>
+      <c r="B188" s="299"/>
       <c r="C188" s="43" t="s">
         <v>261</v>
       </c>
@@ -20680,7 +20731,7 @@
       <c r="T188" s="47"/>
     </row>
     <row r="189" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B189" s="323"/>
+      <c r="B189" s="299"/>
       <c r="C189" s="19" t="s">
         <v>278</v>
       </c>
@@ -20723,14 +20774,14 @@
         <v>0</v>
       </c>
       <c r="R189" s="21">
-        <f t="shared" ref="R189:R191" si="85">F189/$F$2</f>
+        <f t="shared" ref="R189:R190" si="85">F189/$F$2</f>
         <v>4</v>
       </c>
       <c r="S189" s="47"/>
       <c r="T189" s="47"/>
     </row>
     <row r="190" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B190" s="323"/>
+      <c r="B190" s="299"/>
       <c r="C190" s="22" t="s">
         <v>279</v>
       </c>
@@ -20780,14 +20831,14 @@
       <c r="T190" s="47"/>
     </row>
     <row r="191" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B191" s="323"/>
+      <c r="B191" s="299"/>
       <c r="C191" s="269" t="s">
         <v>378</v>
       </c>
       <c r="D191" s="265" t="s">
         <v>108</v>
       </c>
-      <c r="E191" s="348" t="s">
+      <c r="E191" s="283" t="s">
         <v>28</v>
       </c>
       <c r="F191" s="271">
@@ -20830,7 +20881,7 @@
       <c r="T191" s="47"/>
     </row>
     <row r="192" spans="2:20" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B192" s="323"/>
+      <c r="B192" s="299"/>
       <c r="C192" s="22" t="s">
         <v>102</v>
       </c>
@@ -20880,7 +20931,7 @@
       <c r="T192" s="47"/>
     </row>
     <row r="193" spans="2:20" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B193" s="324"/>
+      <c r="B193" s="300"/>
       <c r="C193" s="33" t="s">
         <v>11</v>
       </c>
@@ -20966,14 +21017,14 @@
       <c r="I195" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="J195" s="299" t="s">
+      <c r="J195" s="329" t="s">
         <v>8</v>
       </c>
-      <c r="K195" s="300"/>
-      <c r="L195" s="308" t="s">
+      <c r="K195" s="330"/>
+      <c r="L195" s="338" t="s">
         <v>48</v>
       </c>
-      <c r="M195" s="309"/>
+      <c r="M195" s="339"/>
       <c r="N195" s="84" t="s">
         <v>49</v>
       </c>
@@ -21176,27 +21227,264 @@
     </row>
   </sheetData>
   <mergeCells count="303">
-    <mergeCell ref="K184:K185"/>
-    <mergeCell ref="L184:L185"/>
-    <mergeCell ref="M184:M185"/>
-    <mergeCell ref="N184:N185"/>
-    <mergeCell ref="R169:R170"/>
-    <mergeCell ref="E171:E172"/>
-    <mergeCell ref="F171:F172"/>
-    <mergeCell ref="G171:G172"/>
-    <mergeCell ref="H171:H172"/>
-    <mergeCell ref="I171:I172"/>
-    <mergeCell ref="J171:J172"/>
-    <mergeCell ref="K171:K172"/>
-    <mergeCell ref="R171:R172"/>
-    <mergeCell ref="E169:E170"/>
-    <mergeCell ref="F169:F170"/>
-    <mergeCell ref="G169:G170"/>
-    <mergeCell ref="H169:H170"/>
-    <mergeCell ref="I169:I170"/>
-    <mergeCell ref="J169:J170"/>
-    <mergeCell ref="K169:K170"/>
-    <mergeCell ref="O169:O170"/>
+    <mergeCell ref="S98:S99"/>
+    <mergeCell ref="S100:S101"/>
+    <mergeCell ref="S102:S103"/>
+    <mergeCell ref="S104:S105"/>
+    <mergeCell ref="S106:S107"/>
+    <mergeCell ref="I98:I99"/>
+    <mergeCell ref="J98:J99"/>
+    <mergeCell ref="M98:M99"/>
+    <mergeCell ref="N98:N99"/>
+    <mergeCell ref="O98:O99"/>
+    <mergeCell ref="L98:L99"/>
+    <mergeCell ref="K98:K99"/>
+    <mergeCell ref="O100:O101"/>
+    <mergeCell ref="O102:O103"/>
+    <mergeCell ref="O104:O105"/>
+    <mergeCell ref="O106:O107"/>
+    <mergeCell ref="L104:L105"/>
+    <mergeCell ref="L106:L107"/>
+    <mergeCell ref="M104:M105"/>
+    <mergeCell ref="J104:J105"/>
+    <mergeCell ref="P100:P101"/>
+    <mergeCell ref="P102:P103"/>
+    <mergeCell ref="P104:P105"/>
+    <mergeCell ref="D167:D168"/>
+    <mergeCell ref="D169:D170"/>
+    <mergeCell ref="D171:D172"/>
+    <mergeCell ref="D173:D174"/>
+    <mergeCell ref="H49:H50"/>
+    <mergeCell ref="M100:M101"/>
+    <mergeCell ref="M102:M103"/>
+    <mergeCell ref="P106:P107"/>
+    <mergeCell ref="J122:K122"/>
+    <mergeCell ref="J106:J107"/>
+    <mergeCell ref="J118:J119"/>
+    <mergeCell ref="K118:K119"/>
+    <mergeCell ref="L118:L119"/>
+    <mergeCell ref="M118:M119"/>
+    <mergeCell ref="N118:N119"/>
+    <mergeCell ref="F98:F99"/>
+    <mergeCell ref="J100:J101"/>
+    <mergeCell ref="J102:J103"/>
+    <mergeCell ref="H62:I62"/>
+    <mergeCell ref="J62:K62"/>
+    <mergeCell ref="K106:K107"/>
+    <mergeCell ref="L51:L52"/>
+    <mergeCell ref="M51:M52"/>
+    <mergeCell ref="I118:I119"/>
+    <mergeCell ref="J195:K195"/>
+    <mergeCell ref="L195:M195"/>
+    <mergeCell ref="L165:L166"/>
+    <mergeCell ref="M165:M166"/>
+    <mergeCell ref="L169:L170"/>
+    <mergeCell ref="M169:M170"/>
+    <mergeCell ref="J165:J166"/>
+    <mergeCell ref="K165:K166"/>
+    <mergeCell ref="M130:Q130"/>
+    <mergeCell ref="Q169:Q170"/>
+    <mergeCell ref="N169:N170"/>
+    <mergeCell ref="O165:O166"/>
+    <mergeCell ref="Q165:Q166"/>
+    <mergeCell ref="N165:N166"/>
+    <mergeCell ref="P169:P170"/>
+    <mergeCell ref="P171:P172"/>
+    <mergeCell ref="P173:P174"/>
+    <mergeCell ref="J130:K130"/>
+    <mergeCell ref="L171:L172"/>
+    <mergeCell ref="M171:M172"/>
+    <mergeCell ref="N171:N172"/>
+    <mergeCell ref="O171:O172"/>
+    <mergeCell ref="Q171:Q172"/>
+    <mergeCell ref="J184:J185"/>
+    <mergeCell ref="R6:R7"/>
+    <mergeCell ref="L42:L43"/>
+    <mergeCell ref="M42:M43"/>
+    <mergeCell ref="N42:N43"/>
+    <mergeCell ref="O42:O43"/>
+    <mergeCell ref="Q42:Q43"/>
+    <mergeCell ref="R42:R43"/>
+    <mergeCell ref="L45:L46"/>
+    <mergeCell ref="L102:L103"/>
+    <mergeCell ref="N100:N101"/>
+    <mergeCell ref="N102:N103"/>
+    <mergeCell ref="Q100:Q101"/>
+    <mergeCell ref="Q102:Q103"/>
+    <mergeCell ref="R62:R63"/>
+    <mergeCell ref="L62:L63"/>
+    <mergeCell ref="M45:M46"/>
+    <mergeCell ref="N45:N46"/>
+    <mergeCell ref="O45:O46"/>
+    <mergeCell ref="Q45:Q46"/>
+    <mergeCell ref="R45:R46"/>
+    <mergeCell ref="O47:O48"/>
+    <mergeCell ref="Q47:Q48"/>
+    <mergeCell ref="R47:R48"/>
+    <mergeCell ref="R100:R101"/>
+    <mergeCell ref="R130:R131"/>
+    <mergeCell ref="L49:L50"/>
+    <mergeCell ref="M49:M50"/>
+    <mergeCell ref="O49:O50"/>
+    <mergeCell ref="Q49:Q50"/>
+    <mergeCell ref="R49:R50"/>
+    <mergeCell ref="O51:O52"/>
+    <mergeCell ref="Q51:Q52"/>
+    <mergeCell ref="R51:R52"/>
+    <mergeCell ref="Q98:Q99"/>
+    <mergeCell ref="R98:R99"/>
+    <mergeCell ref="Q106:Q107"/>
+    <mergeCell ref="R102:R103"/>
+    <mergeCell ref="R104:R105"/>
+    <mergeCell ref="R106:R107"/>
+    <mergeCell ref="M106:M107"/>
+    <mergeCell ref="L130:L131"/>
+    <mergeCell ref="N49:N50"/>
+    <mergeCell ref="R118:R119"/>
+    <mergeCell ref="O118:O119"/>
+    <mergeCell ref="Q118:Q119"/>
+    <mergeCell ref="L122:M122"/>
+    <mergeCell ref="N104:N105"/>
+    <mergeCell ref="N106:N107"/>
+    <mergeCell ref="N47:N48"/>
+    <mergeCell ref="H130:I130"/>
+    <mergeCell ref="M47:M48"/>
+    <mergeCell ref="K100:K101"/>
+    <mergeCell ref="K102:K103"/>
+    <mergeCell ref="K104:K105"/>
+    <mergeCell ref="L47:L48"/>
+    <mergeCell ref="N51:N52"/>
+    <mergeCell ref="L100:L101"/>
+    <mergeCell ref="M62:Q62"/>
+    <mergeCell ref="L55:M55"/>
+    <mergeCell ref="Q104:Q105"/>
+    <mergeCell ref="P118:P119"/>
+    <mergeCell ref="H104:H105"/>
+    <mergeCell ref="H106:H107"/>
+    <mergeCell ref="I100:I101"/>
+    <mergeCell ref="I102:I103"/>
+    <mergeCell ref="H118:H119"/>
+    <mergeCell ref="I104:I105"/>
+    <mergeCell ref="I106:I107"/>
+    <mergeCell ref="P47:P48"/>
+    <mergeCell ref="P49:P50"/>
+    <mergeCell ref="P51:P52"/>
+    <mergeCell ref="P98:P99"/>
+    <mergeCell ref="B109:B120"/>
+    <mergeCell ref="B64:B83"/>
+    <mergeCell ref="B84:B108"/>
+    <mergeCell ref="B62:B63"/>
+    <mergeCell ref="C62:C63"/>
+    <mergeCell ref="B132:B151"/>
+    <mergeCell ref="B152:B175"/>
+    <mergeCell ref="E165:E166"/>
+    <mergeCell ref="F165:F166"/>
+    <mergeCell ref="B130:B131"/>
+    <mergeCell ref="C130:C131"/>
+    <mergeCell ref="E100:E101"/>
+    <mergeCell ref="E62:E63"/>
+    <mergeCell ref="F62:F63"/>
+    <mergeCell ref="E118:E119"/>
+    <mergeCell ref="D62:D63"/>
+    <mergeCell ref="D100:D101"/>
+    <mergeCell ref="E98:E99"/>
+    <mergeCell ref="E104:E105"/>
+    <mergeCell ref="E102:E103"/>
+    <mergeCell ref="F100:F101"/>
+    <mergeCell ref="F102:F103"/>
+    <mergeCell ref="F104:F105"/>
+    <mergeCell ref="F106:F107"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="H100:H101"/>
+    <mergeCell ref="H98:H99"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="G98:G99"/>
+    <mergeCell ref="G100:G101"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="F51:F52"/>
+    <mergeCell ref="G51:G52"/>
+    <mergeCell ref="F47:F48"/>
+    <mergeCell ref="G47:G48"/>
+    <mergeCell ref="H47:H48"/>
+    <mergeCell ref="I47:I48"/>
+    <mergeCell ref="H51:H52"/>
+    <mergeCell ref="I51:I52"/>
+    <mergeCell ref="D106:D107"/>
+    <mergeCell ref="D130:D131"/>
+    <mergeCell ref="H102:H103"/>
+    <mergeCell ref="E130:E131"/>
+    <mergeCell ref="F130:F131"/>
+    <mergeCell ref="G130:G131"/>
+    <mergeCell ref="G106:G107"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="F118:F119"/>
+    <mergeCell ref="G118:G119"/>
+    <mergeCell ref="G62:G63"/>
+    <mergeCell ref="E106:E107"/>
+    <mergeCell ref="D102:D103"/>
+    <mergeCell ref="D104:D105"/>
+    <mergeCell ref="G102:G103"/>
+    <mergeCell ref="G104:G105"/>
+    <mergeCell ref="J47:J48"/>
+    <mergeCell ref="J49:J50"/>
+    <mergeCell ref="K47:K48"/>
+    <mergeCell ref="J55:K55"/>
+    <mergeCell ref="K49:K50"/>
+    <mergeCell ref="J51:J52"/>
+    <mergeCell ref="K51:K52"/>
+    <mergeCell ref="M6:Q6"/>
+    <mergeCell ref="B8:B28"/>
+    <mergeCell ref="B29:B53"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="F42:F43"/>
+    <mergeCell ref="G42:G43"/>
+    <mergeCell ref="H42:H43"/>
+    <mergeCell ref="I42:I43"/>
+    <mergeCell ref="J42:J43"/>
+    <mergeCell ref="K42:K43"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="F45:F46"/>
+    <mergeCell ref="G45:G46"/>
+    <mergeCell ref="H45:H46"/>
+    <mergeCell ref="I45:I46"/>
+    <mergeCell ref="J45:J46"/>
+    <mergeCell ref="K45:K46"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="F49:F50"/>
+    <mergeCell ref="G49:G50"/>
+    <mergeCell ref="I49:I50"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="P42:P43"/>
+    <mergeCell ref="P45:P46"/>
+    <mergeCell ref="R165:R166"/>
+    <mergeCell ref="E167:E168"/>
+    <mergeCell ref="F167:F168"/>
+    <mergeCell ref="G167:G168"/>
+    <mergeCell ref="H167:H168"/>
+    <mergeCell ref="I167:I168"/>
+    <mergeCell ref="J167:J168"/>
+    <mergeCell ref="K167:K168"/>
+    <mergeCell ref="L167:L168"/>
+    <mergeCell ref="M167:M168"/>
+    <mergeCell ref="N167:N168"/>
+    <mergeCell ref="O167:O168"/>
+    <mergeCell ref="Q167:Q168"/>
+    <mergeCell ref="R167:R168"/>
+    <mergeCell ref="P165:P166"/>
+    <mergeCell ref="P167:P168"/>
+    <mergeCell ref="G165:G166"/>
+    <mergeCell ref="H165:H166"/>
+    <mergeCell ref="I165:I166"/>
     <mergeCell ref="B187:B193"/>
     <mergeCell ref="N173:N174"/>
     <mergeCell ref="O173:O174"/>
@@ -21221,268 +21509,31 @@
     <mergeCell ref="G184:G185"/>
     <mergeCell ref="H184:H185"/>
     <mergeCell ref="I184:I185"/>
-    <mergeCell ref="R165:R166"/>
-    <mergeCell ref="E167:E168"/>
-    <mergeCell ref="F167:F168"/>
-    <mergeCell ref="G167:G168"/>
-    <mergeCell ref="H167:H168"/>
-    <mergeCell ref="I167:I168"/>
-    <mergeCell ref="J167:J168"/>
-    <mergeCell ref="K167:K168"/>
-    <mergeCell ref="L167:L168"/>
-    <mergeCell ref="M167:M168"/>
-    <mergeCell ref="N167:N168"/>
-    <mergeCell ref="O167:O168"/>
-    <mergeCell ref="Q167:Q168"/>
-    <mergeCell ref="R167:R168"/>
-    <mergeCell ref="P165:P166"/>
-    <mergeCell ref="P167:P168"/>
-    <mergeCell ref="G165:G166"/>
-    <mergeCell ref="H165:H166"/>
-    <mergeCell ref="I165:I166"/>
-    <mergeCell ref="M6:Q6"/>
-    <mergeCell ref="B8:B28"/>
-    <mergeCell ref="B29:B53"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="F42:F43"/>
-    <mergeCell ref="G42:G43"/>
-    <mergeCell ref="H42:H43"/>
-    <mergeCell ref="I42:I43"/>
-    <mergeCell ref="J42:J43"/>
-    <mergeCell ref="K42:K43"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="F45:F46"/>
-    <mergeCell ref="G45:G46"/>
-    <mergeCell ref="H45:H46"/>
-    <mergeCell ref="I45:I46"/>
-    <mergeCell ref="J45:J46"/>
-    <mergeCell ref="K45:K46"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="F49:F50"/>
-    <mergeCell ref="G49:G50"/>
-    <mergeCell ref="I49:I50"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="P42:P43"/>
-    <mergeCell ref="P45:P46"/>
-    <mergeCell ref="D106:D107"/>
-    <mergeCell ref="D130:D131"/>
-    <mergeCell ref="H102:H103"/>
-    <mergeCell ref="E130:E131"/>
-    <mergeCell ref="F130:F131"/>
-    <mergeCell ref="G130:G131"/>
-    <mergeCell ref="G106:G107"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="F118:F119"/>
-    <mergeCell ref="G118:G119"/>
-    <mergeCell ref="G62:G63"/>
-    <mergeCell ref="E106:E107"/>
-    <mergeCell ref="D102:D103"/>
-    <mergeCell ref="D104:D105"/>
-    <mergeCell ref="G102:G103"/>
-    <mergeCell ref="G104:G105"/>
-    <mergeCell ref="J47:J48"/>
-    <mergeCell ref="J49:J50"/>
-    <mergeCell ref="K47:K48"/>
-    <mergeCell ref="J55:K55"/>
-    <mergeCell ref="K49:K50"/>
-    <mergeCell ref="J51:J52"/>
-    <mergeCell ref="K51:K52"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="H100:H101"/>
-    <mergeCell ref="H98:H99"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="D45:D46"/>
-    <mergeCell ref="D47:D48"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="D51:D52"/>
-    <mergeCell ref="G98:G99"/>
-    <mergeCell ref="G100:G101"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="F51:F52"/>
-    <mergeCell ref="G51:G52"/>
-    <mergeCell ref="F47:F48"/>
-    <mergeCell ref="G47:G48"/>
-    <mergeCell ref="H47:H48"/>
-    <mergeCell ref="I47:I48"/>
-    <mergeCell ref="H51:H52"/>
-    <mergeCell ref="I51:I52"/>
-    <mergeCell ref="B109:B120"/>
-    <mergeCell ref="B64:B83"/>
-    <mergeCell ref="B84:B108"/>
-    <mergeCell ref="B62:B63"/>
-    <mergeCell ref="C62:C63"/>
-    <mergeCell ref="B132:B151"/>
-    <mergeCell ref="B152:B175"/>
-    <mergeCell ref="E165:E166"/>
-    <mergeCell ref="F165:F166"/>
-    <mergeCell ref="B130:B131"/>
-    <mergeCell ref="C130:C131"/>
-    <mergeCell ref="E100:E101"/>
-    <mergeCell ref="E62:E63"/>
-    <mergeCell ref="F62:F63"/>
-    <mergeCell ref="E118:E119"/>
-    <mergeCell ref="D62:D63"/>
-    <mergeCell ref="D100:D101"/>
-    <mergeCell ref="E98:E99"/>
-    <mergeCell ref="E104:E105"/>
-    <mergeCell ref="E102:E103"/>
-    <mergeCell ref="F100:F101"/>
-    <mergeCell ref="F102:F103"/>
-    <mergeCell ref="F104:F105"/>
-    <mergeCell ref="F106:F107"/>
-    <mergeCell ref="N47:N48"/>
-    <mergeCell ref="H130:I130"/>
-    <mergeCell ref="M47:M48"/>
-    <mergeCell ref="K100:K101"/>
-    <mergeCell ref="K102:K103"/>
-    <mergeCell ref="K104:K105"/>
-    <mergeCell ref="L47:L48"/>
-    <mergeCell ref="N51:N52"/>
-    <mergeCell ref="L100:L101"/>
-    <mergeCell ref="M62:Q62"/>
-    <mergeCell ref="L55:M55"/>
-    <mergeCell ref="Q104:Q105"/>
-    <mergeCell ref="P118:P119"/>
-    <mergeCell ref="H104:H105"/>
-    <mergeCell ref="H106:H107"/>
-    <mergeCell ref="I100:I101"/>
-    <mergeCell ref="I102:I103"/>
-    <mergeCell ref="H118:H119"/>
-    <mergeCell ref="I104:I105"/>
-    <mergeCell ref="I106:I107"/>
-    <mergeCell ref="P47:P48"/>
-    <mergeCell ref="P49:P50"/>
-    <mergeCell ref="P51:P52"/>
-    <mergeCell ref="P98:P99"/>
-    <mergeCell ref="R130:R131"/>
-    <mergeCell ref="L49:L50"/>
-    <mergeCell ref="M49:M50"/>
-    <mergeCell ref="O49:O50"/>
-    <mergeCell ref="Q49:Q50"/>
-    <mergeCell ref="R49:R50"/>
-    <mergeCell ref="O51:O52"/>
-    <mergeCell ref="Q51:Q52"/>
-    <mergeCell ref="R51:R52"/>
-    <mergeCell ref="Q98:Q99"/>
-    <mergeCell ref="R98:R99"/>
-    <mergeCell ref="Q106:Q107"/>
-    <mergeCell ref="R102:R103"/>
-    <mergeCell ref="R104:R105"/>
-    <mergeCell ref="R106:R107"/>
-    <mergeCell ref="M106:M107"/>
-    <mergeCell ref="L130:L131"/>
-    <mergeCell ref="N49:N50"/>
-    <mergeCell ref="R118:R119"/>
-    <mergeCell ref="O118:O119"/>
-    <mergeCell ref="Q118:Q119"/>
-    <mergeCell ref="L122:M122"/>
-    <mergeCell ref="N104:N105"/>
-    <mergeCell ref="N106:N107"/>
-    <mergeCell ref="R6:R7"/>
-    <mergeCell ref="L42:L43"/>
-    <mergeCell ref="M42:M43"/>
-    <mergeCell ref="N42:N43"/>
-    <mergeCell ref="O42:O43"/>
-    <mergeCell ref="Q42:Q43"/>
-    <mergeCell ref="R42:R43"/>
-    <mergeCell ref="L45:L46"/>
-    <mergeCell ref="L102:L103"/>
-    <mergeCell ref="N100:N101"/>
-    <mergeCell ref="N102:N103"/>
-    <mergeCell ref="Q100:Q101"/>
-    <mergeCell ref="Q102:Q103"/>
-    <mergeCell ref="R62:R63"/>
-    <mergeCell ref="L62:L63"/>
-    <mergeCell ref="M45:M46"/>
-    <mergeCell ref="N45:N46"/>
-    <mergeCell ref="O45:O46"/>
-    <mergeCell ref="Q45:Q46"/>
-    <mergeCell ref="R45:R46"/>
-    <mergeCell ref="O47:O48"/>
-    <mergeCell ref="Q47:Q48"/>
-    <mergeCell ref="R47:R48"/>
-    <mergeCell ref="R100:R101"/>
-    <mergeCell ref="J195:K195"/>
-    <mergeCell ref="L195:M195"/>
-    <mergeCell ref="L165:L166"/>
-    <mergeCell ref="M165:M166"/>
-    <mergeCell ref="L169:L170"/>
-    <mergeCell ref="M169:M170"/>
-    <mergeCell ref="J165:J166"/>
-    <mergeCell ref="K165:K166"/>
-    <mergeCell ref="M130:Q130"/>
-    <mergeCell ref="Q169:Q170"/>
-    <mergeCell ref="N169:N170"/>
-    <mergeCell ref="O165:O166"/>
-    <mergeCell ref="Q165:Q166"/>
-    <mergeCell ref="N165:N166"/>
-    <mergeCell ref="P169:P170"/>
-    <mergeCell ref="P171:P172"/>
-    <mergeCell ref="P173:P174"/>
-    <mergeCell ref="J130:K130"/>
-    <mergeCell ref="L171:L172"/>
-    <mergeCell ref="M171:M172"/>
-    <mergeCell ref="N171:N172"/>
-    <mergeCell ref="O171:O172"/>
-    <mergeCell ref="Q171:Q172"/>
-    <mergeCell ref="J184:J185"/>
-    <mergeCell ref="D167:D168"/>
-    <mergeCell ref="D169:D170"/>
-    <mergeCell ref="D171:D172"/>
-    <mergeCell ref="D173:D174"/>
-    <mergeCell ref="H49:H50"/>
-    <mergeCell ref="M100:M101"/>
-    <mergeCell ref="M102:M103"/>
-    <mergeCell ref="P106:P107"/>
-    <mergeCell ref="J122:K122"/>
-    <mergeCell ref="J106:J107"/>
-    <mergeCell ref="J118:J119"/>
-    <mergeCell ref="K118:K119"/>
-    <mergeCell ref="L118:L119"/>
-    <mergeCell ref="M118:M119"/>
-    <mergeCell ref="N118:N119"/>
-    <mergeCell ref="F98:F99"/>
-    <mergeCell ref="J100:J101"/>
-    <mergeCell ref="J102:J103"/>
-    <mergeCell ref="H62:I62"/>
-    <mergeCell ref="J62:K62"/>
-    <mergeCell ref="K106:K107"/>
-    <mergeCell ref="L51:L52"/>
-    <mergeCell ref="M51:M52"/>
-    <mergeCell ref="I118:I119"/>
-    <mergeCell ref="S98:S99"/>
-    <mergeCell ref="S100:S101"/>
-    <mergeCell ref="S102:S103"/>
-    <mergeCell ref="S104:S105"/>
-    <mergeCell ref="S106:S107"/>
-    <mergeCell ref="I98:I99"/>
-    <mergeCell ref="J98:J99"/>
-    <mergeCell ref="M98:M99"/>
-    <mergeCell ref="N98:N99"/>
-    <mergeCell ref="O98:O99"/>
-    <mergeCell ref="L98:L99"/>
-    <mergeCell ref="K98:K99"/>
-    <mergeCell ref="O100:O101"/>
-    <mergeCell ref="O102:O103"/>
-    <mergeCell ref="O104:O105"/>
-    <mergeCell ref="O106:O107"/>
-    <mergeCell ref="L104:L105"/>
-    <mergeCell ref="L106:L107"/>
-    <mergeCell ref="M104:M105"/>
-    <mergeCell ref="J104:J105"/>
-    <mergeCell ref="P100:P101"/>
-    <mergeCell ref="P102:P103"/>
-    <mergeCell ref="P104:P105"/>
+    <mergeCell ref="K184:K185"/>
+    <mergeCell ref="L184:L185"/>
+    <mergeCell ref="M184:M185"/>
+    <mergeCell ref="N184:N185"/>
+    <mergeCell ref="R169:R170"/>
+    <mergeCell ref="E171:E172"/>
+    <mergeCell ref="F171:F172"/>
+    <mergeCell ref="G171:G172"/>
+    <mergeCell ref="H171:H172"/>
+    <mergeCell ref="I171:I172"/>
+    <mergeCell ref="J171:J172"/>
+    <mergeCell ref="K171:K172"/>
+    <mergeCell ref="R171:R172"/>
+    <mergeCell ref="E169:E170"/>
+    <mergeCell ref="F169:F170"/>
+    <mergeCell ref="G169:G170"/>
+    <mergeCell ref="H169:H170"/>
+    <mergeCell ref="I169:I170"/>
+    <mergeCell ref="J169:J170"/>
+    <mergeCell ref="K169:K170"/>
+    <mergeCell ref="O169:O170"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.78740157480314965" right="0.78740157480314965" top="0.19685039370078741" bottom="0.23622047244094491" header="0" footer="0"/>
-  <pageSetup paperSize="8" scale="81" fitToHeight="0" orientation="portrait" horizontalDpi="4294967294" r:id="rId1"/>
+  <pageSetup paperSize="8" scale="82" fitToHeight="0" orientation="portrait" horizontalDpi="4294967294" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="2" manualBreakCount="2">
     <brk id="59" max="16383" man="1"/>
@@ -21496,28 +21547,28 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
   <dimension ref="A1:X160"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A55" zoomScale="70" zoomScaleNormal="85" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="C74" sqref="C74:R75"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A119" zoomScale="70" zoomScaleNormal="85" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="F144" sqref="F144"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="9.25" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="1.77734375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="9.21875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="28.6640625" style="15" customWidth="1"/>
-    <col min="4" max="4" width="10.6640625" style="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="1.75" style="2" customWidth="1"/>
+    <col min="2" max="2" width="9.25" style="2" customWidth="1"/>
+    <col min="3" max="3" width="28.625" style="15" customWidth="1"/>
+    <col min="4" max="4" width="10.625" style="15" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10" style="2" customWidth="1"/>
-    <col min="6" max="7" width="9.109375" style="2" customWidth="1"/>
+    <col min="6" max="7" width="9.125" style="2" customWidth="1"/>
     <col min="8" max="18" width="7" style="2" customWidth="1"/>
-    <col min="19" max="19" width="5.33203125" style="6" customWidth="1"/>
-    <col min="20" max="20" width="5.33203125" style="238" customWidth="1"/>
-    <col min="21" max="16384" width="9.21875" style="2"/>
+    <col min="19" max="19" width="5.375" style="6" customWidth="1"/>
+    <col min="20" max="20" width="5.375" style="238" customWidth="1"/>
+    <col min="21" max="16384" width="9.25" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20">
@@ -21550,62 +21601,62 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="21.6" thickBot="1">
+    <row r="4" spans="1:20" ht="21.75" thickBot="1">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:20" ht="18" customHeight="1" thickBot="1">
-      <c r="B5" s="312" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="328" t="s">
+      <c r="B5" s="316" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="331" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="335" t="s">
+      <c r="D5" s="321" t="s">
         <v>106</v>
       </c>
-      <c r="E5" s="312" t="s">
-        <v>4</v>
-      </c>
-      <c r="F5" s="333" t="s">
+      <c r="E5" s="316" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="323" t="s">
         <v>51</v>
       </c>
-      <c r="G5" s="333" t="s">
+      <c r="G5" s="323" t="s">
         <v>52</v>
       </c>
-      <c r="H5" s="304" t="s">
+      <c r="H5" s="307" t="s">
         <v>5</v>
       </c>
-      <c r="I5" s="305"/>
-      <c r="J5" s="304" t="s">
+      <c r="I5" s="325"/>
+      <c r="J5" s="307" t="s">
         <v>6</v>
       </c>
-      <c r="K5" s="305"/>
-      <c r="L5" s="342" t="s">
+      <c r="K5" s="325"/>
+      <c r="L5" s="346" t="s">
         <v>26</v>
       </c>
-      <c r="M5" s="304" t="s">
+      <c r="M5" s="307" t="s">
         <v>7</v>
       </c>
-      <c r="N5" s="310"/>
-      <c r="O5" s="310"/>
-      <c r="P5" s="310"/>
-      <c r="Q5" s="305"/>
-      <c r="R5" s="312" t="s">
+      <c r="N5" s="308"/>
+      <c r="O5" s="308"/>
+      <c r="P5" s="308"/>
+      <c r="Q5" s="325"/>
+      <c r="R5" s="316" t="s">
         <v>35</v>
       </c>
       <c r="S5" s="58"/>
       <c r="T5" s="239"/>
     </row>
     <row r="6" spans="1:20" ht="18" customHeight="1" thickBot="1">
-      <c r="B6" s="313"/>
-      <c r="C6" s="339"/>
-      <c r="D6" s="336"/>
-      <c r="E6" s="313"/>
-      <c r="F6" s="334"/>
-      <c r="G6" s="334"/>
+      <c r="B6" s="317"/>
+      <c r="C6" s="332"/>
+      <c r="D6" s="322"/>
+      <c r="E6" s="317"/>
+      <c r="F6" s="324"/>
+      <c r="G6" s="324"/>
       <c r="H6" s="90" t="s">
         <v>8</v>
       </c>
@@ -21618,7 +21669,7 @@
       <c r="K6" s="60" t="s">
         <v>30</v>
       </c>
-      <c r="L6" s="343"/>
+      <c r="L6" s="347"/>
       <c r="M6" s="10" t="s">
         <v>22</v>
       </c>
@@ -21634,12 +21685,12 @@
       <c r="Q6" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="R6" s="313"/>
+      <c r="R6" s="317"/>
       <c r="S6" s="59"/>
       <c r="T6" s="240"/>
     </row>
     <row r="7" spans="1:20" ht="16.5" customHeight="1">
-      <c r="B7" s="325" t="s">
+      <c r="B7" s="310" t="s">
         <v>82</v>
       </c>
       <c r="C7" s="19" t="s">
@@ -21691,7 +21742,7 @@
       <c r="T7" s="172"/>
     </row>
     <row r="8" spans="1:20" ht="16.5" customHeight="1">
-      <c r="B8" s="325"/>
+      <c r="B8" s="310"/>
       <c r="C8" s="43" t="s">
         <v>103</v>
       </c>
@@ -21741,7 +21792,7 @@
       <c r="T8" s="172"/>
     </row>
     <row r="9" spans="1:20" ht="16.5" customHeight="1">
-      <c r="B9" s="325"/>
+      <c r="B9" s="310"/>
       <c r="C9" s="43" t="s">
         <v>261</v>
       </c>
@@ -21791,7 +21842,7 @@
       <c r="T9" s="172"/>
     </row>
     <row r="10" spans="1:20" ht="16.5" customHeight="1">
-      <c r="B10" s="325"/>
+      <c r="B10" s="310"/>
       <c r="C10" s="43" t="s">
         <v>16</v>
       </c>
@@ -21841,7 +21892,7 @@
       <c r="T10" s="172"/>
     </row>
     <row r="11" spans="1:20" ht="16.5" hidden="1" customHeight="1">
-      <c r="B11" s="325"/>
+      <c r="B11" s="310"/>
       <c r="C11" s="173" t="s">
         <v>130</v>
       </c>
@@ -21891,7 +21942,7 @@
       <c r="T11" s="172"/>
     </row>
     <row r="12" spans="1:20" ht="16.5" customHeight="1">
-      <c r="B12" s="325"/>
+      <c r="B12" s="310"/>
       <c r="C12" s="43" t="s">
         <v>297</v>
       </c>
@@ -21941,7 +21992,7 @@
       <c r="T12" s="172"/>
     </row>
     <row r="13" spans="1:20" ht="16.5" customHeight="1">
-      <c r="B13" s="325"/>
+      <c r="B13" s="310"/>
       <c r="C13" s="43" t="s">
         <v>298</v>
       </c>
@@ -21991,7 +22042,7 @@
       <c r="T13" s="172"/>
     </row>
     <row r="14" spans="1:20" ht="16.5" customHeight="1">
-      <c r="B14" s="325"/>
+      <c r="B14" s="310"/>
       <c r="C14" s="43" t="s">
         <v>238</v>
       </c>
@@ -22041,7 +22092,7 @@
       <c r="T14" s="172"/>
     </row>
     <row r="15" spans="1:20" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B15" s="325"/>
+      <c r="B15" s="310"/>
       <c r="C15" s="147" t="s">
         <v>239</v>
       </c>
@@ -22091,7 +22142,7 @@
       <c r="T15" s="172"/>
     </row>
     <row r="16" spans="1:20" ht="16.5" customHeight="1">
-      <c r="B16" s="325"/>
+      <c r="B16" s="310"/>
       <c r="C16" s="19" t="s">
         <v>68</v>
       </c>
@@ -22141,7 +22192,7 @@
       <c r="T16" s="172"/>
     </row>
     <row r="17" spans="1:23" ht="16.5" customHeight="1">
-      <c r="B17" s="325"/>
+      <c r="B17" s="310"/>
       <c r="C17" s="43" t="s">
         <v>74</v>
       </c>
@@ -22191,7 +22242,7 @@
       <c r="T17" s="172"/>
     </row>
     <row r="18" spans="1:23" ht="16.5" customHeight="1">
-      <c r="B18" s="325"/>
+      <c r="B18" s="310"/>
       <c r="C18" s="43" t="s">
         <v>77</v>
       </c>
@@ -22241,7 +22292,7 @@
       <c r="T18" s="172"/>
     </row>
     <row r="19" spans="1:23" ht="16.5" customHeight="1">
-      <c r="B19" s="325"/>
+      <c r="B19" s="310"/>
       <c r="C19" s="43" t="s">
         <v>78</v>
       </c>
@@ -22291,7 +22342,7 @@
       <c r="T19" s="172"/>
     </row>
     <row r="20" spans="1:23" ht="16.5" customHeight="1">
-      <c r="B20" s="325"/>
+      <c r="B20" s="310"/>
       <c r="C20" s="43" t="s">
         <v>79</v>
       </c>
@@ -22341,7 +22392,7 @@
       <c r="T20" s="172"/>
     </row>
     <row r="21" spans="1:23" ht="16.5" customHeight="1">
-      <c r="B21" s="325"/>
+      <c r="B21" s="310"/>
       <c r="C21" s="43" t="s">
         <v>80</v>
       </c>
@@ -22391,7 +22442,7 @@
       <c r="T21" s="172"/>
     </row>
     <row r="22" spans="1:23" ht="16.5" customHeight="1">
-      <c r="B22" s="325"/>
+      <c r="B22" s="310"/>
       <c r="C22" s="43" t="s">
         <v>268</v>
       </c>
@@ -22441,7 +22492,7 @@
       <c r="T22" s="172"/>
     </row>
     <row r="23" spans="1:23" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B23" s="325"/>
+      <c r="B23" s="310"/>
       <c r="C23" s="43" t="s">
         <v>269</v>
       </c>
@@ -22491,7 +22542,7 @@
       <c r="T23" s="172"/>
     </row>
     <row r="24" spans="1:23" ht="16.5" hidden="1" customHeight="1">
-      <c r="B24" s="325"/>
+      <c r="B24" s="310"/>
       <c r="C24" s="175" t="s">
         <v>280</v>
       </c>
@@ -22541,7 +22592,7 @@
       <c r="T24" s="172"/>
     </row>
     <row r="25" spans="1:23" ht="16.5" hidden="1" customHeight="1" thickBot="1">
-      <c r="B25" s="325"/>
+      <c r="B25" s="310"/>
       <c r="C25" s="177" t="s">
         <v>281</v>
       </c>
@@ -22593,7 +22644,7 @@
       <c r="V25" s="6"/>
     </row>
     <row r="26" spans="1:23" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B26" s="326"/>
+      <c r="B26" s="311"/>
       <c r="C26" s="17" t="s">
         <v>11</v>
       </c>
@@ -22682,14 +22733,14 @@
       <c r="I28" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="J28" s="299" t="s">
+      <c r="J28" s="329" t="s">
         <v>8</v>
       </c>
-      <c r="K28" s="300"/>
-      <c r="L28" s="308" t="s">
+      <c r="K28" s="330"/>
+      <c r="L28" s="338" t="s">
         <v>48</v>
       </c>
-      <c r="M28" s="309"/>
+      <c r="M28" s="339"/>
       <c r="N28" s="84" t="s">
         <v>49</v>
       </c>
@@ -22824,7 +22875,7 @@
       <c r="S32" s="36"/>
       <c r="T32" s="241"/>
     </row>
-    <row r="33" spans="2:20" ht="13.8" thickBot="1">
+    <row r="33" spans="2:20" ht="14.25" thickBot="1">
       <c r="B33" s="3"/>
       <c r="C33" s="16"/>
       <c r="D33" s="16"/>
@@ -22846,55 +22897,55 @@
       <c r="T33" s="242"/>
     </row>
     <row r="34" spans="2:20" ht="18" customHeight="1" thickBot="1">
-      <c r="B34" s="312" t="s">
-        <v>2</v>
-      </c>
-      <c r="C34" s="328" t="s">
+      <c r="B34" s="316" t="s">
+        <v>2</v>
+      </c>
+      <c r="C34" s="331" t="s">
         <v>3</v>
       </c>
-      <c r="D34" s="335" t="s">
+      <c r="D34" s="321" t="s">
         <v>106</v>
       </c>
-      <c r="E34" s="312" t="s">
-        <v>4</v>
-      </c>
-      <c r="F34" s="333" t="s">
+      <c r="E34" s="316" t="s">
+        <v>4</v>
+      </c>
+      <c r="F34" s="323" t="s">
         <v>51</v>
       </c>
-      <c r="G34" s="333" t="s">
+      <c r="G34" s="323" t="s">
         <v>52</v>
       </c>
-      <c r="H34" s="304" t="s">
+      <c r="H34" s="307" t="s">
         <v>5</v>
       </c>
-      <c r="I34" s="305"/>
-      <c r="J34" s="304" t="s">
+      <c r="I34" s="325"/>
+      <c r="J34" s="307" t="s">
         <v>6</v>
       </c>
-      <c r="K34" s="305"/>
-      <c r="L34" s="342" t="s">
+      <c r="K34" s="325"/>
+      <c r="L34" s="346" t="s">
         <v>26</v>
       </c>
-      <c r="M34" s="304" t="s">
+      <c r="M34" s="307" t="s">
         <v>7</v>
       </c>
-      <c r="N34" s="310"/>
-      <c r="O34" s="310"/>
-      <c r="P34" s="310"/>
-      <c r="Q34" s="305"/>
-      <c r="R34" s="312" t="s">
+      <c r="N34" s="308"/>
+      <c r="O34" s="308"/>
+      <c r="P34" s="308"/>
+      <c r="Q34" s="325"/>
+      <c r="R34" s="316" t="s">
         <v>35</v>
       </c>
       <c r="S34" s="58"/>
       <c r="T34" s="239"/>
     </row>
     <row r="35" spans="2:20" ht="18" customHeight="1" thickBot="1">
-      <c r="B35" s="313"/>
-      <c r="C35" s="339"/>
-      <c r="D35" s="336"/>
-      <c r="E35" s="313"/>
-      <c r="F35" s="334"/>
-      <c r="G35" s="334"/>
+      <c r="B35" s="317"/>
+      <c r="C35" s="332"/>
+      <c r="D35" s="322"/>
+      <c r="E35" s="317"/>
+      <c r="F35" s="324"/>
+      <c r="G35" s="324"/>
       <c r="H35" s="90" t="s">
         <v>8</v>
       </c>
@@ -22907,7 +22958,7 @@
       <c r="K35" s="60" t="s">
         <v>30</v>
       </c>
-      <c r="L35" s="343"/>
+      <c r="L35" s="347"/>
       <c r="M35" s="10" t="s">
         <v>22</v>
       </c>
@@ -22923,12 +22974,12 @@
       <c r="Q35" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="R35" s="313"/>
+      <c r="R35" s="317"/>
       <c r="S35" s="59"/>
       <c r="T35" s="240"/>
     </row>
     <row r="36" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B36" s="325" t="s">
+      <c r="B36" s="310" t="s">
         <v>137</v>
       </c>
       <c r="C36" s="19" t="s">
@@ -22980,7 +23031,7 @@
       <c r="T36" s="172"/>
     </row>
     <row r="37" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B37" s="325"/>
+      <c r="B37" s="310"/>
       <c r="C37" s="43" t="s">
         <v>103</v>
       </c>
@@ -23030,7 +23081,7 @@
       <c r="T37" s="172"/>
     </row>
     <row r="38" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B38" s="325"/>
+      <c r="B38" s="310"/>
       <c r="C38" s="43" t="s">
         <v>260</v>
       </c>
@@ -23080,7 +23131,7 @@
       <c r="T38" s="172"/>
     </row>
     <row r="39" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B39" s="325"/>
+      <c r="B39" s="310"/>
       <c r="C39" s="43" t="s">
         <v>66</v>
       </c>
@@ -23130,7 +23181,7 @@
       <c r="T39" s="172"/>
     </row>
     <row r="40" spans="2:20" ht="16.5" hidden="1" customHeight="1">
-      <c r="B40" s="325"/>
+      <c r="B40" s="310"/>
       <c r="C40" s="173" t="s">
         <v>130</v>
       </c>
@@ -23180,7 +23231,7 @@
       <c r="T40" s="172"/>
     </row>
     <row r="41" spans="2:20" ht="16.5" hidden="1" customHeight="1">
-      <c r="B41" s="325"/>
+      <c r="B41" s="310"/>
       <c r="C41" s="173" t="s">
         <v>75</v>
       </c>
@@ -23230,7 +23281,7 @@
       <c r="T41" s="172"/>
     </row>
     <row r="42" spans="2:20" ht="16.5" hidden="1" customHeight="1">
-      <c r="B42" s="325"/>
+      <c r="B42" s="310"/>
       <c r="C42" s="173" t="s">
         <v>76</v>
       </c>
@@ -23280,7 +23331,7 @@
       <c r="T42" s="172"/>
     </row>
     <row r="43" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B43" s="325"/>
+      <c r="B43" s="310"/>
       <c r="C43" s="43" t="s">
         <v>238</v>
       </c>
@@ -23330,7 +23381,7 @@
       <c r="T43" s="172"/>
     </row>
     <row r="44" spans="2:20" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B44" s="325"/>
+      <c r="B44" s="310"/>
       <c r="C44" s="147" t="s">
         <v>239</v>
       </c>
@@ -23380,7 +23431,7 @@
       <c r="T44" s="172"/>
     </row>
     <row r="45" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B45" s="325"/>
+      <c r="B45" s="310"/>
       <c r="C45" s="19" t="s">
         <v>68</v>
       </c>
@@ -23430,7 +23481,7 @@
       <c r="T45" s="172"/>
     </row>
     <row r="46" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B46" s="325"/>
+      <c r="B46" s="310"/>
       <c r="C46" s="43" t="s">
         <v>266</v>
       </c>
@@ -23480,7 +23531,7 @@
       <c r="T46" s="172"/>
     </row>
     <row r="47" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B47" s="325"/>
+      <c r="B47" s="310"/>
       <c r="C47" s="22" t="s">
         <v>300</v>
       </c>
@@ -23530,7 +23581,7 @@
       <c r="T47" s="172"/>
     </row>
     <row r="48" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B48" s="325"/>
+      <c r="B48" s="310"/>
       <c r="C48" s="43" t="s">
         <v>128</v>
       </c>
@@ -23580,7 +23631,7 @@
       <c r="T48" s="172"/>
     </row>
     <row r="49" spans="2:22" ht="16.5" customHeight="1">
-      <c r="B49" s="325"/>
+      <c r="B49" s="310"/>
       <c r="C49" s="43" t="s">
         <v>74</v>
       </c>
@@ -23630,7 +23681,7 @@
       <c r="T49" s="172"/>
     </row>
     <row r="50" spans="2:22" ht="16.5" customHeight="1">
-      <c r="B50" s="325"/>
+      <c r="B50" s="310"/>
       <c r="C50" s="43" t="s">
         <v>77</v>
       </c>
@@ -23680,7 +23731,7 @@
       <c r="T50" s="172"/>
     </row>
     <row r="51" spans="2:22" ht="16.5" customHeight="1">
-      <c r="B51" s="325"/>
+      <c r="B51" s="310"/>
       <c r="C51" s="43" t="s">
         <v>78</v>
       </c>
@@ -23730,7 +23781,7 @@
       <c r="T51" s="172"/>
     </row>
     <row r="52" spans="2:22" ht="16.5" customHeight="1">
-      <c r="B52" s="325"/>
+      <c r="B52" s="310"/>
       <c r="C52" s="43" t="s">
         <v>79</v>
       </c>
@@ -23780,7 +23831,7 @@
       <c r="T52" s="172"/>
     </row>
     <row r="53" spans="2:22" ht="16.5" customHeight="1">
-      <c r="B53" s="325"/>
+      <c r="B53" s="310"/>
       <c r="C53" s="43" t="s">
         <v>80</v>
       </c>
@@ -23830,7 +23881,7 @@
       <c r="T53" s="172"/>
     </row>
     <row r="54" spans="2:22" ht="16.5" customHeight="1">
-      <c r="B54" s="325"/>
+      <c r="B54" s="310"/>
       <c r="C54" s="43" t="s">
         <v>133</v>
       </c>
@@ -23880,7 +23931,7 @@
       <c r="T54" s="172"/>
     </row>
     <row r="55" spans="2:22" ht="16.5" customHeight="1">
-      <c r="B55" s="325"/>
+      <c r="B55" s="310"/>
       <c r="C55" s="43" t="s">
         <v>268</v>
       </c>
@@ -23930,7 +23981,7 @@
       <c r="T55" s="172"/>
     </row>
     <row r="56" spans="2:22" ht="16.5" customHeight="1">
-      <c r="B56" s="325"/>
+      <c r="B56" s="310"/>
       <c r="C56" s="43" t="s">
         <v>269</v>
       </c>
@@ -23980,7 +24031,7 @@
       <c r="T56" s="172"/>
     </row>
     <row r="57" spans="2:22" ht="16.5" customHeight="1">
-      <c r="B57" s="325"/>
+      <c r="B57" s="310"/>
       <c r="C57" s="264" t="s">
         <v>374</v>
       </c>
@@ -24030,7 +24081,7 @@
       <c r="T57" s="172"/>
     </row>
     <row r="58" spans="2:22" ht="16.5" customHeight="1">
-      <c r="B58" s="325"/>
+      <c r="B58" s="310"/>
       <c r="C58" s="264" t="s">
         <v>375</v>
       </c>
@@ -24080,7 +24131,7 @@
       <c r="T58" s="172"/>
     </row>
     <row r="59" spans="2:22" ht="16.5" customHeight="1">
-      <c r="B59" s="325"/>
+      <c r="B59" s="310"/>
       <c r="C59" s="264" t="s">
         <v>376</v>
       </c>
@@ -24130,7 +24181,7 @@
       <c r="T59" s="172"/>
     </row>
     <row r="60" spans="2:22" ht="16.5" customHeight="1">
-      <c r="B60" s="325"/>
+      <c r="B60" s="310"/>
       <c r="C60" s="264" t="s">
         <v>376</v>
       </c>
@@ -24180,7 +24231,7 @@
       <c r="T60" s="172"/>
     </row>
     <row r="61" spans="2:22" ht="16.5" customHeight="1">
-      <c r="B61" s="325"/>
+      <c r="B61" s="310"/>
       <c r="C61" s="43" t="s">
         <v>280</v>
       </c>
@@ -24230,7 +24281,7 @@
       <c r="T61" s="172"/>
     </row>
     <row r="62" spans="2:22" ht="16.5" customHeight="1">
-      <c r="B62" s="325"/>
+      <c r="B62" s="310"/>
       <c r="C62" s="43" t="s">
         <v>362</v>
       </c>
@@ -24280,7 +24331,7 @@
       <c r="T62" s="172"/>
     </row>
     <row r="63" spans="2:22" ht="16.5" customHeight="1">
-      <c r="B63" s="325"/>
+      <c r="B63" s="310"/>
       <c r="C63" s="43" t="s">
         <v>363</v>
       </c>
@@ -24330,7 +24381,7 @@
       <c r="T63" s="172"/>
     </row>
     <row r="64" spans="2:22" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B64" s="325"/>
+      <c r="B64" s="310"/>
       <c r="C64" s="169" t="s">
         <v>364</v>
       </c>
@@ -24382,7 +24433,7 @@
       <c r="V64" s="6"/>
     </row>
     <row r="65" spans="2:23" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B65" s="326"/>
+      <c r="B65" s="311"/>
       <c r="C65" s="17" t="s">
         <v>11</v>
       </c>
@@ -24441,7 +24492,7 @@
       <c r="W65" s="6"/>
     </row>
     <row r="66" spans="2:23" ht="16.5" customHeight="1">
-      <c r="B66" s="327" t="s">
+      <c r="B66" s="312" t="s">
         <v>138</v>
       </c>
       <c r="C66" s="19" t="s">
@@ -24493,7 +24544,7 @@
       <c r="T66" s="172"/>
     </row>
     <row r="67" spans="2:23" ht="16.5" customHeight="1">
-      <c r="B67" s="325"/>
+      <c r="B67" s="310"/>
       <c r="C67" s="43" t="s">
         <v>301</v>
       </c>
@@ -24543,7 +24594,7 @@
       <c r="T67" s="172"/>
     </row>
     <row r="68" spans="2:23" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B68" s="325"/>
+      <c r="B68" s="310"/>
       <c r="C68" s="146" t="s">
         <v>70</v>
       </c>
@@ -24593,7 +24644,7 @@
       <c r="T68" s="172"/>
     </row>
     <row r="69" spans="2:23" ht="16.5" customHeight="1">
-      <c r="B69" s="325"/>
+      <c r="B69" s="310"/>
       <c r="C69" s="19" t="s">
         <v>117</v>
       </c>
@@ -24643,7 +24694,7 @@
       <c r="T69" s="172"/>
     </row>
     <row r="70" spans="2:23" ht="16.5" customHeight="1">
-      <c r="B70" s="325"/>
+      <c r="B70" s="310"/>
       <c r="C70" s="43" t="s">
         <v>118</v>
       </c>
@@ -24693,7 +24744,7 @@
       <c r="T70" s="172"/>
     </row>
     <row r="71" spans="2:23" ht="16.5" customHeight="1">
-      <c r="B71" s="325"/>
+      <c r="B71" s="310"/>
       <c r="C71" s="43" t="s">
         <v>131</v>
       </c>
@@ -24743,7 +24794,7 @@
       <c r="T71" s="172"/>
     </row>
     <row r="72" spans="2:23" ht="16.5" customHeight="1">
-      <c r="B72" s="325"/>
+      <c r="B72" s="310"/>
       <c r="C72" s="43" t="s">
         <v>129</v>
       </c>
@@ -24793,7 +24844,7 @@
       <c r="T72" s="172"/>
     </row>
     <row r="73" spans="2:23" ht="16.5" customHeight="1">
-      <c r="B73" s="325"/>
+      <c r="B73" s="310"/>
       <c r="C73" s="43" t="s">
         <v>372</v>
       </c>
@@ -24843,7 +24894,7 @@
       <c r="T73" s="172"/>
     </row>
     <row r="74" spans="2:23" ht="16.5" customHeight="1">
-      <c r="B74" s="325"/>
+      <c r="B74" s="310"/>
       <c r="C74" s="269" t="s">
         <v>370</v>
       </c>
@@ -24893,7 +24944,7 @@
       <c r="T74" s="172"/>
     </row>
     <row r="75" spans="2:23" ht="16.5" customHeight="1">
-      <c r="B75" s="325"/>
+      <c r="B75" s="310"/>
       <c r="C75" s="269" t="s">
         <v>371</v>
       </c>
@@ -24943,7 +24994,7 @@
       <c r="T75" s="172"/>
     </row>
     <row r="76" spans="2:23" ht="16.5" customHeight="1">
-      <c r="B76" s="325"/>
+      <c r="B76" s="310"/>
       <c r="C76" s="22" t="s">
         <v>155</v>
       </c>
@@ -24995,7 +25046,7 @@
       <c r="T76" s="172"/>
     </row>
     <row r="77" spans="2:23" ht="16.5" customHeight="1">
-      <c r="B77" s="325"/>
+      <c r="B77" s="310"/>
       <c r="C77" s="22" t="s">
         <v>71</v>
       </c>
@@ -25045,7 +25096,7 @@
       <c r="T77" s="172"/>
     </row>
     <row r="78" spans="2:23" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B78" s="325"/>
+      <c r="B78" s="310"/>
       <c r="C78" s="22" t="s">
         <v>226</v>
       </c>
@@ -25095,7 +25146,7 @@
       <c r="T78" s="172"/>
     </row>
     <row r="79" spans="2:23" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B79" s="326"/>
+      <c r="B79" s="311"/>
       <c r="C79" s="17" t="s">
         <v>11</v>
       </c>
@@ -25184,14 +25235,14 @@
       <c r="I81" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="J81" s="299" t="s">
+      <c r="J81" s="329" t="s">
         <v>8</v>
       </c>
-      <c r="K81" s="300"/>
-      <c r="L81" s="308" t="s">
+      <c r="K81" s="330"/>
+      <c r="L81" s="338" t="s">
         <v>48</v>
       </c>
-      <c r="M81" s="309"/>
+      <c r="M81" s="339"/>
       <c r="N81" s="84" t="s">
         <v>49</v>
       </c>
@@ -25365,7 +25416,7 @@
       <c r="S86" s="36"/>
       <c r="T86" s="241"/>
     </row>
-    <row r="87" spans="1:20" ht="13.8" thickBot="1">
+    <row r="87" spans="1:20" ht="14.25" thickBot="1">
       <c r="B87" s="3"/>
       <c r="C87" s="16"/>
       <c r="D87" s="16"/>
@@ -25387,55 +25438,55 @@
       <c r="T87" s="242"/>
     </row>
     <row r="88" spans="1:20" ht="18" customHeight="1" thickBot="1">
-      <c r="B88" s="312" t="s">
-        <v>2</v>
-      </c>
-      <c r="C88" s="328" t="s">
+      <c r="B88" s="316" t="s">
+        <v>2</v>
+      </c>
+      <c r="C88" s="331" t="s">
         <v>3</v>
       </c>
-      <c r="D88" s="335" t="s">
+      <c r="D88" s="321" t="s">
         <v>106</v>
       </c>
-      <c r="E88" s="312" t="s">
-        <v>4</v>
-      </c>
-      <c r="F88" s="333" t="s">
+      <c r="E88" s="316" t="s">
+        <v>4</v>
+      </c>
+      <c r="F88" s="323" t="s">
         <v>51</v>
       </c>
-      <c r="G88" s="333" t="s">
+      <c r="G88" s="323" t="s">
         <v>52</v>
       </c>
-      <c r="H88" s="304" t="s">
+      <c r="H88" s="307" t="s">
         <v>5</v>
       </c>
-      <c r="I88" s="305"/>
-      <c r="J88" s="304" t="s">
+      <c r="I88" s="325"/>
+      <c r="J88" s="307" t="s">
         <v>6</v>
       </c>
-      <c r="K88" s="305"/>
-      <c r="L88" s="342" t="s">
+      <c r="K88" s="325"/>
+      <c r="L88" s="346" t="s">
         <v>26</v>
       </c>
-      <c r="M88" s="304" t="s">
+      <c r="M88" s="307" t="s">
         <v>7</v>
       </c>
-      <c r="N88" s="310"/>
-      <c r="O88" s="310"/>
-      <c r="P88" s="310"/>
-      <c r="Q88" s="305"/>
-      <c r="R88" s="312" t="s">
+      <c r="N88" s="308"/>
+      <c r="O88" s="308"/>
+      <c r="P88" s="308"/>
+      <c r="Q88" s="325"/>
+      <c r="R88" s="316" t="s">
         <v>35</v>
       </c>
       <c r="S88" s="58"/>
       <c r="T88" s="239"/>
     </row>
     <row r="89" spans="1:20" ht="18" customHeight="1" thickBot="1">
-      <c r="B89" s="313"/>
-      <c r="C89" s="339"/>
-      <c r="D89" s="336"/>
-      <c r="E89" s="313"/>
-      <c r="F89" s="334"/>
-      <c r="G89" s="334"/>
+      <c r="B89" s="317"/>
+      <c r="C89" s="332"/>
+      <c r="D89" s="322"/>
+      <c r="E89" s="317"/>
+      <c r="F89" s="324"/>
+      <c r="G89" s="324"/>
       <c r="H89" s="90" t="s">
         <v>8</v>
       </c>
@@ -25448,7 +25499,7 @@
       <c r="K89" s="60" t="s">
         <v>30</v>
       </c>
-      <c r="L89" s="343"/>
+      <c r="L89" s="347"/>
       <c r="M89" s="10" t="s">
         <v>22</v>
       </c>
@@ -25464,12 +25515,12 @@
       <c r="Q89" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="R89" s="313"/>
+      <c r="R89" s="317"/>
       <c r="S89" s="59"/>
       <c r="T89" s="240"/>
     </row>
     <row r="90" spans="1:20" ht="16.5" customHeight="1">
-      <c r="B90" s="325" t="s">
+      <c r="B90" s="310" t="s">
         <v>140</v>
       </c>
       <c r="C90" s="19" t="s">
@@ -25521,7 +25572,7 @@
       <c r="T90" s="172"/>
     </row>
     <row r="91" spans="1:20" ht="16.5" customHeight="1">
-      <c r="B91" s="325"/>
+      <c r="B91" s="310"/>
       <c r="C91" s="43" t="s">
         <v>103</v>
       </c>
@@ -25571,7 +25622,7 @@
       <c r="T91" s="172"/>
     </row>
     <row r="92" spans="1:20" ht="16.5" customHeight="1">
-      <c r="B92" s="325"/>
+      <c r="B92" s="310"/>
       <c r="C92" s="43" t="s">
         <v>238</v>
       </c>
@@ -25621,7 +25672,7 @@
       <c r="T92" s="172"/>
     </row>
     <row r="93" spans="1:20" ht="16.5" customHeight="1">
-      <c r="B93" s="325"/>
+      <c r="B93" s="310"/>
       <c r="C93" s="43" t="s">
         <v>239</v>
       </c>
@@ -25671,7 +25722,7 @@
       <c r="T93" s="172"/>
     </row>
     <row r="94" spans="1:20" ht="16.5" customHeight="1">
-      <c r="B94" s="325"/>
+      <c r="B94" s="310"/>
       <c r="C94" s="43" t="s">
         <v>64</v>
       </c>
@@ -25723,7 +25774,7 @@
       </c>
     </row>
     <row r="95" spans="1:20" ht="16.5" customHeight="1">
-      <c r="B95" s="325"/>
+      <c r="B95" s="310"/>
       <c r="C95" s="43" t="s">
         <v>65</v>
       </c>
@@ -25775,7 +25826,7 @@
       </c>
     </row>
     <row r="96" spans="1:20" ht="16.5" customHeight="1">
-      <c r="B96" s="325"/>
+      <c r="B96" s="310"/>
       <c r="C96" s="43" t="s">
         <v>303</v>
       </c>
@@ -25825,7 +25876,7 @@
       <c r="T96" s="172"/>
     </row>
     <row r="97" spans="2:20" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B97" s="325"/>
+      <c r="B97" s="310"/>
       <c r="C97" s="147" t="s">
         <v>304</v>
       </c>
@@ -25863,7 +25914,7 @@
       <c r="T97" s="172"/>
     </row>
     <row r="98" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B98" s="325"/>
+      <c r="B98" s="310"/>
       <c r="C98" s="19" t="s">
         <v>68</v>
       </c>
@@ -25913,7 +25964,7 @@
       <c r="T98" s="172"/>
     </row>
     <row r="99" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B99" s="325"/>
+      <c r="B99" s="310"/>
       <c r="C99" s="43" t="s">
         <v>347</v>
       </c>
@@ -25965,7 +26016,7 @@
       </c>
     </row>
     <row r="100" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B100" s="325"/>
+      <c r="B100" s="310"/>
       <c r="C100" s="43" t="s">
         <v>263</v>
       </c>
@@ -26017,7 +26068,7 @@
       </c>
     </row>
     <row r="101" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B101" s="325"/>
+      <c r="B101" s="310"/>
       <c r="C101" s="43" t="s">
         <v>264</v>
       </c>
@@ -26069,7 +26120,7 @@
       </c>
     </row>
     <row r="102" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B102" s="325"/>
+      <c r="B102" s="310"/>
       <c r="C102" s="43" t="s">
         <v>335</v>
       </c>
@@ -26121,7 +26172,7 @@
       </c>
     </row>
     <row r="103" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B103" s="325"/>
+      <c r="B103" s="310"/>
       <c r="C103" s="43" t="s">
         <v>133</v>
       </c>
@@ -26173,7 +26224,7 @@
       </c>
     </row>
     <row r="104" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B104" s="325"/>
+      <c r="B104" s="310"/>
       <c r="C104" s="43" t="s">
         <v>134</v>
       </c>
@@ -26225,7 +26276,7 @@
       </c>
     </row>
     <row r="105" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B105" s="325"/>
+      <c r="B105" s="310"/>
       <c r="C105" s="43" t="s">
         <v>305</v>
       </c>
@@ -26275,7 +26326,7 @@
       <c r="T105" s="172"/>
     </row>
     <row r="106" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B106" s="325"/>
+      <c r="B106" s="310"/>
       <c r="C106" s="22" t="s">
         <v>267</v>
       </c>
@@ -26325,7 +26376,7 @@
       <c r="T106" s="172"/>
     </row>
     <row r="107" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B107" s="325"/>
+      <c r="B107" s="310"/>
       <c r="C107" s="43" t="s">
         <v>128</v>
       </c>
@@ -26375,7 +26426,7 @@
       <c r="T107" s="172"/>
     </row>
     <row r="108" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B108" s="325"/>
+      <c r="B108" s="310"/>
       <c r="C108" s="43" t="s">
         <v>74</v>
       </c>
@@ -26425,7 +26476,7 @@
       <c r="T108" s="172"/>
     </row>
     <row r="109" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B109" s="325"/>
+      <c r="B109" s="310"/>
       <c r="C109" s="43" t="s">
         <v>77</v>
       </c>
@@ -26475,7 +26526,7 @@
       <c r="T109" s="172"/>
     </row>
     <row r="110" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B110" s="325"/>
+      <c r="B110" s="310"/>
       <c r="C110" s="43" t="s">
         <v>78</v>
       </c>
@@ -26525,7 +26576,7 @@
       <c r="T110" s="172"/>
     </row>
     <row r="111" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B111" s="325"/>
+      <c r="B111" s="310"/>
       <c r="C111" s="43" t="s">
         <v>79</v>
       </c>
@@ -26575,7 +26626,7 @@
       <c r="T111" s="172"/>
     </row>
     <row r="112" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B112" s="325"/>
+      <c r="B112" s="310"/>
       <c r="C112" s="43" t="s">
         <v>80</v>
       </c>
@@ -26625,7 +26676,7 @@
       <c r="T112" s="172"/>
     </row>
     <row r="113" spans="2:24" ht="16.5" customHeight="1">
-      <c r="B113" s="325"/>
+      <c r="B113" s="310"/>
       <c r="C113" s="43" t="s">
         <v>268</v>
       </c>
@@ -26675,7 +26726,7 @@
       <c r="T113" s="172"/>
     </row>
     <row r="114" spans="2:24" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B114" s="325"/>
+      <c r="B114" s="310"/>
       <c r="C114" s="43" t="s">
         <v>269</v>
       </c>
@@ -26725,7 +26776,7 @@
       <c r="T114" s="172"/>
     </row>
     <row r="115" spans="2:24" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B115" s="326"/>
+      <c r="B115" s="311"/>
       <c r="C115" s="17" t="s">
         <v>11</v>
       </c>
@@ -26782,7 +26833,7 @@
       <c r="X115" s="109"/>
     </row>
     <row r="116" spans="2:24" ht="16.5" customHeight="1">
-      <c r="B116" s="327" t="s">
+      <c r="B116" s="312" t="s">
         <v>142</v>
       </c>
       <c r="C116" s="19" t="s">
@@ -26834,7 +26885,7 @@
       <c r="T116" s="172"/>
     </row>
     <row r="117" spans="2:24" ht="16.5" customHeight="1">
-      <c r="B117" s="325"/>
+      <c r="B117" s="310"/>
       <c r="C117" s="43" t="s">
         <v>260</v>
       </c>
@@ -26884,7 +26935,7 @@
       <c r="T117" s="172"/>
     </row>
     <row r="118" spans="2:24" ht="16.350000000000001" customHeight="1">
-      <c r="B118" s="325"/>
+      <c r="B118" s="310"/>
       <c r="C118" s="43" t="s">
         <v>70</v>
       </c>
@@ -26934,7 +26985,7 @@
       <c r="T118" s="172"/>
     </row>
     <row r="119" spans="2:24" ht="16.5" customHeight="1">
-      <c r="B119" s="325"/>
+      <c r="B119" s="310"/>
       <c r="C119" s="43" t="s">
         <v>72</v>
       </c>
@@ -26986,7 +27037,7 @@
       </c>
     </row>
     <row r="120" spans="2:24" ht="16.5" customHeight="1">
-      <c r="B120" s="325"/>
+      <c r="B120" s="310"/>
       <c r="C120" s="43" t="s">
         <v>306</v>
       </c>
@@ -27036,7 +27087,7 @@
       <c r="T120" s="172"/>
     </row>
     <row r="121" spans="2:24" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B121" s="325"/>
+      <c r="B121" s="310"/>
       <c r="C121" s="147" t="s">
         <v>307</v>
       </c>
@@ -27076,7 +27127,7 @@
       <c r="T121" s="172"/>
     </row>
     <row r="122" spans="2:24" ht="16.5" customHeight="1">
-      <c r="B122" s="325"/>
+      <c r="B122" s="310"/>
       <c r="C122" s="200" t="s">
         <v>73</v>
       </c>
@@ -27128,7 +27179,7 @@
       </c>
     </row>
     <row r="123" spans="2:24" ht="16.5" customHeight="1">
-      <c r="B123" s="325"/>
+      <c r="B123" s="310"/>
       <c r="C123" s="257" t="s">
         <v>336</v>
       </c>
@@ -27180,7 +27231,7 @@
       </c>
     </row>
     <row r="124" spans="2:24" ht="16.5" customHeight="1">
-      <c r="B124" s="325"/>
+      <c r="B124" s="310"/>
       <c r="C124" s="257" t="s">
         <v>337</v>
       </c>
@@ -27232,7 +27283,7 @@
       </c>
     </row>
     <row r="125" spans="2:24" ht="16.5" customHeight="1">
-      <c r="B125" s="325"/>
+      <c r="B125" s="310"/>
       <c r="C125" s="257" t="s">
         <v>338</v>
       </c>
@@ -27284,7 +27335,7 @@
       </c>
     </row>
     <row r="126" spans="2:24" ht="16.5" customHeight="1">
-      <c r="B126" s="325"/>
+      <c r="B126" s="310"/>
       <c r="C126" s="257" t="s">
         <v>339</v>
       </c>
@@ -27336,7 +27387,7 @@
       </c>
     </row>
     <row r="127" spans="2:24" ht="16.5" customHeight="1">
-      <c r="B127" s="325"/>
+      <c r="B127" s="310"/>
       <c r="C127" s="257" t="s">
         <v>104</v>
       </c>
@@ -27388,7 +27439,7 @@
       </c>
     </row>
     <row r="128" spans="2:24" ht="16.5" customHeight="1">
-      <c r="B128" s="325"/>
+      <c r="B128" s="310"/>
       <c r="C128" s="257" t="s">
         <v>101</v>
       </c>
@@ -27440,7 +27491,7 @@
       </c>
     </row>
     <row r="129" spans="2:24" ht="16.5" customHeight="1">
-      <c r="B129" s="325"/>
+      <c r="B129" s="310"/>
       <c r="C129" s="22" t="s">
         <v>308</v>
       </c>
@@ -27490,7 +27541,7 @@
       <c r="T129" s="172"/>
     </row>
     <row r="130" spans="2:24" ht="16.5" customHeight="1">
-      <c r="B130" s="325"/>
+      <c r="B130" s="310"/>
       <c r="C130" s="22" t="s">
         <v>309</v>
       </c>
@@ -27540,7 +27591,7 @@
       <c r="T130" s="172"/>
     </row>
     <row r="131" spans="2:24" ht="16.5" customHeight="1">
-      <c r="B131" s="325"/>
+      <c r="B131" s="310"/>
       <c r="C131" s="43" t="s">
         <v>131</v>
       </c>
@@ -27590,7 +27641,7 @@
       <c r="T131" s="172"/>
     </row>
     <row r="132" spans="2:24" ht="16.5" customHeight="1">
-      <c r="B132" s="325"/>
+      <c r="B132" s="310"/>
       <c r="C132" s="22" t="s">
         <v>122</v>
       </c>
@@ -27640,7 +27691,7 @@
       <c r="T132" s="172"/>
     </row>
     <row r="133" spans="2:24" ht="16.5" customHeight="1">
-      <c r="B133" s="325"/>
+      <c r="B133" s="310"/>
       <c r="C133" s="43" t="s">
         <v>119</v>
       </c>
@@ -27690,7 +27741,7 @@
       <c r="T133" s="172"/>
     </row>
     <row r="134" spans="2:24" ht="16.5" customHeight="1">
-      <c r="B134" s="325"/>
+      <c r="B134" s="310"/>
       <c r="C134" s="43" t="s">
         <v>135</v>
       </c>
@@ -27740,7 +27791,7 @@
       <c r="T134" s="172"/>
     </row>
     <row r="135" spans="2:24" ht="16.5" customHeight="1">
-      <c r="B135" s="325"/>
+      <c r="B135" s="310"/>
       <c r="C135" s="43" t="s">
         <v>148</v>
       </c>
@@ -27790,7 +27841,7 @@
       <c r="T135" s="172"/>
     </row>
     <row r="136" spans="2:24" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B136" s="325"/>
+      <c r="B136" s="310"/>
       <c r="C136" s="43" t="s">
         <v>149</v>
       </c>
@@ -27840,7 +27891,7 @@
       <c r="T136" s="172"/>
     </row>
     <row r="137" spans="2:24" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B137" s="326"/>
+      <c r="B137" s="311"/>
       <c r="C137" s="17" t="s">
         <v>11</v>
       </c>
@@ -27900,7 +27951,7 @@
       <c r="X137" s="109"/>
     </row>
     <row r="138" spans="2:24" ht="16.5" customHeight="1">
-      <c r="B138" s="322" t="s">
+      <c r="B138" s="298" t="s">
         <v>141</v>
       </c>
       <c r="C138" s="19" t="s">
@@ -27952,7 +28003,7 @@
       <c r="T138" s="172"/>
     </row>
     <row r="139" spans="2:24" ht="16.5" customHeight="1">
-      <c r="B139" s="323"/>
+      <c r="B139" s="299"/>
       <c r="C139" s="43" t="s">
         <v>310</v>
       </c>
@@ -28002,7 +28053,7 @@
       <c r="T139" s="172"/>
     </row>
     <row r="140" spans="2:24" ht="16.5" customHeight="1">
-      <c r="B140" s="323"/>
+      <c r="B140" s="299"/>
       <c r="C140" s="43" t="s">
         <v>311</v>
       </c>
@@ -28052,7 +28103,7 @@
       <c r="T140" s="172"/>
     </row>
     <row r="141" spans="2:24" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B141" s="323"/>
+      <c r="B141" s="299"/>
       <c r="C141" s="169" t="s">
         <v>312</v>
       </c>
@@ -28092,7 +28143,7 @@
       <c r="T141" s="172"/>
     </row>
     <row r="142" spans="2:24" ht="16.5" customHeight="1">
-      <c r="B142" s="323"/>
+      <c r="B142" s="299"/>
       <c r="C142" s="43" t="s">
         <v>272</v>
       </c>
@@ -28142,7 +28193,7 @@
       <c r="T142" s="172"/>
     </row>
     <row r="143" spans="2:24" ht="16.5" customHeight="1">
-      <c r="B143" s="323"/>
+      <c r="B143" s="299"/>
       <c r="C143" s="22" t="s">
         <v>273</v>
       </c>
@@ -28192,7 +28243,7 @@
       <c r="T143" s="172"/>
     </row>
     <row r="144" spans="2:24" ht="16.5" customHeight="1">
-      <c r="B144" s="323"/>
+      <c r="B144" s="299"/>
       <c r="C144" s="22" t="s">
         <v>313</v>
       </c>
@@ -28242,7 +28293,7 @@
       <c r="T144" s="172"/>
     </row>
     <row r="145" spans="2:24" ht="16.5" customHeight="1">
-      <c r="B145" s="323"/>
+      <c r="B145" s="299"/>
       <c r="C145" s="22" t="s">
         <v>314</v>
       </c>
@@ -28294,7 +28345,7 @@
       </c>
     </row>
     <row r="146" spans="2:24" ht="16.5" customHeight="1">
-      <c r="B146" s="323"/>
+      <c r="B146" s="299"/>
       <c r="C146" s="22" t="s">
         <v>340</v>
       </c>
@@ -28346,7 +28397,7 @@
       </c>
     </row>
     <row r="147" spans="2:24" ht="16.5" customHeight="1">
-      <c r="B147" s="323"/>
+      <c r="B147" s="299"/>
       <c r="C147" s="22" t="s">
         <v>341</v>
       </c>
@@ -28398,7 +28449,7 @@
       </c>
     </row>
     <row r="148" spans="2:24" ht="16.5" customHeight="1">
-      <c r="B148" s="323"/>
+      <c r="B148" s="299"/>
       <c r="C148" s="22" t="s">
         <v>155</v>
       </c>
@@ -28450,49 +28501,49 @@
       <c r="T148" s="172"/>
     </row>
     <row r="149" spans="2:24" ht="16.5" customHeight="1">
-      <c r="B149" s="323"/>
+      <c r="B149" s="299"/>
       <c r="C149" s="22" t="s">
         <v>355</v>
       </c>
       <c r="D149" s="149" t="s">
         <v>108</v>
       </c>
-      <c r="E149" s="330" t="s">
+      <c r="E149" s="292" t="s">
         <v>42</v>
       </c>
-      <c r="F149" s="288">
+      <c r="F149" s="289">
         <f t="shared" si="94"/>
         <v>128</v>
       </c>
-      <c r="G149" s="288">
+      <c r="G149" s="289">
         <f t="shared" si="97"/>
         <v>128</v>
       </c>
-      <c r="H149" s="286"/>
-      <c r="I149" s="286" t="s">
-        <v>1</v>
-      </c>
-      <c r="J149" s="286" t="s">
-        <v>1</v>
-      </c>
-      <c r="K149" s="286"/>
-      <c r="L149" s="286"/>
-      <c r="M149" s="288">
+      <c r="H149" s="287"/>
+      <c r="I149" s="287" t="s">
+        <v>1</v>
+      </c>
+      <c r="J149" s="287" t="s">
+        <v>1</v>
+      </c>
+      <c r="K149" s="287"/>
+      <c r="L149" s="287"/>
+      <c r="M149" s="289">
         <v>8</v>
       </c>
-      <c r="N149" s="288">
+      <c r="N149" s="289">
         <v>8</v>
       </c>
-      <c r="O149" s="288">
-        <v>0</v>
-      </c>
-      <c r="P149" s="288">
-        <v>0</v>
-      </c>
-      <c r="Q149" s="288">
-        <v>0</v>
-      </c>
-      <c r="R149" s="288">
+      <c r="O149" s="289">
+        <v>0</v>
+      </c>
+      <c r="P149" s="289">
+        <v>0</v>
+      </c>
+      <c r="Q149" s="289">
+        <v>0</v>
+      </c>
+      <c r="R149" s="289">
         <f>F149/$F$2</f>
         <v>8</v>
       </c>
@@ -28502,76 +28553,76 @@
       </c>
     </row>
     <row r="150" spans="2:24" ht="16.5" customHeight="1">
-      <c r="B150" s="323"/>
+      <c r="B150" s="299"/>
       <c r="C150" s="22" t="s">
         <v>318</v>
       </c>
       <c r="D150" s="149" t="s">
         <v>108</v>
       </c>
-      <c r="E150" s="331"/>
-      <c r="F150" s="315"/>
-      <c r="G150" s="315"/>
-      <c r="H150" s="287"/>
-      <c r="I150" s="287"/>
-      <c r="J150" s="287"/>
-      <c r="K150" s="287"/>
-      <c r="L150" s="287"/>
-      <c r="M150" s="315"/>
-      <c r="N150" s="315"/>
-      <c r="O150" s="315"/>
-      <c r="P150" s="315"/>
-      <c r="Q150" s="315"/>
-      <c r="R150" s="303"/>
+      <c r="E150" s="313"/>
+      <c r="F150" s="303"/>
+      <c r="G150" s="303"/>
+      <c r="H150" s="306"/>
+      <c r="I150" s="306"/>
+      <c r="J150" s="306"/>
+      <c r="K150" s="306"/>
+      <c r="L150" s="306"/>
+      <c r="M150" s="303"/>
+      <c r="N150" s="303"/>
+      <c r="O150" s="303"/>
+      <c r="P150" s="303"/>
+      <c r="Q150" s="303"/>
+      <c r="R150" s="305"/>
       <c r="S150" s="47"/>
       <c r="T150" s="172" t="s">
         <v>358</v>
       </c>
     </row>
     <row r="151" spans="2:24" ht="16.5" customHeight="1">
-      <c r="B151" s="323"/>
+      <c r="B151" s="299"/>
       <c r="C151" s="22" t="s">
         <v>356</v>
       </c>
       <c r="D151" s="149" t="s">
         <v>108</v>
       </c>
-      <c r="E151" s="330" t="s">
+      <c r="E151" s="292" t="s">
         <v>42</v>
       </c>
-      <c r="F151" s="288">
+      <c r="F151" s="289">
         <f t="shared" ref="F151" si="104">SUM(M151:Q151)*$F$1</f>
         <v>192</v>
       </c>
-      <c r="G151" s="288">
+      <c r="G151" s="289">
         <f t="shared" ref="G151" si="105">F151</f>
         <v>192</v>
       </c>
-      <c r="H151" s="286"/>
-      <c r="I151" s="286" t="s">
-        <v>1</v>
-      </c>
-      <c r="J151" s="286"/>
-      <c r="K151" s="286" t="s">
-        <v>1</v>
-      </c>
-      <c r="L151" s="286"/>
-      <c r="M151" s="288">
-        <v>0</v>
-      </c>
-      <c r="N151" s="288">
-        <v>0</v>
-      </c>
-      <c r="O151" s="288">
+      <c r="H151" s="287"/>
+      <c r="I151" s="287" t="s">
+        <v>1</v>
+      </c>
+      <c r="J151" s="287"/>
+      <c r="K151" s="287" t="s">
+        <v>1</v>
+      </c>
+      <c r="L151" s="287"/>
+      <c r="M151" s="289">
+        <v>0</v>
+      </c>
+      <c r="N151" s="289">
+        <v>0</v>
+      </c>
+      <c r="O151" s="289">
         <v>12</v>
       </c>
-      <c r="P151" s="288">
+      <c r="P151" s="289">
         <v>12</v>
       </c>
-      <c r="Q151" s="288">
-        <v>0</v>
-      </c>
-      <c r="R151" s="319">
+      <c r="Q151" s="289">
+        <v>0</v>
+      </c>
+      <c r="R151" s="302">
         <f>F151/$F$2/3*2</f>
         <v>8</v>
       </c>
@@ -28581,34 +28632,34 @@
       </c>
     </row>
     <row r="152" spans="2:24" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B152" s="323"/>
+      <c r="B152" s="299"/>
       <c r="C152" s="22" t="s">
         <v>319</v>
       </c>
       <c r="D152" s="149" t="s">
         <v>108</v>
       </c>
-      <c r="E152" s="331"/>
-      <c r="F152" s="315"/>
-      <c r="G152" s="315"/>
-      <c r="H152" s="287"/>
-      <c r="I152" s="287"/>
-      <c r="J152" s="287"/>
-      <c r="K152" s="340"/>
-      <c r="L152" s="287"/>
-      <c r="M152" s="315"/>
-      <c r="N152" s="315"/>
-      <c r="O152" s="315"/>
-      <c r="P152" s="315"/>
-      <c r="Q152" s="315"/>
-      <c r="R152" s="341"/>
+      <c r="E152" s="313"/>
+      <c r="F152" s="303"/>
+      <c r="G152" s="303"/>
+      <c r="H152" s="306"/>
+      <c r="I152" s="306"/>
+      <c r="J152" s="306"/>
+      <c r="K152" s="314"/>
+      <c r="L152" s="306"/>
+      <c r="M152" s="303"/>
+      <c r="N152" s="303"/>
+      <c r="O152" s="303"/>
+      <c r="P152" s="303"/>
+      <c r="Q152" s="303"/>
+      <c r="R152" s="348"/>
       <c r="S152" s="47"/>
       <c r="T152" s="172" t="s">
         <v>358</v>
       </c>
     </row>
     <row r="153" spans="2:24" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B153" s="324"/>
+      <c r="B153" s="300"/>
       <c r="C153" s="33" t="s">
         <v>11</v>
       </c>
@@ -28698,14 +28749,14 @@
       <c r="I155" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="J155" s="299" t="s">
+      <c r="J155" s="329" t="s">
         <v>8</v>
       </c>
-      <c r="K155" s="300"/>
-      <c r="L155" s="308" t="s">
+      <c r="K155" s="330"/>
+      <c r="L155" s="338" t="s">
         <v>48</v>
       </c>
-      <c r="M155" s="309"/>
+      <c r="M155" s="339"/>
       <c r="N155" s="84" t="s">
         <v>49</v>
       </c>
@@ -28871,32 +28922,38 @@
     </row>
   </sheetData>
   <mergeCells count="74">
-    <mergeCell ref="M151:M152"/>
-    <mergeCell ref="J151:J152"/>
-    <mergeCell ref="J88:K88"/>
-    <mergeCell ref="E96:E97"/>
-    <mergeCell ref="M34:Q34"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="L28:M28"/>
-    <mergeCell ref="D88:D89"/>
-    <mergeCell ref="F34:F35"/>
-    <mergeCell ref="G34:G35"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="L34:L35"/>
-    <mergeCell ref="R5:R6"/>
-    <mergeCell ref="B7:B26"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="M5:Q5"/>
+    <mergeCell ref="J155:K155"/>
+    <mergeCell ref="L155:M155"/>
+    <mergeCell ref="R151:R152"/>
+    <mergeCell ref="E151:E152"/>
+    <mergeCell ref="E149:E150"/>
+    <mergeCell ref="F149:F150"/>
+    <mergeCell ref="G149:G150"/>
+    <mergeCell ref="H149:H150"/>
+    <mergeCell ref="I149:I150"/>
+    <mergeCell ref="R149:R150"/>
+    <mergeCell ref="P149:P150"/>
+    <mergeCell ref="N149:N150"/>
+    <mergeCell ref="N151:N152"/>
+    <mergeCell ref="O151:O152"/>
+    <mergeCell ref="Q151:Q152"/>
+    <mergeCell ref="P151:P152"/>
+    <mergeCell ref="B138:B153"/>
+    <mergeCell ref="L88:L89"/>
+    <mergeCell ref="M88:Q88"/>
+    <mergeCell ref="B116:B137"/>
+    <mergeCell ref="K151:K152"/>
+    <mergeCell ref="L151:L152"/>
+    <mergeCell ref="H151:H152"/>
+    <mergeCell ref="I151:I152"/>
+    <mergeCell ref="O149:O150"/>
+    <mergeCell ref="Q149:Q150"/>
+    <mergeCell ref="G151:G152"/>
+    <mergeCell ref="F151:F152"/>
+    <mergeCell ref="J149:J150"/>
+    <mergeCell ref="K149:K150"/>
+    <mergeCell ref="L149:L150"/>
+    <mergeCell ref="M149:M150"/>
     <mergeCell ref="R34:R35"/>
     <mergeCell ref="B36:B65"/>
     <mergeCell ref="B66:B79"/>
@@ -28913,38 +28970,32 @@
     <mergeCell ref="B34:B35"/>
     <mergeCell ref="C34:C35"/>
     <mergeCell ref="E34:E35"/>
-    <mergeCell ref="B138:B153"/>
-    <mergeCell ref="L88:L89"/>
-    <mergeCell ref="M88:Q88"/>
-    <mergeCell ref="B116:B137"/>
-    <mergeCell ref="K151:K152"/>
-    <mergeCell ref="L151:L152"/>
-    <mergeCell ref="H151:H152"/>
-    <mergeCell ref="I151:I152"/>
-    <mergeCell ref="O149:O150"/>
-    <mergeCell ref="Q149:Q150"/>
-    <mergeCell ref="G151:G152"/>
-    <mergeCell ref="F151:F152"/>
-    <mergeCell ref="J149:J150"/>
-    <mergeCell ref="K149:K150"/>
-    <mergeCell ref="L149:L150"/>
-    <mergeCell ref="M149:M150"/>
-    <mergeCell ref="J155:K155"/>
-    <mergeCell ref="L155:M155"/>
-    <mergeCell ref="R151:R152"/>
-    <mergeCell ref="E151:E152"/>
-    <mergeCell ref="E149:E150"/>
-    <mergeCell ref="F149:F150"/>
-    <mergeCell ref="G149:G150"/>
-    <mergeCell ref="H149:H150"/>
-    <mergeCell ref="I149:I150"/>
-    <mergeCell ref="R149:R150"/>
-    <mergeCell ref="P149:P150"/>
-    <mergeCell ref="N149:N150"/>
-    <mergeCell ref="N151:N152"/>
-    <mergeCell ref="O151:O152"/>
-    <mergeCell ref="Q151:Q152"/>
-    <mergeCell ref="P151:P152"/>
+    <mergeCell ref="R5:R6"/>
+    <mergeCell ref="B7:B26"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="M5:Q5"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="D88:D89"/>
+    <mergeCell ref="F34:F35"/>
+    <mergeCell ref="G34:G35"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="L34:L35"/>
+    <mergeCell ref="M151:M152"/>
+    <mergeCell ref="J151:J152"/>
+    <mergeCell ref="J88:K88"/>
+    <mergeCell ref="E96:E97"/>
+    <mergeCell ref="M34:Q34"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.78740157480314965" right="0.78740157480314965" top="0.19685039370078741" bottom="0.23622047244094491" header="0" footer="0"/>
@@ -28958,7 +29009,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
     <pageSetUpPr fitToPage="1"/>
@@ -28969,17 +29020,17 @@
       <selection activeCell="G48" sqref="G48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="9.25" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="1.77734375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="9.21875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="28.6640625" style="15" customWidth="1"/>
+    <col min="1" max="1" width="1.75" style="2" customWidth="1"/>
+    <col min="2" max="2" width="9.25" style="2" customWidth="1"/>
+    <col min="3" max="3" width="28.625" style="15" customWidth="1"/>
     <col min="4" max="4" width="11" style="15" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10" style="2" customWidth="1"/>
-    <col min="6" max="7" width="9.109375" style="2" customWidth="1"/>
+    <col min="6" max="7" width="9.125" style="2" customWidth="1"/>
     <col min="8" max="18" width="7" style="2" customWidth="1"/>
     <col min="19" max="19" width="6" style="2" customWidth="1"/>
-    <col min="20" max="16384" width="9.21875" style="2"/>
+    <col min="20" max="16384" width="9.25" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
@@ -29018,7 +29069,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="13.8" thickBot="1">
+    <row r="5" spans="1:18" ht="14.25" thickBot="1">
       <c r="B5" s="3"/>
       <c r="C5" s="16"/>
       <c r="D5" s="16"/>
@@ -29038,53 +29089,53 @@
       <c r="R5" s="3"/>
     </row>
     <row r="6" spans="1:18" ht="18" customHeight="1" thickBot="1">
-      <c r="B6" s="312" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="346" t="s">
+      <c r="B6" s="316" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="349" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="335" t="s">
+      <c r="D6" s="321" t="s">
         <v>106</v>
       </c>
-      <c r="E6" s="312" t="s">
-        <v>4</v>
-      </c>
-      <c r="F6" s="333" t="s">
+      <c r="E6" s="316" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="323" t="s">
         <v>51</v>
       </c>
-      <c r="G6" s="333" t="s">
+      <c r="G6" s="323" t="s">
         <v>52</v>
       </c>
-      <c r="H6" s="304" t="s">
+      <c r="H6" s="307" t="s">
         <v>5</v>
       </c>
-      <c r="I6" s="305"/>
-      <c r="J6" s="304" t="s">
+      <c r="I6" s="325"/>
+      <c r="J6" s="307" t="s">
         <v>6</v>
       </c>
-      <c r="K6" s="305"/>
-      <c r="L6" s="342" t="s">
+      <c r="K6" s="325"/>
+      <c r="L6" s="346" t="s">
         <v>26</v>
       </c>
-      <c r="M6" s="304" t="s">
+      <c r="M6" s="307" t="s">
         <v>7</v>
       </c>
-      <c r="N6" s="310"/>
-      <c r="O6" s="310"/>
-      <c r="P6" s="310"/>
-      <c r="Q6" s="305"/>
-      <c r="R6" s="312" t="s">
+      <c r="N6" s="308"/>
+      <c r="O6" s="308"/>
+      <c r="P6" s="308"/>
+      <c r="Q6" s="325"/>
+      <c r="R6" s="316" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:18" ht="18" customHeight="1" thickBot="1">
-      <c r="B7" s="313"/>
-      <c r="C7" s="347"/>
-      <c r="D7" s="336"/>
-      <c r="E7" s="313"/>
-      <c r="F7" s="334"/>
-      <c r="G7" s="334"/>
+      <c r="B7" s="317"/>
+      <c r="C7" s="350"/>
+      <c r="D7" s="322"/>
+      <c r="E7" s="317"/>
+      <c r="F7" s="324"/>
+      <c r="G7" s="324"/>
       <c r="H7" s="90" t="s">
         <v>8</v>
       </c>
@@ -29097,7 +29148,7 @@
       <c r="K7" s="60" t="s">
         <v>30</v>
       </c>
-      <c r="L7" s="343"/>
+      <c r="L7" s="347"/>
       <c r="M7" s="10" t="s">
         <v>22</v>
       </c>
@@ -29113,10 +29164,10 @@
       <c r="Q7" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="R7" s="313"/>
+      <c r="R7" s="317"/>
     </row>
     <row r="8" spans="1:18" ht="16.5" customHeight="1">
-      <c r="B8" s="325" t="s">
+      <c r="B8" s="310" t="s">
         <v>15</v>
       </c>
       <c r="C8" s="19" t="s">
@@ -29166,7 +29217,7 @@
       </c>
     </row>
     <row r="9" spans="1:18" ht="16.5" customHeight="1">
-      <c r="B9" s="325"/>
+      <c r="B9" s="310"/>
       <c r="C9" s="43" t="s">
         <v>320</v>
       </c>
@@ -29214,7 +29265,7 @@
       </c>
     </row>
     <row r="10" spans="1:18" ht="16.5" customHeight="1">
-      <c r="B10" s="325"/>
+      <c r="B10" s="310"/>
       <c r="C10" s="43" t="s">
         <v>244</v>
       </c>
@@ -29262,7 +29313,7 @@
       </c>
     </row>
     <row r="11" spans="1:18" ht="16.5" customHeight="1">
-      <c r="B11" s="325"/>
+      <c r="B11" s="310"/>
       <c r="C11" s="43" t="s">
         <v>245</v>
       </c>
@@ -29310,7 +29361,7 @@
       </c>
     </row>
     <row r="12" spans="1:18" ht="16.5" customHeight="1">
-      <c r="B12" s="325"/>
+      <c r="B12" s="310"/>
       <c r="C12" s="43" t="s">
         <v>321</v>
       </c>
@@ -29358,7 +29409,7 @@
       </c>
     </row>
     <row r="13" spans="1:18" ht="16.5" customHeight="1">
-      <c r="B13" s="325"/>
+      <c r="B13" s="310"/>
       <c r="C13" s="43" t="s">
         <v>322</v>
       </c>
@@ -29406,7 +29457,7 @@
       </c>
     </row>
     <row r="14" spans="1:18" ht="16.5" customHeight="1">
-      <c r="B14" s="325"/>
+      <c r="B14" s="310"/>
       <c r="C14" s="43" t="s">
         <v>248</v>
       </c>
@@ -29454,7 +29505,7 @@
       </c>
     </row>
     <row r="15" spans="1:18" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B15" s="325"/>
+      <c r="B15" s="310"/>
       <c r="C15" s="147" t="s">
         <v>249</v>
       </c>
@@ -29502,7 +29553,7 @@
       </c>
     </row>
     <row r="16" spans="1:18" ht="16.5" customHeight="1">
-      <c r="B16" s="325"/>
+      <c r="B16" s="310"/>
       <c r="C16" s="19" t="s">
         <v>288</v>
       </c>
@@ -29550,7 +29601,7 @@
       </c>
     </row>
     <row r="17" spans="2:19" ht="16.5" customHeight="1">
-      <c r="B17" s="325"/>
+      <c r="B17" s="310"/>
       <c r="C17" s="43" t="s">
         <v>289</v>
       </c>
@@ -29598,7 +29649,7 @@
       </c>
     </row>
     <row r="18" spans="2:19" ht="16.5" customHeight="1">
-      <c r="B18" s="325"/>
+      <c r="B18" s="310"/>
       <c r="C18" s="22" t="s">
         <v>266</v>
       </c>
@@ -29646,7 +29697,7 @@
       </c>
     </row>
     <row r="19" spans="2:19" ht="16.5" customHeight="1">
-      <c r="B19" s="325"/>
+      <c r="B19" s="310"/>
       <c r="C19" s="22" t="s">
         <v>268</v>
       </c>
@@ -29694,7 +29745,7 @@
       </c>
     </row>
     <row r="20" spans="2:19" ht="16.5" customHeight="1">
-      <c r="B20" s="325"/>
+      <c r="B20" s="310"/>
       <c r="C20" s="22" t="s">
         <v>269</v>
       </c>
@@ -29742,7 +29793,7 @@
       </c>
     </row>
     <row r="21" spans="2:19" ht="16.5" customHeight="1">
-      <c r="B21" s="325"/>
+      <c r="B21" s="310"/>
       <c r="C21" s="43" t="s">
         <v>77</v>
       </c>
@@ -29790,7 +29841,7 @@
       </c>
     </row>
     <row r="22" spans="2:19" ht="16.5" customHeight="1">
-      <c r="B22" s="325"/>
+      <c r="B22" s="310"/>
       <c r="C22" s="43" t="s">
         <v>78</v>
       </c>
@@ -29838,7 +29889,7 @@
       </c>
     </row>
     <row r="23" spans="2:19" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B23" s="325"/>
+      <c r="B23" s="310"/>
       <c r="C23" s="43" t="s">
         <v>121</v>
       </c>
@@ -29886,7 +29937,7 @@
       </c>
     </row>
     <row r="24" spans="2:19" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B24" s="326"/>
+      <c r="B24" s="311"/>
       <c r="C24" s="17" t="s">
         <v>11</v>
       </c>
@@ -29941,7 +29992,7 @@
       <c r="S24" s="6"/>
     </row>
     <row r="25" spans="2:19" ht="16.5" customHeight="1">
-      <c r="B25" s="327" t="s">
+      <c r="B25" s="312" t="s">
         <v>63</v>
       </c>
       <c r="C25" s="19" t="s">
@@ -29991,7 +30042,7 @@
       </c>
     </row>
     <row r="26" spans="2:19" ht="16.5" customHeight="1">
-      <c r="B26" s="325"/>
+      <c r="B26" s="310"/>
       <c r="C26" s="43" t="s">
         <v>323</v>
       </c>
@@ -30039,7 +30090,7 @@
       </c>
     </row>
     <row r="27" spans="2:19" ht="16.5" customHeight="1">
-      <c r="B27" s="325"/>
+      <c r="B27" s="310"/>
       <c r="C27" s="43" t="s">
         <v>252</v>
       </c>
@@ -30087,7 +30138,7 @@
       </c>
     </row>
     <row r="28" spans="2:19" ht="16.5" customHeight="1">
-      <c r="B28" s="325"/>
+      <c r="B28" s="310"/>
       <c r="C28" s="43" t="s">
         <v>253</v>
       </c>
@@ -30135,7 +30186,7 @@
       </c>
     </row>
     <row r="29" spans="2:19" ht="16.5" customHeight="1">
-      <c r="B29" s="325"/>
+      <c r="B29" s="310"/>
       <c r="C29" s="43" t="s">
         <v>284</v>
       </c>
@@ -30183,7 +30234,7 @@
       </c>
     </row>
     <row r="30" spans="2:19" ht="16.5" customHeight="1">
-      <c r="B30" s="325"/>
+      <c r="B30" s="310"/>
       <c r="C30" s="43" t="s">
         <v>324</v>
       </c>
@@ -30231,7 +30282,7 @@
       </c>
     </row>
     <row r="31" spans="2:19" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B31" s="325"/>
+      <c r="B31" s="310"/>
       <c r="C31" s="147" t="s">
         <v>261</v>
       </c>
@@ -30279,7 +30330,7 @@
       </c>
     </row>
     <row r="32" spans="2:19" ht="16.5" customHeight="1">
-      <c r="B32" s="325"/>
+      <c r="B32" s="310"/>
       <c r="C32" s="19" t="s">
         <v>270</v>
       </c>
@@ -30327,7 +30378,7 @@
       </c>
     </row>
     <row r="33" spans="1:19" ht="16.5" customHeight="1">
-      <c r="B33" s="325"/>
+      <c r="B33" s="310"/>
       <c r="C33" s="43" t="s">
         <v>271</v>
       </c>
@@ -30375,7 +30426,7 @@
       </c>
     </row>
     <row r="34" spans="1:19" ht="16.5" customHeight="1">
-      <c r="B34" s="325"/>
+      <c r="B34" s="310"/>
       <c r="C34" s="22" t="s">
         <v>122</v>
       </c>
@@ -30423,7 +30474,7 @@
       </c>
     </row>
     <row r="35" spans="1:19" ht="16.5" customHeight="1">
-      <c r="B35" s="325"/>
+      <c r="B35" s="310"/>
       <c r="C35" s="22" t="s">
         <v>119</v>
       </c>
@@ -30471,7 +30522,7 @@
       </c>
     </row>
     <row r="36" spans="1:19" ht="16.5" customHeight="1">
-      <c r="B36" s="325"/>
+      <c r="B36" s="310"/>
       <c r="C36" s="22" t="s">
         <v>267</v>
       </c>
@@ -30519,7 +30570,7 @@
       </c>
     </row>
     <row r="37" spans="1:19" ht="16.5" customHeight="1">
-      <c r="B37" s="325"/>
+      <c r="B37" s="310"/>
       <c r="C37" s="22" t="s">
         <v>104</v>
       </c>
@@ -30567,7 +30618,7 @@
       </c>
     </row>
     <row r="38" spans="1:19" ht="16.5" customHeight="1">
-      <c r="B38" s="325"/>
+      <c r="B38" s="310"/>
       <c r="C38" s="22" t="s">
         <v>101</v>
       </c>
@@ -30615,7 +30666,7 @@
       </c>
     </row>
     <row r="39" spans="1:19" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B39" s="325"/>
+      <c r="B39" s="310"/>
       <c r="C39" s="27" t="s">
         <v>105</v>
       </c>
@@ -30663,7 +30714,7 @@
       </c>
     </row>
     <row r="40" spans="1:19" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B40" s="326"/>
+      <c r="B40" s="311"/>
       <c r="C40" s="17" t="s">
         <v>11</v>
       </c>
@@ -30746,14 +30797,14 @@
       <c r="I42" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="J42" s="299" t="s">
+      <c r="J42" s="329" t="s">
         <v>8</v>
       </c>
-      <c r="K42" s="300"/>
-      <c r="L42" s="308" t="s">
+      <c r="K42" s="330"/>
+      <c r="L42" s="338" t="s">
         <v>48</v>
       </c>
-      <c r="M42" s="309"/>
+      <c r="M42" s="339"/>
       <c r="N42" s="84" t="s">
         <v>49</v>
       </c>
@@ -30878,7 +30929,7 @@
       </c>
       <c r="C47" s="35"/>
     </row>
-    <row r="48" spans="1:19" ht="13.8" thickBot="1">
+    <row r="48" spans="1:19" ht="14.25" thickBot="1">
       <c r="B48" s="3"/>
       <c r="C48" s="199"/>
       <c r="D48" s="16"/>
@@ -30898,53 +30949,53 @@
       <c r="R48" s="3"/>
     </row>
     <row r="49" spans="2:18" ht="18" customHeight="1" thickBot="1">
-      <c r="B49" s="312" t="s">
-        <v>2</v>
-      </c>
-      <c r="C49" s="346" t="s">
+      <c r="B49" s="316" t="s">
+        <v>2</v>
+      </c>
+      <c r="C49" s="349" t="s">
         <v>3</v>
       </c>
-      <c r="D49" s="335" t="s">
+      <c r="D49" s="321" t="s">
         <v>106</v>
       </c>
-      <c r="E49" s="312" t="s">
-        <v>4</v>
-      </c>
-      <c r="F49" s="333" t="s">
+      <c r="E49" s="316" t="s">
+        <v>4</v>
+      </c>
+      <c r="F49" s="323" t="s">
         <v>51</v>
       </c>
-      <c r="G49" s="333" t="s">
+      <c r="G49" s="323" t="s">
         <v>52</v>
       </c>
-      <c r="H49" s="304" t="s">
+      <c r="H49" s="307" t="s">
         <v>5</v>
       </c>
-      <c r="I49" s="305"/>
-      <c r="J49" s="304" t="s">
+      <c r="I49" s="325"/>
+      <c r="J49" s="307" t="s">
         <v>6</v>
       </c>
-      <c r="K49" s="305"/>
-      <c r="L49" s="342" t="s">
+      <c r="K49" s="325"/>
+      <c r="L49" s="346" t="s">
         <v>26</v>
       </c>
-      <c r="M49" s="304" t="s">
+      <c r="M49" s="307" t="s">
         <v>7</v>
       </c>
-      <c r="N49" s="310"/>
-      <c r="O49" s="310"/>
-      <c r="P49" s="310"/>
-      <c r="Q49" s="305"/>
-      <c r="R49" s="312" t="s">
+      <c r="N49" s="308"/>
+      <c r="O49" s="308"/>
+      <c r="P49" s="308"/>
+      <c r="Q49" s="325"/>
+      <c r="R49" s="316" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="50" spans="2:18" ht="18" customHeight="1" thickBot="1">
-      <c r="B50" s="313"/>
-      <c r="C50" s="347"/>
-      <c r="D50" s="336"/>
-      <c r="E50" s="313"/>
-      <c r="F50" s="334"/>
-      <c r="G50" s="334"/>
+      <c r="B50" s="317"/>
+      <c r="C50" s="350"/>
+      <c r="D50" s="322"/>
+      <c r="E50" s="317"/>
+      <c r="F50" s="324"/>
+      <c r="G50" s="324"/>
       <c r="H50" s="90" t="s">
         <v>8</v>
       </c>
@@ -30957,7 +31008,7 @@
       <c r="K50" s="60" t="s">
         <v>30</v>
       </c>
-      <c r="L50" s="343"/>
+      <c r="L50" s="347"/>
       <c r="M50" s="10" t="s">
         <v>22</v>
       </c>
@@ -30973,10 +31024,10 @@
       <c r="Q50" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="R50" s="313"/>
+      <c r="R50" s="317"/>
     </row>
     <row r="51" spans="2:18" ht="16.5" customHeight="1">
-      <c r="B51" s="325" t="s">
+      <c r="B51" s="310" t="s">
         <v>18</v>
       </c>
       <c r="C51" s="19" t="s">
@@ -31026,7 +31077,7 @@
       </c>
     </row>
     <row r="52" spans="2:18" ht="16.5" customHeight="1">
-      <c r="B52" s="325"/>
+      <c r="B52" s="310"/>
       <c r="C52" s="43" t="s">
         <v>320</v>
       </c>
@@ -31074,7 +31125,7 @@
       </c>
     </row>
     <row r="53" spans="2:18" ht="16.5" customHeight="1">
-      <c r="B53" s="325"/>
+      <c r="B53" s="310"/>
       <c r="C53" s="43" t="s">
         <v>244</v>
       </c>
@@ -31122,7 +31173,7 @@
       </c>
     </row>
     <row r="54" spans="2:18" ht="16.5" customHeight="1">
-      <c r="B54" s="325"/>
+      <c r="B54" s="310"/>
       <c r="C54" s="43" t="s">
         <v>245</v>
       </c>
@@ -31170,7 +31221,7 @@
       </c>
     </row>
     <row r="55" spans="2:18" ht="16.5" customHeight="1">
-      <c r="B55" s="325"/>
+      <c r="B55" s="310"/>
       <c r="C55" s="43" t="s">
         <v>365</v>
       </c>
@@ -31218,7 +31269,7 @@
       </c>
     </row>
     <row r="56" spans="2:18" ht="16.5" customHeight="1">
-      <c r="B56" s="325"/>
+      <c r="B56" s="310"/>
       <c r="C56" s="43" t="s">
         <v>322</v>
       </c>
@@ -31266,7 +31317,7 @@
       </c>
     </row>
     <row r="57" spans="2:18" ht="16.5" customHeight="1">
-      <c r="B57" s="325"/>
+      <c r="B57" s="310"/>
       <c r="C57" s="43" t="s">
         <v>248</v>
       </c>
@@ -31314,7 +31365,7 @@
       </c>
     </row>
     <row r="58" spans="2:18" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B58" s="325"/>
+      <c r="B58" s="310"/>
       <c r="C58" s="147" t="s">
         <v>249</v>
       </c>
@@ -31362,7 +31413,7 @@
       </c>
     </row>
     <row r="59" spans="2:18" ht="16.5" customHeight="1">
-      <c r="B59" s="325"/>
+      <c r="B59" s="310"/>
       <c r="C59" s="19" t="s">
         <v>288</v>
       </c>
@@ -31410,7 +31461,7 @@
       </c>
     </row>
     <row r="60" spans="2:18" ht="16.5" customHeight="1">
-      <c r="B60" s="325"/>
+      <c r="B60" s="310"/>
       <c r="C60" s="43" t="s">
         <v>289</v>
       </c>
@@ -31458,7 +31509,7 @@
       </c>
     </row>
     <row r="61" spans="2:18" ht="16.5" customHeight="1">
-      <c r="B61" s="325"/>
+      <c r="B61" s="310"/>
       <c r="C61" s="22" t="s">
         <v>266</v>
       </c>
@@ -31506,7 +31557,7 @@
       </c>
     </row>
     <row r="62" spans="2:18" ht="16.5" customHeight="1">
-      <c r="B62" s="325"/>
+      <c r="B62" s="310"/>
       <c r="C62" s="22" t="s">
         <v>268</v>
       </c>
@@ -31554,7 +31605,7 @@
       </c>
     </row>
     <row r="63" spans="2:18" ht="16.5" customHeight="1">
-      <c r="B63" s="325"/>
+      <c r="B63" s="310"/>
       <c r="C63" s="22" t="s">
         <v>269</v>
       </c>
@@ -31602,7 +31653,7 @@
       </c>
     </row>
     <row r="64" spans="2:18" ht="16.5" customHeight="1">
-      <c r="B64" s="325"/>
+      <c r="B64" s="310"/>
       <c r="C64" s="43" t="s">
         <v>77</v>
       </c>
@@ -31650,7 +31701,7 @@
       </c>
     </row>
     <row r="65" spans="2:19" ht="16.5" customHeight="1">
-      <c r="B65" s="325"/>
+      <c r="B65" s="310"/>
       <c r="C65" s="43" t="s">
         <v>78</v>
       </c>
@@ -31698,7 +31749,7 @@
       </c>
     </row>
     <row r="66" spans="2:19" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B66" s="325"/>
+      <c r="B66" s="310"/>
       <c r="C66" s="43" t="s">
         <v>121</v>
       </c>
@@ -31746,7 +31797,7 @@
       </c>
     </row>
     <row r="67" spans="2:19" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B67" s="326"/>
+      <c r="B67" s="311"/>
       <c r="C67" s="17" t="s">
         <v>11</v>
       </c>
@@ -31801,7 +31852,7 @@
       <c r="S67" s="6"/>
     </row>
     <row r="68" spans="2:19" ht="16.5" customHeight="1">
-      <c r="B68" s="327" t="s">
+      <c r="B68" s="312" t="s">
         <v>40</v>
       </c>
       <c r="C68" s="19" t="s">
@@ -31851,7 +31902,7 @@
       </c>
     </row>
     <row r="69" spans="2:19" ht="16.5" customHeight="1">
-      <c r="B69" s="325"/>
+      <c r="B69" s="310"/>
       <c r="C69" s="43" t="s">
         <v>323</v>
       </c>
@@ -31899,7 +31950,7 @@
       </c>
     </row>
     <row r="70" spans="2:19" ht="16.5" customHeight="1">
-      <c r="B70" s="325"/>
+      <c r="B70" s="310"/>
       <c r="C70" s="43" t="s">
         <v>252</v>
       </c>
@@ -31947,7 +31998,7 @@
       </c>
     </row>
     <row r="71" spans="2:19" ht="16.5" customHeight="1">
-      <c r="B71" s="325"/>
+      <c r="B71" s="310"/>
       <c r="C71" s="43" t="s">
         <v>253</v>
       </c>
@@ -31995,7 +32046,7 @@
       </c>
     </row>
     <row r="72" spans="2:19" ht="16.5" customHeight="1">
-      <c r="B72" s="325"/>
+      <c r="B72" s="310"/>
       <c r="C72" s="43" t="s">
         <v>284</v>
       </c>
@@ -32043,7 +32094,7 @@
       </c>
     </row>
     <row r="73" spans="2:19" ht="16.5" customHeight="1">
-      <c r="B73" s="325"/>
+      <c r="B73" s="310"/>
       <c r="C73" s="43" t="s">
         <v>324</v>
       </c>
@@ -32091,7 +32142,7 @@
       </c>
     </row>
     <row r="74" spans="2:19" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B74" s="325"/>
+      <c r="B74" s="310"/>
       <c r="C74" s="147" t="s">
         <v>261</v>
       </c>
@@ -32139,7 +32190,7 @@
       </c>
     </row>
     <row r="75" spans="2:19" ht="16.5" customHeight="1">
-      <c r="B75" s="325"/>
+      <c r="B75" s="310"/>
       <c r="C75" s="19" t="s">
         <v>270</v>
       </c>
@@ -32187,7 +32238,7 @@
       </c>
     </row>
     <row r="76" spans="2:19" ht="16.5" customHeight="1">
-      <c r="B76" s="325"/>
+      <c r="B76" s="310"/>
       <c r="C76" s="43" t="s">
         <v>271</v>
       </c>
@@ -32235,7 +32286,7 @@
       </c>
     </row>
     <row r="77" spans="2:19" ht="16.5" customHeight="1">
-      <c r="B77" s="325"/>
+      <c r="B77" s="310"/>
       <c r="C77" s="22" t="s">
         <v>122</v>
       </c>
@@ -32283,7 +32334,7 @@
       </c>
     </row>
     <row r="78" spans="2:19" ht="16.5" customHeight="1">
-      <c r="B78" s="325"/>
+      <c r="B78" s="310"/>
       <c r="C78" s="22" t="s">
         <v>119</v>
       </c>
@@ -32331,7 +32382,7 @@
       </c>
     </row>
     <row r="79" spans="2:19" ht="16.5" customHeight="1">
-      <c r="B79" s="325"/>
+      <c r="B79" s="310"/>
       <c r="C79" s="22" t="s">
         <v>267</v>
       </c>
@@ -32379,7 +32430,7 @@
       </c>
     </row>
     <row r="80" spans="2:19" ht="16.5" customHeight="1">
-      <c r="B80" s="325"/>
+      <c r="B80" s="310"/>
       <c r="C80" s="22" t="s">
         <v>104</v>
       </c>
@@ -32427,7 +32478,7 @@
       </c>
     </row>
     <row r="81" spans="2:19" ht="16.5" customHeight="1">
-      <c r="B81" s="325"/>
+      <c r="B81" s="310"/>
       <c r="C81" s="22" t="s">
         <v>101</v>
       </c>
@@ -32475,7 +32526,7 @@
       </c>
     </row>
     <row r="82" spans="2:19" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B82" s="325"/>
+      <c r="B82" s="310"/>
       <c r="C82" s="27" t="s">
         <v>105</v>
       </c>
@@ -32524,7 +32575,7 @@
       <c r="S82" s="6"/>
     </row>
     <row r="83" spans="2:19" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B83" s="326"/>
+      <c r="B83" s="311"/>
       <c r="C83" s="17" t="s">
         <v>11</v>
       </c>
@@ -32579,7 +32630,7 @@
       <c r="S83" s="6"/>
     </row>
     <row r="84" spans="2:19" ht="16.5" customHeight="1">
-      <c r="B84" s="322" t="s">
+      <c r="B84" s="298" t="s">
         <v>45</v>
       </c>
       <c r="C84" s="19" t="s">
@@ -32629,7 +32680,7 @@
       </c>
     </row>
     <row r="85" spans="2:19" ht="16.5" customHeight="1">
-      <c r="B85" s="323"/>
+      <c r="B85" s="299"/>
       <c r="C85" s="43" t="s">
         <v>325</v>
       </c>
@@ -32677,7 +32728,7 @@
       </c>
     </row>
     <row r="86" spans="2:19" ht="16.5" customHeight="1">
-      <c r="B86" s="323"/>
+      <c r="B86" s="299"/>
       <c r="C86" s="43" t="s">
         <v>147</v>
       </c>
@@ -32725,7 +32776,7 @@
       </c>
     </row>
     <row r="87" spans="2:19" ht="16.5" customHeight="1">
-      <c r="B87" s="323"/>
+      <c r="B87" s="299"/>
       <c r="C87" s="43" t="s">
         <v>262</v>
       </c>
@@ -32773,7 +32824,7 @@
       </c>
     </row>
     <row r="88" spans="2:19" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B88" s="323"/>
+      <c r="B88" s="299"/>
       <c r="C88" s="147" t="s">
         <v>62</v>
       </c>
@@ -32821,7 +32872,7 @@
       </c>
     </row>
     <row r="89" spans="2:19" ht="16.5" customHeight="1">
-      <c r="B89" s="323"/>
+      <c r="B89" s="299"/>
       <c r="C89" s="19" t="s">
         <v>326</v>
       </c>
@@ -32869,7 +32920,7 @@
       </c>
     </row>
     <row r="90" spans="2:19" ht="16.5" customHeight="1">
-      <c r="B90" s="323"/>
+      <c r="B90" s="299"/>
       <c r="C90" s="43" t="s">
         <v>327</v>
       </c>
@@ -32917,7 +32968,7 @@
       </c>
     </row>
     <row r="91" spans="2:19" ht="16.5" customHeight="1">
-      <c r="B91" s="323"/>
+      <c r="B91" s="299"/>
       <c r="C91" s="22" t="s">
         <v>124</v>
       </c>
@@ -32965,7 +33016,7 @@
       </c>
     </row>
     <row r="92" spans="2:19" ht="16.5" customHeight="1">
-      <c r="B92" s="323"/>
+      <c r="B92" s="299"/>
       <c r="C92" s="22" t="s">
         <v>127</v>
       </c>
@@ -33013,7 +33064,7 @@
       </c>
     </row>
     <row r="93" spans="2:19" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B93" s="323"/>
+      <c r="B93" s="299"/>
       <c r="C93" s="27" t="s">
         <v>126</v>
       </c>
@@ -33062,7 +33113,7 @@
       <c r="S93" s="6"/>
     </row>
     <row r="94" spans="2:19" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B94" s="324"/>
+      <c r="B94" s="300"/>
       <c r="C94" s="33" t="s">
         <v>11</v>
       </c>
@@ -33145,14 +33196,14 @@
       <c r="I96" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="J96" s="299" t="s">
+      <c r="J96" s="329" t="s">
         <v>8</v>
       </c>
-      <c r="K96" s="300"/>
-      <c r="L96" s="308" t="s">
+      <c r="K96" s="330"/>
+      <c r="L96" s="338" t="s">
         <v>48</v>
       </c>
-      <c r="M96" s="309"/>
+      <c r="M96" s="339"/>
       <c r="N96" s="84" t="s">
         <v>49</v>
       </c>
@@ -33305,6 +33356,26 @@
     <row r="101" spans="2:18" ht="16.5" customHeight="1"/>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="J42:K42"/>
+    <mergeCell ref="L42:M42"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="M6:Q6"/>
+    <mergeCell ref="R6:R7"/>
+    <mergeCell ref="B8:B24"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="B25:B40"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="J96:K96"/>
+    <mergeCell ref="L96:M96"/>
+    <mergeCell ref="B84:B94"/>
+    <mergeCell ref="L49:L50"/>
+    <mergeCell ref="M49:Q49"/>
     <mergeCell ref="R49:R50"/>
     <mergeCell ref="B51:B67"/>
     <mergeCell ref="B68:B83"/>
@@ -33316,30 +33387,10 @@
     <mergeCell ref="H49:I49"/>
     <mergeCell ref="J49:K49"/>
     <mergeCell ref="D49:D50"/>
-    <mergeCell ref="J96:K96"/>
-    <mergeCell ref="L96:M96"/>
-    <mergeCell ref="B84:B94"/>
-    <mergeCell ref="L49:L50"/>
-    <mergeCell ref="M49:Q49"/>
-    <mergeCell ref="R6:R7"/>
-    <mergeCell ref="B8:B24"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="B25:B40"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="J42:K42"/>
-    <mergeCell ref="L42:M42"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="M6:Q6"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.78740157480314965" right="0.78740157480314965" top="0.19685039370078741" bottom="0.23622047244094491" header="0" footer="0"/>
-  <pageSetup paperSize="8" scale="81" fitToHeight="0" orientation="portrait" horizontalDpi="4294967294" r:id="rId1"/>
+  <pageSetup paperSize="8" scale="82" fitToHeight="0" orientation="portrait" horizontalDpi="4294967294" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="1" manualBreakCount="1">
     <brk id="46" max="16383" man="1"/>
@@ -33348,7 +33399,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
     <pageSetUpPr fitToPage="1"/>
@@ -33359,17 +33410,17 @@
       <selection activeCell="E88" sqref="E88"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="9.25" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="1.77734375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="9.21875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="28.6640625" style="15" customWidth="1"/>
+    <col min="1" max="1" width="1.75" style="2" customWidth="1"/>
+    <col min="2" max="2" width="9.25" style="2" customWidth="1"/>
+    <col min="3" max="3" width="28.625" style="15" customWidth="1"/>
     <col min="4" max="4" width="11" style="15" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10" style="2" customWidth="1"/>
-    <col min="6" max="7" width="9.109375" style="2" customWidth="1"/>
+    <col min="6" max="7" width="9.125" style="2" customWidth="1"/>
     <col min="8" max="18" width="7" style="2" customWidth="1"/>
     <col min="19" max="19" width="6" style="2" customWidth="1"/>
-    <col min="20" max="16384" width="9.21875" style="2"/>
+    <col min="20" max="16384" width="9.25" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
@@ -33408,7 +33459,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="13.8" thickBot="1">
+    <row r="5" spans="1:18" ht="14.25" thickBot="1">
       <c r="B5" s="3"/>
       <c r="C5" s="16"/>
       <c r="D5" s="16"/>
@@ -33428,53 +33479,53 @@
       <c r="R5" s="3"/>
     </row>
     <row r="6" spans="1:18" ht="18" customHeight="1" thickBot="1">
-      <c r="B6" s="312" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="328" t="s">
+      <c r="B6" s="316" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="331" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="335" t="s">
+      <c r="D6" s="321" t="s">
         <v>106</v>
       </c>
-      <c r="E6" s="312" t="s">
-        <v>4</v>
-      </c>
-      <c r="F6" s="333" t="s">
+      <c r="E6" s="316" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="323" t="s">
         <v>51</v>
       </c>
-      <c r="G6" s="333" t="s">
+      <c r="G6" s="323" t="s">
         <v>52</v>
       </c>
-      <c r="H6" s="304" t="s">
+      <c r="H6" s="307" t="s">
         <v>5</v>
       </c>
-      <c r="I6" s="305"/>
-      <c r="J6" s="304" t="s">
+      <c r="I6" s="325"/>
+      <c r="J6" s="307" t="s">
         <v>6</v>
       </c>
-      <c r="K6" s="305"/>
-      <c r="L6" s="342" t="s">
+      <c r="K6" s="325"/>
+      <c r="L6" s="346" t="s">
         <v>26</v>
       </c>
-      <c r="M6" s="304" t="s">
+      <c r="M6" s="307" t="s">
         <v>7</v>
       </c>
-      <c r="N6" s="310"/>
-      <c r="O6" s="310"/>
-      <c r="P6" s="310"/>
-      <c r="Q6" s="305"/>
-      <c r="R6" s="312" t="s">
+      <c r="N6" s="308"/>
+      <c r="O6" s="308"/>
+      <c r="P6" s="308"/>
+      <c r="Q6" s="325"/>
+      <c r="R6" s="316" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:18" ht="18" customHeight="1" thickBot="1">
-      <c r="B7" s="313"/>
-      <c r="C7" s="339"/>
-      <c r="D7" s="336"/>
-      <c r="E7" s="313"/>
-      <c r="F7" s="334"/>
-      <c r="G7" s="334"/>
+      <c r="B7" s="317"/>
+      <c r="C7" s="332"/>
+      <c r="D7" s="322"/>
+      <c r="E7" s="317"/>
+      <c r="F7" s="324"/>
+      <c r="G7" s="324"/>
       <c r="H7" s="171" t="s">
         <v>8</v>
       </c>
@@ -33487,7 +33538,7 @@
       <c r="K7" s="60" t="s">
         <v>30</v>
       </c>
-      <c r="L7" s="343"/>
+      <c r="L7" s="347"/>
       <c r="M7" s="10" t="s">
         <v>22</v>
       </c>
@@ -33503,10 +33554,10 @@
       <c r="Q7" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="R7" s="313"/>
+      <c r="R7" s="317"/>
     </row>
     <row r="8" spans="1:18" ht="16.5" customHeight="1">
-      <c r="B8" s="325" t="s">
+      <c r="B8" s="310" t="s">
         <v>145</v>
       </c>
       <c r="C8" s="19" t="s">
@@ -33556,7 +33607,7 @@
       </c>
     </row>
     <row r="9" spans="1:18" ht="16.5" customHeight="1">
-      <c r="B9" s="325"/>
+      <c r="B9" s="310"/>
       <c r="C9" s="43" t="s">
         <v>320</v>
       </c>
@@ -33604,7 +33655,7 @@
       </c>
     </row>
     <row r="10" spans="1:18" ht="16.5" customHeight="1">
-      <c r="B10" s="325"/>
+      <c r="B10" s="310"/>
       <c r="C10" s="43" t="s">
         <v>244</v>
       </c>
@@ -33652,7 +33703,7 @@
       </c>
     </row>
     <row r="11" spans="1:18" ht="16.5" customHeight="1">
-      <c r="B11" s="325"/>
+      <c r="B11" s="310"/>
       <c r="C11" s="43" t="s">
         <v>245</v>
       </c>
@@ -33700,7 +33751,7 @@
       </c>
     </row>
     <row r="12" spans="1:18" ht="16.5" customHeight="1">
-      <c r="B12" s="325"/>
+      <c r="B12" s="310"/>
       <c r="C12" s="43" t="s">
         <v>321</v>
       </c>
@@ -33748,7 +33799,7 @@
       </c>
     </row>
     <row r="13" spans="1:18" ht="16.5" customHeight="1">
-      <c r="B13" s="325"/>
+      <c r="B13" s="310"/>
       <c r="C13" s="43" t="s">
         <v>322</v>
       </c>
@@ -33796,7 +33847,7 @@
       </c>
     </row>
     <row r="14" spans="1:18" ht="16.5" customHeight="1">
-      <c r="B14" s="325"/>
+      <c r="B14" s="310"/>
       <c r="C14" s="43" t="s">
         <v>248</v>
       </c>
@@ -33844,7 +33895,7 @@
       </c>
     </row>
     <row r="15" spans="1:18" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B15" s="325"/>
+      <c r="B15" s="310"/>
       <c r="C15" s="147" t="s">
         <v>249</v>
       </c>
@@ -33892,7 +33943,7 @@
       </c>
     </row>
     <row r="16" spans="1:18" ht="16.5" customHeight="1">
-      <c r="B16" s="325"/>
+      <c r="B16" s="310"/>
       <c r="C16" s="19" t="s">
         <v>288</v>
       </c>
@@ -33940,7 +33991,7 @@
       </c>
     </row>
     <row r="17" spans="2:19" ht="16.5" customHeight="1">
-      <c r="B17" s="325"/>
+      <c r="B17" s="310"/>
       <c r="C17" s="43" t="s">
         <v>289</v>
       </c>
@@ -33988,7 +34039,7 @@
       </c>
     </row>
     <row r="18" spans="2:19" ht="16.5" customHeight="1">
-      <c r="B18" s="325"/>
+      <c r="B18" s="310"/>
       <c r="C18" s="22" t="s">
         <v>266</v>
       </c>
@@ -34036,7 +34087,7 @@
       </c>
     </row>
     <row r="19" spans="2:19" ht="16.5" customHeight="1">
-      <c r="B19" s="325"/>
+      <c r="B19" s="310"/>
       <c r="C19" s="22" t="s">
         <v>268</v>
       </c>
@@ -34084,7 +34135,7 @@
       </c>
     </row>
     <row r="20" spans="2:19" ht="16.5" customHeight="1">
-      <c r="B20" s="325"/>
+      <c r="B20" s="310"/>
       <c r="C20" s="22" t="s">
         <v>269</v>
       </c>
@@ -34132,7 +34183,7 @@
       </c>
     </row>
     <row r="21" spans="2:19" ht="16.5" customHeight="1">
-      <c r="B21" s="325"/>
+      <c r="B21" s="310"/>
       <c r="C21" s="43" t="s">
         <v>77</v>
       </c>
@@ -34180,7 +34231,7 @@
       </c>
     </row>
     <row r="22" spans="2:19" ht="16.5" customHeight="1">
-      <c r="B22" s="325"/>
+      <c r="B22" s="310"/>
       <c r="C22" s="43" t="s">
         <v>78</v>
       </c>
@@ -34228,7 +34279,7 @@
       </c>
     </row>
     <row r="23" spans="2:19" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B23" s="325"/>
+      <c r="B23" s="310"/>
       <c r="C23" s="43" t="s">
         <v>121</v>
       </c>
@@ -34276,7 +34327,7 @@
       </c>
     </row>
     <row r="24" spans="2:19" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B24" s="326"/>
+      <c r="B24" s="311"/>
       <c r="C24" s="17" t="s">
         <v>11</v>
       </c>
@@ -34331,7 +34382,7 @@
       <c r="S24" s="6"/>
     </row>
     <row r="25" spans="2:19" ht="16.5" customHeight="1">
-      <c r="B25" s="327" t="s">
+      <c r="B25" s="312" t="s">
         <v>146</v>
       </c>
       <c r="C25" s="19" t="s">
@@ -34381,7 +34432,7 @@
       </c>
     </row>
     <row r="26" spans="2:19" ht="16.5" customHeight="1">
-      <c r="B26" s="325"/>
+      <c r="B26" s="310"/>
       <c r="C26" s="43" t="s">
         <v>323</v>
       </c>
@@ -34429,7 +34480,7 @@
       </c>
     </row>
     <row r="27" spans="2:19" ht="16.5" customHeight="1">
-      <c r="B27" s="325"/>
+      <c r="B27" s="310"/>
       <c r="C27" s="43" t="s">
         <v>252</v>
       </c>
@@ -34477,7 +34528,7 @@
       </c>
     </row>
     <row r="28" spans="2:19" ht="16.5" customHeight="1">
-      <c r="B28" s="325"/>
+      <c r="B28" s="310"/>
       <c r="C28" s="43" t="s">
         <v>253</v>
       </c>
@@ -34525,7 +34576,7 @@
       </c>
     </row>
     <row r="29" spans="2:19" ht="16.5" customHeight="1">
-      <c r="B29" s="325"/>
+      <c r="B29" s="310"/>
       <c r="C29" s="43" t="s">
         <v>284</v>
       </c>
@@ -34573,7 +34624,7 @@
       </c>
     </row>
     <row r="30" spans="2:19" ht="16.5" customHeight="1">
-      <c r="B30" s="325"/>
+      <c r="B30" s="310"/>
       <c r="C30" s="43" t="s">
         <v>324</v>
       </c>
@@ -34621,7 +34672,7 @@
       </c>
     </row>
     <row r="31" spans="2:19" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B31" s="325"/>
+      <c r="B31" s="310"/>
       <c r="C31" s="147" t="s">
         <v>261</v>
       </c>
@@ -34669,7 +34720,7 @@
       </c>
     </row>
     <row r="32" spans="2:19" ht="16.5" customHeight="1">
-      <c r="B32" s="325"/>
+      <c r="B32" s="310"/>
       <c r="C32" s="19" t="s">
         <v>270</v>
       </c>
@@ -34717,7 +34768,7 @@
       </c>
     </row>
     <row r="33" spans="1:19" ht="16.5" customHeight="1">
-      <c r="B33" s="325"/>
+      <c r="B33" s="310"/>
       <c r="C33" s="43" t="s">
         <v>271</v>
       </c>
@@ -34765,7 +34816,7 @@
       </c>
     </row>
     <row r="34" spans="1:19" ht="16.5" customHeight="1">
-      <c r="B34" s="325"/>
+      <c r="B34" s="310"/>
       <c r="C34" s="22" t="s">
         <v>122</v>
       </c>
@@ -34813,7 +34864,7 @@
       </c>
     </row>
     <row r="35" spans="1:19" ht="16.5" customHeight="1">
-      <c r="B35" s="325"/>
+      <c r="B35" s="310"/>
       <c r="C35" s="22" t="s">
         <v>119</v>
       </c>
@@ -34861,7 +34912,7 @@
       </c>
     </row>
     <row r="36" spans="1:19" ht="16.5" customHeight="1">
-      <c r="B36" s="325"/>
+      <c r="B36" s="310"/>
       <c r="C36" s="22" t="s">
         <v>267</v>
       </c>
@@ -34909,7 +34960,7 @@
       </c>
     </row>
     <row r="37" spans="1:19" ht="16.5" customHeight="1">
-      <c r="B37" s="325"/>
+      <c r="B37" s="310"/>
       <c r="C37" s="22" t="s">
         <v>104</v>
       </c>
@@ -34957,7 +35008,7 @@
       </c>
     </row>
     <row r="38" spans="1:19" ht="16.5" customHeight="1">
-      <c r="B38" s="325"/>
+      <c r="B38" s="310"/>
       <c r="C38" s="22" t="s">
         <v>101</v>
       </c>
@@ -35005,7 +35056,7 @@
       </c>
     </row>
     <row r="39" spans="1:19" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B39" s="325"/>
+      <c r="B39" s="310"/>
       <c r="C39" s="27" t="s">
         <v>105</v>
       </c>
@@ -35053,7 +35104,7 @@
       </c>
     </row>
     <row r="40" spans="1:19" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B40" s="326"/>
+      <c r="B40" s="311"/>
       <c r="C40" s="17" t="s">
         <v>11</v>
       </c>
@@ -35136,14 +35187,14 @@
       <c r="I42" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="J42" s="299" t="s">
+      <c r="J42" s="329" t="s">
         <v>8</v>
       </c>
-      <c r="K42" s="300"/>
-      <c r="L42" s="308" t="s">
+      <c r="K42" s="330"/>
+      <c r="L42" s="338" t="s">
         <v>48</v>
       </c>
-      <c r="M42" s="309"/>
+      <c r="M42" s="339"/>
       <c r="N42" s="84" t="s">
         <v>49</v>
       </c>
@@ -35265,7 +35316,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="48" spans="1:19" ht="13.8" thickBot="1">
+    <row r="48" spans="1:19" ht="14.25" thickBot="1">
       <c r="B48" s="3"/>
       <c r="C48" s="16"/>
       <c r="D48" s="16"/>
@@ -35285,53 +35336,53 @@
       <c r="R48" s="3"/>
     </row>
     <row r="49" spans="2:18" ht="18" customHeight="1" thickBot="1">
-      <c r="B49" s="312" t="s">
-        <v>2</v>
-      </c>
-      <c r="C49" s="346" t="s">
+      <c r="B49" s="316" t="s">
+        <v>2</v>
+      </c>
+      <c r="C49" s="349" t="s">
         <v>3</v>
       </c>
-      <c r="D49" s="335" t="s">
+      <c r="D49" s="321" t="s">
         <v>106</v>
       </c>
-      <c r="E49" s="312" t="s">
-        <v>4</v>
-      </c>
-      <c r="F49" s="333" t="s">
+      <c r="E49" s="316" t="s">
+        <v>4</v>
+      </c>
+      <c r="F49" s="323" t="s">
         <v>51</v>
       </c>
-      <c r="G49" s="333" t="s">
+      <c r="G49" s="323" t="s">
         <v>52</v>
       </c>
-      <c r="H49" s="304" t="s">
+      <c r="H49" s="307" t="s">
         <v>5</v>
       </c>
-      <c r="I49" s="305"/>
-      <c r="J49" s="304" t="s">
+      <c r="I49" s="325"/>
+      <c r="J49" s="307" t="s">
         <v>6</v>
       </c>
-      <c r="K49" s="305"/>
-      <c r="L49" s="342" t="s">
+      <c r="K49" s="325"/>
+      <c r="L49" s="346" t="s">
         <v>26</v>
       </c>
-      <c r="M49" s="304" t="s">
+      <c r="M49" s="307" t="s">
         <v>7</v>
       </c>
-      <c r="N49" s="310"/>
-      <c r="O49" s="310"/>
-      <c r="P49" s="310"/>
-      <c r="Q49" s="305"/>
-      <c r="R49" s="312" t="s">
+      <c r="N49" s="308"/>
+      <c r="O49" s="308"/>
+      <c r="P49" s="308"/>
+      <c r="Q49" s="325"/>
+      <c r="R49" s="316" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="50" spans="2:18" ht="18" customHeight="1" thickBot="1">
-      <c r="B50" s="313"/>
-      <c r="C50" s="347"/>
-      <c r="D50" s="336"/>
-      <c r="E50" s="313"/>
-      <c r="F50" s="334"/>
-      <c r="G50" s="334"/>
+      <c r="B50" s="317"/>
+      <c r="C50" s="350"/>
+      <c r="D50" s="322"/>
+      <c r="E50" s="317"/>
+      <c r="F50" s="324"/>
+      <c r="G50" s="324"/>
       <c r="H50" s="171" t="s">
         <v>8</v>
       </c>
@@ -35344,7 +35395,7 @@
       <c r="K50" s="60" t="s">
         <v>30</v>
       </c>
-      <c r="L50" s="343"/>
+      <c r="L50" s="347"/>
       <c r="M50" s="10" t="s">
         <v>22</v>
       </c>
@@ -35360,10 +35411,10 @@
       <c r="Q50" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="R50" s="313"/>
+      <c r="R50" s="317"/>
     </row>
     <row r="51" spans="2:18" ht="16.5" customHeight="1">
-      <c r="B51" s="325" t="s">
+      <c r="B51" s="310" t="s">
         <v>140</v>
       </c>
       <c r="C51" s="19" t="s">
@@ -35413,7 +35464,7 @@
       </c>
     </row>
     <row r="52" spans="2:18" ht="16.5" customHeight="1">
-      <c r="B52" s="325"/>
+      <c r="B52" s="310"/>
       <c r="C52" s="43" t="s">
         <v>320</v>
       </c>
@@ -35461,7 +35512,7 @@
       </c>
     </row>
     <row r="53" spans="2:18" ht="16.5" customHeight="1">
-      <c r="B53" s="325"/>
+      <c r="B53" s="310"/>
       <c r="C53" s="43" t="s">
         <v>244</v>
       </c>
@@ -35509,7 +35560,7 @@
       </c>
     </row>
     <row r="54" spans="2:18" ht="16.5" customHeight="1">
-      <c r="B54" s="325"/>
+      <c r="B54" s="310"/>
       <c r="C54" s="43" t="s">
         <v>245</v>
       </c>
@@ -35557,7 +35608,7 @@
       </c>
     </row>
     <row r="55" spans="2:18" ht="16.5" customHeight="1">
-      <c r="B55" s="325"/>
+      <c r="B55" s="310"/>
       <c r="C55" s="43" t="s">
         <v>321</v>
       </c>
@@ -35605,7 +35656,7 @@
       </c>
     </row>
     <row r="56" spans="2:18" ht="16.5" customHeight="1">
-      <c r="B56" s="325"/>
+      <c r="B56" s="310"/>
       <c r="C56" s="43" t="s">
         <v>322</v>
       </c>
@@ -35653,7 +35704,7 @@
       </c>
     </row>
     <row r="57" spans="2:18" ht="16.5" customHeight="1">
-      <c r="B57" s="325"/>
+      <c r="B57" s="310"/>
       <c r="C57" s="43" t="s">
         <v>248</v>
       </c>
@@ -35701,7 +35752,7 @@
       </c>
     </row>
     <row r="58" spans="2:18" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B58" s="325"/>
+      <c r="B58" s="310"/>
       <c r="C58" s="147" t="s">
         <v>249</v>
       </c>
@@ -35749,7 +35800,7 @@
       </c>
     </row>
     <row r="59" spans="2:18" ht="16.5" customHeight="1">
-      <c r="B59" s="325"/>
+      <c r="B59" s="310"/>
       <c r="C59" s="19" t="s">
         <v>288</v>
       </c>
@@ -35797,7 +35848,7 @@
       </c>
     </row>
     <row r="60" spans="2:18" ht="16.5" customHeight="1">
-      <c r="B60" s="325"/>
+      <c r="B60" s="310"/>
       <c r="C60" s="43" t="s">
         <v>289</v>
       </c>
@@ -35845,7 +35896,7 @@
       </c>
     </row>
     <row r="61" spans="2:18" ht="16.5" customHeight="1">
-      <c r="B61" s="325"/>
+      <c r="B61" s="310"/>
       <c r="C61" s="22" t="s">
         <v>266</v>
       </c>
@@ -35893,7 +35944,7 @@
       </c>
     </row>
     <row r="62" spans="2:18" ht="16.5" customHeight="1">
-      <c r="B62" s="325"/>
+      <c r="B62" s="310"/>
       <c r="C62" s="22" t="s">
         <v>268</v>
       </c>
@@ -35941,7 +35992,7 @@
       </c>
     </row>
     <row r="63" spans="2:18" ht="16.5" customHeight="1">
-      <c r="B63" s="325"/>
+      <c r="B63" s="310"/>
       <c r="C63" s="22" t="s">
         <v>269</v>
       </c>
@@ -35989,7 +36040,7 @@
       </c>
     </row>
     <row r="64" spans="2:18" ht="16.5" customHeight="1">
-      <c r="B64" s="325"/>
+      <c r="B64" s="310"/>
       <c r="C64" s="43" t="s">
         <v>77</v>
       </c>
@@ -36037,7 +36088,7 @@
       </c>
     </row>
     <row r="65" spans="2:19" ht="16.5" customHeight="1">
-      <c r="B65" s="325"/>
+      <c r="B65" s="310"/>
       <c r="C65" s="43" t="s">
         <v>78</v>
       </c>
@@ -36085,7 +36136,7 @@
       </c>
     </row>
     <row r="66" spans="2:19" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B66" s="325"/>
+      <c r="B66" s="310"/>
       <c r="C66" s="43" t="s">
         <v>121</v>
       </c>
@@ -36133,7 +36184,7 @@
       </c>
     </row>
     <row r="67" spans="2:19" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B67" s="326"/>
+      <c r="B67" s="311"/>
       <c r="C67" s="17" t="s">
         <v>11</v>
       </c>
@@ -36188,7 +36239,7 @@
       <c r="S67" s="6"/>
     </row>
     <row r="68" spans="2:19" ht="16.5" customHeight="1">
-      <c r="B68" s="327" t="s">
+      <c r="B68" s="312" t="s">
         <v>142</v>
       </c>
       <c r="C68" s="19" t="s">
@@ -36238,7 +36289,7 @@
       </c>
     </row>
     <row r="69" spans="2:19" ht="16.5" customHeight="1">
-      <c r="B69" s="325"/>
+      <c r="B69" s="310"/>
       <c r="C69" s="43" t="s">
         <v>323</v>
       </c>
@@ -36286,7 +36337,7 @@
       </c>
     </row>
     <row r="70" spans="2:19" ht="16.5" customHeight="1">
-      <c r="B70" s="325"/>
+      <c r="B70" s="310"/>
       <c r="C70" s="43" t="s">
         <v>252</v>
       </c>
@@ -36334,7 +36385,7 @@
       </c>
     </row>
     <row r="71" spans="2:19" ht="16.5" customHeight="1">
-      <c r="B71" s="325"/>
+      <c r="B71" s="310"/>
       <c r="C71" s="43" t="s">
         <v>253</v>
       </c>
@@ -36382,7 +36433,7 @@
       </c>
     </row>
     <row r="72" spans="2:19" ht="16.5" customHeight="1">
-      <c r="B72" s="325"/>
+      <c r="B72" s="310"/>
       <c r="C72" s="43" t="s">
         <v>284</v>
       </c>
@@ -36430,7 +36481,7 @@
       </c>
     </row>
     <row r="73" spans="2:19" ht="16.5" customHeight="1">
-      <c r="B73" s="325"/>
+      <c r="B73" s="310"/>
       <c r="C73" s="43" t="s">
         <v>324</v>
       </c>
@@ -36478,7 +36529,7 @@
       </c>
     </row>
     <row r="74" spans="2:19" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B74" s="325"/>
+      <c r="B74" s="310"/>
       <c r="C74" s="147" t="s">
         <v>261</v>
       </c>
@@ -36526,7 +36577,7 @@
       </c>
     </row>
     <row r="75" spans="2:19" ht="16.5" customHeight="1">
-      <c r="B75" s="325"/>
+      <c r="B75" s="310"/>
       <c r="C75" s="19" t="s">
         <v>270</v>
       </c>
@@ -36574,7 +36625,7 @@
       </c>
     </row>
     <row r="76" spans="2:19" ht="16.5" customHeight="1">
-      <c r="B76" s="325"/>
+      <c r="B76" s="310"/>
       <c r="C76" s="43" t="s">
         <v>271</v>
       </c>
@@ -36622,7 +36673,7 @@
       </c>
     </row>
     <row r="77" spans="2:19" ht="16.5" customHeight="1">
-      <c r="B77" s="325"/>
+      <c r="B77" s="310"/>
       <c r="C77" s="22" t="s">
         <v>122</v>
       </c>
@@ -36673,7 +36724,7 @@
       </c>
     </row>
     <row r="78" spans="2:19" ht="16.5" customHeight="1">
-      <c r="B78" s="325"/>
+      <c r="B78" s="310"/>
       <c r="C78" s="22" t="s">
         <v>119</v>
       </c>
@@ -36721,7 +36772,7 @@
       </c>
     </row>
     <row r="79" spans="2:19" ht="16.5" customHeight="1">
-      <c r="B79" s="325"/>
+      <c r="B79" s="310"/>
       <c r="C79" s="22" t="s">
         <v>267</v>
       </c>
@@ -36769,7 +36820,7 @@
       </c>
     </row>
     <row r="80" spans="2:19" ht="16.5" customHeight="1">
-      <c r="B80" s="325"/>
+      <c r="B80" s="310"/>
       <c r="C80" s="22" t="s">
         <v>104</v>
       </c>
@@ -36817,7 +36868,7 @@
       </c>
     </row>
     <row r="81" spans="2:19" ht="16.5" customHeight="1">
-      <c r="B81" s="325"/>
+      <c r="B81" s="310"/>
       <c r="C81" s="22" t="s">
         <v>101</v>
       </c>
@@ -36865,7 +36916,7 @@
       </c>
     </row>
     <row r="82" spans="2:19" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B82" s="325"/>
+      <c r="B82" s="310"/>
       <c r="C82" s="27" t="s">
         <v>105</v>
       </c>
@@ -36914,7 +36965,7 @@
       <c r="S82" s="6"/>
     </row>
     <row r="83" spans="2:19" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B83" s="326"/>
+      <c r="B83" s="311"/>
       <c r="C83" s="17" t="s">
         <v>11</v>
       </c>
@@ -36969,7 +37020,7 @@
       <c r="S83" s="6"/>
     </row>
     <row r="84" spans="2:19" ht="16.5" customHeight="1">
-      <c r="B84" s="322" t="s">
+      <c r="B84" s="298" t="s">
         <v>141</v>
       </c>
       <c r="C84" s="19" t="s">
@@ -37019,7 +37070,7 @@
       </c>
     </row>
     <row r="85" spans="2:19" ht="16.5" customHeight="1">
-      <c r="B85" s="323"/>
+      <c r="B85" s="299"/>
       <c r="C85" s="43" t="s">
         <v>325</v>
       </c>
@@ -37067,7 +37118,7 @@
       </c>
     </row>
     <row r="86" spans="2:19" ht="16.5" customHeight="1">
-      <c r="B86" s="323"/>
+      <c r="B86" s="299"/>
       <c r="C86" s="43" t="s">
         <v>147</v>
       </c>
@@ -37115,7 +37166,7 @@
       </c>
     </row>
     <row r="87" spans="2:19" ht="16.5" customHeight="1">
-      <c r="B87" s="323"/>
+      <c r="B87" s="299"/>
       <c r="C87" s="43" t="s">
         <v>262</v>
       </c>
@@ -37163,7 +37214,7 @@
       </c>
     </row>
     <row r="88" spans="2:19" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B88" s="323"/>
+      <c r="B88" s="299"/>
       <c r="C88" s="147" t="s">
         <v>62</v>
       </c>
@@ -37211,7 +37262,7 @@
       </c>
     </row>
     <row r="89" spans="2:19" ht="16.5" customHeight="1">
-      <c r="B89" s="323"/>
+      <c r="B89" s="299"/>
       <c r="C89" s="19" t="s">
         <v>326</v>
       </c>
@@ -37259,7 +37310,7 @@
       </c>
     </row>
     <row r="90" spans="2:19" ht="16.5" customHeight="1">
-      <c r="B90" s="323"/>
+      <c r="B90" s="299"/>
       <c r="C90" s="43" t="s">
         <v>328</v>
       </c>
@@ -37307,7 +37358,7 @@
       </c>
     </row>
     <row r="91" spans="2:19" ht="16.5" customHeight="1">
-      <c r="B91" s="323"/>
+      <c r="B91" s="299"/>
       <c r="C91" s="22" t="s">
         <v>132</v>
       </c>
@@ -37355,7 +37406,7 @@
       </c>
     </row>
     <row r="92" spans="2:19" ht="16.5" customHeight="1">
-      <c r="B92" s="323"/>
+      <c r="B92" s="299"/>
       <c r="C92" s="22" t="s">
         <v>127</v>
       </c>
@@ -37403,7 +37454,7 @@
       </c>
     </row>
     <row r="93" spans="2:19" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B93" s="323"/>
+      <c r="B93" s="299"/>
       <c r="C93" s="27" t="s">
         <v>126</v>
       </c>
@@ -37452,7 +37503,7 @@
       <c r="S93" s="6"/>
     </row>
     <row r="94" spans="2:19" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B94" s="324"/>
+      <c r="B94" s="300"/>
       <c r="C94" s="33" t="s">
         <v>11</v>
       </c>
@@ -37535,14 +37586,14 @@
       <c r="I96" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="J96" s="299" t="s">
+      <c r="J96" s="329" t="s">
         <v>8</v>
       </c>
-      <c r="K96" s="300"/>
-      <c r="L96" s="308" t="s">
+      <c r="K96" s="330"/>
+      <c r="L96" s="338" t="s">
         <v>48</v>
       </c>
-      <c r="M96" s="309"/>
+      <c r="M96" s="339"/>
       <c r="N96" s="84" t="s">
         <v>49</v>
       </c>
@@ -37695,17 +37746,12 @@
     <row r="101" spans="2:18" ht="16.5" customHeight="1"/>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="R6:R7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="M6:Q6"/>
+    <mergeCell ref="R49:R50"/>
+    <mergeCell ref="B51:B67"/>
+    <mergeCell ref="J96:K96"/>
+    <mergeCell ref="L96:M96"/>
+    <mergeCell ref="B68:B83"/>
+    <mergeCell ref="B84:B94"/>
     <mergeCell ref="B8:B24"/>
     <mergeCell ref="B25:B40"/>
     <mergeCell ref="J42:K42"/>
@@ -37720,16 +37766,21 @@
     <mergeCell ref="J49:K49"/>
     <mergeCell ref="L49:L50"/>
     <mergeCell ref="M49:Q49"/>
-    <mergeCell ref="R49:R50"/>
-    <mergeCell ref="B51:B67"/>
-    <mergeCell ref="J96:K96"/>
-    <mergeCell ref="L96:M96"/>
-    <mergeCell ref="B68:B83"/>
-    <mergeCell ref="B84:B94"/>
+    <mergeCell ref="R6:R7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="M6:Q6"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.78740157480314965" right="0.78740157480314965" top="0.19685039370078741" bottom="0.23622047244094491" header="0" footer="0"/>
-  <pageSetup paperSize="8" scale="81" fitToHeight="0" orientation="portrait" horizontalDpi="4294967294" r:id="rId1"/>
+  <pageSetup paperSize="8" scale="82" fitToHeight="0" orientation="portrait" horizontalDpi="4294967294" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="1" manualBreakCount="1">
     <brk id="46" max="16383" man="1"/>

--- a/2.コンピュータ教育学院_2021カリキュラム_0324.xlsx
+++ b/2.コンピュータ教育学院_2021カリキュラム_0324.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23901"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ueda-l540\Desktop\syllabus2021\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.110.240\share\教務構成管理\02_Doc\88_2021年度計画\01_年間指導計画\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56F8A89E-DFF0-4D61-AC51-00245BE2196C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="4410" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="統合カリキュラム" sheetId="17" r:id="rId1"/>
@@ -44,12 +43,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Windows User</author>
   </authors>
   <commentList>
-    <comment ref="C39" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
+    <comment ref="C39" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -64,7 +63,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C95" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
+    <comment ref="C95" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -79,7 +78,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C162" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
+    <comment ref="C162" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2879,7 +2878,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
     <numFmt numFmtId="5" formatCode="&quot;¥&quot;#,##0;&quot;¥&quot;\-#,##0"/>
     <numFmt numFmtId="176" formatCode="#,##0_ "/>
@@ -4609,31 +4608,25 @@
     <xf numFmtId="0" fontId="0" fillId="16" borderId="56" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="49" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4641,6 +4634,93 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
@@ -4651,33 +4731,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
@@ -4687,29 +4740,26 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
@@ -4717,74 +4767,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="49" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4792,8 +4788,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
@@ -4804,7 +4803,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
-    <cellStyle name="標準 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="標準 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -4906,23 +4905,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -4958,23 +4940,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -5150,15 +5115,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1">
     <tabColor rgb="FFFF0000"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:S148"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A46" zoomScale="107" zoomScaleNormal="100" zoomScaleSheetLayoutView="107" workbookViewId="0">
-      <selection activeCell="L90" sqref="L90:L107"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A5" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="J55" sqref="J55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -12295,7 +12260,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="H3:R136" xr:uid="{00000000-0009-0000-0000-000000000000}">
+  <autoFilter ref="H3:R136">
     <filterColumn colId="4">
       <filters>
         <filter val="↑"/>
@@ -12327,7 +12292,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
     <pageSetUpPr fitToPage="1"/>
@@ -12397,55 +12362,55 @@
       <c r="S5" s="36"/>
     </row>
     <row r="6" spans="1:20" ht="18" customHeight="1" thickBot="1">
-      <c r="B6" s="316" t="s">
+      <c r="B6" s="315" t="s">
         <v>2</v>
       </c>
       <c r="C6" s="331" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="321" t="s">
+      <c r="D6" s="338" t="s">
         <v>106</v>
       </c>
-      <c r="E6" s="316" t="s">
-        <v>4</v>
-      </c>
-      <c r="F6" s="323" t="s">
+      <c r="E6" s="315" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="336" t="s">
         <v>51</v>
       </c>
-      <c r="G6" s="323" t="s">
+      <c r="G6" s="336" t="s">
         <v>52</v>
       </c>
       <c r="H6" s="307" t="s">
         <v>5</v>
       </c>
-      <c r="I6" s="325"/>
+      <c r="I6" s="308"/>
       <c r="J6" s="307" t="s">
         <v>6</v>
       </c>
-      <c r="K6" s="325"/>
-      <c r="L6" s="326" t="s">
+      <c r="K6" s="308"/>
+      <c r="L6" s="319" t="s">
         <v>26</v>
       </c>
       <c r="M6" s="307" t="s">
         <v>7</v>
       </c>
-      <c r="N6" s="308"/>
-      <c r="O6" s="308"/>
-      <c r="P6" s="308"/>
-      <c r="Q6" s="309"/>
-      <c r="R6" s="316" t="s">
+      <c r="N6" s="313"/>
+      <c r="O6" s="313"/>
+      <c r="P6" s="313"/>
+      <c r="Q6" s="314"/>
+      <c r="R6" s="315" t="s">
         <v>35</v>
       </c>
       <c r="S6" s="58"/>
       <c r="T6" s="58"/>
     </row>
     <row r="7" spans="1:20" ht="18" customHeight="1" thickBot="1">
-      <c r="B7" s="317"/>
-      <c r="C7" s="332"/>
-      <c r="D7" s="322"/>
-      <c r="E7" s="317"/>
-      <c r="F7" s="324"/>
-      <c r="G7" s="324"/>
+      <c r="B7" s="316"/>
+      <c r="C7" s="342"/>
+      <c r="D7" s="339"/>
+      <c r="E7" s="316"/>
+      <c r="F7" s="337"/>
+      <c r="G7" s="337"/>
       <c r="H7" s="86" t="s">
         <v>8</v>
       </c>
@@ -12458,7 +12423,7 @@
       <c r="K7" s="60" t="s">
         <v>30</v>
       </c>
-      <c r="L7" s="327"/>
+      <c r="L7" s="320"/>
       <c r="M7" s="10" t="s">
         <v>22</v>
       </c>
@@ -12474,12 +12439,12 @@
       <c r="Q7" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="R7" s="317"/>
+      <c r="R7" s="316"/>
       <c r="S7" s="59"/>
       <c r="T7" s="59"/>
     </row>
     <row r="8" spans="1:20" ht="16.5" customHeight="1">
-      <c r="B8" s="310" t="s">
+      <c r="B8" s="328" t="s">
         <v>15</v>
       </c>
       <c r="C8" s="19" t="s">
@@ -12531,7 +12496,7 @@
       <c r="T8" s="47"/>
     </row>
     <row r="9" spans="1:20" ht="16.5" customHeight="1">
-      <c r="B9" s="310"/>
+      <c r="B9" s="328"/>
       <c r="C9" s="43" t="s">
         <v>260</v>
       </c>
@@ -12581,7 +12546,7 @@
       <c r="T9" s="47"/>
     </row>
     <row r="10" spans="1:20" ht="16.5" customHeight="1">
-      <c r="B10" s="310"/>
+      <c r="B10" s="328"/>
       <c r="C10" s="43" t="s">
         <v>103</v>
       </c>
@@ -12631,7 +12596,7 @@
       <c r="T10" s="47"/>
     </row>
     <row r="11" spans="1:20" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B11" s="310"/>
+      <c r="B11" s="328"/>
       <c r="C11" s="147" t="s">
         <v>16</v>
       </c>
@@ -12681,7 +12646,7 @@
       <c r="T11" s="47"/>
     </row>
     <row r="12" spans="1:20" ht="16.5" customHeight="1">
-      <c r="B12" s="310"/>
+      <c r="B12" s="328"/>
       <c r="C12" s="19" t="s">
         <v>68</v>
       </c>
@@ -12731,7 +12696,7 @@
       <c r="T12" s="47"/>
     </row>
     <row r="13" spans="1:20" ht="16.5" customHeight="1">
-      <c r="B13" s="310"/>
+      <c r="B13" s="328"/>
       <c r="C13" s="43" t="s">
         <v>263</v>
       </c>
@@ -12781,7 +12746,7 @@
       <c r="T13" s="47"/>
     </row>
     <row r="14" spans="1:20" ht="16.5" customHeight="1">
-      <c r="B14" s="310"/>
+      <c r="B14" s="328"/>
       <c r="C14" s="43" t="s">
         <v>264</v>
       </c>
@@ -12831,7 +12796,7 @@
       <c r="T14" s="47"/>
     </row>
     <row r="15" spans="1:20" ht="16.5" customHeight="1">
-      <c r="B15" s="310"/>
+      <c r="B15" s="328"/>
       <c r="C15" s="43" t="s">
         <v>335</v>
       </c>
@@ -12881,7 +12846,7 @@
       <c r="T15" s="47"/>
     </row>
     <row r="16" spans="1:20" ht="16.5" customHeight="1">
-      <c r="B16" s="310"/>
+      <c r="B16" s="328"/>
       <c r="C16" s="43" t="s">
         <v>77</v>
       </c>
@@ -12931,7 +12896,7 @@
       <c r="T16" s="47"/>
     </row>
     <row r="17" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B17" s="310"/>
+      <c r="B17" s="328"/>
       <c r="C17" s="43" t="s">
         <v>78</v>
       </c>
@@ -12981,7 +12946,7 @@
       <c r="T17" s="47"/>
     </row>
     <row r="18" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B18" s="310"/>
+      <c r="B18" s="328"/>
       <c r="C18" s="22" t="s">
         <v>272</v>
       </c>
@@ -13031,7 +12996,7 @@
       <c r="T18" s="47"/>
     </row>
     <row r="19" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B19" s="310"/>
+      <c r="B19" s="328"/>
       <c r="C19" s="22" t="s">
         <v>273</v>
       </c>
@@ -13081,7 +13046,7 @@
       <c r="T19" s="47"/>
     </row>
     <row r="20" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B20" s="310"/>
+      <c r="B20" s="328"/>
       <c r="C20" s="22" t="s">
         <v>119</v>
       </c>
@@ -13131,7 +13096,7 @@
       <c r="T20" s="47"/>
     </row>
     <row r="21" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B21" s="310"/>
+      <c r="B21" s="328"/>
       <c r="C21" s="22" t="s">
         <v>266</v>
       </c>
@@ -13181,7 +13146,7 @@
       <c r="T21" s="47"/>
     </row>
     <row r="22" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B22" s="310"/>
+      <c r="B22" s="328"/>
       <c r="C22" s="22" t="s">
         <v>290</v>
       </c>
@@ -13231,7 +13196,7 @@
       <c r="T22" s="47"/>
     </row>
     <row r="23" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B23" s="310"/>
+      <c r="B23" s="328"/>
       <c r="C23" s="22" t="s">
         <v>120</v>
       </c>
@@ -13281,7 +13246,7 @@
       <c r="T23" s="47"/>
     </row>
     <row r="24" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B24" s="310"/>
+      <c r="B24" s="328"/>
       <c r="C24" s="22" t="s">
         <v>100</v>
       </c>
@@ -13331,7 +13296,7 @@
       <c r="T24" s="47"/>
     </row>
     <row r="25" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B25" s="310"/>
+      <c r="B25" s="328"/>
       <c r="C25" s="22" t="s">
         <v>98</v>
       </c>
@@ -13381,7 +13346,7 @@
       <c r="T25" s="47"/>
     </row>
     <row r="26" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B26" s="310"/>
+      <c r="B26" s="328"/>
       <c r="C26" s="22" t="s">
         <v>88</v>
       </c>
@@ -13431,7 +13396,7 @@
       <c r="T26" s="47"/>
     </row>
     <row r="27" spans="2:20" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B27" s="310"/>
+      <c r="B27" s="328"/>
       <c r="C27" s="27" t="s">
         <v>96</v>
       </c>
@@ -13481,7 +13446,7 @@
       <c r="T27" s="47"/>
     </row>
     <row r="28" spans="2:20" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B28" s="311"/>
+      <c r="B28" s="329"/>
       <c r="C28" s="17" t="s">
         <v>11</v>
       </c>
@@ -13537,7 +13502,7 @@
       <c r="T28" s="47"/>
     </row>
     <row r="29" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B29" s="312" t="s">
+      <c r="B29" s="330" t="s">
         <v>58</v>
       </c>
       <c r="C29" s="19" t="s">
@@ -13589,7 +13554,7 @@
       <c r="T29" s="47"/>
     </row>
     <row r="30" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B30" s="310"/>
+      <c r="B30" s="328"/>
       <c r="C30" s="43" t="s">
         <v>261</v>
       </c>
@@ -13639,7 +13604,7 @@
       <c r="T30" s="47"/>
     </row>
     <row r="31" spans="2:20" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B31" s="310"/>
+      <c r="B31" s="328"/>
       <c r="C31" s="146" t="s">
         <v>116</v>
       </c>
@@ -13689,7 +13654,7 @@
       <c r="T31" s="47"/>
     </row>
     <row r="32" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B32" s="310"/>
+      <c r="B32" s="328"/>
       <c r="C32" s="19" t="s">
         <v>336</v>
       </c>
@@ -13739,7 +13704,7 @@
       <c r="T32" s="47"/>
     </row>
     <row r="33" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B33" s="310"/>
+      <c r="B33" s="328"/>
       <c r="C33" s="22" t="s">
         <v>337</v>
       </c>
@@ -13789,7 +13754,7 @@
       <c r="T33" s="47"/>
     </row>
     <row r="34" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B34" s="310"/>
+      <c r="B34" s="328"/>
       <c r="C34" s="22" t="s">
         <v>338</v>
       </c>
@@ -13839,7 +13804,7 @@
       <c r="T34" s="47"/>
     </row>
     <row r="35" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B35" s="310"/>
+      <c r="B35" s="328"/>
       <c r="C35" s="22" t="s">
         <v>339</v>
       </c>
@@ -13889,7 +13854,7 @@
       <c r="T35" s="47"/>
     </row>
     <row r="36" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B36" s="310"/>
+      <c r="B36" s="328"/>
       <c r="C36" s="43" t="s">
         <v>274</v>
       </c>
@@ -13939,7 +13904,7 @@
       <c r="T36" s="47"/>
     </row>
     <row r="37" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B37" s="310"/>
+      <c r="B37" s="328"/>
       <c r="C37" s="22" t="s">
         <v>275</v>
       </c>
@@ -13989,7 +13954,7 @@
       <c r="T37" s="47"/>
     </row>
     <row r="38" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B38" s="310"/>
+      <c r="B38" s="328"/>
       <c r="C38" s="22" t="s">
         <v>104</v>
       </c>
@@ -14039,7 +14004,7 @@
       <c r="T38" s="47"/>
     </row>
     <row r="39" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B39" s="310"/>
+      <c r="B39" s="328"/>
       <c r="C39" s="22" t="s">
         <v>280</v>
       </c>
@@ -14089,7 +14054,7 @@
       <c r="T39" s="47"/>
     </row>
     <row r="40" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B40" s="310"/>
+      <c r="B40" s="328"/>
       <c r="C40" s="22" t="s">
         <v>105</v>
       </c>
@@ -14139,7 +14104,7 @@
       <c r="T40" s="47"/>
     </row>
     <row r="41" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B41" s="310"/>
+      <c r="B41" s="328"/>
       <c r="C41" s="22" t="s">
         <v>99</v>
       </c>
@@ -14189,49 +14154,49 @@
       <c r="T41" s="47"/>
     </row>
     <row r="42" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B42" s="310"/>
+      <c r="B42" s="328"/>
       <c r="C42" s="22" t="s">
         <v>124</v>
       </c>
       <c r="D42" s="150" t="s">
         <v>108</v>
       </c>
-      <c r="E42" s="292" t="s">
+      <c r="E42" s="333" t="s">
         <v>41</v>
       </c>
-      <c r="F42" s="289">
+      <c r="F42" s="291">
         <f t="shared" si="17"/>
         <v>64</v>
       </c>
-      <c r="G42" s="289">
+      <c r="G42" s="291">
         <f t="shared" si="21"/>
         <v>64</v>
       </c>
-      <c r="H42" s="289"/>
-      <c r="I42" s="287" t="s">
-        <v>1</v>
-      </c>
-      <c r="J42" s="287" t="s">
-        <v>1</v>
-      </c>
-      <c r="K42" s="287"/>
-      <c r="L42" s="287"/>
-      <c r="M42" s="289">
-        <v>2</v>
-      </c>
-      <c r="N42" s="289">
-        <v>2</v>
-      </c>
-      <c r="O42" s="289">
-        <v>2</v>
-      </c>
-      <c r="P42" s="289">
-        <v>2</v>
-      </c>
-      <c r="Q42" s="289">
-        <v>0</v>
-      </c>
-      <c r="R42" s="289">
+      <c r="H42" s="291"/>
+      <c r="I42" s="289" t="s">
+        <v>1</v>
+      </c>
+      <c r="J42" s="289" t="s">
+        <v>1</v>
+      </c>
+      <c r="K42" s="289"/>
+      <c r="L42" s="289"/>
+      <c r="M42" s="291">
+        <v>2</v>
+      </c>
+      <c r="N42" s="291">
+        <v>2</v>
+      </c>
+      <c r="O42" s="291">
+        <v>2</v>
+      </c>
+      <c r="P42" s="291">
+        <v>2</v>
+      </c>
+      <c r="Q42" s="291">
+        <v>0</v>
+      </c>
+      <c r="R42" s="291">
         <f t="shared" si="16"/>
         <v>4</v>
       </c>
@@ -14239,32 +14204,32 @@
       <c r="T42" s="47"/>
     </row>
     <row r="43" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B43" s="310"/>
+      <c r="B43" s="328"/>
       <c r="C43" s="22" t="s">
         <v>89</v>
       </c>
       <c r="D43" s="150" t="s">
         <v>108</v>
       </c>
-      <c r="E43" s="313"/>
-      <c r="F43" s="305"/>
-      <c r="G43" s="305"/>
-      <c r="H43" s="305"/>
-      <c r="I43" s="314"/>
-      <c r="J43" s="314"/>
-      <c r="K43" s="314"/>
-      <c r="L43" s="337"/>
-      <c r="M43" s="304"/>
-      <c r="N43" s="304"/>
-      <c r="O43" s="304"/>
-      <c r="P43" s="304"/>
-      <c r="Q43" s="304"/>
-      <c r="R43" s="303"/>
+      <c r="E43" s="334"/>
+      <c r="F43" s="306"/>
+      <c r="G43" s="306"/>
+      <c r="H43" s="306"/>
+      <c r="I43" s="343"/>
+      <c r="J43" s="343"/>
+      <c r="K43" s="343"/>
+      <c r="L43" s="317"/>
+      <c r="M43" s="292"/>
+      <c r="N43" s="292"/>
+      <c r="O43" s="292"/>
+      <c r="P43" s="292"/>
+      <c r="Q43" s="292"/>
+      <c r="R43" s="318"/>
       <c r="S43" s="47"/>
       <c r="T43" s="47"/>
     </row>
     <row r="44" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B44" s="310"/>
+      <c r="B44" s="328"/>
       <c r="C44" s="22" t="s">
         <v>152</v>
       </c>
@@ -14316,49 +14281,49 @@
       <c r="T44" s="47"/>
     </row>
     <row r="45" spans="2:20">
-      <c r="B45" s="310"/>
+      <c r="B45" s="328"/>
       <c r="C45" s="114" t="s">
         <v>175</v>
       </c>
-      <c r="D45" s="328" t="s">
+      <c r="D45" s="298" t="s">
         <v>108</v>
       </c>
-      <c r="E45" s="292" t="s">
+      <c r="E45" s="333" t="s">
         <v>41</v>
       </c>
-      <c r="F45" s="289">
+      <c r="F45" s="291">
         <f>SUM(M45:Q45)*$F$1</f>
         <v>48</v>
       </c>
-      <c r="G45" s="289">
+      <c r="G45" s="291">
         <f>F45</f>
         <v>48</v>
       </c>
-      <c r="H45" s="287"/>
-      <c r="I45" s="287" t="s">
-        <v>0</v>
-      </c>
-      <c r="J45" s="287" t="s">
-        <v>0</v>
-      </c>
-      <c r="K45" s="287"/>
-      <c r="L45" s="287"/>
-      <c r="M45" s="296">
+      <c r="H45" s="289"/>
+      <c r="I45" s="289" t="s">
+        <v>0</v>
+      </c>
+      <c r="J45" s="289" t="s">
+        <v>0</v>
+      </c>
+      <c r="K45" s="289"/>
+      <c r="L45" s="289"/>
+      <c r="M45" s="294">
         <v>6</v>
       </c>
-      <c r="N45" s="296">
-        <v>0</v>
-      </c>
-      <c r="O45" s="296">
-        <v>0</v>
-      </c>
-      <c r="P45" s="296">
-        <v>0</v>
-      </c>
-      <c r="Q45" s="296">
-        <v>0</v>
-      </c>
-      <c r="R45" s="289">
+      <c r="N45" s="294">
+        <v>0</v>
+      </c>
+      <c r="O45" s="294">
+        <v>0</v>
+      </c>
+      <c r="P45" s="294">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="294">
+        <v>0</v>
+      </c>
+      <c r="R45" s="291">
         <f>F45/$F$2</f>
         <v>3</v>
       </c>
@@ -14366,72 +14331,72 @@
       <c r="T45" s="47"/>
     </row>
     <row r="46" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B46" s="310"/>
+      <c r="B46" s="328"/>
       <c r="C46" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="D46" s="320"/>
-      <c r="E46" s="293"/>
-      <c r="F46" s="294"/>
-      <c r="G46" s="294"/>
-      <c r="H46" s="315"/>
-      <c r="I46" s="315"/>
-      <c r="J46" s="315"/>
-      <c r="K46" s="315"/>
-      <c r="L46" s="334"/>
-      <c r="M46" s="318"/>
-      <c r="N46" s="318"/>
-      <c r="O46" s="318"/>
-      <c r="P46" s="318"/>
-      <c r="Q46" s="318"/>
-      <c r="R46" s="291"/>
+      <c r="D46" s="340"/>
+      <c r="E46" s="335"/>
+      <c r="F46" s="341"/>
+      <c r="G46" s="341"/>
+      <c r="H46" s="301"/>
+      <c r="I46" s="301"/>
+      <c r="J46" s="301"/>
+      <c r="K46" s="301"/>
+      <c r="L46" s="309"/>
+      <c r="M46" s="310"/>
+      <c r="N46" s="310"/>
+      <c r="O46" s="310"/>
+      <c r="P46" s="310"/>
+      <c r="Q46" s="310"/>
+      <c r="R46" s="321"/>
       <c r="S46" s="47"/>
       <c r="T46" s="47"/>
     </row>
     <row r="47" spans="2:20">
-      <c r="B47" s="310"/>
+      <c r="B47" s="328"/>
       <c r="C47" s="114" t="s">
         <v>174</v>
       </c>
-      <c r="D47" s="328" t="s">
+      <c r="D47" s="298" t="s">
         <v>108</v>
       </c>
-      <c r="E47" s="292" t="s">
+      <c r="E47" s="333" t="s">
         <v>42</v>
       </c>
-      <c r="F47" s="289">
+      <c r="F47" s="291">
         <f>SUM(M47:Q47)*$F$1</f>
         <v>48</v>
       </c>
-      <c r="G47" s="289">
+      <c r="G47" s="291">
         <f>F47</f>
         <v>48</v>
       </c>
-      <c r="H47" s="287"/>
-      <c r="I47" s="287" t="s">
-        <v>0</v>
-      </c>
-      <c r="J47" s="287" t="s">
-        <v>0</v>
-      </c>
-      <c r="K47" s="287"/>
-      <c r="L47" s="287"/>
-      <c r="M47" s="296">
-        <v>0</v>
-      </c>
-      <c r="N47" s="296">
+      <c r="H47" s="289"/>
+      <c r="I47" s="289" t="s">
+        <v>0</v>
+      </c>
+      <c r="J47" s="289" t="s">
+        <v>0</v>
+      </c>
+      <c r="K47" s="289"/>
+      <c r="L47" s="289"/>
+      <c r="M47" s="294">
+        <v>0</v>
+      </c>
+      <c r="N47" s="294">
         <v>6</v>
       </c>
-      <c r="O47" s="296">
-        <v>0</v>
-      </c>
-      <c r="P47" s="296">
-        <v>0</v>
-      </c>
-      <c r="Q47" s="296">
-        <v>0</v>
-      </c>
-      <c r="R47" s="289">
+      <c r="O47" s="294">
+        <v>0</v>
+      </c>
+      <c r="P47" s="294">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="294">
+        <v>0</v>
+      </c>
+      <c r="R47" s="291">
         <f>F47/$F$2</f>
         <v>3</v>
       </c>
@@ -14439,72 +14404,72 @@
       <c r="T47" s="47"/>
     </row>
     <row r="48" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B48" s="310"/>
+      <c r="B48" s="328"/>
       <c r="C48" s="22" t="s">
         <v>92</v>
       </c>
-      <c r="D48" s="320"/>
-      <c r="E48" s="293"/>
-      <c r="F48" s="294"/>
-      <c r="G48" s="294"/>
-      <c r="H48" s="315"/>
-      <c r="I48" s="315"/>
-      <c r="J48" s="315"/>
-      <c r="K48" s="315"/>
-      <c r="L48" s="334"/>
-      <c r="M48" s="318"/>
-      <c r="N48" s="318"/>
-      <c r="O48" s="318"/>
-      <c r="P48" s="318"/>
-      <c r="Q48" s="318"/>
-      <c r="R48" s="291"/>
+      <c r="D48" s="340"/>
+      <c r="E48" s="335"/>
+      <c r="F48" s="341"/>
+      <c r="G48" s="341"/>
+      <c r="H48" s="301"/>
+      <c r="I48" s="301"/>
+      <c r="J48" s="301"/>
+      <c r="K48" s="301"/>
+      <c r="L48" s="309"/>
+      <c r="M48" s="310"/>
+      <c r="N48" s="310"/>
+      <c r="O48" s="310"/>
+      <c r="P48" s="310"/>
+      <c r="Q48" s="310"/>
+      <c r="R48" s="321"/>
       <c r="S48" s="47"/>
       <c r="T48" s="47"/>
     </row>
     <row r="49" spans="1:20" ht="16.5" customHeight="1">
-      <c r="B49" s="310"/>
+      <c r="B49" s="328"/>
       <c r="C49" s="22" t="s">
         <v>291</v>
       </c>
-      <c r="D49" s="319" t="s">
+      <c r="D49" s="300" t="s">
         <v>108</v>
       </c>
-      <c r="E49" s="292" t="s">
+      <c r="E49" s="333" t="s">
         <v>42</v>
       </c>
-      <c r="F49" s="289">
+      <c r="F49" s="291">
         <f>SUM(M49:Q49)*$F$1</f>
         <v>48</v>
       </c>
-      <c r="G49" s="289">
+      <c r="G49" s="291">
         <f>F49</f>
         <v>48</v>
       </c>
-      <c r="H49" s="287"/>
-      <c r="I49" s="287" t="s">
-        <v>0</v>
-      </c>
-      <c r="J49" s="287" t="s">
-        <v>0</v>
-      </c>
-      <c r="K49" s="287"/>
-      <c r="L49" s="287"/>
-      <c r="M49" s="296">
-        <v>0</v>
-      </c>
-      <c r="N49" s="296">
-        <v>0</v>
-      </c>
-      <c r="O49" s="296">
+      <c r="H49" s="289"/>
+      <c r="I49" s="289" t="s">
+        <v>0</v>
+      </c>
+      <c r="J49" s="289" t="s">
+        <v>0</v>
+      </c>
+      <c r="K49" s="289"/>
+      <c r="L49" s="289"/>
+      <c r="M49" s="294">
+        <v>0</v>
+      </c>
+      <c r="N49" s="294">
+        <v>0</v>
+      </c>
+      <c r="O49" s="294">
         <v>6</v>
       </c>
-      <c r="P49" s="296">
-        <v>0</v>
-      </c>
-      <c r="Q49" s="296">
-        <v>0</v>
-      </c>
-      <c r="R49" s="289">
+      <c r="P49" s="294">
+        <v>0</v>
+      </c>
+      <c r="Q49" s="294">
+        <v>0</v>
+      </c>
+      <c r="R49" s="291">
         <f>F49/$F$2</f>
         <v>3</v>
       </c>
@@ -14512,72 +14477,72 @@
       <c r="T49" s="47"/>
     </row>
     <row r="50" spans="1:20" ht="16.5" customHeight="1">
-      <c r="B50" s="310"/>
+      <c r="B50" s="328"/>
       <c r="C50" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="D50" s="320"/>
-      <c r="E50" s="293"/>
-      <c r="F50" s="294"/>
-      <c r="G50" s="294"/>
-      <c r="H50" s="315"/>
-      <c r="I50" s="315"/>
-      <c r="J50" s="315"/>
-      <c r="K50" s="315"/>
-      <c r="L50" s="334"/>
-      <c r="M50" s="318"/>
-      <c r="N50" s="318"/>
-      <c r="O50" s="318"/>
-      <c r="P50" s="318"/>
-      <c r="Q50" s="318"/>
-      <c r="R50" s="291"/>
+      <c r="D50" s="340"/>
+      <c r="E50" s="335"/>
+      <c r="F50" s="341"/>
+      <c r="G50" s="341"/>
+      <c r="H50" s="301"/>
+      <c r="I50" s="301"/>
+      <c r="J50" s="301"/>
+      <c r="K50" s="301"/>
+      <c r="L50" s="309"/>
+      <c r="M50" s="310"/>
+      <c r="N50" s="310"/>
+      <c r="O50" s="310"/>
+      <c r="P50" s="310"/>
+      <c r="Q50" s="310"/>
+      <c r="R50" s="321"/>
       <c r="S50" s="47"/>
       <c r="T50" s="47"/>
     </row>
     <row r="51" spans="1:20" ht="16.5" customHeight="1">
-      <c r="B51" s="310"/>
+      <c r="B51" s="328"/>
       <c r="C51" s="22" t="s">
         <v>292</v>
       </c>
-      <c r="D51" s="319" t="s">
+      <c r="D51" s="300" t="s">
         <v>108</v>
       </c>
-      <c r="E51" s="292" t="s">
+      <c r="E51" s="333" t="s">
         <v>42</v>
       </c>
-      <c r="F51" s="289">
+      <c r="F51" s="291">
         <f>SUM(M51:Q51)*$F$1</f>
         <v>48</v>
       </c>
-      <c r="G51" s="289">
+      <c r="G51" s="291">
         <f>F51</f>
         <v>48</v>
       </c>
-      <c r="H51" s="287"/>
-      <c r="I51" s="287" t="s">
-        <v>0</v>
-      </c>
-      <c r="J51" s="287" t="s">
-        <v>0</v>
-      </c>
-      <c r="K51" s="287"/>
-      <c r="L51" s="287"/>
-      <c r="M51" s="296">
-        <v>0</v>
-      </c>
-      <c r="N51" s="296">
-        <v>0</v>
-      </c>
-      <c r="O51" s="296">
-        <v>0</v>
-      </c>
-      <c r="P51" s="296">
+      <c r="H51" s="289"/>
+      <c r="I51" s="289" t="s">
+        <v>0</v>
+      </c>
+      <c r="J51" s="289" t="s">
+        <v>0</v>
+      </c>
+      <c r="K51" s="289"/>
+      <c r="L51" s="289"/>
+      <c r="M51" s="294">
+        <v>0</v>
+      </c>
+      <c r="N51" s="294">
+        <v>0</v>
+      </c>
+      <c r="O51" s="294">
+        <v>0</v>
+      </c>
+      <c r="P51" s="294">
         <v>6</v>
       </c>
-      <c r="Q51" s="296">
-        <v>0</v>
-      </c>
-      <c r="R51" s="289">
+      <c r="Q51" s="294">
+        <v>0</v>
+      </c>
+      <c r="R51" s="291">
         <f>F51/$F$2</f>
         <v>3</v>
       </c>
@@ -14585,30 +14550,30 @@
       <c r="T51" s="47"/>
     </row>
     <row r="52" spans="1:20" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B52" s="310"/>
+      <c r="B52" s="328"/>
       <c r="C52" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="D52" s="320"/>
-      <c r="E52" s="293"/>
-      <c r="F52" s="294"/>
-      <c r="G52" s="294"/>
-      <c r="H52" s="315"/>
-      <c r="I52" s="315"/>
-      <c r="J52" s="315"/>
-      <c r="K52" s="315"/>
-      <c r="L52" s="334"/>
-      <c r="M52" s="318"/>
-      <c r="N52" s="318"/>
-      <c r="O52" s="318"/>
-      <c r="P52" s="318"/>
-      <c r="Q52" s="318"/>
-      <c r="R52" s="291"/>
+      <c r="D52" s="340"/>
+      <c r="E52" s="335"/>
+      <c r="F52" s="341"/>
+      <c r="G52" s="341"/>
+      <c r="H52" s="301"/>
+      <c r="I52" s="301"/>
+      <c r="J52" s="301"/>
+      <c r="K52" s="301"/>
+      <c r="L52" s="309"/>
+      <c r="M52" s="310"/>
+      <c r="N52" s="310"/>
+      <c r="O52" s="310"/>
+      <c r="P52" s="310"/>
+      <c r="Q52" s="310"/>
+      <c r="R52" s="321"/>
       <c r="S52" s="47"/>
       <c r="T52" s="47"/>
     </row>
     <row r="53" spans="1:20" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B53" s="311"/>
+      <c r="B53" s="329"/>
       <c r="C53" s="17" t="s">
         <v>11</v>
       </c>
@@ -14694,14 +14659,14 @@
       <c r="I55" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="J55" s="329" t="s">
+      <c r="J55" s="302" t="s">
         <v>8</v>
       </c>
-      <c r="K55" s="330"/>
-      <c r="L55" s="335" t="s">
+      <c r="K55" s="303"/>
+      <c r="L55" s="323" t="s">
         <v>48</v>
       </c>
-      <c r="M55" s="336"/>
+      <c r="M55" s="324"/>
       <c r="N55" s="118" t="s">
         <v>49</v>
       </c>
@@ -14884,55 +14849,55 @@
       <c r="T61" s="57"/>
     </row>
     <row r="62" spans="1:20" ht="18" customHeight="1" thickBot="1">
-      <c r="B62" s="316" t="s">
+      <c r="B62" s="315" t="s">
         <v>2</v>
       </c>
       <c r="C62" s="331" t="s">
         <v>3</v>
       </c>
-      <c r="D62" s="321" t="s">
+      <c r="D62" s="338" t="s">
         <v>106</v>
       </c>
-      <c r="E62" s="316" t="s">
-        <v>4</v>
-      </c>
-      <c r="F62" s="323" t="s">
+      <c r="E62" s="315" t="s">
+        <v>4</v>
+      </c>
+      <c r="F62" s="336" t="s">
         <v>51</v>
       </c>
-      <c r="G62" s="323" t="s">
+      <c r="G62" s="336" t="s">
         <v>52</v>
       </c>
       <c r="H62" s="307" t="s">
         <v>5</v>
       </c>
-      <c r="I62" s="325"/>
+      <c r="I62" s="308"/>
       <c r="J62" s="307" t="s">
         <v>6</v>
       </c>
-      <c r="K62" s="325"/>
-      <c r="L62" s="326" t="s">
+      <c r="K62" s="308"/>
+      <c r="L62" s="319" t="s">
         <v>26</v>
       </c>
       <c r="M62" s="307" t="s">
         <v>7</v>
       </c>
-      <c r="N62" s="308"/>
-      <c r="O62" s="308"/>
-      <c r="P62" s="308"/>
-      <c r="Q62" s="309"/>
-      <c r="R62" s="316" t="s">
+      <c r="N62" s="313"/>
+      <c r="O62" s="313"/>
+      <c r="P62" s="313"/>
+      <c r="Q62" s="314"/>
+      <c r="R62" s="315" t="s">
         <v>35</v>
       </c>
       <c r="S62" s="58"/>
       <c r="T62" s="58"/>
     </row>
     <row r="63" spans="1:20" ht="18" customHeight="1" thickBot="1">
-      <c r="B63" s="317"/>
-      <c r="C63" s="333"/>
-      <c r="D63" s="322"/>
-      <c r="E63" s="317"/>
-      <c r="F63" s="324"/>
-      <c r="G63" s="324"/>
+      <c r="B63" s="316"/>
+      <c r="C63" s="332"/>
+      <c r="D63" s="339"/>
+      <c r="E63" s="316"/>
+      <c r="F63" s="337"/>
+      <c r="G63" s="337"/>
       <c r="H63" s="56" t="s">
         <v>8</v>
       </c>
@@ -14945,7 +14910,7 @@
       <c r="K63" s="60" t="s">
         <v>30</v>
       </c>
-      <c r="L63" s="327"/>
+      <c r="L63" s="320"/>
       <c r="M63" s="10" t="s">
         <v>32</v>
       </c>
@@ -14961,12 +14926,12 @@
       <c r="Q63" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="R63" s="317"/>
+      <c r="R63" s="316"/>
       <c r="S63" s="59"/>
       <c r="T63" s="59"/>
     </row>
     <row r="64" spans="1:20" ht="16.5" customHeight="1">
-      <c r="B64" s="310" t="s">
+      <c r="B64" s="328" t="s">
         <v>18</v>
       </c>
       <c r="C64" s="19" t="s">
@@ -15018,7 +14983,7 @@
       <c r="T64" s="47"/>
     </row>
     <row r="65" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B65" s="310"/>
+      <c r="B65" s="328"/>
       <c r="C65" s="43" t="s">
         <v>103</v>
       </c>
@@ -15068,7 +15033,7 @@
       <c r="T65" s="47"/>
     </row>
     <row r="66" spans="2:20" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B66" s="310"/>
+      <c r="B66" s="328"/>
       <c r="C66" s="147" t="s">
         <v>16</v>
       </c>
@@ -15118,7 +15083,7 @@
       <c r="T66" s="47"/>
     </row>
     <row r="67" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B67" s="310"/>
+      <c r="B67" s="328"/>
       <c r="C67" s="231" t="s">
         <v>68</v>
       </c>
@@ -15168,7 +15133,7 @@
       <c r="T67" s="47"/>
     </row>
     <row r="68" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B68" s="310"/>
+      <c r="B68" s="328"/>
       <c r="C68" s="43" t="s">
         <v>263</v>
       </c>
@@ -15218,7 +15183,7 @@
       <c r="T68" s="47"/>
     </row>
     <row r="69" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B69" s="310"/>
+      <c r="B69" s="328"/>
       <c r="C69" s="43" t="s">
         <v>264</v>
       </c>
@@ -15268,7 +15233,7 @@
       <c r="T69" s="47"/>
     </row>
     <row r="70" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B70" s="310"/>
+      <c r="B70" s="328"/>
       <c r="C70" s="43" t="s">
         <v>335</v>
       </c>
@@ -15318,7 +15283,7 @@
       <c r="T70" s="47"/>
     </row>
     <row r="71" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B71" s="310"/>
+      <c r="B71" s="328"/>
       <c r="C71" s="43" t="s">
         <v>77</v>
       </c>
@@ -15368,7 +15333,7 @@
       <c r="T71" s="47"/>
     </row>
     <row r="72" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B72" s="310"/>
+      <c r="B72" s="328"/>
       <c r="C72" s="43" t="s">
         <v>78</v>
       </c>
@@ -15418,7 +15383,7 @@
       <c r="T72" s="47"/>
     </row>
     <row r="73" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B73" s="310"/>
+      <c r="B73" s="328"/>
       <c r="C73" s="22" t="s">
         <v>272</v>
       </c>
@@ -15468,7 +15433,7 @@
       <c r="T73" s="47"/>
     </row>
     <row r="74" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B74" s="310"/>
+      <c r="B74" s="328"/>
       <c r="C74" s="22" t="s">
         <v>273</v>
       </c>
@@ -15518,7 +15483,7 @@
       <c r="T74" s="47"/>
     </row>
     <row r="75" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B75" s="310"/>
+      <c r="B75" s="328"/>
       <c r="C75" s="22" t="s">
         <v>119</v>
       </c>
@@ -15568,7 +15533,7 @@
       <c r="T75" s="47"/>
     </row>
     <row r="76" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B76" s="310"/>
+      <c r="B76" s="328"/>
       <c r="C76" s="22" t="s">
         <v>266</v>
       </c>
@@ -15618,7 +15583,7 @@
       <c r="T76" s="47"/>
     </row>
     <row r="77" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B77" s="310"/>
+      <c r="B77" s="328"/>
       <c r="C77" s="22" t="s">
         <v>267</v>
       </c>
@@ -15668,7 +15633,7 @@
       <c r="T77" s="47"/>
     </row>
     <row r="78" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B78" s="310"/>
+      <c r="B78" s="328"/>
       <c r="C78" s="22" t="s">
         <v>120</v>
       </c>
@@ -15718,7 +15683,7 @@
       <c r="T78" s="47"/>
     </row>
     <row r="79" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B79" s="310"/>
+      <c r="B79" s="328"/>
       <c r="C79" s="22" t="s">
         <v>100</v>
       </c>
@@ -15768,7 +15733,7 @@
       <c r="T79" s="47"/>
     </row>
     <row r="80" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B80" s="310"/>
+      <c r="B80" s="328"/>
       <c r="C80" s="22" t="s">
         <v>94</v>
       </c>
@@ -15818,7 +15783,7 @@
       <c r="T80" s="47"/>
     </row>
     <row r="81" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B81" s="310"/>
+      <c r="B81" s="328"/>
       <c r="C81" s="22" t="s">
         <v>88</v>
       </c>
@@ -15868,7 +15833,7 @@
       <c r="T81" s="47"/>
     </row>
     <row r="82" spans="2:20" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B82" s="310"/>
+      <c r="B82" s="328"/>
       <c r="C82" s="22" t="s">
         <v>96</v>
       </c>
@@ -15918,7 +15883,7 @@
       <c r="T82" s="47"/>
     </row>
     <row r="83" spans="2:20" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B83" s="311"/>
+      <c r="B83" s="329"/>
       <c r="C83" s="17" t="s">
         <v>11</v>
       </c>
@@ -15974,7 +15939,7 @@
       <c r="T83" s="47"/>
     </row>
     <row r="84" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B84" s="312" t="s">
+      <c r="B84" s="330" t="s">
         <v>40</v>
       </c>
       <c r="C84" s="19" t="s">
@@ -16026,7 +15991,7 @@
       <c r="T84" s="47"/>
     </row>
     <row r="85" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B85" s="310"/>
+      <c r="B85" s="328"/>
       <c r="C85" s="43" t="s">
         <v>260</v>
       </c>
@@ -16076,7 +16041,7 @@
       <c r="T85" s="47"/>
     </row>
     <row r="86" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B86" s="310"/>
+      <c r="B86" s="328"/>
       <c r="C86" s="43" t="s">
         <v>16</v>
       </c>
@@ -16126,7 +16091,7 @@
       <c r="T86" s="47"/>
     </row>
     <row r="87" spans="2:20" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B87" s="310"/>
+      <c r="B87" s="328"/>
       <c r="C87" s="146" t="s">
         <v>70</v>
       </c>
@@ -16176,7 +16141,7 @@
       <c r="T87" s="47"/>
     </row>
     <row r="88" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B88" s="310"/>
+      <c r="B88" s="328"/>
       <c r="C88" s="19" t="s">
         <v>336</v>
       </c>
@@ -16226,7 +16191,7 @@
       <c r="T88" s="47"/>
     </row>
     <row r="89" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B89" s="310"/>
+      <c r="B89" s="328"/>
       <c r="C89" s="22" t="s">
         <v>337</v>
       </c>
@@ -16276,7 +16241,7 @@
       <c r="T89" s="47"/>
     </row>
     <row r="90" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B90" s="310"/>
+      <c r="B90" s="328"/>
       <c r="C90" s="22" t="s">
         <v>338</v>
       </c>
@@ -16326,7 +16291,7 @@
       <c r="T90" s="47"/>
     </row>
     <row r="91" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B91" s="310"/>
+      <c r="B91" s="328"/>
       <c r="C91" s="22" t="s">
         <v>339</v>
       </c>
@@ -16376,7 +16341,7 @@
       <c r="T91" s="47"/>
     </row>
     <row r="92" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B92" s="310"/>
+      <c r="B92" s="328"/>
       <c r="C92" s="43" t="s">
         <v>274</v>
       </c>
@@ -16426,7 +16391,7 @@
       <c r="T92" s="47"/>
     </row>
     <row r="93" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B93" s="310"/>
+      <c r="B93" s="328"/>
       <c r="C93" s="22" t="s">
         <v>275</v>
       </c>
@@ -16476,7 +16441,7 @@
       <c r="T93" s="47"/>
     </row>
     <row r="94" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B94" s="310"/>
+      <c r="B94" s="328"/>
       <c r="C94" s="22" t="s">
         <v>104</v>
       </c>
@@ -16526,7 +16491,7 @@
       <c r="T94" s="47"/>
     </row>
     <row r="95" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B95" s="310"/>
+      <c r="B95" s="328"/>
       <c r="C95" s="22" t="s">
         <v>280</v>
       </c>
@@ -16576,7 +16541,7 @@
       <c r="T95" s="47"/>
     </row>
     <row r="96" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B96" s="310"/>
+      <c r="B96" s="328"/>
       <c r="C96" s="22" t="s">
         <v>105</v>
       </c>
@@ -16626,7 +16591,7 @@
       <c r="T96" s="47"/>
     </row>
     <row r="97" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B97" s="310"/>
+      <c r="B97" s="328"/>
       <c r="C97" s="22" t="s">
         <v>99</v>
       </c>
@@ -16676,374 +16641,374 @@
       <c r="T97" s="47"/>
     </row>
     <row r="98" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B98" s="310"/>
+      <c r="B98" s="328"/>
       <c r="C98" s="22" t="s">
         <v>124</v>
       </c>
       <c r="D98" s="150" t="s">
         <v>108</v>
       </c>
-      <c r="E98" s="292" t="s">
+      <c r="E98" s="333" t="s">
         <v>41</v>
       </c>
-      <c r="F98" s="289">
+      <c r="F98" s="291">
         <f t="shared" si="42"/>
         <v>64</v>
       </c>
-      <c r="G98" s="289">
+      <c r="G98" s="291">
         <f t="shared" si="43"/>
         <v>64</v>
       </c>
-      <c r="H98" s="289"/>
-      <c r="I98" s="287" t="s">
-        <v>1</v>
-      </c>
-      <c r="J98" s="287" t="s">
-        <v>1</v>
-      </c>
-      <c r="K98" s="287"/>
-      <c r="L98" s="287"/>
-      <c r="M98" s="289">
-        <v>2</v>
-      </c>
-      <c r="N98" s="289">
-        <v>2</v>
-      </c>
-      <c r="O98" s="289">
-        <v>2</v>
-      </c>
-      <c r="P98" s="289">
-        <v>2</v>
-      </c>
-      <c r="Q98" s="289">
-        <v>0</v>
-      </c>
-      <c r="R98" s="289">
+      <c r="H98" s="291"/>
+      <c r="I98" s="289" t="s">
+        <v>1</v>
+      </c>
+      <c r="J98" s="289" t="s">
+        <v>1</v>
+      </c>
+      <c r="K98" s="289"/>
+      <c r="L98" s="289"/>
+      <c r="M98" s="291">
+        <v>2</v>
+      </c>
+      <c r="N98" s="291">
+        <v>2</v>
+      </c>
+      <c r="O98" s="291">
+        <v>2</v>
+      </c>
+      <c r="P98" s="291">
+        <v>2</v>
+      </c>
+      <c r="Q98" s="291">
+        <v>0</v>
+      </c>
+      <c r="R98" s="291">
         <f t="shared" si="41"/>
         <v>4</v>
       </c>
-      <c r="S98" s="342"/>
+      <c r="S98" s="287"/>
       <c r="T98" s="47"/>
     </row>
     <row r="99" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B99" s="310"/>
+      <c r="B99" s="328"/>
       <c r="C99" s="22" t="s">
         <v>89</v>
       </c>
       <c r="D99" s="150" t="s">
         <v>108</v>
       </c>
-      <c r="E99" s="313"/>
-      <c r="F99" s="305"/>
-      <c r="G99" s="305"/>
-      <c r="H99" s="303"/>
-      <c r="I99" s="306"/>
-      <c r="J99" s="306"/>
-      <c r="K99" s="306"/>
-      <c r="L99" s="340"/>
-      <c r="M99" s="304"/>
-      <c r="N99" s="304"/>
-      <c r="O99" s="304"/>
-      <c r="P99" s="304"/>
-      <c r="Q99" s="304"/>
-      <c r="R99" s="303"/>
-      <c r="S99" s="343"/>
+      <c r="E99" s="334"/>
+      <c r="F99" s="306"/>
+      <c r="G99" s="306"/>
+      <c r="H99" s="318"/>
+      <c r="I99" s="290"/>
+      <c r="J99" s="290"/>
+      <c r="K99" s="290"/>
+      <c r="L99" s="293"/>
+      <c r="M99" s="292"/>
+      <c r="N99" s="292"/>
+      <c r="O99" s="292"/>
+      <c r="P99" s="292"/>
+      <c r="Q99" s="292"/>
+      <c r="R99" s="318"/>
+      <c r="S99" s="288"/>
       <c r="T99" s="152"/>
     </row>
     <row r="100" spans="2:20">
-      <c r="B100" s="310"/>
+      <c r="B100" s="328"/>
       <c r="C100" s="114" t="s">
         <v>175</v>
       </c>
-      <c r="D100" s="328" t="s">
+      <c r="D100" s="298" t="s">
         <v>108</v>
       </c>
-      <c r="E100" s="292" t="s">
+      <c r="E100" s="333" t="s">
         <v>41</v>
       </c>
-      <c r="F100" s="289">
+      <c r="F100" s="291">
         <f>SUM(M100:Q100)*$F$1</f>
         <v>48</v>
       </c>
-      <c r="G100" s="289">
+      <c r="G100" s="291">
         <f>F100</f>
         <v>48</v>
       </c>
-      <c r="H100" s="287"/>
-      <c r="I100" s="287" t="s">
+      <c r="H100" s="289"/>
+      <c r="I100" s="289" t="s">
         <v>43</v>
       </c>
-      <c r="J100" s="287" t="s">
+      <c r="J100" s="289" t="s">
         <v>43</v>
       </c>
-      <c r="K100" s="287"/>
-      <c r="L100" s="287"/>
-      <c r="M100" s="296">
+      <c r="K100" s="289"/>
+      <c r="L100" s="289"/>
+      <c r="M100" s="294">
         <v>6</v>
       </c>
-      <c r="N100" s="296">
-        <v>0</v>
-      </c>
-      <c r="O100" s="296">
-        <v>0</v>
-      </c>
-      <c r="P100" s="296">
-        <v>0</v>
-      </c>
-      <c r="Q100" s="296">
-        <v>0</v>
-      </c>
-      <c r="R100" s="289">
+      <c r="N100" s="294">
+        <v>0</v>
+      </c>
+      <c r="O100" s="294">
+        <v>0</v>
+      </c>
+      <c r="P100" s="294">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="294">
+        <v>0</v>
+      </c>
+      <c r="R100" s="291">
         <f>F100/$F$2</f>
         <v>3</v>
       </c>
-      <c r="S100" s="342"/>
+      <c r="S100" s="287"/>
       <c r="T100" s="47"/>
     </row>
     <row r="101" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B101" s="310"/>
+      <c r="B101" s="328"/>
       <c r="C101" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="D101" s="320"/>
-      <c r="E101" s="293"/>
-      <c r="F101" s="294"/>
-      <c r="G101" s="294"/>
-      <c r="H101" s="295"/>
-      <c r="I101" s="295"/>
-      <c r="J101" s="295"/>
-      <c r="K101" s="295"/>
-      <c r="L101" s="301"/>
-      <c r="M101" s="297"/>
-      <c r="N101" s="297"/>
-      <c r="O101" s="297"/>
-      <c r="P101" s="297"/>
-      <c r="Q101" s="297"/>
-      <c r="R101" s="291"/>
-      <c r="S101" s="343"/>
+      <c r="D101" s="340"/>
+      <c r="E101" s="335"/>
+      <c r="F101" s="341"/>
+      <c r="G101" s="341"/>
+      <c r="H101" s="297"/>
+      <c r="I101" s="297"/>
+      <c r="J101" s="297"/>
+      <c r="K101" s="297"/>
+      <c r="L101" s="296"/>
+      <c r="M101" s="295"/>
+      <c r="N101" s="295"/>
+      <c r="O101" s="295"/>
+      <c r="P101" s="295"/>
+      <c r="Q101" s="295"/>
+      <c r="R101" s="321"/>
+      <c r="S101" s="288"/>
       <c r="T101" s="152"/>
     </row>
     <row r="102" spans="2:20">
-      <c r="B102" s="310"/>
+      <c r="B102" s="328"/>
       <c r="C102" s="114" t="s">
         <v>174</v>
       </c>
-      <c r="D102" s="328" t="s">
+      <c r="D102" s="298" t="s">
         <v>108</v>
       </c>
-      <c r="E102" s="292" t="s">
+      <c r="E102" s="333" t="s">
         <v>42</v>
       </c>
-      <c r="F102" s="289">
+      <c r="F102" s="291">
         <f>SUM(M102:Q102)*$F$1</f>
         <v>48</v>
       </c>
-      <c r="G102" s="289">
+      <c r="G102" s="291">
         <f>F102</f>
         <v>48</v>
       </c>
-      <c r="H102" s="287"/>
-      <c r="I102" s="287" t="s">
+      <c r="H102" s="289"/>
+      <c r="I102" s="289" t="s">
         <v>44</v>
       </c>
-      <c r="J102" s="287" t="s">
+      <c r="J102" s="289" t="s">
         <v>44</v>
       </c>
-      <c r="K102" s="287"/>
-      <c r="L102" s="287"/>
-      <c r="M102" s="296">
-        <v>0</v>
-      </c>
-      <c r="N102" s="296">
+      <c r="K102" s="289"/>
+      <c r="L102" s="289"/>
+      <c r="M102" s="294">
+        <v>0</v>
+      </c>
+      <c r="N102" s="294">
         <v>6</v>
       </c>
-      <c r="O102" s="296">
-        <v>0</v>
-      </c>
-      <c r="P102" s="296">
-        <v>0</v>
-      </c>
-      <c r="Q102" s="296">
-        <v>0</v>
-      </c>
-      <c r="R102" s="289">
+      <c r="O102" s="294">
+        <v>0</v>
+      </c>
+      <c r="P102" s="294">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="294">
+        <v>0</v>
+      </c>
+      <c r="R102" s="291">
         <f>F102/$F$2</f>
         <v>3</v>
       </c>
-      <c r="S102" s="342"/>
+      <c r="S102" s="287"/>
       <c r="T102" s="47"/>
     </row>
     <row r="103" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B103" s="310"/>
+      <c r="B103" s="328"/>
       <c r="C103" s="22" t="s">
         <v>92</v>
       </c>
-      <c r="D103" s="320"/>
-      <c r="E103" s="293"/>
-      <c r="F103" s="294"/>
-      <c r="G103" s="294"/>
-      <c r="H103" s="295"/>
-      <c r="I103" s="295"/>
-      <c r="J103" s="295"/>
-      <c r="K103" s="295"/>
-      <c r="L103" s="301"/>
-      <c r="M103" s="297"/>
-      <c r="N103" s="297"/>
-      <c r="O103" s="297"/>
-      <c r="P103" s="297"/>
-      <c r="Q103" s="297"/>
-      <c r="R103" s="291"/>
-      <c r="S103" s="343"/>
+      <c r="D103" s="340"/>
+      <c r="E103" s="335"/>
+      <c r="F103" s="341"/>
+      <c r="G103" s="341"/>
+      <c r="H103" s="297"/>
+      <c r="I103" s="297"/>
+      <c r="J103" s="297"/>
+      <c r="K103" s="297"/>
+      <c r="L103" s="296"/>
+      <c r="M103" s="295"/>
+      <c r="N103" s="295"/>
+      <c r="O103" s="295"/>
+      <c r="P103" s="295"/>
+      <c r="Q103" s="295"/>
+      <c r="R103" s="321"/>
+      <c r="S103" s="288"/>
       <c r="T103" s="152"/>
     </row>
     <row r="104" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B104" s="310"/>
+      <c r="B104" s="328"/>
       <c r="C104" s="22" t="s">
         <v>293</v>
       </c>
-      <c r="D104" s="319" t="s">
+      <c r="D104" s="300" t="s">
         <v>108</v>
       </c>
-      <c r="E104" s="292" t="s">
+      <c r="E104" s="333" t="s">
         <v>42</v>
       </c>
-      <c r="F104" s="289">
+      <c r="F104" s="291">
         <f>SUM(M104:Q104)*$F$1</f>
         <v>48</v>
       </c>
-      <c r="G104" s="289">
+      <c r="G104" s="291">
         <f>F104</f>
         <v>48</v>
       </c>
-      <c r="H104" s="287"/>
-      <c r="I104" s="287" t="s">
+      <c r="H104" s="289"/>
+      <c r="I104" s="289" t="s">
         <v>43</v>
       </c>
-      <c r="J104" s="287" t="s">
+      <c r="J104" s="289" t="s">
         <v>43</v>
       </c>
-      <c r="K104" s="287"/>
-      <c r="L104" s="287"/>
-      <c r="M104" s="296">
-        <v>0</v>
-      </c>
-      <c r="N104" s="296">
-        <v>0</v>
-      </c>
-      <c r="O104" s="296">
+      <c r="K104" s="289"/>
+      <c r="L104" s="289"/>
+      <c r="M104" s="294">
+        <v>0</v>
+      </c>
+      <c r="N104" s="294">
+        <v>0</v>
+      </c>
+      <c r="O104" s="294">
         <v>6</v>
       </c>
-      <c r="P104" s="296">
-        <v>0</v>
-      </c>
-      <c r="Q104" s="296">
-        <v>0</v>
-      </c>
-      <c r="R104" s="289">
+      <c r="P104" s="294">
+        <v>0</v>
+      </c>
+      <c r="Q104" s="294">
+        <v>0</v>
+      </c>
+      <c r="R104" s="291">
         <f>F104/$F$2</f>
         <v>3</v>
       </c>
-      <c r="S104" s="342"/>
+      <c r="S104" s="287"/>
       <c r="T104" s="47"/>
     </row>
     <row r="105" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B105" s="310"/>
+      <c r="B105" s="328"/>
       <c r="C105" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="D105" s="320"/>
-      <c r="E105" s="293"/>
-      <c r="F105" s="294"/>
-      <c r="G105" s="294"/>
-      <c r="H105" s="295"/>
-      <c r="I105" s="295"/>
-      <c r="J105" s="295"/>
-      <c r="K105" s="295"/>
-      <c r="L105" s="301"/>
-      <c r="M105" s="297"/>
-      <c r="N105" s="297"/>
-      <c r="O105" s="297"/>
-      <c r="P105" s="297"/>
-      <c r="Q105" s="297"/>
-      <c r="R105" s="291"/>
-      <c r="S105" s="343"/>
+      <c r="D105" s="340"/>
+      <c r="E105" s="335"/>
+      <c r="F105" s="341"/>
+      <c r="G105" s="341"/>
+      <c r="H105" s="297"/>
+      <c r="I105" s="297"/>
+      <c r="J105" s="297"/>
+      <c r="K105" s="297"/>
+      <c r="L105" s="296"/>
+      <c r="M105" s="295"/>
+      <c r="N105" s="295"/>
+      <c r="O105" s="295"/>
+      <c r="P105" s="295"/>
+      <c r="Q105" s="295"/>
+      <c r="R105" s="321"/>
+      <c r="S105" s="288"/>
       <c r="T105" s="152"/>
     </row>
     <row r="106" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B106" s="310"/>
+      <c r="B106" s="328"/>
       <c r="C106" s="22" t="s">
         <v>294</v>
       </c>
-      <c r="D106" s="319" t="s">
+      <c r="D106" s="300" t="s">
         <v>108</v>
       </c>
-      <c r="E106" s="292" t="s">
+      <c r="E106" s="333" t="s">
         <v>42</v>
       </c>
-      <c r="F106" s="289">
+      <c r="F106" s="291">
         <f>SUM(M106:Q106)*$F$1</f>
         <v>48</v>
       </c>
-      <c r="G106" s="289">
+      <c r="G106" s="291">
         <f>F106</f>
         <v>48</v>
       </c>
-      <c r="H106" s="287"/>
-      <c r="I106" s="287" t="s">
+      <c r="H106" s="289"/>
+      <c r="I106" s="289" t="s">
         <v>43</v>
       </c>
-      <c r="J106" s="287" t="s">
+      <c r="J106" s="289" t="s">
         <v>43</v>
       </c>
-      <c r="K106" s="287"/>
-      <c r="L106" s="287"/>
-      <c r="M106" s="296">
-        <v>0</v>
-      </c>
-      <c r="N106" s="296">
-        <v>0</v>
-      </c>
-      <c r="O106" s="296">
-        <v>0</v>
-      </c>
-      <c r="P106" s="296">
+      <c r="K106" s="289"/>
+      <c r="L106" s="289"/>
+      <c r="M106" s="294">
+        <v>0</v>
+      </c>
+      <c r="N106" s="294">
+        <v>0</v>
+      </c>
+      <c r="O106" s="294">
+        <v>0</v>
+      </c>
+      <c r="P106" s="294">
         <v>6</v>
       </c>
-      <c r="Q106" s="296">
-        <v>0</v>
-      </c>
-      <c r="R106" s="289">
+      <c r="Q106" s="294">
+        <v>0</v>
+      </c>
+      <c r="R106" s="291">
         <f>F106/$F$2</f>
         <v>3</v>
       </c>
-      <c r="S106" s="342"/>
+      <c r="S106" s="287"/>
       <c r="T106" s="47"/>
     </row>
     <row r="107" spans="2:20" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B107" s="310"/>
+      <c r="B107" s="328"/>
       <c r="C107" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="D107" s="320"/>
-      <c r="E107" s="293"/>
-      <c r="F107" s="294"/>
-      <c r="G107" s="294"/>
-      <c r="H107" s="295"/>
-      <c r="I107" s="295"/>
-      <c r="J107" s="295"/>
-      <c r="K107" s="295"/>
-      <c r="L107" s="301"/>
-      <c r="M107" s="297"/>
-      <c r="N107" s="297"/>
-      <c r="O107" s="297"/>
-      <c r="P107" s="297"/>
-      <c r="Q107" s="297"/>
-      <c r="R107" s="291"/>
-      <c r="S107" s="343"/>
+      <c r="D107" s="340"/>
+      <c r="E107" s="335"/>
+      <c r="F107" s="341"/>
+      <c r="G107" s="341"/>
+      <c r="H107" s="297"/>
+      <c r="I107" s="297"/>
+      <c r="J107" s="297"/>
+      <c r="K107" s="297"/>
+      <c r="L107" s="296"/>
+      <c r="M107" s="295"/>
+      <c r="N107" s="295"/>
+      <c r="O107" s="295"/>
+      <c r="P107" s="295"/>
+      <c r="Q107" s="295"/>
+      <c r="R107" s="321"/>
+      <c r="S107" s="288"/>
       <c r="T107" s="152"/>
     </row>
     <row r="108" spans="2:20" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B108" s="311"/>
+      <c r="B108" s="329"/>
       <c r="C108" s="17" t="s">
         <v>11</v>
       </c>
@@ -17099,7 +17064,7 @@
       <c r="T108" s="47"/>
     </row>
     <row r="109" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B109" s="298" t="s">
+      <c r="B109" s="325" t="s">
         <v>45</v>
       </c>
       <c r="C109" s="19" t="s">
@@ -17151,7 +17116,7 @@
       <c r="T109" s="47"/>
     </row>
     <row r="110" spans="2:20" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B110" s="299"/>
+      <c r="B110" s="326"/>
       <c r="C110" s="147" t="s">
         <v>261</v>
       </c>
@@ -17201,7 +17166,7 @@
       <c r="T110" s="47"/>
     </row>
     <row r="111" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B111" s="299"/>
+      <c r="B111" s="326"/>
       <c r="C111" s="19" t="s">
         <v>340</v>
       </c>
@@ -17251,7 +17216,7 @@
       <c r="T111" s="47"/>
     </row>
     <row r="112" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B112" s="299"/>
+      <c r="B112" s="326"/>
       <c r="C112" s="43" t="s">
         <v>341</v>
       </c>
@@ -17301,7 +17266,7 @@
       <c r="T112" s="47"/>
     </row>
     <row r="113" spans="1:20" ht="16.5" customHeight="1">
-      <c r="B113" s="299"/>
+      <c r="B113" s="326"/>
       <c r="C113" s="43" t="s">
         <v>265</v>
       </c>
@@ -17351,7 +17316,7 @@
       <c r="T113" s="47"/>
     </row>
     <row r="114" spans="1:20" ht="16.5" customHeight="1">
-      <c r="B114" s="299"/>
+      <c r="B114" s="326"/>
       <c r="C114" s="43" t="s">
         <v>295</v>
       </c>
@@ -17401,7 +17366,7 @@
       <c r="T114" s="47"/>
     </row>
     <row r="115" spans="1:20" ht="16.5" customHeight="1">
-      <c r="B115" s="299"/>
+      <c r="B115" s="326"/>
       <c r="C115" s="43" t="s">
         <v>276</v>
       </c>
@@ -17451,7 +17416,7 @@
       <c r="T115" s="47"/>
     </row>
     <row r="116" spans="1:20" ht="16.5" customHeight="1">
-      <c r="B116" s="299"/>
+      <c r="B116" s="326"/>
       <c r="C116" s="22" t="s">
         <v>277</v>
       </c>
@@ -17501,7 +17466,7 @@
       <c r="T116" s="47"/>
     </row>
     <row r="117" spans="1:20" ht="16.5" customHeight="1">
-      <c r="B117" s="299"/>
+      <c r="B117" s="326"/>
       <c r="C117" s="22" t="s">
         <v>152</v>
       </c>
@@ -17553,49 +17518,49 @@
       <c r="T117" s="47"/>
     </row>
     <row r="118" spans="1:20" ht="16.5" customHeight="1">
-      <c r="B118" s="299"/>
+      <c r="B118" s="326"/>
       <c r="C118" s="22" t="s">
         <v>367</v>
       </c>
       <c r="D118" s="258" t="s">
         <v>108</v>
       </c>
-      <c r="E118" s="292" t="s">
+      <c r="E118" s="333" t="s">
         <v>42</v>
       </c>
-      <c r="F118" s="289">
+      <c r="F118" s="291">
         <f>SUM(M118:Q118)*$F$1</f>
         <v>384</v>
       </c>
-      <c r="G118" s="289">
+      <c r="G118" s="291">
         <f t="shared" ref="G118" si="53">F118</f>
         <v>384</v>
       </c>
-      <c r="H118" s="289"/>
-      <c r="I118" s="287" t="s">
-        <v>0</v>
-      </c>
-      <c r="J118" s="287"/>
-      <c r="K118" s="287" t="s">
-        <v>0</v>
-      </c>
-      <c r="L118" s="287"/>
-      <c r="M118" s="289">
+      <c r="H118" s="291"/>
+      <c r="I118" s="289" t="s">
+        <v>0</v>
+      </c>
+      <c r="J118" s="289"/>
+      <c r="K118" s="289" t="s">
+        <v>0</v>
+      </c>
+      <c r="L118" s="289"/>
+      <c r="M118" s="291">
         <v>12</v>
       </c>
-      <c r="N118" s="289">
+      <c r="N118" s="291">
         <v>12</v>
       </c>
-      <c r="O118" s="289">
+      <c r="O118" s="291">
         <v>12</v>
       </c>
-      <c r="P118" s="289">
+      <c r="P118" s="291">
         <v>12</v>
       </c>
-      <c r="Q118" s="289">
-        <v>0</v>
-      </c>
-      <c r="R118" s="302">
+      <c r="Q118" s="291">
+        <v>0</v>
+      </c>
+      <c r="R118" s="322">
         <f>F118/$F$2/3*2</f>
         <v>16</v>
       </c>
@@ -17603,32 +17568,32 @@
       <c r="T118" s="47"/>
     </row>
     <row r="119" spans="1:20" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B119" s="299"/>
+      <c r="B119" s="326"/>
       <c r="C119" s="147" t="s">
         <v>369</v>
       </c>
       <c r="D119" s="154" t="s">
         <v>368</v>
       </c>
-      <c r="E119" s="293"/>
-      <c r="F119" s="290"/>
-      <c r="G119" s="290"/>
-      <c r="H119" s="290"/>
-      <c r="I119" s="288"/>
-      <c r="J119" s="288"/>
-      <c r="K119" s="288"/>
-      <c r="L119" s="288"/>
-      <c r="M119" s="290"/>
-      <c r="N119" s="290"/>
-      <c r="O119" s="290"/>
-      <c r="P119" s="290"/>
-      <c r="Q119" s="290"/>
-      <c r="R119" s="290"/>
+      <c r="E119" s="335"/>
+      <c r="F119" s="305"/>
+      <c r="G119" s="305"/>
+      <c r="H119" s="305"/>
+      <c r="I119" s="304"/>
+      <c r="J119" s="304"/>
+      <c r="K119" s="304"/>
+      <c r="L119" s="304"/>
+      <c r="M119" s="305"/>
+      <c r="N119" s="305"/>
+      <c r="O119" s="305"/>
+      <c r="P119" s="305"/>
+      <c r="Q119" s="305"/>
+      <c r="R119" s="305"/>
       <c r="S119" s="47"/>
       <c r="T119" s="47"/>
     </row>
     <row r="120" spans="1:20" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B120" s="300"/>
+      <c r="B120" s="327"/>
       <c r="C120" s="33" t="s">
         <v>11</v>
       </c>
@@ -17714,14 +17679,14 @@
       <c r="I122" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="J122" s="329" t="s">
+      <c r="J122" s="302" t="s">
         <v>8</v>
       </c>
-      <c r="K122" s="330"/>
-      <c r="L122" s="335" t="s">
+      <c r="K122" s="303"/>
+      <c r="L122" s="323" t="s">
         <v>48</v>
       </c>
-      <c r="M122" s="336"/>
+      <c r="M122" s="324"/>
       <c r="N122" s="118" t="s">
         <v>49</v>
       </c>
@@ -17931,55 +17896,55 @@
       <c r="T129" s="57"/>
     </row>
     <row r="130" spans="2:20" ht="18" customHeight="1" thickBot="1">
-      <c r="B130" s="316" t="s">
+      <c r="B130" s="315" t="s">
         <v>2</v>
       </c>
       <c r="C130" s="331" t="s">
         <v>3</v>
       </c>
-      <c r="D130" s="321" t="s">
+      <c r="D130" s="338" t="s">
         <v>106</v>
       </c>
-      <c r="E130" s="316" t="s">
-        <v>4</v>
-      </c>
-      <c r="F130" s="323" t="s">
+      <c r="E130" s="315" t="s">
+        <v>4</v>
+      </c>
+      <c r="F130" s="336" t="s">
         <v>51</v>
       </c>
-      <c r="G130" s="323" t="s">
+      <c r="G130" s="336" t="s">
         <v>52</v>
       </c>
       <c r="H130" s="307" t="s">
         <v>5</v>
       </c>
-      <c r="I130" s="325"/>
+      <c r="I130" s="308"/>
       <c r="J130" s="307" t="s">
         <v>6</v>
       </c>
-      <c r="K130" s="325"/>
-      <c r="L130" s="326" t="s">
+      <c r="K130" s="308"/>
+      <c r="L130" s="319" t="s">
         <v>26</v>
       </c>
       <c r="M130" s="307" t="s">
         <v>7</v>
       </c>
-      <c r="N130" s="308"/>
-      <c r="O130" s="308"/>
-      <c r="P130" s="308"/>
-      <c r="Q130" s="309"/>
-      <c r="R130" s="316" t="s">
+      <c r="N130" s="313"/>
+      <c r="O130" s="313"/>
+      <c r="P130" s="313"/>
+      <c r="Q130" s="314"/>
+      <c r="R130" s="315" t="s">
         <v>35</v>
       </c>
       <c r="S130" s="58"/>
       <c r="T130" s="58"/>
     </row>
     <row r="131" spans="2:20" ht="18" customHeight="1" thickBot="1">
-      <c r="B131" s="317"/>
-      <c r="C131" s="333"/>
-      <c r="D131" s="322"/>
-      <c r="E131" s="317"/>
-      <c r="F131" s="324"/>
-      <c r="G131" s="324"/>
+      <c r="B131" s="316"/>
+      <c r="C131" s="332"/>
+      <c r="D131" s="339"/>
+      <c r="E131" s="316"/>
+      <c r="F131" s="337"/>
+      <c r="G131" s="337"/>
       <c r="H131" s="86" t="s">
         <v>8</v>
       </c>
@@ -17992,7 +17957,7 @@
       <c r="K131" s="60" t="s">
         <v>30</v>
       </c>
-      <c r="L131" s="327"/>
+      <c r="L131" s="320"/>
       <c r="M131" s="10" t="s">
         <v>22</v>
       </c>
@@ -18008,12 +17973,12 @@
       <c r="Q131" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="R131" s="317"/>
+      <c r="R131" s="316"/>
       <c r="S131" s="59"/>
       <c r="T131" s="59"/>
     </row>
     <row r="132" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B132" s="310" t="s">
+      <c r="B132" s="328" t="s">
         <v>84</v>
       </c>
       <c r="C132" s="19" t="s">
@@ -18065,7 +18030,7 @@
       <c r="T132" s="47"/>
     </row>
     <row r="133" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B133" s="310"/>
+      <c r="B133" s="328"/>
       <c r="C133" s="43" t="s">
         <v>103</v>
       </c>
@@ -18115,7 +18080,7 @@
       <c r="T133" s="47"/>
     </row>
     <row r="134" spans="2:20" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B134" s="310"/>
+      <c r="B134" s="328"/>
       <c r="C134" s="43" t="s">
         <v>16</v>
       </c>
@@ -18165,7 +18130,7 @@
       <c r="T134" s="47"/>
     </row>
     <row r="135" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B135" s="310"/>
+      <c r="B135" s="328"/>
       <c r="C135" s="231" t="s">
         <v>68</v>
       </c>
@@ -18215,7 +18180,7 @@
       <c r="T135" s="47"/>
     </row>
     <row r="136" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B136" s="310"/>
+      <c r="B136" s="328"/>
       <c r="C136" s="43" t="s">
         <v>263</v>
       </c>
@@ -18265,7 +18230,7 @@
       <c r="T136" s="47"/>
     </row>
     <row r="137" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B137" s="310"/>
+      <c r="B137" s="328"/>
       <c r="C137" s="43" t="s">
         <v>264</v>
       </c>
@@ -18315,7 +18280,7 @@
       <c r="T137" s="47"/>
     </row>
     <row r="138" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B138" s="310"/>
+      <c r="B138" s="328"/>
       <c r="C138" s="43" t="s">
         <v>335</v>
       </c>
@@ -18365,7 +18330,7 @@
       <c r="T138" s="47"/>
     </row>
     <row r="139" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B139" s="310"/>
+      <c r="B139" s="328"/>
       <c r="C139" s="22" t="s">
         <v>77</v>
       </c>
@@ -18415,7 +18380,7 @@
       <c r="T139" s="47"/>
     </row>
     <row r="140" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B140" s="310"/>
+      <c r="B140" s="328"/>
       <c r="C140" s="43" t="s">
         <v>78</v>
       </c>
@@ -18465,7 +18430,7 @@
       <c r="T140" s="47"/>
     </row>
     <row r="141" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B141" s="310"/>
+      <c r="B141" s="328"/>
       <c r="C141" s="22" t="s">
         <v>272</v>
       </c>
@@ -18515,7 +18480,7 @@
       <c r="T141" s="47"/>
     </row>
     <row r="142" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B142" s="310"/>
+      <c r="B142" s="328"/>
       <c r="C142" s="22" t="s">
         <v>273</v>
       </c>
@@ -18565,7 +18530,7 @@
       <c r="T142" s="47"/>
     </row>
     <row r="143" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B143" s="310"/>
+      <c r="B143" s="328"/>
       <c r="C143" s="22" t="s">
         <v>119</v>
       </c>
@@ -18615,7 +18580,7 @@
       <c r="T143" s="47"/>
     </row>
     <row r="144" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B144" s="310"/>
+      <c r="B144" s="328"/>
       <c r="C144" s="22" t="s">
         <v>266</v>
       </c>
@@ -18665,7 +18630,7 @@
       <c r="T144" s="47"/>
     </row>
     <row r="145" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B145" s="310"/>
+      <c r="B145" s="328"/>
       <c r="C145" s="22" t="s">
         <v>267</v>
       </c>
@@ -18715,7 +18680,7 @@
       <c r="T145" s="47"/>
     </row>
     <row r="146" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B146" s="310"/>
+      <c r="B146" s="328"/>
       <c r="C146" s="22" t="s">
         <v>120</v>
       </c>
@@ -18765,7 +18730,7 @@
       <c r="T146" s="47"/>
     </row>
     <row r="147" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B147" s="310"/>
+      <c r="B147" s="328"/>
       <c r="C147" s="22" t="s">
         <v>100</v>
       </c>
@@ -18815,7 +18780,7 @@
       <c r="T147" s="47"/>
     </row>
     <row r="148" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B148" s="310"/>
+      <c r="B148" s="328"/>
       <c r="C148" s="22" t="s">
         <v>94</v>
       </c>
@@ -18865,7 +18830,7 @@
       <c r="T148" s="47"/>
     </row>
     <row r="149" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B149" s="310"/>
+      <c r="B149" s="328"/>
       <c r="C149" s="22" t="s">
         <v>88</v>
       </c>
@@ -18915,7 +18880,7 @@
       <c r="T149" s="47"/>
     </row>
     <row r="150" spans="2:20" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B150" s="310"/>
+      <c r="B150" s="328"/>
       <c r="C150" s="22" t="s">
         <v>96</v>
       </c>
@@ -18965,7 +18930,7 @@
       <c r="T150" s="47"/>
     </row>
     <row r="151" spans="2:20" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B151" s="311"/>
+      <c r="B151" s="329"/>
       <c r="C151" s="17" t="s">
         <v>11</v>
       </c>
@@ -19021,7 +18986,7 @@
       <c r="T151" s="47"/>
     </row>
     <row r="152" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B152" s="312" t="s">
+      <c r="B152" s="330" t="s">
         <v>85</v>
       </c>
       <c r="C152" s="19" t="s">
@@ -19073,7 +19038,7 @@
       <c r="T152" s="47"/>
     </row>
     <row r="153" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B153" s="310"/>
+      <c r="B153" s="328"/>
       <c r="C153" s="43" t="s">
         <v>16</v>
       </c>
@@ -19123,7 +19088,7 @@
       <c r="T153" s="47"/>
     </row>
     <row r="154" spans="2:20" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B154" s="310"/>
+      <c r="B154" s="328"/>
       <c r="C154" s="146" t="s">
         <v>70</v>
       </c>
@@ -19173,7 +19138,7 @@
       <c r="T154" s="47"/>
     </row>
     <row r="155" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B155" s="310"/>
+      <c r="B155" s="328"/>
       <c r="C155" s="19" t="s">
         <v>336</v>
       </c>
@@ -19223,7 +19188,7 @@
       <c r="T155" s="47"/>
     </row>
     <row r="156" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B156" s="310"/>
+      <c r="B156" s="328"/>
       <c r="C156" s="22" t="s">
         <v>337</v>
       </c>
@@ -19273,7 +19238,7 @@
       <c r="T156" s="47"/>
     </row>
     <row r="157" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B157" s="310"/>
+      <c r="B157" s="328"/>
       <c r="C157" s="22" t="s">
         <v>338</v>
       </c>
@@ -19323,7 +19288,7 @@
       <c r="T157" s="47"/>
     </row>
     <row r="158" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B158" s="310"/>
+      <c r="B158" s="328"/>
       <c r="C158" s="22" t="s">
         <v>339</v>
       </c>
@@ -19373,7 +19338,7 @@
       <c r="T158" s="47"/>
     </row>
     <row r="159" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B159" s="310"/>
+      <c r="B159" s="328"/>
       <c r="C159" s="43" t="s">
         <v>274</v>
       </c>
@@ -19423,7 +19388,7 @@
       <c r="T159" s="47"/>
     </row>
     <row r="160" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B160" s="310"/>
+      <c r="B160" s="328"/>
       <c r="C160" s="22" t="s">
         <v>275</v>
       </c>
@@ -19473,7 +19438,7 @@
       <c r="T160" s="47"/>
     </row>
     <row r="161" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B161" s="310"/>
+      <c r="B161" s="328"/>
       <c r="C161" s="22" t="s">
         <v>104</v>
       </c>
@@ -19523,7 +19488,7 @@
       <c r="T161" s="47"/>
     </row>
     <row r="162" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B162" s="310"/>
+      <c r="B162" s="328"/>
       <c r="C162" s="22" t="s">
         <v>280</v>
       </c>
@@ -19573,7 +19538,7 @@
       <c r="T162" s="47"/>
     </row>
     <row r="163" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B163" s="310"/>
+      <c r="B163" s="328"/>
       <c r="C163" s="22" t="s">
         <v>105</v>
       </c>
@@ -19623,7 +19588,7 @@
       <c r="T163" s="47"/>
     </row>
     <row r="164" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B164" s="310"/>
+      <c r="B164" s="328"/>
       <c r="C164" s="22" t="s">
         <v>99</v>
       </c>
@@ -19673,49 +19638,49 @@
       <c r="T164" s="47"/>
     </row>
     <row r="165" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B165" s="310"/>
+      <c r="B165" s="328"/>
       <c r="C165" s="22" t="s">
         <v>124</v>
       </c>
       <c r="D165" s="150" t="s">
         <v>110</v>
       </c>
-      <c r="E165" s="292" t="s">
+      <c r="E165" s="333" t="s">
         <v>41</v>
       </c>
-      <c r="F165" s="289">
+      <c r="F165" s="291">
         <f t="shared" si="75"/>
         <v>64</v>
       </c>
-      <c r="G165" s="289">
+      <c r="G165" s="291">
         <f t="shared" si="76"/>
         <v>64</v>
       </c>
-      <c r="H165" s="289"/>
-      <c r="I165" s="287" t="s">
-        <v>1</v>
-      </c>
-      <c r="J165" s="287" t="s">
-        <v>1</v>
-      </c>
-      <c r="K165" s="287"/>
-      <c r="L165" s="287"/>
-      <c r="M165" s="289">
-        <v>2</v>
-      </c>
-      <c r="N165" s="289">
-        <v>2</v>
-      </c>
-      <c r="O165" s="289">
-        <v>2</v>
-      </c>
-      <c r="P165" s="289">
-        <v>2</v>
-      </c>
-      <c r="Q165" s="289">
-        <v>0</v>
-      </c>
-      <c r="R165" s="289">
+      <c r="H165" s="291"/>
+      <c r="I165" s="289" t="s">
+        <v>1</v>
+      </c>
+      <c r="J165" s="289" t="s">
+        <v>1</v>
+      </c>
+      <c r="K165" s="289"/>
+      <c r="L165" s="289"/>
+      <c r="M165" s="291">
+        <v>2</v>
+      </c>
+      <c r="N165" s="291">
+        <v>2</v>
+      </c>
+      <c r="O165" s="291">
+        <v>2</v>
+      </c>
+      <c r="P165" s="291">
+        <v>2</v>
+      </c>
+      <c r="Q165" s="291">
+        <v>0</v>
+      </c>
+      <c r="R165" s="291">
         <f t="shared" si="70"/>
         <v>4</v>
       </c>
@@ -19723,74 +19688,74 @@
       <c r="T165" s="47"/>
     </row>
     <row r="166" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B166" s="310"/>
+      <c r="B166" s="328"/>
       <c r="C166" s="22" t="s">
         <v>89</v>
       </c>
       <c r="D166" s="150" t="s">
         <v>110</v>
       </c>
-      <c r="E166" s="313"/>
-      <c r="F166" s="305"/>
-      <c r="G166" s="305"/>
-      <c r="H166" s="303"/>
-      <c r="I166" s="306"/>
-      <c r="J166" s="306"/>
-      <c r="K166" s="306"/>
-      <c r="L166" s="340"/>
-      <c r="M166" s="304"/>
-      <c r="N166" s="304"/>
-      <c r="O166" s="304"/>
-      <c r="P166" s="304"/>
-      <c r="Q166" s="304"/>
-      <c r="R166" s="303"/>
+      <c r="E166" s="334"/>
+      <c r="F166" s="306"/>
+      <c r="G166" s="306"/>
+      <c r="H166" s="318"/>
+      <c r="I166" s="290"/>
+      <c r="J166" s="290"/>
+      <c r="K166" s="290"/>
+      <c r="L166" s="293"/>
+      <c r="M166" s="292"/>
+      <c r="N166" s="292"/>
+      <c r="O166" s="292"/>
+      <c r="P166" s="292"/>
+      <c r="Q166" s="292"/>
+      <c r="R166" s="318"/>
       <c r="S166" s="47"/>
       <c r="T166" s="47"/>
     </row>
     <row r="167" spans="2:20">
-      <c r="B167" s="310"/>
+      <c r="B167" s="328"/>
       <c r="C167" s="114" t="s">
         <v>175</v>
       </c>
-      <c r="D167" s="328" t="s">
+      <c r="D167" s="298" t="s">
         <v>110</v>
       </c>
-      <c r="E167" s="292" t="s">
+      <c r="E167" s="333" t="s">
         <v>41</v>
       </c>
-      <c r="F167" s="289">
+      <c r="F167" s="291">
         <f>SUM(M167:Q167)*$F$1</f>
         <v>48</v>
       </c>
-      <c r="G167" s="289">
+      <c r="G167" s="291">
         <f>F167</f>
         <v>48</v>
       </c>
-      <c r="H167" s="287"/>
-      <c r="I167" s="287" t="s">
-        <v>0</v>
-      </c>
-      <c r="J167" s="287" t="s">
-        <v>0</v>
-      </c>
-      <c r="K167" s="287"/>
-      <c r="L167" s="287"/>
-      <c r="M167" s="296">
+      <c r="H167" s="289"/>
+      <c r="I167" s="289" t="s">
+        <v>0</v>
+      </c>
+      <c r="J167" s="289" t="s">
+        <v>0</v>
+      </c>
+      <c r="K167" s="289"/>
+      <c r="L167" s="289"/>
+      <c r="M167" s="294">
         <v>6</v>
       </c>
-      <c r="N167" s="296">
-        <v>0</v>
-      </c>
-      <c r="O167" s="296">
-        <v>0</v>
-      </c>
-      <c r="P167" s="296">
-        <v>0</v>
-      </c>
-      <c r="Q167" s="296">
-        <v>0</v>
-      </c>
-      <c r="R167" s="289">
+      <c r="N167" s="294">
+        <v>0</v>
+      </c>
+      <c r="O167" s="294">
+        <v>0</v>
+      </c>
+      <c r="P167" s="294">
+        <v>0</v>
+      </c>
+      <c r="Q167" s="294">
+        <v>0</v>
+      </c>
+      <c r="R167" s="291">
         <f>F167/$F$2</f>
         <v>3</v>
       </c>
@@ -19798,72 +19763,72 @@
       <c r="T167" s="47"/>
     </row>
     <row r="168" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B168" s="310"/>
+      <c r="B168" s="328"/>
       <c r="C168" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="D168" s="341"/>
-      <c r="E168" s="293"/>
-      <c r="F168" s="294"/>
-      <c r="G168" s="294"/>
-      <c r="H168" s="295"/>
-      <c r="I168" s="295"/>
-      <c r="J168" s="295"/>
-      <c r="K168" s="295"/>
-      <c r="L168" s="301"/>
-      <c r="M168" s="297"/>
-      <c r="N168" s="297"/>
-      <c r="O168" s="297"/>
-      <c r="P168" s="297"/>
-      <c r="Q168" s="297"/>
-      <c r="R168" s="291"/>
+      <c r="D168" s="299"/>
+      <c r="E168" s="335"/>
+      <c r="F168" s="341"/>
+      <c r="G168" s="341"/>
+      <c r="H168" s="297"/>
+      <c r="I168" s="297"/>
+      <c r="J168" s="297"/>
+      <c r="K168" s="297"/>
+      <c r="L168" s="296"/>
+      <c r="M168" s="295"/>
+      <c r="N168" s="295"/>
+      <c r="O168" s="295"/>
+      <c r="P168" s="295"/>
+      <c r="Q168" s="295"/>
+      <c r="R168" s="321"/>
       <c r="S168" s="47"/>
       <c r="T168" s="47"/>
     </row>
     <row r="169" spans="2:20">
-      <c r="B169" s="310"/>
+      <c r="B169" s="328"/>
       <c r="C169" s="114" t="s">
         <v>174</v>
       </c>
-      <c r="D169" s="328" t="s">
+      <c r="D169" s="298" t="s">
         <v>110</v>
       </c>
-      <c r="E169" s="292" t="s">
+      <c r="E169" s="333" t="s">
         <v>42</v>
       </c>
-      <c r="F169" s="289">
+      <c r="F169" s="291">
         <f>SUM(M169:Q169)*$F$1</f>
         <v>48</v>
       </c>
-      <c r="G169" s="289">
+      <c r="G169" s="291">
         <f>F169</f>
         <v>48</v>
       </c>
-      <c r="H169" s="287"/>
-      <c r="I169" s="287" t="s">
-        <v>0</v>
-      </c>
-      <c r="J169" s="287" t="s">
-        <v>0</v>
-      </c>
-      <c r="K169" s="287"/>
-      <c r="L169" s="287"/>
-      <c r="M169" s="296">
-        <v>0</v>
-      </c>
-      <c r="N169" s="296">
+      <c r="H169" s="289"/>
+      <c r="I169" s="289" t="s">
+        <v>0</v>
+      </c>
+      <c r="J169" s="289" t="s">
+        <v>0</v>
+      </c>
+      <c r="K169" s="289"/>
+      <c r="L169" s="289"/>
+      <c r="M169" s="294">
+        <v>0</v>
+      </c>
+      <c r="N169" s="294">
         <v>6</v>
       </c>
-      <c r="O169" s="296">
-        <v>0</v>
-      </c>
-      <c r="P169" s="296">
-        <v>0</v>
-      </c>
-      <c r="Q169" s="296">
-        <v>0</v>
-      </c>
-      <c r="R169" s="289">
+      <c r="O169" s="294">
+        <v>0</v>
+      </c>
+      <c r="P169" s="294">
+        <v>0</v>
+      </c>
+      <c r="Q169" s="294">
+        <v>0</v>
+      </c>
+      <c r="R169" s="291">
         <f>F169/$F$2</f>
         <v>3</v>
       </c>
@@ -19871,72 +19836,72 @@
       <c r="T169" s="47"/>
     </row>
     <row r="170" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B170" s="310"/>
+      <c r="B170" s="328"/>
       <c r="C170" s="22" t="s">
         <v>92</v>
       </c>
-      <c r="D170" s="341"/>
-      <c r="E170" s="293"/>
-      <c r="F170" s="294"/>
-      <c r="G170" s="294"/>
-      <c r="H170" s="295"/>
-      <c r="I170" s="295"/>
-      <c r="J170" s="295"/>
-      <c r="K170" s="295"/>
-      <c r="L170" s="301"/>
-      <c r="M170" s="297"/>
-      <c r="N170" s="297"/>
-      <c r="O170" s="297"/>
-      <c r="P170" s="297"/>
-      <c r="Q170" s="297"/>
-      <c r="R170" s="291"/>
+      <c r="D170" s="299"/>
+      <c r="E170" s="335"/>
+      <c r="F170" s="341"/>
+      <c r="G170" s="341"/>
+      <c r="H170" s="297"/>
+      <c r="I170" s="297"/>
+      <c r="J170" s="297"/>
+      <c r="K170" s="297"/>
+      <c r="L170" s="296"/>
+      <c r="M170" s="295"/>
+      <c r="N170" s="295"/>
+      <c r="O170" s="295"/>
+      <c r="P170" s="295"/>
+      <c r="Q170" s="295"/>
+      <c r="R170" s="321"/>
       <c r="S170" s="47"/>
       <c r="T170" s="47"/>
     </row>
     <row r="171" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B171" s="310"/>
+      <c r="B171" s="328"/>
       <c r="C171" s="22" t="s">
         <v>291</v>
       </c>
-      <c r="D171" s="328" t="s">
+      <c r="D171" s="298" t="s">
         <v>110</v>
       </c>
-      <c r="E171" s="292" t="s">
+      <c r="E171" s="333" t="s">
         <v>42</v>
       </c>
-      <c r="F171" s="289">
+      <c r="F171" s="291">
         <f>SUM(M171:Q171)*$F$1</f>
         <v>48</v>
       </c>
-      <c r="G171" s="289">
+      <c r="G171" s="291">
         <f>F171</f>
         <v>48</v>
       </c>
-      <c r="H171" s="287"/>
-      <c r="I171" s="287" t="s">
-        <v>0</v>
-      </c>
-      <c r="J171" s="287" t="s">
-        <v>0</v>
-      </c>
-      <c r="K171" s="287"/>
-      <c r="L171" s="287"/>
-      <c r="M171" s="296">
-        <v>0</v>
-      </c>
-      <c r="N171" s="296">
-        <v>0</v>
-      </c>
-      <c r="O171" s="296">
+      <c r="H171" s="289"/>
+      <c r="I171" s="289" t="s">
+        <v>0</v>
+      </c>
+      <c r="J171" s="289" t="s">
+        <v>0</v>
+      </c>
+      <c r="K171" s="289"/>
+      <c r="L171" s="289"/>
+      <c r="M171" s="294">
+        <v>0</v>
+      </c>
+      <c r="N171" s="294">
+        <v>0</v>
+      </c>
+      <c r="O171" s="294">
         <v>6</v>
       </c>
-      <c r="P171" s="296">
-        <v>0</v>
-      </c>
-      <c r="Q171" s="296">
-        <v>0</v>
-      </c>
-      <c r="R171" s="289">
+      <c r="P171" s="294">
+        <v>0</v>
+      </c>
+      <c r="Q171" s="294">
+        <v>0</v>
+      </c>
+      <c r="R171" s="291">
         <f>F171/$F$2</f>
         <v>3</v>
       </c>
@@ -19944,72 +19909,72 @@
       <c r="T171" s="47"/>
     </row>
     <row r="172" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B172" s="310"/>
+      <c r="B172" s="328"/>
       <c r="C172" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="D172" s="341"/>
-      <c r="E172" s="293"/>
-      <c r="F172" s="294"/>
-      <c r="G172" s="294"/>
-      <c r="H172" s="295"/>
-      <c r="I172" s="295"/>
-      <c r="J172" s="295"/>
-      <c r="K172" s="295"/>
-      <c r="L172" s="301"/>
-      <c r="M172" s="297"/>
-      <c r="N172" s="297"/>
-      <c r="O172" s="297"/>
-      <c r="P172" s="297"/>
-      <c r="Q172" s="297"/>
-      <c r="R172" s="291"/>
+      <c r="D172" s="299"/>
+      <c r="E172" s="335"/>
+      <c r="F172" s="341"/>
+      <c r="G172" s="341"/>
+      <c r="H172" s="297"/>
+      <c r="I172" s="297"/>
+      <c r="J172" s="297"/>
+      <c r="K172" s="297"/>
+      <c r="L172" s="296"/>
+      <c r="M172" s="295"/>
+      <c r="N172" s="295"/>
+      <c r="O172" s="295"/>
+      <c r="P172" s="295"/>
+      <c r="Q172" s="295"/>
+      <c r="R172" s="321"/>
       <c r="S172" s="47"/>
       <c r="T172" s="47"/>
     </row>
     <row r="173" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B173" s="310"/>
+      <c r="B173" s="328"/>
       <c r="C173" s="22" t="s">
         <v>292</v>
       </c>
-      <c r="D173" s="319" t="s">
+      <c r="D173" s="300" t="s">
         <v>110</v>
       </c>
-      <c r="E173" s="292" t="s">
+      <c r="E173" s="333" t="s">
         <v>42</v>
       </c>
-      <c r="F173" s="289">
+      <c r="F173" s="291">
         <f>SUM(M173:Q173)*$F$1</f>
         <v>48</v>
       </c>
-      <c r="G173" s="289">
+      <c r="G173" s="291">
         <f>F173</f>
         <v>48</v>
       </c>
-      <c r="H173" s="287"/>
-      <c r="I173" s="287" t="s">
-        <v>0</v>
-      </c>
-      <c r="J173" s="287" t="s">
-        <v>0</v>
-      </c>
-      <c r="K173" s="287"/>
-      <c r="L173" s="287"/>
-      <c r="M173" s="296">
-        <v>0</v>
-      </c>
-      <c r="N173" s="296">
-        <v>0</v>
-      </c>
-      <c r="O173" s="296">
-        <v>0</v>
-      </c>
-      <c r="P173" s="296">
+      <c r="H173" s="289"/>
+      <c r="I173" s="289" t="s">
+        <v>0</v>
+      </c>
+      <c r="J173" s="289" t="s">
+        <v>0</v>
+      </c>
+      <c r="K173" s="289"/>
+      <c r="L173" s="289"/>
+      <c r="M173" s="294">
+        <v>0</v>
+      </c>
+      <c r="N173" s="294">
+        <v>0</v>
+      </c>
+      <c r="O173" s="294">
+        <v>0</v>
+      </c>
+      <c r="P173" s="294">
         <v>6</v>
       </c>
-      <c r="Q173" s="296">
-        <v>0</v>
-      </c>
-      <c r="R173" s="289">
+      <c r="Q173" s="294">
+        <v>0</v>
+      </c>
+      <c r="R173" s="291">
         <f>F173/$F$2</f>
         <v>3</v>
       </c>
@@ -20017,30 +19982,30 @@
       <c r="T173" s="47"/>
     </row>
     <row r="174" spans="2:20" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B174" s="310"/>
+      <c r="B174" s="328"/>
       <c r="C174" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="D174" s="341"/>
-      <c r="E174" s="293"/>
-      <c r="F174" s="294"/>
-      <c r="G174" s="294"/>
-      <c r="H174" s="295"/>
-      <c r="I174" s="295"/>
-      <c r="J174" s="295"/>
-      <c r="K174" s="295"/>
-      <c r="L174" s="301"/>
-      <c r="M174" s="297"/>
-      <c r="N174" s="297"/>
-      <c r="O174" s="297"/>
-      <c r="P174" s="297"/>
-      <c r="Q174" s="297"/>
-      <c r="R174" s="291"/>
+      <c r="D174" s="299"/>
+      <c r="E174" s="335"/>
+      <c r="F174" s="341"/>
+      <c r="G174" s="341"/>
+      <c r="H174" s="297"/>
+      <c r="I174" s="297"/>
+      <c r="J174" s="297"/>
+      <c r="K174" s="297"/>
+      <c r="L174" s="296"/>
+      <c r="M174" s="295"/>
+      <c r="N174" s="295"/>
+      <c r="O174" s="295"/>
+      <c r="P174" s="295"/>
+      <c r="Q174" s="295"/>
+      <c r="R174" s="321"/>
       <c r="S174" s="47"/>
       <c r="T174" s="47"/>
     </row>
     <row r="175" spans="2:20" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B175" s="311"/>
+      <c r="B175" s="329"/>
       <c r="C175" s="17" t="s">
         <v>11</v>
       </c>
@@ -20096,7 +20061,7 @@
       <c r="T175" s="47"/>
     </row>
     <row r="176" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B176" s="298" t="s">
+      <c r="B176" s="325" t="s">
         <v>86</v>
       </c>
       <c r="C176" s="19" t="s">
@@ -20148,7 +20113,7 @@
       <c r="T176" s="47"/>
     </row>
     <row r="177" spans="2:20" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B177" s="299"/>
+      <c r="B177" s="326"/>
       <c r="C177" s="147" t="s">
         <v>260</v>
       </c>
@@ -20198,7 +20163,7 @@
       <c r="T177" s="47"/>
     </row>
     <row r="178" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B178" s="299"/>
+      <c r="B178" s="326"/>
       <c r="C178" s="19" t="s">
         <v>340</v>
       </c>
@@ -20248,7 +20213,7 @@
       <c r="T178" s="47"/>
     </row>
     <row r="179" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B179" s="299"/>
+      <c r="B179" s="326"/>
       <c r="C179" s="43" t="s">
         <v>341</v>
       </c>
@@ -20298,7 +20263,7 @@
       <c r="T179" s="47"/>
     </row>
     <row r="180" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B180" s="299"/>
+      <c r="B180" s="326"/>
       <c r="C180" s="43" t="s">
         <v>265</v>
       </c>
@@ -20348,7 +20313,7 @@
       <c r="T180" s="47"/>
     </row>
     <row r="181" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B181" s="299"/>
+      <c r="B181" s="326"/>
       <c r="C181" s="43" t="s">
         <v>295</v>
       </c>
@@ -20398,7 +20363,7 @@
       <c r="T181" s="47"/>
     </row>
     <row r="182" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B182" s="299"/>
+      <c r="B182" s="326"/>
       <c r="C182" s="43" t="s">
         <v>276</v>
       </c>
@@ -20448,7 +20413,7 @@
       <c r="T182" s="47"/>
     </row>
     <row r="183" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B183" s="299"/>
+      <c r="B183" s="326"/>
       <c r="C183" s="22" t="s">
         <v>277</v>
       </c>
@@ -20498,49 +20463,49 @@
       <c r="T183" s="47"/>
     </row>
     <row r="184" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B184" s="299"/>
+      <c r="B184" s="326"/>
       <c r="C184" s="22" t="s">
         <v>367</v>
       </c>
       <c r="D184" s="258" t="s">
         <v>108</v>
       </c>
-      <c r="E184" s="292" t="s">
+      <c r="E184" s="333" t="s">
         <v>42</v>
       </c>
-      <c r="F184" s="289">
+      <c r="F184" s="291">
         <f>SUM(M184:Q184)*$F$1</f>
         <v>384</v>
       </c>
-      <c r="G184" s="289">
+      <c r="G184" s="291">
         <f t="shared" si="82"/>
         <v>384</v>
       </c>
-      <c r="H184" s="289"/>
-      <c r="I184" s="287" t="s">
-        <v>0</v>
-      </c>
-      <c r="J184" s="287"/>
-      <c r="K184" s="287" t="s">
-        <v>0</v>
-      </c>
-      <c r="L184" s="287"/>
-      <c r="M184" s="289">
+      <c r="H184" s="291"/>
+      <c r="I184" s="289" t="s">
+        <v>0</v>
+      </c>
+      <c r="J184" s="289"/>
+      <c r="K184" s="289" t="s">
+        <v>0</v>
+      </c>
+      <c r="L184" s="289"/>
+      <c r="M184" s="291">
         <v>12</v>
       </c>
-      <c r="N184" s="289">
+      <c r="N184" s="291">
         <v>12</v>
       </c>
-      <c r="O184" s="289">
+      <c r="O184" s="291">
         <v>12</v>
       </c>
-      <c r="P184" s="289">
+      <c r="P184" s="291">
         <v>12</v>
       </c>
-      <c r="Q184" s="289">
-        <v>0</v>
-      </c>
-      <c r="R184" s="302">
+      <c r="Q184" s="291">
+        <v>0</v>
+      </c>
+      <c r="R184" s="322">
         <f>F184/$F$2/3*2</f>
         <v>16</v>
       </c>
@@ -20548,32 +20513,32 @@
       <c r="T184" s="47"/>
     </row>
     <row r="185" spans="2:20" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B185" s="299"/>
+      <c r="B185" s="326"/>
       <c r="C185" s="147" t="s">
         <v>369</v>
       </c>
       <c r="D185" s="154" t="s">
         <v>368</v>
       </c>
-      <c r="E185" s="293"/>
-      <c r="F185" s="290"/>
-      <c r="G185" s="290"/>
-      <c r="H185" s="290"/>
-      <c r="I185" s="288"/>
-      <c r="J185" s="288"/>
-      <c r="K185" s="288"/>
-      <c r="L185" s="288"/>
-      <c r="M185" s="290"/>
-      <c r="N185" s="290"/>
-      <c r="O185" s="290"/>
-      <c r="P185" s="290"/>
-      <c r="Q185" s="290"/>
-      <c r="R185" s="290"/>
+      <c r="E185" s="335"/>
+      <c r="F185" s="305"/>
+      <c r="G185" s="305"/>
+      <c r="H185" s="305"/>
+      <c r="I185" s="304"/>
+      <c r="J185" s="304"/>
+      <c r="K185" s="304"/>
+      <c r="L185" s="304"/>
+      <c r="M185" s="305"/>
+      <c r="N185" s="305"/>
+      <c r="O185" s="305"/>
+      <c r="P185" s="305"/>
+      <c r="Q185" s="305"/>
+      <c r="R185" s="305"/>
       <c r="S185" s="47"/>
       <c r="T185" s="47"/>
     </row>
     <row r="186" spans="2:20" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B186" s="300"/>
+      <c r="B186" s="327"/>
       <c r="C186" s="33" t="s">
         <v>11</v>
       </c>
@@ -20629,7 +20594,7 @@
       <c r="T186" s="47"/>
     </row>
     <row r="187" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B187" s="298" t="s">
+      <c r="B187" s="325" t="s">
         <v>87</v>
       </c>
       <c r="C187" s="19" t="s">
@@ -20681,7 +20646,7 @@
       <c r="T187" s="47"/>
     </row>
     <row r="188" spans="2:20" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B188" s="299"/>
+      <c r="B188" s="326"/>
       <c r="C188" s="43" t="s">
         <v>261</v>
       </c>
@@ -20731,7 +20696,7 @@
       <c r="T188" s="47"/>
     </row>
     <row r="189" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B189" s="299"/>
+      <c r="B189" s="326"/>
       <c r="C189" s="19" t="s">
         <v>278</v>
       </c>
@@ -20781,7 +20746,7 @@
       <c r="T189" s="47"/>
     </row>
     <row r="190" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B190" s="299"/>
+      <c r="B190" s="326"/>
       <c r="C190" s="22" t="s">
         <v>279</v>
       </c>
@@ -20831,7 +20796,7 @@
       <c r="T190" s="47"/>
     </row>
     <row r="191" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B191" s="299"/>
+      <c r="B191" s="326"/>
       <c r="C191" s="269" t="s">
         <v>378</v>
       </c>
@@ -20881,7 +20846,7 @@
       <c r="T191" s="47"/>
     </row>
     <row r="192" spans="2:20" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B192" s="299"/>
+      <c r="B192" s="326"/>
       <c r="C192" s="22" t="s">
         <v>102</v>
       </c>
@@ -20931,7 +20896,7 @@
       <c r="T192" s="47"/>
     </row>
     <row r="193" spans="2:20" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B193" s="300"/>
+      <c r="B193" s="327"/>
       <c r="C193" s="33" t="s">
         <v>11</v>
       </c>
@@ -21017,14 +20982,14 @@
       <c r="I195" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="J195" s="329" t="s">
+      <c r="J195" s="302" t="s">
         <v>8</v>
       </c>
-      <c r="K195" s="330"/>
-      <c r="L195" s="338" t="s">
+      <c r="K195" s="303"/>
+      <c r="L195" s="311" t="s">
         <v>48</v>
       </c>
-      <c r="M195" s="339"/>
+      <c r="M195" s="312"/>
       <c r="N195" s="84" t="s">
         <v>49</v>
       </c>
@@ -21227,29 +21192,262 @@
     </row>
   </sheetData>
   <mergeCells count="303">
-    <mergeCell ref="S98:S99"/>
-    <mergeCell ref="S100:S101"/>
-    <mergeCell ref="S102:S103"/>
-    <mergeCell ref="S104:S105"/>
-    <mergeCell ref="S106:S107"/>
-    <mergeCell ref="I98:I99"/>
-    <mergeCell ref="J98:J99"/>
-    <mergeCell ref="M98:M99"/>
-    <mergeCell ref="N98:N99"/>
-    <mergeCell ref="O98:O99"/>
-    <mergeCell ref="L98:L99"/>
-    <mergeCell ref="K98:K99"/>
-    <mergeCell ref="O100:O101"/>
-    <mergeCell ref="O102:O103"/>
-    <mergeCell ref="O104:O105"/>
-    <mergeCell ref="O106:O107"/>
-    <mergeCell ref="L104:L105"/>
-    <mergeCell ref="L106:L107"/>
-    <mergeCell ref="M104:M105"/>
-    <mergeCell ref="J104:J105"/>
-    <mergeCell ref="P100:P101"/>
-    <mergeCell ref="P102:P103"/>
-    <mergeCell ref="P104:P105"/>
+    <mergeCell ref="K184:K185"/>
+    <mergeCell ref="L184:L185"/>
+    <mergeCell ref="M184:M185"/>
+    <mergeCell ref="N184:N185"/>
+    <mergeCell ref="R169:R170"/>
+    <mergeCell ref="E171:E172"/>
+    <mergeCell ref="F171:F172"/>
+    <mergeCell ref="G171:G172"/>
+    <mergeCell ref="H171:H172"/>
+    <mergeCell ref="I171:I172"/>
+    <mergeCell ref="J171:J172"/>
+    <mergeCell ref="K171:K172"/>
+    <mergeCell ref="R171:R172"/>
+    <mergeCell ref="E169:E170"/>
+    <mergeCell ref="F169:F170"/>
+    <mergeCell ref="G169:G170"/>
+    <mergeCell ref="H169:H170"/>
+    <mergeCell ref="I169:I170"/>
+    <mergeCell ref="J169:J170"/>
+    <mergeCell ref="K169:K170"/>
+    <mergeCell ref="O169:O170"/>
+    <mergeCell ref="B187:B193"/>
+    <mergeCell ref="N173:N174"/>
+    <mergeCell ref="O173:O174"/>
+    <mergeCell ref="Q173:Q174"/>
+    <mergeCell ref="R173:R174"/>
+    <mergeCell ref="B176:B186"/>
+    <mergeCell ref="E173:E174"/>
+    <mergeCell ref="F173:F174"/>
+    <mergeCell ref="G173:G174"/>
+    <mergeCell ref="H173:H174"/>
+    <mergeCell ref="I173:I174"/>
+    <mergeCell ref="J173:J174"/>
+    <mergeCell ref="K173:K174"/>
+    <mergeCell ref="L173:L174"/>
+    <mergeCell ref="M173:M174"/>
+    <mergeCell ref="O184:O185"/>
+    <mergeCell ref="P184:P185"/>
+    <mergeCell ref="Q184:Q185"/>
+    <mergeCell ref="R184:R185"/>
+    <mergeCell ref="E184:E185"/>
+    <mergeCell ref="F184:F185"/>
+    <mergeCell ref="G184:G185"/>
+    <mergeCell ref="H184:H185"/>
+    <mergeCell ref="I184:I185"/>
+    <mergeCell ref="R165:R166"/>
+    <mergeCell ref="E167:E168"/>
+    <mergeCell ref="F167:F168"/>
+    <mergeCell ref="G167:G168"/>
+    <mergeCell ref="H167:H168"/>
+    <mergeCell ref="I167:I168"/>
+    <mergeCell ref="J167:J168"/>
+    <mergeCell ref="K167:K168"/>
+    <mergeCell ref="L167:L168"/>
+    <mergeCell ref="M167:M168"/>
+    <mergeCell ref="N167:N168"/>
+    <mergeCell ref="O167:O168"/>
+    <mergeCell ref="Q167:Q168"/>
+    <mergeCell ref="R167:R168"/>
+    <mergeCell ref="P165:P166"/>
+    <mergeCell ref="P167:P168"/>
+    <mergeCell ref="G165:G166"/>
+    <mergeCell ref="H165:H166"/>
+    <mergeCell ref="I165:I166"/>
+    <mergeCell ref="M6:Q6"/>
+    <mergeCell ref="B8:B28"/>
+    <mergeCell ref="B29:B53"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="F42:F43"/>
+    <mergeCell ref="G42:G43"/>
+    <mergeCell ref="H42:H43"/>
+    <mergeCell ref="I42:I43"/>
+    <mergeCell ref="J42:J43"/>
+    <mergeCell ref="K42:K43"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="F45:F46"/>
+    <mergeCell ref="G45:G46"/>
+    <mergeCell ref="H45:H46"/>
+    <mergeCell ref="I45:I46"/>
+    <mergeCell ref="J45:J46"/>
+    <mergeCell ref="K45:K46"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="F49:F50"/>
+    <mergeCell ref="G49:G50"/>
+    <mergeCell ref="I49:I50"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="P42:P43"/>
+    <mergeCell ref="P45:P46"/>
+    <mergeCell ref="D106:D107"/>
+    <mergeCell ref="D130:D131"/>
+    <mergeCell ref="H102:H103"/>
+    <mergeCell ref="E130:E131"/>
+    <mergeCell ref="F130:F131"/>
+    <mergeCell ref="G130:G131"/>
+    <mergeCell ref="G106:G107"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="F118:F119"/>
+    <mergeCell ref="G118:G119"/>
+    <mergeCell ref="G62:G63"/>
+    <mergeCell ref="E106:E107"/>
+    <mergeCell ref="D102:D103"/>
+    <mergeCell ref="D104:D105"/>
+    <mergeCell ref="G102:G103"/>
+    <mergeCell ref="G104:G105"/>
+    <mergeCell ref="J47:J48"/>
+    <mergeCell ref="J49:J50"/>
+    <mergeCell ref="K47:K48"/>
+    <mergeCell ref="J55:K55"/>
+    <mergeCell ref="K49:K50"/>
+    <mergeCell ref="J51:J52"/>
+    <mergeCell ref="K51:K52"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="H100:H101"/>
+    <mergeCell ref="H98:H99"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="G98:G99"/>
+    <mergeCell ref="G100:G101"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="F51:F52"/>
+    <mergeCell ref="G51:G52"/>
+    <mergeCell ref="F47:F48"/>
+    <mergeCell ref="G47:G48"/>
+    <mergeCell ref="H47:H48"/>
+    <mergeCell ref="I47:I48"/>
+    <mergeCell ref="H51:H52"/>
+    <mergeCell ref="I51:I52"/>
+    <mergeCell ref="B109:B120"/>
+    <mergeCell ref="B64:B83"/>
+    <mergeCell ref="B84:B108"/>
+    <mergeCell ref="B62:B63"/>
+    <mergeCell ref="C62:C63"/>
+    <mergeCell ref="B132:B151"/>
+    <mergeCell ref="B152:B175"/>
+    <mergeCell ref="E165:E166"/>
+    <mergeCell ref="F165:F166"/>
+    <mergeCell ref="B130:B131"/>
+    <mergeCell ref="C130:C131"/>
+    <mergeCell ref="E100:E101"/>
+    <mergeCell ref="E62:E63"/>
+    <mergeCell ref="F62:F63"/>
+    <mergeCell ref="E118:E119"/>
+    <mergeCell ref="D62:D63"/>
+    <mergeCell ref="D100:D101"/>
+    <mergeCell ref="E98:E99"/>
+    <mergeCell ref="E104:E105"/>
+    <mergeCell ref="E102:E103"/>
+    <mergeCell ref="F100:F101"/>
+    <mergeCell ref="F102:F103"/>
+    <mergeCell ref="F104:F105"/>
+    <mergeCell ref="F106:F107"/>
+    <mergeCell ref="N47:N48"/>
+    <mergeCell ref="H130:I130"/>
+    <mergeCell ref="M47:M48"/>
+    <mergeCell ref="K100:K101"/>
+    <mergeCell ref="K102:K103"/>
+    <mergeCell ref="K104:K105"/>
+    <mergeCell ref="L47:L48"/>
+    <mergeCell ref="N51:N52"/>
+    <mergeCell ref="L100:L101"/>
+    <mergeCell ref="M62:Q62"/>
+    <mergeCell ref="L55:M55"/>
+    <mergeCell ref="Q104:Q105"/>
+    <mergeCell ref="P118:P119"/>
+    <mergeCell ref="H104:H105"/>
+    <mergeCell ref="H106:H107"/>
+    <mergeCell ref="I100:I101"/>
+    <mergeCell ref="I102:I103"/>
+    <mergeCell ref="H118:H119"/>
+    <mergeCell ref="I104:I105"/>
+    <mergeCell ref="I106:I107"/>
+    <mergeCell ref="P47:P48"/>
+    <mergeCell ref="P49:P50"/>
+    <mergeCell ref="P51:P52"/>
+    <mergeCell ref="P98:P99"/>
+    <mergeCell ref="R130:R131"/>
+    <mergeCell ref="L49:L50"/>
+    <mergeCell ref="M49:M50"/>
+    <mergeCell ref="O49:O50"/>
+    <mergeCell ref="Q49:Q50"/>
+    <mergeCell ref="R49:R50"/>
+    <mergeCell ref="O51:O52"/>
+    <mergeCell ref="Q51:Q52"/>
+    <mergeCell ref="R51:R52"/>
+    <mergeCell ref="Q98:Q99"/>
+    <mergeCell ref="R98:R99"/>
+    <mergeCell ref="Q106:Q107"/>
+    <mergeCell ref="R102:R103"/>
+    <mergeCell ref="R104:R105"/>
+    <mergeCell ref="R106:R107"/>
+    <mergeCell ref="M106:M107"/>
+    <mergeCell ref="L130:L131"/>
+    <mergeCell ref="N49:N50"/>
+    <mergeCell ref="R118:R119"/>
+    <mergeCell ref="O118:O119"/>
+    <mergeCell ref="Q118:Q119"/>
+    <mergeCell ref="L122:M122"/>
+    <mergeCell ref="N104:N105"/>
+    <mergeCell ref="N106:N107"/>
+    <mergeCell ref="R6:R7"/>
+    <mergeCell ref="L42:L43"/>
+    <mergeCell ref="M42:M43"/>
+    <mergeCell ref="N42:N43"/>
+    <mergeCell ref="O42:O43"/>
+    <mergeCell ref="Q42:Q43"/>
+    <mergeCell ref="R42:R43"/>
+    <mergeCell ref="L45:L46"/>
+    <mergeCell ref="L102:L103"/>
+    <mergeCell ref="N100:N101"/>
+    <mergeCell ref="N102:N103"/>
+    <mergeCell ref="Q100:Q101"/>
+    <mergeCell ref="Q102:Q103"/>
+    <mergeCell ref="R62:R63"/>
+    <mergeCell ref="L62:L63"/>
+    <mergeCell ref="M45:M46"/>
+    <mergeCell ref="N45:N46"/>
+    <mergeCell ref="O45:O46"/>
+    <mergeCell ref="Q45:Q46"/>
+    <mergeCell ref="R45:R46"/>
+    <mergeCell ref="O47:O48"/>
+    <mergeCell ref="Q47:Q48"/>
+    <mergeCell ref="R47:R48"/>
+    <mergeCell ref="R100:R101"/>
+    <mergeCell ref="J195:K195"/>
+    <mergeCell ref="L195:M195"/>
+    <mergeCell ref="L165:L166"/>
+    <mergeCell ref="M165:M166"/>
+    <mergeCell ref="L169:L170"/>
+    <mergeCell ref="M169:M170"/>
+    <mergeCell ref="J165:J166"/>
+    <mergeCell ref="K165:K166"/>
+    <mergeCell ref="M130:Q130"/>
+    <mergeCell ref="Q169:Q170"/>
+    <mergeCell ref="N169:N170"/>
+    <mergeCell ref="O165:O166"/>
+    <mergeCell ref="Q165:Q166"/>
+    <mergeCell ref="N165:N166"/>
+    <mergeCell ref="P169:P170"/>
+    <mergeCell ref="P171:P172"/>
+    <mergeCell ref="P173:P174"/>
+    <mergeCell ref="J130:K130"/>
+    <mergeCell ref="L171:L172"/>
+    <mergeCell ref="M171:M172"/>
+    <mergeCell ref="N171:N172"/>
+    <mergeCell ref="O171:O172"/>
+    <mergeCell ref="Q171:Q172"/>
+    <mergeCell ref="J184:J185"/>
     <mergeCell ref="D167:D168"/>
     <mergeCell ref="D169:D170"/>
     <mergeCell ref="D171:D172"/>
@@ -21274,266 +21472,33 @@
     <mergeCell ref="L51:L52"/>
     <mergeCell ref="M51:M52"/>
     <mergeCell ref="I118:I119"/>
-    <mergeCell ref="J195:K195"/>
-    <mergeCell ref="L195:M195"/>
-    <mergeCell ref="L165:L166"/>
-    <mergeCell ref="M165:M166"/>
-    <mergeCell ref="L169:L170"/>
-    <mergeCell ref="M169:M170"/>
-    <mergeCell ref="J165:J166"/>
-    <mergeCell ref="K165:K166"/>
-    <mergeCell ref="M130:Q130"/>
-    <mergeCell ref="Q169:Q170"/>
-    <mergeCell ref="N169:N170"/>
-    <mergeCell ref="O165:O166"/>
-    <mergeCell ref="Q165:Q166"/>
-    <mergeCell ref="N165:N166"/>
-    <mergeCell ref="P169:P170"/>
-    <mergeCell ref="P171:P172"/>
-    <mergeCell ref="P173:P174"/>
-    <mergeCell ref="J130:K130"/>
-    <mergeCell ref="L171:L172"/>
-    <mergeCell ref="M171:M172"/>
-    <mergeCell ref="N171:N172"/>
-    <mergeCell ref="O171:O172"/>
-    <mergeCell ref="Q171:Q172"/>
-    <mergeCell ref="J184:J185"/>
-    <mergeCell ref="R6:R7"/>
-    <mergeCell ref="L42:L43"/>
-    <mergeCell ref="M42:M43"/>
-    <mergeCell ref="N42:N43"/>
-    <mergeCell ref="O42:O43"/>
-    <mergeCell ref="Q42:Q43"/>
-    <mergeCell ref="R42:R43"/>
-    <mergeCell ref="L45:L46"/>
-    <mergeCell ref="L102:L103"/>
-    <mergeCell ref="N100:N101"/>
-    <mergeCell ref="N102:N103"/>
-    <mergeCell ref="Q100:Q101"/>
-    <mergeCell ref="Q102:Q103"/>
-    <mergeCell ref="R62:R63"/>
-    <mergeCell ref="L62:L63"/>
-    <mergeCell ref="M45:M46"/>
-    <mergeCell ref="N45:N46"/>
-    <mergeCell ref="O45:O46"/>
-    <mergeCell ref="Q45:Q46"/>
-    <mergeCell ref="R45:R46"/>
-    <mergeCell ref="O47:O48"/>
-    <mergeCell ref="Q47:Q48"/>
-    <mergeCell ref="R47:R48"/>
-    <mergeCell ref="R100:R101"/>
-    <mergeCell ref="R130:R131"/>
-    <mergeCell ref="L49:L50"/>
-    <mergeCell ref="M49:M50"/>
-    <mergeCell ref="O49:O50"/>
-    <mergeCell ref="Q49:Q50"/>
-    <mergeCell ref="R49:R50"/>
-    <mergeCell ref="O51:O52"/>
-    <mergeCell ref="Q51:Q52"/>
-    <mergeCell ref="R51:R52"/>
-    <mergeCell ref="Q98:Q99"/>
-    <mergeCell ref="R98:R99"/>
-    <mergeCell ref="Q106:Q107"/>
-    <mergeCell ref="R102:R103"/>
-    <mergeCell ref="R104:R105"/>
-    <mergeCell ref="R106:R107"/>
-    <mergeCell ref="M106:M107"/>
-    <mergeCell ref="L130:L131"/>
-    <mergeCell ref="N49:N50"/>
-    <mergeCell ref="R118:R119"/>
-    <mergeCell ref="O118:O119"/>
-    <mergeCell ref="Q118:Q119"/>
-    <mergeCell ref="L122:M122"/>
-    <mergeCell ref="N104:N105"/>
-    <mergeCell ref="N106:N107"/>
-    <mergeCell ref="N47:N48"/>
-    <mergeCell ref="H130:I130"/>
-    <mergeCell ref="M47:M48"/>
-    <mergeCell ref="K100:K101"/>
-    <mergeCell ref="K102:K103"/>
-    <mergeCell ref="K104:K105"/>
-    <mergeCell ref="L47:L48"/>
-    <mergeCell ref="N51:N52"/>
-    <mergeCell ref="L100:L101"/>
-    <mergeCell ref="M62:Q62"/>
-    <mergeCell ref="L55:M55"/>
-    <mergeCell ref="Q104:Q105"/>
-    <mergeCell ref="P118:P119"/>
-    <mergeCell ref="H104:H105"/>
-    <mergeCell ref="H106:H107"/>
-    <mergeCell ref="I100:I101"/>
-    <mergeCell ref="I102:I103"/>
-    <mergeCell ref="H118:H119"/>
-    <mergeCell ref="I104:I105"/>
-    <mergeCell ref="I106:I107"/>
-    <mergeCell ref="P47:P48"/>
-    <mergeCell ref="P49:P50"/>
-    <mergeCell ref="P51:P52"/>
-    <mergeCell ref="P98:P99"/>
-    <mergeCell ref="B109:B120"/>
-    <mergeCell ref="B64:B83"/>
-    <mergeCell ref="B84:B108"/>
-    <mergeCell ref="B62:B63"/>
-    <mergeCell ref="C62:C63"/>
-    <mergeCell ref="B132:B151"/>
-    <mergeCell ref="B152:B175"/>
-    <mergeCell ref="E165:E166"/>
-    <mergeCell ref="F165:F166"/>
-    <mergeCell ref="B130:B131"/>
-    <mergeCell ref="C130:C131"/>
-    <mergeCell ref="E100:E101"/>
-    <mergeCell ref="E62:E63"/>
-    <mergeCell ref="F62:F63"/>
-    <mergeCell ref="E118:E119"/>
-    <mergeCell ref="D62:D63"/>
-    <mergeCell ref="D100:D101"/>
-    <mergeCell ref="E98:E99"/>
-    <mergeCell ref="E104:E105"/>
-    <mergeCell ref="E102:E103"/>
-    <mergeCell ref="F100:F101"/>
-    <mergeCell ref="F102:F103"/>
-    <mergeCell ref="F104:F105"/>
-    <mergeCell ref="F106:F107"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="H100:H101"/>
-    <mergeCell ref="H98:H99"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="D45:D46"/>
-    <mergeCell ref="D47:D48"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="D51:D52"/>
-    <mergeCell ref="G98:G99"/>
-    <mergeCell ref="G100:G101"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="F51:F52"/>
-    <mergeCell ref="G51:G52"/>
-    <mergeCell ref="F47:F48"/>
-    <mergeCell ref="G47:G48"/>
-    <mergeCell ref="H47:H48"/>
-    <mergeCell ref="I47:I48"/>
-    <mergeCell ref="H51:H52"/>
-    <mergeCell ref="I51:I52"/>
-    <mergeCell ref="D106:D107"/>
-    <mergeCell ref="D130:D131"/>
-    <mergeCell ref="H102:H103"/>
-    <mergeCell ref="E130:E131"/>
-    <mergeCell ref="F130:F131"/>
-    <mergeCell ref="G130:G131"/>
-    <mergeCell ref="G106:G107"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="F118:F119"/>
-    <mergeCell ref="G118:G119"/>
-    <mergeCell ref="G62:G63"/>
-    <mergeCell ref="E106:E107"/>
-    <mergeCell ref="D102:D103"/>
-    <mergeCell ref="D104:D105"/>
-    <mergeCell ref="G102:G103"/>
-    <mergeCell ref="G104:G105"/>
-    <mergeCell ref="J47:J48"/>
-    <mergeCell ref="J49:J50"/>
-    <mergeCell ref="K47:K48"/>
-    <mergeCell ref="J55:K55"/>
-    <mergeCell ref="K49:K50"/>
-    <mergeCell ref="J51:J52"/>
-    <mergeCell ref="K51:K52"/>
-    <mergeCell ref="M6:Q6"/>
-    <mergeCell ref="B8:B28"/>
-    <mergeCell ref="B29:B53"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="F42:F43"/>
-    <mergeCell ref="G42:G43"/>
-    <mergeCell ref="H42:H43"/>
-    <mergeCell ref="I42:I43"/>
-    <mergeCell ref="J42:J43"/>
-    <mergeCell ref="K42:K43"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="F45:F46"/>
-    <mergeCell ref="G45:G46"/>
-    <mergeCell ref="H45:H46"/>
-    <mergeCell ref="I45:I46"/>
-    <mergeCell ref="J45:J46"/>
-    <mergeCell ref="K45:K46"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="F49:F50"/>
-    <mergeCell ref="G49:G50"/>
-    <mergeCell ref="I49:I50"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="P42:P43"/>
-    <mergeCell ref="P45:P46"/>
-    <mergeCell ref="R165:R166"/>
-    <mergeCell ref="E167:E168"/>
-    <mergeCell ref="F167:F168"/>
-    <mergeCell ref="G167:G168"/>
-    <mergeCell ref="H167:H168"/>
-    <mergeCell ref="I167:I168"/>
-    <mergeCell ref="J167:J168"/>
-    <mergeCell ref="K167:K168"/>
-    <mergeCell ref="L167:L168"/>
-    <mergeCell ref="M167:M168"/>
-    <mergeCell ref="N167:N168"/>
-    <mergeCell ref="O167:O168"/>
-    <mergeCell ref="Q167:Q168"/>
-    <mergeCell ref="R167:R168"/>
-    <mergeCell ref="P165:P166"/>
-    <mergeCell ref="P167:P168"/>
-    <mergeCell ref="G165:G166"/>
-    <mergeCell ref="H165:H166"/>
-    <mergeCell ref="I165:I166"/>
-    <mergeCell ref="B187:B193"/>
-    <mergeCell ref="N173:N174"/>
-    <mergeCell ref="O173:O174"/>
-    <mergeCell ref="Q173:Q174"/>
-    <mergeCell ref="R173:R174"/>
-    <mergeCell ref="B176:B186"/>
-    <mergeCell ref="E173:E174"/>
-    <mergeCell ref="F173:F174"/>
-    <mergeCell ref="G173:G174"/>
-    <mergeCell ref="H173:H174"/>
-    <mergeCell ref="I173:I174"/>
-    <mergeCell ref="J173:J174"/>
-    <mergeCell ref="K173:K174"/>
-    <mergeCell ref="L173:L174"/>
-    <mergeCell ref="M173:M174"/>
-    <mergeCell ref="O184:O185"/>
-    <mergeCell ref="P184:P185"/>
-    <mergeCell ref="Q184:Q185"/>
-    <mergeCell ref="R184:R185"/>
-    <mergeCell ref="E184:E185"/>
-    <mergeCell ref="F184:F185"/>
-    <mergeCell ref="G184:G185"/>
-    <mergeCell ref="H184:H185"/>
-    <mergeCell ref="I184:I185"/>
-    <mergeCell ref="K184:K185"/>
-    <mergeCell ref="L184:L185"/>
-    <mergeCell ref="M184:M185"/>
-    <mergeCell ref="N184:N185"/>
-    <mergeCell ref="R169:R170"/>
-    <mergeCell ref="E171:E172"/>
-    <mergeCell ref="F171:F172"/>
-    <mergeCell ref="G171:G172"/>
-    <mergeCell ref="H171:H172"/>
-    <mergeCell ref="I171:I172"/>
-    <mergeCell ref="J171:J172"/>
-    <mergeCell ref="K171:K172"/>
-    <mergeCell ref="R171:R172"/>
-    <mergeCell ref="E169:E170"/>
-    <mergeCell ref="F169:F170"/>
-    <mergeCell ref="G169:G170"/>
-    <mergeCell ref="H169:H170"/>
-    <mergeCell ref="I169:I170"/>
-    <mergeCell ref="J169:J170"/>
-    <mergeCell ref="K169:K170"/>
-    <mergeCell ref="O169:O170"/>
+    <mergeCell ref="S98:S99"/>
+    <mergeCell ref="S100:S101"/>
+    <mergeCell ref="S102:S103"/>
+    <mergeCell ref="S104:S105"/>
+    <mergeCell ref="S106:S107"/>
+    <mergeCell ref="I98:I99"/>
+    <mergeCell ref="J98:J99"/>
+    <mergeCell ref="M98:M99"/>
+    <mergeCell ref="N98:N99"/>
+    <mergeCell ref="O98:O99"/>
+    <mergeCell ref="L98:L99"/>
+    <mergeCell ref="K98:K99"/>
+    <mergeCell ref="O100:O101"/>
+    <mergeCell ref="O102:O103"/>
+    <mergeCell ref="O104:O105"/>
+    <mergeCell ref="O106:O107"/>
+    <mergeCell ref="L104:L105"/>
+    <mergeCell ref="L106:L107"/>
+    <mergeCell ref="M104:M105"/>
+    <mergeCell ref="J104:J105"/>
+    <mergeCell ref="P100:P101"/>
+    <mergeCell ref="P102:P103"/>
+    <mergeCell ref="P104:P105"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.78740157480314965" right="0.78740157480314965" top="0.19685039370078741" bottom="0.23622047244094491" header="0" footer="0"/>
-  <pageSetup paperSize="8" scale="82" fitToHeight="0" orientation="portrait" horizontalDpi="4294967294" r:id="rId1"/>
+  <pageSetup paperSize="8" scale="81" fitToHeight="0" orientation="portrait" horizontalDpi="4294967294" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="2" manualBreakCount="2">
     <brk id="59" max="16383" man="1"/>
@@ -21547,14 +21512,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
   <dimension ref="A1:X160"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A119" zoomScale="70" zoomScaleNormal="85" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="F144" sqref="F144"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A10" zoomScale="70" zoomScaleNormal="85" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="M49" sqref="M49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.25" defaultRowHeight="13.5"/>
@@ -21608,55 +21573,55 @@
       </c>
     </row>
     <row r="5" spans="1:20" ht="18" customHeight="1" thickBot="1">
-      <c r="B5" s="316" t="s">
+      <c r="B5" s="315" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="331" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="321" t="s">
+      <c r="D5" s="338" t="s">
         <v>106</v>
       </c>
-      <c r="E5" s="316" t="s">
-        <v>4</v>
-      </c>
-      <c r="F5" s="323" t="s">
+      <c r="E5" s="315" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="336" t="s">
         <v>51</v>
       </c>
-      <c r="G5" s="323" t="s">
+      <c r="G5" s="336" t="s">
         <v>52</v>
       </c>
       <c r="H5" s="307" t="s">
         <v>5</v>
       </c>
-      <c r="I5" s="325"/>
+      <c r="I5" s="308"/>
       <c r="J5" s="307" t="s">
         <v>6</v>
       </c>
-      <c r="K5" s="325"/>
-      <c r="L5" s="346" t="s">
+      <c r="K5" s="308"/>
+      <c r="L5" s="345" t="s">
         <v>26</v>
       </c>
       <c r="M5" s="307" t="s">
         <v>7</v>
       </c>
-      <c r="N5" s="308"/>
-      <c r="O5" s="308"/>
-      <c r="P5" s="308"/>
-      <c r="Q5" s="325"/>
-      <c r="R5" s="316" t="s">
+      <c r="N5" s="313"/>
+      <c r="O5" s="313"/>
+      <c r="P5" s="313"/>
+      <c r="Q5" s="308"/>
+      <c r="R5" s="315" t="s">
         <v>35</v>
       </c>
       <c r="S5" s="58"/>
       <c r="T5" s="239"/>
     </row>
     <row r="6" spans="1:20" ht="18" customHeight="1" thickBot="1">
-      <c r="B6" s="317"/>
-      <c r="C6" s="332"/>
-      <c r="D6" s="322"/>
-      <c r="E6" s="317"/>
-      <c r="F6" s="324"/>
-      <c r="G6" s="324"/>
+      <c r="B6" s="316"/>
+      <c r="C6" s="342"/>
+      <c r="D6" s="339"/>
+      <c r="E6" s="316"/>
+      <c r="F6" s="337"/>
+      <c r="G6" s="337"/>
       <c r="H6" s="90" t="s">
         <v>8</v>
       </c>
@@ -21669,7 +21634,7 @@
       <c r="K6" s="60" t="s">
         <v>30</v>
       </c>
-      <c r="L6" s="347"/>
+      <c r="L6" s="346"/>
       <c r="M6" s="10" t="s">
         <v>22</v>
       </c>
@@ -21685,12 +21650,12 @@
       <c r="Q6" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="R6" s="317"/>
+      <c r="R6" s="316"/>
       <c r="S6" s="59"/>
       <c r="T6" s="240"/>
     </row>
     <row r="7" spans="1:20" ht="16.5" customHeight="1">
-      <c r="B7" s="310" t="s">
+      <c r="B7" s="328" t="s">
         <v>82</v>
       </c>
       <c r="C7" s="19" t="s">
@@ -21742,7 +21707,7 @@
       <c r="T7" s="172"/>
     </row>
     <row r="8" spans="1:20" ht="16.5" customHeight="1">
-      <c r="B8" s="310"/>
+      <c r="B8" s="328"/>
       <c r="C8" s="43" t="s">
         <v>103</v>
       </c>
@@ -21792,7 +21757,7 @@
       <c r="T8" s="172"/>
     </row>
     <row r="9" spans="1:20" ht="16.5" customHeight="1">
-      <c r="B9" s="310"/>
+      <c r="B9" s="328"/>
       <c r="C9" s="43" t="s">
         <v>261</v>
       </c>
@@ -21842,7 +21807,7 @@
       <c r="T9" s="172"/>
     </row>
     <row r="10" spans="1:20" ht="16.5" customHeight="1">
-      <c r="B10" s="310"/>
+      <c r="B10" s="328"/>
       <c r="C10" s="43" t="s">
         <v>16</v>
       </c>
@@ -21892,7 +21857,7 @@
       <c r="T10" s="172"/>
     </row>
     <row r="11" spans="1:20" ht="16.5" hidden="1" customHeight="1">
-      <c r="B11" s="310"/>
+      <c r="B11" s="328"/>
       <c r="C11" s="173" t="s">
         <v>130</v>
       </c>
@@ -21942,7 +21907,7 @@
       <c r="T11" s="172"/>
     </row>
     <row r="12" spans="1:20" ht="16.5" customHeight="1">
-      <c r="B12" s="310"/>
+      <c r="B12" s="328"/>
       <c r="C12" s="43" t="s">
         <v>297</v>
       </c>
@@ -21992,7 +21957,7 @@
       <c r="T12" s="172"/>
     </row>
     <row r="13" spans="1:20" ht="16.5" customHeight="1">
-      <c r="B13" s="310"/>
+      <c r="B13" s="328"/>
       <c r="C13" s="43" t="s">
         <v>298</v>
       </c>
@@ -22042,7 +22007,7 @@
       <c r="T13" s="172"/>
     </row>
     <row r="14" spans="1:20" ht="16.5" customHeight="1">
-      <c r="B14" s="310"/>
+      <c r="B14" s="328"/>
       <c r="C14" s="43" t="s">
         <v>238</v>
       </c>
@@ -22092,7 +22057,7 @@
       <c r="T14" s="172"/>
     </row>
     <row r="15" spans="1:20" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B15" s="310"/>
+      <c r="B15" s="328"/>
       <c r="C15" s="147" t="s">
         <v>239</v>
       </c>
@@ -22142,7 +22107,7 @@
       <c r="T15" s="172"/>
     </row>
     <row r="16" spans="1:20" ht="16.5" customHeight="1">
-      <c r="B16" s="310"/>
+      <c r="B16" s="328"/>
       <c r="C16" s="19" t="s">
         <v>68</v>
       </c>
@@ -22192,7 +22157,7 @@
       <c r="T16" s="172"/>
     </row>
     <row r="17" spans="1:23" ht="16.5" customHeight="1">
-      <c r="B17" s="310"/>
+      <c r="B17" s="328"/>
       <c r="C17" s="43" t="s">
         <v>74</v>
       </c>
@@ -22242,7 +22207,7 @@
       <c r="T17" s="172"/>
     </row>
     <row r="18" spans="1:23" ht="16.5" customHeight="1">
-      <c r="B18" s="310"/>
+      <c r="B18" s="328"/>
       <c r="C18" s="43" t="s">
         <v>77</v>
       </c>
@@ -22292,7 +22257,7 @@
       <c r="T18" s="172"/>
     </row>
     <row r="19" spans="1:23" ht="16.5" customHeight="1">
-      <c r="B19" s="310"/>
+      <c r="B19" s="328"/>
       <c r="C19" s="43" t="s">
         <v>78</v>
       </c>
@@ -22342,7 +22307,7 @@
       <c r="T19" s="172"/>
     </row>
     <row r="20" spans="1:23" ht="16.5" customHeight="1">
-      <c r="B20" s="310"/>
+      <c r="B20" s="328"/>
       <c r="C20" s="43" t="s">
         <v>79</v>
       </c>
@@ -22392,7 +22357,7 @@
       <c r="T20" s="172"/>
     </row>
     <row r="21" spans="1:23" ht="16.5" customHeight="1">
-      <c r="B21" s="310"/>
+      <c r="B21" s="328"/>
       <c r="C21" s="43" t="s">
         <v>80</v>
       </c>
@@ -22442,7 +22407,7 @@
       <c r="T21" s="172"/>
     </row>
     <row r="22" spans="1:23" ht="16.5" customHeight="1">
-      <c r="B22" s="310"/>
+      <c r="B22" s="328"/>
       <c r="C22" s="43" t="s">
         <v>268</v>
       </c>
@@ -22492,7 +22457,7 @@
       <c r="T22" s="172"/>
     </row>
     <row r="23" spans="1:23" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B23" s="310"/>
+      <c r="B23" s="328"/>
       <c r="C23" s="43" t="s">
         <v>269</v>
       </c>
@@ -22542,7 +22507,7 @@
       <c r="T23" s="172"/>
     </row>
     <row r="24" spans="1:23" ht="16.5" hidden="1" customHeight="1">
-      <c r="B24" s="310"/>
+      <c r="B24" s="328"/>
       <c r="C24" s="175" t="s">
         <v>280</v>
       </c>
@@ -22592,7 +22557,7 @@
       <c r="T24" s="172"/>
     </row>
     <row r="25" spans="1:23" ht="16.5" hidden="1" customHeight="1" thickBot="1">
-      <c r="B25" s="310"/>
+      <c r="B25" s="328"/>
       <c r="C25" s="177" t="s">
         <v>281</v>
       </c>
@@ -22644,7 +22609,7 @@
       <c r="V25" s="6"/>
     </row>
     <row r="26" spans="1:23" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B26" s="311"/>
+      <c r="B26" s="329"/>
       <c r="C26" s="17" t="s">
         <v>11</v>
       </c>
@@ -22733,14 +22698,14 @@
       <c r="I28" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="J28" s="329" t="s">
+      <c r="J28" s="302" t="s">
         <v>8</v>
       </c>
-      <c r="K28" s="330"/>
-      <c r="L28" s="338" t="s">
+      <c r="K28" s="303"/>
+      <c r="L28" s="311" t="s">
         <v>48</v>
       </c>
-      <c r="M28" s="339"/>
+      <c r="M28" s="312"/>
       <c r="N28" s="84" t="s">
         <v>49</v>
       </c>
@@ -22897,55 +22862,55 @@
       <c r="T33" s="242"/>
     </row>
     <row r="34" spans="2:20" ht="18" customHeight="1" thickBot="1">
-      <c r="B34" s="316" t="s">
+      <c r="B34" s="315" t="s">
         <v>2</v>
       </c>
       <c r="C34" s="331" t="s">
         <v>3</v>
       </c>
-      <c r="D34" s="321" t="s">
+      <c r="D34" s="338" t="s">
         <v>106</v>
       </c>
-      <c r="E34" s="316" t="s">
-        <v>4</v>
-      </c>
-      <c r="F34" s="323" t="s">
+      <c r="E34" s="315" t="s">
+        <v>4</v>
+      </c>
+      <c r="F34" s="336" t="s">
         <v>51</v>
       </c>
-      <c r="G34" s="323" t="s">
+      <c r="G34" s="336" t="s">
         <v>52</v>
       </c>
       <c r="H34" s="307" t="s">
         <v>5</v>
       </c>
-      <c r="I34" s="325"/>
+      <c r="I34" s="308"/>
       <c r="J34" s="307" t="s">
         <v>6</v>
       </c>
-      <c r="K34" s="325"/>
-      <c r="L34" s="346" t="s">
+      <c r="K34" s="308"/>
+      <c r="L34" s="345" t="s">
         <v>26</v>
       </c>
       <c r="M34" s="307" t="s">
         <v>7</v>
       </c>
-      <c r="N34" s="308"/>
-      <c r="O34" s="308"/>
-      <c r="P34" s="308"/>
-      <c r="Q34" s="325"/>
-      <c r="R34" s="316" t="s">
+      <c r="N34" s="313"/>
+      <c r="O34" s="313"/>
+      <c r="P34" s="313"/>
+      <c r="Q34" s="308"/>
+      <c r="R34" s="315" t="s">
         <v>35</v>
       </c>
       <c r="S34" s="58"/>
       <c r="T34" s="239"/>
     </row>
     <row r="35" spans="2:20" ht="18" customHeight="1" thickBot="1">
-      <c r="B35" s="317"/>
-      <c r="C35" s="332"/>
-      <c r="D35" s="322"/>
-      <c r="E35" s="317"/>
-      <c r="F35" s="324"/>
-      <c r="G35" s="324"/>
+      <c r="B35" s="316"/>
+      <c r="C35" s="342"/>
+      <c r="D35" s="339"/>
+      <c r="E35" s="316"/>
+      <c r="F35" s="337"/>
+      <c r="G35" s="337"/>
       <c r="H35" s="90" t="s">
         <v>8</v>
       </c>
@@ -22958,7 +22923,7 @@
       <c r="K35" s="60" t="s">
         <v>30</v>
       </c>
-      <c r="L35" s="347"/>
+      <c r="L35" s="346"/>
       <c r="M35" s="10" t="s">
         <v>22</v>
       </c>
@@ -22974,12 +22939,12 @@
       <c r="Q35" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="R35" s="317"/>
+      <c r="R35" s="316"/>
       <c r="S35" s="59"/>
       <c r="T35" s="240"/>
     </row>
     <row r="36" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B36" s="310" t="s">
+      <c r="B36" s="328" t="s">
         <v>137</v>
       </c>
       <c r="C36" s="19" t="s">
@@ -23031,7 +22996,7 @@
       <c r="T36" s="172"/>
     </row>
     <row r="37" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B37" s="310"/>
+      <c r="B37" s="328"/>
       <c r="C37" s="43" t="s">
         <v>103</v>
       </c>
@@ -23081,7 +23046,7 @@
       <c r="T37" s="172"/>
     </row>
     <row r="38" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B38" s="310"/>
+      <c r="B38" s="328"/>
       <c r="C38" s="43" t="s">
         <v>260</v>
       </c>
@@ -23131,7 +23096,7 @@
       <c r="T38" s="172"/>
     </row>
     <row r="39" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B39" s="310"/>
+      <c r="B39" s="328"/>
       <c r="C39" s="43" t="s">
         <v>66</v>
       </c>
@@ -23181,7 +23146,7 @@
       <c r="T39" s="172"/>
     </row>
     <row r="40" spans="2:20" ht="16.5" hidden="1" customHeight="1">
-      <c r="B40" s="310"/>
+      <c r="B40" s="328"/>
       <c r="C40" s="173" t="s">
         <v>130</v>
       </c>
@@ -23231,7 +23196,7 @@
       <c r="T40" s="172"/>
     </row>
     <row r="41" spans="2:20" ht="16.5" hidden="1" customHeight="1">
-      <c r="B41" s="310"/>
+      <c r="B41" s="328"/>
       <c r="C41" s="173" t="s">
         <v>75</v>
       </c>
@@ -23281,7 +23246,7 @@
       <c r="T41" s="172"/>
     </row>
     <row r="42" spans="2:20" ht="16.5" hidden="1" customHeight="1">
-      <c r="B42" s="310"/>
+      <c r="B42" s="328"/>
       <c r="C42" s="173" t="s">
         <v>76</v>
       </c>
@@ -23331,7 +23296,7 @@
       <c r="T42" s="172"/>
     </row>
     <row r="43" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B43" s="310"/>
+      <c r="B43" s="328"/>
       <c r="C43" s="43" t="s">
         <v>238</v>
       </c>
@@ -23381,7 +23346,7 @@
       <c r="T43" s="172"/>
     </row>
     <row r="44" spans="2:20" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B44" s="310"/>
+      <c r="B44" s="328"/>
       <c r="C44" s="147" t="s">
         <v>239</v>
       </c>
@@ -23431,7 +23396,7 @@
       <c r="T44" s="172"/>
     </row>
     <row r="45" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B45" s="310"/>
+      <c r="B45" s="328"/>
       <c r="C45" s="19" t="s">
         <v>68</v>
       </c>
@@ -23481,7 +23446,7 @@
       <c r="T45" s="172"/>
     </row>
     <row r="46" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B46" s="310"/>
+      <c r="B46" s="328"/>
       <c r="C46" s="43" t="s">
         <v>266</v>
       </c>
@@ -23531,7 +23496,7 @@
       <c r="T46" s="172"/>
     </row>
     <row r="47" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B47" s="310"/>
+      <c r="B47" s="328"/>
       <c r="C47" s="22" t="s">
         <v>300</v>
       </c>
@@ -23581,7 +23546,7 @@
       <c r="T47" s="172"/>
     </row>
     <row r="48" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B48" s="310"/>
+      <c r="B48" s="328"/>
       <c r="C48" s="43" t="s">
         <v>128</v>
       </c>
@@ -23631,7 +23596,7 @@
       <c r="T48" s="172"/>
     </row>
     <row r="49" spans="2:22" ht="16.5" customHeight="1">
-      <c r="B49" s="310"/>
+      <c r="B49" s="328"/>
       <c r="C49" s="43" t="s">
         <v>74</v>
       </c>
@@ -23681,7 +23646,7 @@
       <c r="T49" s="172"/>
     </row>
     <row r="50" spans="2:22" ht="16.5" customHeight="1">
-      <c r="B50" s="310"/>
+      <c r="B50" s="328"/>
       <c r="C50" s="43" t="s">
         <v>77</v>
       </c>
@@ -23731,7 +23696,7 @@
       <c r="T50" s="172"/>
     </row>
     <row r="51" spans="2:22" ht="16.5" customHeight="1">
-      <c r="B51" s="310"/>
+      <c r="B51" s="328"/>
       <c r="C51" s="43" t="s">
         <v>78</v>
       </c>
@@ -23781,7 +23746,7 @@
       <c r="T51" s="172"/>
     </row>
     <row r="52" spans="2:22" ht="16.5" customHeight="1">
-      <c r="B52" s="310"/>
+      <c r="B52" s="328"/>
       <c r="C52" s="43" t="s">
         <v>79</v>
       </c>
@@ -23831,7 +23796,7 @@
       <c r="T52" s="172"/>
     </row>
     <row r="53" spans="2:22" ht="16.5" customHeight="1">
-      <c r="B53" s="310"/>
+      <c r="B53" s="328"/>
       <c r="C53" s="43" t="s">
         <v>80</v>
       </c>
@@ -23881,7 +23846,7 @@
       <c r="T53" s="172"/>
     </row>
     <row r="54" spans="2:22" ht="16.5" customHeight="1">
-      <c r="B54" s="310"/>
+      <c r="B54" s="328"/>
       <c r="C54" s="43" t="s">
         <v>133</v>
       </c>
@@ -23931,7 +23896,7 @@
       <c r="T54" s="172"/>
     </row>
     <row r="55" spans="2:22" ht="16.5" customHeight="1">
-      <c r="B55" s="310"/>
+      <c r="B55" s="328"/>
       <c r="C55" s="43" t="s">
         <v>268</v>
       </c>
@@ -23981,7 +23946,7 @@
       <c r="T55" s="172"/>
     </row>
     <row r="56" spans="2:22" ht="16.5" customHeight="1">
-      <c r="B56" s="310"/>
+      <c r="B56" s="328"/>
       <c r="C56" s="43" t="s">
         <v>269</v>
       </c>
@@ -24031,7 +23996,7 @@
       <c r="T56" s="172"/>
     </row>
     <row r="57" spans="2:22" ht="16.5" customHeight="1">
-      <c r="B57" s="310"/>
+      <c r="B57" s="328"/>
       <c r="C57" s="264" t="s">
         <v>374</v>
       </c>
@@ -24081,7 +24046,7 @@
       <c r="T57" s="172"/>
     </row>
     <row r="58" spans="2:22" ht="16.5" customHeight="1">
-      <c r="B58" s="310"/>
+      <c r="B58" s="328"/>
       <c r="C58" s="264" t="s">
         <v>375</v>
       </c>
@@ -24131,7 +24096,7 @@
       <c r="T58" s="172"/>
     </row>
     <row r="59" spans="2:22" ht="16.5" customHeight="1">
-      <c r="B59" s="310"/>
+      <c r="B59" s="328"/>
       <c r="C59" s="264" t="s">
         <v>376</v>
       </c>
@@ -24181,7 +24146,7 @@
       <c r="T59" s="172"/>
     </row>
     <row r="60" spans="2:22" ht="16.5" customHeight="1">
-      <c r="B60" s="310"/>
+      <c r="B60" s="328"/>
       <c r="C60" s="264" t="s">
         <v>376</v>
       </c>
@@ -24231,7 +24196,7 @@
       <c r="T60" s="172"/>
     </row>
     <row r="61" spans="2:22" ht="16.5" customHeight="1">
-      <c r="B61" s="310"/>
+      <c r="B61" s="328"/>
       <c r="C61" s="43" t="s">
         <v>280</v>
       </c>
@@ -24281,7 +24246,7 @@
       <c r="T61" s="172"/>
     </row>
     <row r="62" spans="2:22" ht="16.5" customHeight="1">
-      <c r="B62" s="310"/>
+      <c r="B62" s="328"/>
       <c r="C62" s="43" t="s">
         <v>362</v>
       </c>
@@ -24331,7 +24296,7 @@
       <c r="T62" s="172"/>
     </row>
     <row r="63" spans="2:22" ht="16.5" customHeight="1">
-      <c r="B63" s="310"/>
+      <c r="B63" s="328"/>
       <c r="C63" s="43" t="s">
         <v>363</v>
       </c>
@@ -24381,7 +24346,7 @@
       <c r="T63" s="172"/>
     </row>
     <row r="64" spans="2:22" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B64" s="310"/>
+      <c r="B64" s="328"/>
       <c r="C64" s="169" t="s">
         <v>364</v>
       </c>
@@ -24433,7 +24398,7 @@
       <c r="V64" s="6"/>
     </row>
     <row r="65" spans="2:23" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B65" s="311"/>
+      <c r="B65" s="329"/>
       <c r="C65" s="17" t="s">
         <v>11</v>
       </c>
@@ -24492,7 +24457,7 @@
       <c r="W65" s="6"/>
     </row>
     <row r="66" spans="2:23" ht="16.5" customHeight="1">
-      <c r="B66" s="312" t="s">
+      <c r="B66" s="330" t="s">
         <v>138</v>
       </c>
       <c r="C66" s="19" t="s">
@@ -24544,7 +24509,7 @@
       <c r="T66" s="172"/>
     </row>
     <row r="67" spans="2:23" ht="16.5" customHeight="1">
-      <c r="B67" s="310"/>
+      <c r="B67" s="328"/>
       <c r="C67" s="43" t="s">
         <v>301</v>
       </c>
@@ -24594,7 +24559,7 @@
       <c r="T67" s="172"/>
     </row>
     <row r="68" spans="2:23" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B68" s="310"/>
+      <c r="B68" s="328"/>
       <c r="C68" s="146" t="s">
         <v>70</v>
       </c>
@@ -24644,7 +24609,7 @@
       <c r="T68" s="172"/>
     </row>
     <row r="69" spans="2:23" ht="16.5" customHeight="1">
-      <c r="B69" s="310"/>
+      <c r="B69" s="328"/>
       <c r="C69" s="19" t="s">
         <v>117</v>
       </c>
@@ -24694,7 +24659,7 @@
       <c r="T69" s="172"/>
     </row>
     <row r="70" spans="2:23" ht="16.5" customHeight="1">
-      <c r="B70" s="310"/>
+      <c r="B70" s="328"/>
       <c r="C70" s="43" t="s">
         <v>118</v>
       </c>
@@ -24744,7 +24709,7 @@
       <c r="T70" s="172"/>
     </row>
     <row r="71" spans="2:23" ht="16.5" customHeight="1">
-      <c r="B71" s="310"/>
+      <c r="B71" s="328"/>
       <c r="C71" s="43" t="s">
         <v>131</v>
       </c>
@@ -24794,7 +24759,7 @@
       <c r="T71" s="172"/>
     </row>
     <row r="72" spans="2:23" ht="16.5" customHeight="1">
-      <c r="B72" s="310"/>
+      <c r="B72" s="328"/>
       <c r="C72" s="43" t="s">
         <v>129</v>
       </c>
@@ -24844,7 +24809,7 @@
       <c r="T72" s="172"/>
     </row>
     <row r="73" spans="2:23" ht="16.5" customHeight="1">
-      <c r="B73" s="310"/>
+      <c r="B73" s="328"/>
       <c r="C73" s="43" t="s">
         <v>372</v>
       </c>
@@ -24894,7 +24859,7 @@
       <c r="T73" s="172"/>
     </row>
     <row r="74" spans="2:23" ht="16.5" customHeight="1">
-      <c r="B74" s="310"/>
+      <c r="B74" s="328"/>
       <c r="C74" s="269" t="s">
         <v>370</v>
       </c>
@@ -24944,7 +24909,7 @@
       <c r="T74" s="172"/>
     </row>
     <row r="75" spans="2:23" ht="16.5" customHeight="1">
-      <c r="B75" s="310"/>
+      <c r="B75" s="328"/>
       <c r="C75" s="269" t="s">
         <v>371</v>
       </c>
@@ -24994,7 +24959,7 @@
       <c r="T75" s="172"/>
     </row>
     <row r="76" spans="2:23" ht="16.5" customHeight="1">
-      <c r="B76" s="310"/>
+      <c r="B76" s="328"/>
       <c r="C76" s="22" t="s">
         <v>155</v>
       </c>
@@ -25046,7 +25011,7 @@
       <c r="T76" s="172"/>
     </row>
     <row r="77" spans="2:23" ht="16.5" customHeight="1">
-      <c r="B77" s="310"/>
+      <c r="B77" s="328"/>
       <c r="C77" s="22" t="s">
         <v>71</v>
       </c>
@@ -25096,7 +25061,7 @@
       <c r="T77" s="172"/>
     </row>
     <row r="78" spans="2:23" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B78" s="310"/>
+      <c r="B78" s="328"/>
       <c r="C78" s="22" t="s">
         <v>226</v>
       </c>
@@ -25146,7 +25111,7 @@
       <c r="T78" s="172"/>
     </row>
     <row r="79" spans="2:23" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B79" s="311"/>
+      <c r="B79" s="329"/>
       <c r="C79" s="17" t="s">
         <v>11</v>
       </c>
@@ -25235,14 +25200,14 @@
       <c r="I81" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="J81" s="329" t="s">
+      <c r="J81" s="302" t="s">
         <v>8</v>
       </c>
-      <c r="K81" s="330"/>
-      <c r="L81" s="338" t="s">
+      <c r="K81" s="303"/>
+      <c r="L81" s="311" t="s">
         <v>48</v>
       </c>
-      <c r="M81" s="339"/>
+      <c r="M81" s="312"/>
       <c r="N81" s="84" t="s">
         <v>49</v>
       </c>
@@ -25438,55 +25403,55 @@
       <c r="T87" s="242"/>
     </row>
     <row r="88" spans="1:20" ht="18" customHeight="1" thickBot="1">
-      <c r="B88" s="316" t="s">
+      <c r="B88" s="315" t="s">
         <v>2</v>
       </c>
       <c r="C88" s="331" t="s">
         <v>3</v>
       </c>
-      <c r="D88" s="321" t="s">
+      <c r="D88" s="338" t="s">
         <v>106</v>
       </c>
-      <c r="E88" s="316" t="s">
-        <v>4</v>
-      </c>
-      <c r="F88" s="323" t="s">
+      <c r="E88" s="315" t="s">
+        <v>4</v>
+      </c>
+      <c r="F88" s="336" t="s">
         <v>51</v>
       </c>
-      <c r="G88" s="323" t="s">
+      <c r="G88" s="336" t="s">
         <v>52</v>
       </c>
       <c r="H88" s="307" t="s">
         <v>5</v>
       </c>
-      <c r="I88" s="325"/>
+      <c r="I88" s="308"/>
       <c r="J88" s="307" t="s">
         <v>6</v>
       </c>
-      <c r="K88" s="325"/>
-      <c r="L88" s="346" t="s">
+      <c r="K88" s="308"/>
+      <c r="L88" s="345" t="s">
         <v>26</v>
       </c>
       <c r="M88" s="307" t="s">
         <v>7</v>
       </c>
-      <c r="N88" s="308"/>
-      <c r="O88" s="308"/>
-      <c r="P88" s="308"/>
-      <c r="Q88" s="325"/>
-      <c r="R88" s="316" t="s">
+      <c r="N88" s="313"/>
+      <c r="O88" s="313"/>
+      <c r="P88" s="313"/>
+      <c r="Q88" s="308"/>
+      <c r="R88" s="315" t="s">
         <v>35</v>
       </c>
       <c r="S88" s="58"/>
       <c r="T88" s="239"/>
     </row>
     <row r="89" spans="1:20" ht="18" customHeight="1" thickBot="1">
-      <c r="B89" s="317"/>
-      <c r="C89" s="332"/>
-      <c r="D89" s="322"/>
-      <c r="E89" s="317"/>
-      <c r="F89" s="324"/>
-      <c r="G89" s="324"/>
+      <c r="B89" s="316"/>
+      <c r="C89" s="342"/>
+      <c r="D89" s="339"/>
+      <c r="E89" s="316"/>
+      <c r="F89" s="337"/>
+      <c r="G89" s="337"/>
       <c r="H89" s="90" t="s">
         <v>8</v>
       </c>
@@ -25499,7 +25464,7 @@
       <c r="K89" s="60" t="s">
         <v>30</v>
       </c>
-      <c r="L89" s="347"/>
+      <c r="L89" s="346"/>
       <c r="M89" s="10" t="s">
         <v>22</v>
       </c>
@@ -25515,12 +25480,12 @@
       <c r="Q89" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="R89" s="317"/>
+      <c r="R89" s="316"/>
       <c r="S89" s="59"/>
       <c r="T89" s="240"/>
     </row>
     <row r="90" spans="1:20" ht="16.5" customHeight="1">
-      <c r="B90" s="310" t="s">
+      <c r="B90" s="328" t="s">
         <v>140</v>
       </c>
       <c r="C90" s="19" t="s">
@@ -25572,7 +25537,7 @@
       <c r="T90" s="172"/>
     </row>
     <row r="91" spans="1:20" ht="16.5" customHeight="1">
-      <c r="B91" s="310"/>
+      <c r="B91" s="328"/>
       <c r="C91" s="43" t="s">
         <v>103</v>
       </c>
@@ -25622,7 +25587,7 @@
       <c r="T91" s="172"/>
     </row>
     <row r="92" spans="1:20" ht="16.5" customHeight="1">
-      <c r="B92" s="310"/>
+      <c r="B92" s="328"/>
       <c r="C92" s="43" t="s">
         <v>238</v>
       </c>
@@ -25672,7 +25637,7 @@
       <c r="T92" s="172"/>
     </row>
     <row r="93" spans="1:20" ht="16.5" customHeight="1">
-      <c r="B93" s="310"/>
+      <c r="B93" s="328"/>
       <c r="C93" s="43" t="s">
         <v>239</v>
       </c>
@@ -25722,7 +25687,7 @@
       <c r="T93" s="172"/>
     </row>
     <row r="94" spans="1:20" ht="16.5" customHeight="1">
-      <c r="B94" s="310"/>
+      <c r="B94" s="328"/>
       <c r="C94" s="43" t="s">
         <v>64</v>
       </c>
@@ -25774,7 +25739,7 @@
       </c>
     </row>
     <row r="95" spans="1:20" ht="16.5" customHeight="1">
-      <c r="B95" s="310"/>
+      <c r="B95" s="328"/>
       <c r="C95" s="43" t="s">
         <v>65</v>
       </c>
@@ -25826,14 +25791,14 @@
       </c>
     </row>
     <row r="96" spans="1:20" ht="16.5" customHeight="1">
-      <c r="B96" s="310"/>
+      <c r="B96" s="328"/>
       <c r="C96" s="43" t="s">
         <v>303</v>
       </c>
       <c r="D96" s="149" t="s">
         <v>107</v>
       </c>
-      <c r="E96" s="344" t="s">
+      <c r="E96" s="347" t="s">
         <v>115</v>
       </c>
       <c r="F96" s="24">
@@ -25876,14 +25841,14 @@
       <c r="T96" s="172"/>
     </row>
     <row r="97" spans="2:20" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B97" s="310"/>
+      <c r="B97" s="328"/>
       <c r="C97" s="147" t="s">
         <v>304</v>
       </c>
       <c r="D97" s="154" t="s">
         <v>107</v>
       </c>
-      <c r="E97" s="345"/>
+      <c r="E97" s="348"/>
       <c r="F97" s="156">
         <f t="shared" si="59"/>
         <v>0</v>
@@ -25914,7 +25879,7 @@
       <c r="T97" s="172"/>
     </row>
     <row r="98" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B98" s="310"/>
+      <c r="B98" s="328"/>
       <c r="C98" s="19" t="s">
         <v>68</v>
       </c>
@@ -25964,7 +25929,7 @@
       <c r="T98" s="172"/>
     </row>
     <row r="99" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B99" s="310"/>
+      <c r="B99" s="328"/>
       <c r="C99" s="43" t="s">
         <v>347</v>
       </c>
@@ -26016,7 +25981,7 @@
       </c>
     </row>
     <row r="100" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B100" s="310"/>
+      <c r="B100" s="328"/>
       <c r="C100" s="43" t="s">
         <v>263</v>
       </c>
@@ -26068,7 +26033,7 @@
       </c>
     </row>
     <row r="101" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B101" s="310"/>
+      <c r="B101" s="328"/>
       <c r="C101" s="43" t="s">
         <v>264</v>
       </c>
@@ -26120,7 +26085,7 @@
       </c>
     </row>
     <row r="102" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B102" s="310"/>
+      <c r="B102" s="328"/>
       <c r="C102" s="43" t="s">
         <v>335</v>
       </c>
@@ -26172,7 +26137,7 @@
       </c>
     </row>
     <row r="103" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B103" s="310"/>
+      <c r="B103" s="328"/>
       <c r="C103" s="43" t="s">
         <v>133</v>
       </c>
@@ -26224,7 +26189,7 @@
       </c>
     </row>
     <row r="104" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B104" s="310"/>
+      <c r="B104" s="328"/>
       <c r="C104" s="43" t="s">
         <v>134</v>
       </c>
@@ -26276,7 +26241,7 @@
       </c>
     </row>
     <row r="105" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B105" s="310"/>
+      <c r="B105" s="328"/>
       <c r="C105" s="43" t="s">
         <v>305</v>
       </c>
@@ -26326,7 +26291,7 @@
       <c r="T105" s="172"/>
     </row>
     <row r="106" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B106" s="310"/>
+      <c r="B106" s="328"/>
       <c r="C106" s="22" t="s">
         <v>267</v>
       </c>
@@ -26376,7 +26341,7 @@
       <c r="T106" s="172"/>
     </row>
     <row r="107" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B107" s="310"/>
+      <c r="B107" s="328"/>
       <c r="C107" s="43" t="s">
         <v>128</v>
       </c>
@@ -26426,7 +26391,7 @@
       <c r="T107" s="172"/>
     </row>
     <row r="108" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B108" s="310"/>
+      <c r="B108" s="328"/>
       <c r="C108" s="43" t="s">
         <v>74</v>
       </c>
@@ -26476,7 +26441,7 @@
       <c r="T108" s="172"/>
     </row>
     <row r="109" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B109" s="310"/>
+      <c r="B109" s="328"/>
       <c r="C109" s="43" t="s">
         <v>77</v>
       </c>
@@ -26526,7 +26491,7 @@
       <c r="T109" s="172"/>
     </row>
     <row r="110" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B110" s="310"/>
+      <c r="B110" s="328"/>
       <c r="C110" s="43" t="s">
         <v>78</v>
       </c>
@@ -26576,7 +26541,7 @@
       <c r="T110" s="172"/>
     </row>
     <row r="111" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B111" s="310"/>
+      <c r="B111" s="328"/>
       <c r="C111" s="43" t="s">
         <v>79</v>
       </c>
@@ -26626,7 +26591,7 @@
       <c r="T111" s="172"/>
     </row>
     <row r="112" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B112" s="310"/>
+      <c r="B112" s="328"/>
       <c r="C112" s="43" t="s">
         <v>80</v>
       </c>
@@ -26676,7 +26641,7 @@
       <c r="T112" s="172"/>
     </row>
     <row r="113" spans="2:24" ht="16.5" customHeight="1">
-      <c r="B113" s="310"/>
+      <c r="B113" s="328"/>
       <c r="C113" s="43" t="s">
         <v>268</v>
       </c>
@@ -26726,7 +26691,7 @@
       <c r="T113" s="172"/>
     </row>
     <row r="114" spans="2:24" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B114" s="310"/>
+      <c r="B114" s="328"/>
       <c r="C114" s="43" t="s">
         <v>269</v>
       </c>
@@ -26776,7 +26741,7 @@
       <c r="T114" s="172"/>
     </row>
     <row r="115" spans="2:24" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B115" s="311"/>
+      <c r="B115" s="329"/>
       <c r="C115" s="17" t="s">
         <v>11</v>
       </c>
@@ -26833,7 +26798,7 @@
       <c r="X115" s="109"/>
     </row>
     <row r="116" spans="2:24" ht="16.5" customHeight="1">
-      <c r="B116" s="312" t="s">
+      <c r="B116" s="330" t="s">
         <v>142</v>
       </c>
       <c r="C116" s="19" t="s">
@@ -26885,7 +26850,7 @@
       <c r="T116" s="172"/>
     </row>
     <row r="117" spans="2:24" ht="16.5" customHeight="1">
-      <c r="B117" s="310"/>
+      <c r="B117" s="328"/>
       <c r="C117" s="43" t="s">
         <v>260</v>
       </c>
@@ -26935,7 +26900,7 @@
       <c r="T117" s="172"/>
     </row>
     <row r="118" spans="2:24" ht="16.350000000000001" customHeight="1">
-      <c r="B118" s="310"/>
+      <c r="B118" s="328"/>
       <c r="C118" s="43" t="s">
         <v>70</v>
       </c>
@@ -26985,7 +26950,7 @@
       <c r="T118" s="172"/>
     </row>
     <row r="119" spans="2:24" ht="16.5" customHeight="1">
-      <c r="B119" s="310"/>
+      <c r="B119" s="328"/>
       <c r="C119" s="43" t="s">
         <v>72</v>
       </c>
@@ -27037,7 +27002,7 @@
       </c>
     </row>
     <row r="120" spans="2:24" ht="16.5" customHeight="1">
-      <c r="B120" s="310"/>
+      <c r="B120" s="328"/>
       <c r="C120" s="43" t="s">
         <v>306</v>
       </c>
@@ -27087,7 +27052,7 @@
       <c r="T120" s="172"/>
     </row>
     <row r="121" spans="2:24" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B121" s="310"/>
+      <c r="B121" s="328"/>
       <c r="C121" s="147" t="s">
         <v>307</v>
       </c>
@@ -27127,7 +27092,7 @@
       <c r="T121" s="172"/>
     </row>
     <row r="122" spans="2:24" ht="16.5" customHeight="1">
-      <c r="B122" s="310"/>
+      <c r="B122" s="328"/>
       <c r="C122" s="200" t="s">
         <v>73</v>
       </c>
@@ -27179,7 +27144,7 @@
       </c>
     </row>
     <row r="123" spans="2:24" ht="16.5" customHeight="1">
-      <c r="B123" s="310"/>
+      <c r="B123" s="328"/>
       <c r="C123" s="257" t="s">
         <v>336</v>
       </c>
@@ -27231,7 +27196,7 @@
       </c>
     </row>
     <row r="124" spans="2:24" ht="16.5" customHeight="1">
-      <c r="B124" s="310"/>
+      <c r="B124" s="328"/>
       <c r="C124" s="257" t="s">
         <v>337</v>
       </c>
@@ -27283,7 +27248,7 @@
       </c>
     </row>
     <row r="125" spans="2:24" ht="16.5" customHeight="1">
-      <c r="B125" s="310"/>
+      <c r="B125" s="328"/>
       <c r="C125" s="257" t="s">
         <v>338</v>
       </c>
@@ -27335,7 +27300,7 @@
       </c>
     </row>
     <row r="126" spans="2:24" ht="16.5" customHeight="1">
-      <c r="B126" s="310"/>
+      <c r="B126" s="328"/>
       <c r="C126" s="257" t="s">
         <v>339</v>
       </c>
@@ -27387,7 +27352,7 @@
       </c>
     </row>
     <row r="127" spans="2:24" ht="16.5" customHeight="1">
-      <c r="B127" s="310"/>
+      <c r="B127" s="328"/>
       <c r="C127" s="257" t="s">
         <v>104</v>
       </c>
@@ -27439,7 +27404,7 @@
       </c>
     </row>
     <row r="128" spans="2:24" ht="16.5" customHeight="1">
-      <c r="B128" s="310"/>
+      <c r="B128" s="328"/>
       <c r="C128" s="257" t="s">
         <v>101</v>
       </c>
@@ -27491,7 +27456,7 @@
       </c>
     </row>
     <row r="129" spans="2:24" ht="16.5" customHeight="1">
-      <c r="B129" s="310"/>
+      <c r="B129" s="328"/>
       <c r="C129" s="22" t="s">
         <v>308</v>
       </c>
@@ -27541,7 +27506,7 @@
       <c r="T129" s="172"/>
     </row>
     <row r="130" spans="2:24" ht="16.5" customHeight="1">
-      <c r="B130" s="310"/>
+      <c r="B130" s="328"/>
       <c r="C130" s="22" t="s">
         <v>309</v>
       </c>
@@ -27591,7 +27556,7 @@
       <c r="T130" s="172"/>
     </row>
     <row r="131" spans="2:24" ht="16.5" customHeight="1">
-      <c r="B131" s="310"/>
+      <c r="B131" s="328"/>
       <c r="C131" s="43" t="s">
         <v>131</v>
       </c>
@@ -27641,7 +27606,7 @@
       <c r="T131" s="172"/>
     </row>
     <row r="132" spans="2:24" ht="16.5" customHeight="1">
-      <c r="B132" s="310"/>
+      <c r="B132" s="328"/>
       <c r="C132" s="22" t="s">
         <v>122</v>
       </c>
@@ -27691,7 +27656,7 @@
       <c r="T132" s="172"/>
     </row>
     <row r="133" spans="2:24" ht="16.5" customHeight="1">
-      <c r="B133" s="310"/>
+      <c r="B133" s="328"/>
       <c r="C133" s="43" t="s">
         <v>119</v>
       </c>
@@ -27741,7 +27706,7 @@
       <c r="T133" s="172"/>
     </row>
     <row r="134" spans="2:24" ht="16.5" customHeight="1">
-      <c r="B134" s="310"/>
+      <c r="B134" s="328"/>
       <c r="C134" s="43" t="s">
         <v>135</v>
       </c>
@@ -27791,7 +27756,7 @@
       <c r="T134" s="172"/>
     </row>
     <row r="135" spans="2:24" ht="16.5" customHeight="1">
-      <c r="B135" s="310"/>
+      <c r="B135" s="328"/>
       <c r="C135" s="43" t="s">
         <v>148</v>
       </c>
@@ -27841,7 +27806,7 @@
       <c r="T135" s="172"/>
     </row>
     <row r="136" spans="2:24" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B136" s="310"/>
+      <c r="B136" s="328"/>
       <c r="C136" s="43" t="s">
         <v>149</v>
       </c>
@@ -27891,7 +27856,7 @@
       <c r="T136" s="172"/>
     </row>
     <row r="137" spans="2:24" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B137" s="311"/>
+      <c r="B137" s="329"/>
       <c r="C137" s="17" t="s">
         <v>11</v>
       </c>
@@ -27951,7 +27916,7 @@
       <c r="X137" s="109"/>
     </row>
     <row r="138" spans="2:24" ht="16.5" customHeight="1">
-      <c r="B138" s="298" t="s">
+      <c r="B138" s="325" t="s">
         <v>141</v>
       </c>
       <c r="C138" s="19" t="s">
@@ -28003,7 +27968,7 @@
       <c r="T138" s="172"/>
     </row>
     <row r="139" spans="2:24" ht="16.5" customHeight="1">
-      <c r="B139" s="299"/>
+      <c r="B139" s="326"/>
       <c r="C139" s="43" t="s">
         <v>310</v>
       </c>
@@ -28053,7 +28018,7 @@
       <c r="T139" s="172"/>
     </row>
     <row r="140" spans="2:24" ht="16.5" customHeight="1">
-      <c r="B140" s="299"/>
+      <c r="B140" s="326"/>
       <c r="C140" s="43" t="s">
         <v>311</v>
       </c>
@@ -28103,7 +28068,7 @@
       <c r="T140" s="172"/>
     </row>
     <row r="141" spans="2:24" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B141" s="299"/>
+      <c r="B141" s="326"/>
       <c r="C141" s="169" t="s">
         <v>312</v>
       </c>
@@ -28143,7 +28108,7 @@
       <c r="T141" s="172"/>
     </row>
     <row r="142" spans="2:24" ht="16.5" customHeight="1">
-      <c r="B142" s="299"/>
+      <c r="B142" s="326"/>
       <c r="C142" s="43" t="s">
         <v>272</v>
       </c>
@@ -28193,7 +28158,7 @@
       <c r="T142" s="172"/>
     </row>
     <row r="143" spans="2:24" ht="16.5" customHeight="1">
-      <c r="B143" s="299"/>
+      <c r="B143" s="326"/>
       <c r="C143" s="22" t="s">
         <v>273</v>
       </c>
@@ -28243,7 +28208,7 @@
       <c r="T143" s="172"/>
     </row>
     <row r="144" spans="2:24" ht="16.5" customHeight="1">
-      <c r="B144" s="299"/>
+      <c r="B144" s="326"/>
       <c r="C144" s="22" t="s">
         <v>313</v>
       </c>
@@ -28293,7 +28258,7 @@
       <c r="T144" s="172"/>
     </row>
     <row r="145" spans="2:24" ht="16.5" customHeight="1">
-      <c r="B145" s="299"/>
+      <c r="B145" s="326"/>
       <c r="C145" s="22" t="s">
         <v>314</v>
       </c>
@@ -28345,7 +28310,7 @@
       </c>
     </row>
     <row r="146" spans="2:24" ht="16.5" customHeight="1">
-      <c r="B146" s="299"/>
+      <c r="B146" s="326"/>
       <c r="C146" s="22" t="s">
         <v>340</v>
       </c>
@@ -28397,7 +28362,7 @@
       </c>
     </row>
     <row r="147" spans="2:24" ht="16.5" customHeight="1">
-      <c r="B147" s="299"/>
+      <c r="B147" s="326"/>
       <c r="C147" s="22" t="s">
         <v>341</v>
       </c>
@@ -28449,7 +28414,7 @@
       </c>
     </row>
     <row r="148" spans="2:24" ht="16.5" customHeight="1">
-      <c r="B148" s="299"/>
+      <c r="B148" s="326"/>
       <c r="C148" s="22" t="s">
         <v>155</v>
       </c>
@@ -28501,49 +28466,49 @@
       <c r="T148" s="172"/>
     </row>
     <row r="149" spans="2:24" ht="16.5" customHeight="1">
-      <c r="B149" s="299"/>
+      <c r="B149" s="326"/>
       <c r="C149" s="22" t="s">
         <v>355</v>
       </c>
       <c r="D149" s="149" t="s">
         <v>108</v>
       </c>
-      <c r="E149" s="292" t="s">
+      <c r="E149" s="333" t="s">
         <v>42</v>
       </c>
-      <c r="F149" s="289">
+      <c r="F149" s="291">
         <f t="shared" si="94"/>
         <v>128</v>
       </c>
-      <c r="G149" s="289">
+      <c r="G149" s="291">
         <f t="shared" si="97"/>
         <v>128</v>
       </c>
-      <c r="H149" s="287"/>
-      <c r="I149" s="287" t="s">
-        <v>1</v>
-      </c>
-      <c r="J149" s="287" t="s">
-        <v>1</v>
-      </c>
-      <c r="K149" s="287"/>
-      <c r="L149" s="287"/>
-      <c r="M149" s="289">
+      <c r="H149" s="289"/>
+      <c r="I149" s="289" t="s">
+        <v>1</v>
+      </c>
+      <c r="J149" s="289" t="s">
+        <v>1</v>
+      </c>
+      <c r="K149" s="289"/>
+      <c r="L149" s="289"/>
+      <c r="M149" s="291">
         <v>8</v>
       </c>
-      <c r="N149" s="289">
+      <c r="N149" s="291">
         <v>8</v>
       </c>
-      <c r="O149" s="289">
-        <v>0</v>
-      </c>
-      <c r="P149" s="289">
-        <v>0</v>
-      </c>
-      <c r="Q149" s="289">
-        <v>0</v>
-      </c>
-      <c r="R149" s="289">
+      <c r="O149" s="291">
+        <v>0</v>
+      </c>
+      <c r="P149" s="291">
+        <v>0</v>
+      </c>
+      <c r="Q149" s="291">
+        <v>0</v>
+      </c>
+      <c r="R149" s="291">
         <f>F149/$F$2</f>
         <v>8</v>
       </c>
@@ -28553,76 +28518,76 @@
       </c>
     </row>
     <row r="150" spans="2:24" ht="16.5" customHeight="1">
-      <c r="B150" s="299"/>
+      <c r="B150" s="326"/>
       <c r="C150" s="22" t="s">
         <v>318</v>
       </c>
       <c r="D150" s="149" t="s">
         <v>108</v>
       </c>
-      <c r="E150" s="313"/>
-      <c r="F150" s="303"/>
-      <c r="G150" s="303"/>
-      <c r="H150" s="306"/>
-      <c r="I150" s="306"/>
-      <c r="J150" s="306"/>
-      <c r="K150" s="306"/>
-      <c r="L150" s="306"/>
-      <c r="M150" s="303"/>
-      <c r="N150" s="303"/>
-      <c r="O150" s="303"/>
-      <c r="P150" s="303"/>
-      <c r="Q150" s="303"/>
-      <c r="R150" s="305"/>
+      <c r="E150" s="334"/>
+      <c r="F150" s="318"/>
+      <c r="G150" s="318"/>
+      <c r="H150" s="290"/>
+      <c r="I150" s="290"/>
+      <c r="J150" s="290"/>
+      <c r="K150" s="290"/>
+      <c r="L150" s="290"/>
+      <c r="M150" s="318"/>
+      <c r="N150" s="318"/>
+      <c r="O150" s="318"/>
+      <c r="P150" s="318"/>
+      <c r="Q150" s="318"/>
+      <c r="R150" s="306"/>
       <c r="S150" s="47"/>
       <c r="T150" s="172" t="s">
         <v>358</v>
       </c>
     </row>
     <row r="151" spans="2:24" ht="16.5" customHeight="1">
-      <c r="B151" s="299"/>
+      <c r="B151" s="326"/>
       <c r="C151" s="22" t="s">
         <v>356</v>
       </c>
       <c r="D151" s="149" t="s">
         <v>108</v>
       </c>
-      <c r="E151" s="292" t="s">
+      <c r="E151" s="333" t="s">
         <v>42</v>
       </c>
-      <c r="F151" s="289">
+      <c r="F151" s="291">
         <f t="shared" ref="F151" si="104">SUM(M151:Q151)*$F$1</f>
         <v>192</v>
       </c>
-      <c r="G151" s="289">
+      <c r="G151" s="291">
         <f t="shared" ref="G151" si="105">F151</f>
         <v>192</v>
       </c>
-      <c r="H151" s="287"/>
-      <c r="I151" s="287" t="s">
-        <v>1</v>
-      </c>
-      <c r="J151" s="287"/>
-      <c r="K151" s="287" t="s">
-        <v>1</v>
-      </c>
-      <c r="L151" s="287"/>
-      <c r="M151" s="289">
-        <v>0</v>
-      </c>
-      <c r="N151" s="289">
-        <v>0</v>
-      </c>
-      <c r="O151" s="289">
+      <c r="H151" s="289"/>
+      <c r="I151" s="289" t="s">
+        <v>1</v>
+      </c>
+      <c r="J151" s="289"/>
+      <c r="K151" s="289" t="s">
+        <v>1</v>
+      </c>
+      <c r="L151" s="289"/>
+      <c r="M151" s="291">
+        <v>0</v>
+      </c>
+      <c r="N151" s="291">
+        <v>0</v>
+      </c>
+      <c r="O151" s="291">
         <v>12</v>
       </c>
-      <c r="P151" s="289">
+      <c r="P151" s="291">
         <v>12</v>
       </c>
-      <c r="Q151" s="289">
-        <v>0</v>
-      </c>
-      <c r="R151" s="302">
+      <c r="Q151" s="291">
+        <v>0</v>
+      </c>
+      <c r="R151" s="322">
         <f>F151/$F$2/3*2</f>
         <v>8</v>
       </c>
@@ -28632,34 +28597,34 @@
       </c>
     </row>
     <row r="152" spans="2:24" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B152" s="299"/>
+      <c r="B152" s="326"/>
       <c r="C152" s="22" t="s">
         <v>319</v>
       </c>
       <c r="D152" s="149" t="s">
         <v>108</v>
       </c>
-      <c r="E152" s="313"/>
-      <c r="F152" s="303"/>
-      <c r="G152" s="303"/>
-      <c r="H152" s="306"/>
-      <c r="I152" s="306"/>
-      <c r="J152" s="306"/>
-      <c r="K152" s="314"/>
-      <c r="L152" s="306"/>
-      <c r="M152" s="303"/>
-      <c r="N152" s="303"/>
-      <c r="O152" s="303"/>
-      <c r="P152" s="303"/>
-      <c r="Q152" s="303"/>
-      <c r="R152" s="348"/>
+      <c r="E152" s="334"/>
+      <c r="F152" s="318"/>
+      <c r="G152" s="318"/>
+      <c r="H152" s="290"/>
+      <c r="I152" s="290"/>
+      <c r="J152" s="290"/>
+      <c r="K152" s="343"/>
+      <c r="L152" s="290"/>
+      <c r="M152" s="318"/>
+      <c r="N152" s="318"/>
+      <c r="O152" s="318"/>
+      <c r="P152" s="318"/>
+      <c r="Q152" s="318"/>
+      <c r="R152" s="344"/>
       <c r="S152" s="47"/>
       <c r="T152" s="172" t="s">
         <v>358</v>
       </c>
     </row>
     <row r="153" spans="2:24" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B153" s="300"/>
+      <c r="B153" s="327"/>
       <c r="C153" s="33" t="s">
         <v>11</v>
       </c>
@@ -28749,14 +28714,14 @@
       <c r="I155" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="J155" s="329" t="s">
+      <c r="J155" s="302" t="s">
         <v>8</v>
       </c>
-      <c r="K155" s="330"/>
-      <c r="L155" s="338" t="s">
+      <c r="K155" s="303"/>
+      <c r="L155" s="311" t="s">
         <v>48</v>
       </c>
-      <c r="M155" s="339"/>
+      <c r="M155" s="312"/>
       <c r="N155" s="84" t="s">
         <v>49</v>
       </c>
@@ -28922,6 +28887,64 @@
     </row>
   </sheetData>
   <mergeCells count="74">
+    <mergeCell ref="M151:M152"/>
+    <mergeCell ref="J151:J152"/>
+    <mergeCell ref="J88:K88"/>
+    <mergeCell ref="E96:E97"/>
+    <mergeCell ref="M34:Q34"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="D88:D89"/>
+    <mergeCell ref="F34:F35"/>
+    <mergeCell ref="G34:G35"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="L34:L35"/>
+    <mergeCell ref="R5:R6"/>
+    <mergeCell ref="B7:B26"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="M5:Q5"/>
+    <mergeCell ref="R34:R35"/>
+    <mergeCell ref="B36:B65"/>
+    <mergeCell ref="B66:B79"/>
+    <mergeCell ref="R88:R89"/>
+    <mergeCell ref="B90:B115"/>
+    <mergeCell ref="J81:K81"/>
+    <mergeCell ref="L81:M81"/>
+    <mergeCell ref="B88:B89"/>
+    <mergeCell ref="C88:C89"/>
+    <mergeCell ref="E88:E89"/>
+    <mergeCell ref="F88:F89"/>
+    <mergeCell ref="G88:G89"/>
+    <mergeCell ref="H88:I88"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="B138:B153"/>
+    <mergeCell ref="L88:L89"/>
+    <mergeCell ref="M88:Q88"/>
+    <mergeCell ref="B116:B137"/>
+    <mergeCell ref="K151:K152"/>
+    <mergeCell ref="L151:L152"/>
+    <mergeCell ref="H151:H152"/>
+    <mergeCell ref="I151:I152"/>
+    <mergeCell ref="O149:O150"/>
+    <mergeCell ref="Q149:Q150"/>
+    <mergeCell ref="G151:G152"/>
+    <mergeCell ref="F151:F152"/>
+    <mergeCell ref="J149:J150"/>
+    <mergeCell ref="K149:K150"/>
+    <mergeCell ref="L149:L150"/>
+    <mergeCell ref="M149:M150"/>
     <mergeCell ref="J155:K155"/>
     <mergeCell ref="L155:M155"/>
     <mergeCell ref="R151:R152"/>
@@ -28938,64 +28961,6 @@
     <mergeCell ref="O151:O152"/>
     <mergeCell ref="Q151:Q152"/>
     <mergeCell ref="P151:P152"/>
-    <mergeCell ref="B138:B153"/>
-    <mergeCell ref="L88:L89"/>
-    <mergeCell ref="M88:Q88"/>
-    <mergeCell ref="B116:B137"/>
-    <mergeCell ref="K151:K152"/>
-    <mergeCell ref="L151:L152"/>
-    <mergeCell ref="H151:H152"/>
-    <mergeCell ref="I151:I152"/>
-    <mergeCell ref="O149:O150"/>
-    <mergeCell ref="Q149:Q150"/>
-    <mergeCell ref="G151:G152"/>
-    <mergeCell ref="F151:F152"/>
-    <mergeCell ref="J149:J150"/>
-    <mergeCell ref="K149:K150"/>
-    <mergeCell ref="L149:L150"/>
-    <mergeCell ref="M149:M150"/>
-    <mergeCell ref="R34:R35"/>
-    <mergeCell ref="B36:B65"/>
-    <mergeCell ref="B66:B79"/>
-    <mergeCell ref="R88:R89"/>
-    <mergeCell ref="B90:B115"/>
-    <mergeCell ref="J81:K81"/>
-    <mergeCell ref="L81:M81"/>
-    <mergeCell ref="B88:B89"/>
-    <mergeCell ref="C88:C89"/>
-    <mergeCell ref="E88:E89"/>
-    <mergeCell ref="F88:F89"/>
-    <mergeCell ref="G88:G89"/>
-    <mergeCell ref="H88:I88"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="R5:R6"/>
-    <mergeCell ref="B7:B26"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="M5:Q5"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="L28:M28"/>
-    <mergeCell ref="D88:D89"/>
-    <mergeCell ref="F34:F35"/>
-    <mergeCell ref="G34:G35"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="L34:L35"/>
-    <mergeCell ref="M151:M152"/>
-    <mergeCell ref="J151:J152"/>
-    <mergeCell ref="J88:K88"/>
-    <mergeCell ref="E96:E97"/>
-    <mergeCell ref="M34:Q34"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.78740157480314965" right="0.78740157480314965" top="0.19685039370078741" bottom="0.23622047244094491" header="0" footer="0"/>
@@ -29009,7 +28974,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
     <pageSetUpPr fitToPage="1"/>
@@ -29089,53 +29054,53 @@
       <c r="R5" s="3"/>
     </row>
     <row r="6" spans="1:18" ht="18" customHeight="1" thickBot="1">
-      <c r="B6" s="316" t="s">
+      <c r="B6" s="315" t="s">
         <v>2</v>
       </c>
       <c r="C6" s="349" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="321" t="s">
+      <c r="D6" s="338" t="s">
         <v>106</v>
       </c>
-      <c r="E6" s="316" t="s">
-        <v>4</v>
-      </c>
-      <c r="F6" s="323" t="s">
+      <c r="E6" s="315" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="336" t="s">
         <v>51</v>
       </c>
-      <c r="G6" s="323" t="s">
+      <c r="G6" s="336" t="s">
         <v>52</v>
       </c>
       <c r="H6" s="307" t="s">
         <v>5</v>
       </c>
-      <c r="I6" s="325"/>
+      <c r="I6" s="308"/>
       <c r="J6" s="307" t="s">
         <v>6</v>
       </c>
-      <c r="K6" s="325"/>
-      <c r="L6" s="346" t="s">
+      <c r="K6" s="308"/>
+      <c r="L6" s="345" t="s">
         <v>26</v>
       </c>
       <c r="M6" s="307" t="s">
         <v>7</v>
       </c>
-      <c r="N6" s="308"/>
-      <c r="O6" s="308"/>
-      <c r="P6" s="308"/>
-      <c r="Q6" s="325"/>
-      <c r="R6" s="316" t="s">
+      <c r="N6" s="313"/>
+      <c r="O6" s="313"/>
+      <c r="P6" s="313"/>
+      <c r="Q6" s="308"/>
+      <c r="R6" s="315" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:18" ht="18" customHeight="1" thickBot="1">
-      <c r="B7" s="317"/>
+      <c r="B7" s="316"/>
       <c r="C7" s="350"/>
-      <c r="D7" s="322"/>
-      <c r="E7" s="317"/>
-      <c r="F7" s="324"/>
-      <c r="G7" s="324"/>
+      <c r="D7" s="339"/>
+      <c r="E7" s="316"/>
+      <c r="F7" s="337"/>
+      <c r="G7" s="337"/>
       <c r="H7" s="90" t="s">
         <v>8</v>
       </c>
@@ -29148,7 +29113,7 @@
       <c r="K7" s="60" t="s">
         <v>30</v>
       </c>
-      <c r="L7" s="347"/>
+      <c r="L7" s="346"/>
       <c r="M7" s="10" t="s">
         <v>22</v>
       </c>
@@ -29164,10 +29129,10 @@
       <c r="Q7" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="R7" s="317"/>
+      <c r="R7" s="316"/>
     </row>
     <row r="8" spans="1:18" ht="16.5" customHeight="1">
-      <c r="B8" s="310" t="s">
+      <c r="B8" s="328" t="s">
         <v>15</v>
       </c>
       <c r="C8" s="19" t="s">
@@ -29217,7 +29182,7 @@
       </c>
     </row>
     <row r="9" spans="1:18" ht="16.5" customHeight="1">
-      <c r="B9" s="310"/>
+      <c r="B9" s="328"/>
       <c r="C9" s="43" t="s">
         <v>320</v>
       </c>
@@ -29265,7 +29230,7 @@
       </c>
     </row>
     <row r="10" spans="1:18" ht="16.5" customHeight="1">
-      <c r="B10" s="310"/>
+      <c r="B10" s="328"/>
       <c r="C10" s="43" t="s">
         <v>244</v>
       </c>
@@ -29313,7 +29278,7 @@
       </c>
     </row>
     <row r="11" spans="1:18" ht="16.5" customHeight="1">
-      <c r="B11" s="310"/>
+      <c r="B11" s="328"/>
       <c r="C11" s="43" t="s">
         <v>245</v>
       </c>
@@ -29361,7 +29326,7 @@
       </c>
     </row>
     <row r="12" spans="1:18" ht="16.5" customHeight="1">
-      <c r="B12" s="310"/>
+      <c r="B12" s="328"/>
       <c r="C12" s="43" t="s">
         <v>321</v>
       </c>
@@ -29409,7 +29374,7 @@
       </c>
     </row>
     <row r="13" spans="1:18" ht="16.5" customHeight="1">
-      <c r="B13" s="310"/>
+      <c r="B13" s="328"/>
       <c r="C13" s="43" t="s">
         <v>322</v>
       </c>
@@ -29457,7 +29422,7 @@
       </c>
     </row>
     <row r="14" spans="1:18" ht="16.5" customHeight="1">
-      <c r="B14" s="310"/>
+      <c r="B14" s="328"/>
       <c r="C14" s="43" t="s">
         <v>248</v>
       </c>
@@ -29505,7 +29470,7 @@
       </c>
     </row>
     <row r="15" spans="1:18" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B15" s="310"/>
+      <c r="B15" s="328"/>
       <c r="C15" s="147" t="s">
         <v>249</v>
       </c>
@@ -29553,7 +29518,7 @@
       </c>
     </row>
     <row r="16" spans="1:18" ht="16.5" customHeight="1">
-      <c r="B16" s="310"/>
+      <c r="B16" s="328"/>
       <c r="C16" s="19" t="s">
         <v>288</v>
       </c>
@@ -29601,7 +29566,7 @@
       </c>
     </row>
     <row r="17" spans="2:19" ht="16.5" customHeight="1">
-      <c r="B17" s="310"/>
+      <c r="B17" s="328"/>
       <c r="C17" s="43" t="s">
         <v>289</v>
       </c>
@@ -29649,7 +29614,7 @@
       </c>
     </row>
     <row r="18" spans="2:19" ht="16.5" customHeight="1">
-      <c r="B18" s="310"/>
+      <c r="B18" s="328"/>
       <c r="C18" s="22" t="s">
         <v>266</v>
       </c>
@@ -29697,7 +29662,7 @@
       </c>
     </row>
     <row r="19" spans="2:19" ht="16.5" customHeight="1">
-      <c r="B19" s="310"/>
+      <c r="B19" s="328"/>
       <c r="C19" s="22" t="s">
         <v>268</v>
       </c>
@@ -29745,7 +29710,7 @@
       </c>
     </row>
     <row r="20" spans="2:19" ht="16.5" customHeight="1">
-      <c r="B20" s="310"/>
+      <c r="B20" s="328"/>
       <c r="C20" s="22" t="s">
         <v>269</v>
       </c>
@@ -29793,7 +29758,7 @@
       </c>
     </row>
     <row r="21" spans="2:19" ht="16.5" customHeight="1">
-      <c r="B21" s="310"/>
+      <c r="B21" s="328"/>
       <c r="C21" s="43" t="s">
         <v>77</v>
       </c>
@@ -29841,7 +29806,7 @@
       </c>
     </row>
     <row r="22" spans="2:19" ht="16.5" customHeight="1">
-      <c r="B22" s="310"/>
+      <c r="B22" s="328"/>
       <c r="C22" s="43" t="s">
         <v>78</v>
       </c>
@@ -29889,7 +29854,7 @@
       </c>
     </row>
     <row r="23" spans="2:19" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B23" s="310"/>
+      <c r="B23" s="328"/>
       <c r="C23" s="43" t="s">
         <v>121</v>
       </c>
@@ -29937,7 +29902,7 @@
       </c>
     </row>
     <row r="24" spans="2:19" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B24" s="311"/>
+      <c r="B24" s="329"/>
       <c r="C24" s="17" t="s">
         <v>11</v>
       </c>
@@ -29992,7 +29957,7 @@
       <c r="S24" s="6"/>
     </row>
     <row r="25" spans="2:19" ht="16.5" customHeight="1">
-      <c r="B25" s="312" t="s">
+      <c r="B25" s="330" t="s">
         <v>63</v>
       </c>
       <c r="C25" s="19" t="s">
@@ -30042,7 +30007,7 @@
       </c>
     </row>
     <row r="26" spans="2:19" ht="16.5" customHeight="1">
-      <c r="B26" s="310"/>
+      <c r="B26" s="328"/>
       <c r="C26" s="43" t="s">
         <v>323</v>
       </c>
@@ -30090,7 +30055,7 @@
       </c>
     </row>
     <row r="27" spans="2:19" ht="16.5" customHeight="1">
-      <c r="B27" s="310"/>
+      <c r="B27" s="328"/>
       <c r="C27" s="43" t="s">
         <v>252</v>
       </c>
@@ -30138,7 +30103,7 @@
       </c>
     </row>
     <row r="28" spans="2:19" ht="16.5" customHeight="1">
-      <c r="B28" s="310"/>
+      <c r="B28" s="328"/>
       <c r="C28" s="43" t="s">
         <v>253</v>
       </c>
@@ -30186,7 +30151,7 @@
       </c>
     </row>
     <row r="29" spans="2:19" ht="16.5" customHeight="1">
-      <c r="B29" s="310"/>
+      <c r="B29" s="328"/>
       <c r="C29" s="43" t="s">
         <v>284</v>
       </c>
@@ -30234,7 +30199,7 @@
       </c>
     </row>
     <row r="30" spans="2:19" ht="16.5" customHeight="1">
-      <c r="B30" s="310"/>
+      <c r="B30" s="328"/>
       <c r="C30" s="43" t="s">
         <v>324</v>
       </c>
@@ -30282,7 +30247,7 @@
       </c>
     </row>
     <row r="31" spans="2:19" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B31" s="310"/>
+      <c r="B31" s="328"/>
       <c r="C31" s="147" t="s">
         <v>261</v>
       </c>
@@ -30330,7 +30295,7 @@
       </c>
     </row>
     <row r="32" spans="2:19" ht="16.5" customHeight="1">
-      <c r="B32" s="310"/>
+      <c r="B32" s="328"/>
       <c r="C32" s="19" t="s">
         <v>270</v>
       </c>
@@ -30378,7 +30343,7 @@
       </c>
     </row>
     <row r="33" spans="1:19" ht="16.5" customHeight="1">
-      <c r="B33" s="310"/>
+      <c r="B33" s="328"/>
       <c r="C33" s="43" t="s">
         <v>271</v>
       </c>
@@ -30426,7 +30391,7 @@
       </c>
     </row>
     <row r="34" spans="1:19" ht="16.5" customHeight="1">
-      <c r="B34" s="310"/>
+      <c r="B34" s="328"/>
       <c r="C34" s="22" t="s">
         <v>122</v>
       </c>
@@ -30474,7 +30439,7 @@
       </c>
     </row>
     <row r="35" spans="1:19" ht="16.5" customHeight="1">
-      <c r="B35" s="310"/>
+      <c r="B35" s="328"/>
       <c r="C35" s="22" t="s">
         <v>119</v>
       </c>
@@ -30522,7 +30487,7 @@
       </c>
     </row>
     <row r="36" spans="1:19" ht="16.5" customHeight="1">
-      <c r="B36" s="310"/>
+      <c r="B36" s="328"/>
       <c r="C36" s="22" t="s">
         <v>267</v>
       </c>
@@ -30570,7 +30535,7 @@
       </c>
     </row>
     <row r="37" spans="1:19" ht="16.5" customHeight="1">
-      <c r="B37" s="310"/>
+      <c r="B37" s="328"/>
       <c r="C37" s="22" t="s">
         <v>104</v>
       </c>
@@ -30618,7 +30583,7 @@
       </c>
     </row>
     <row r="38" spans="1:19" ht="16.5" customHeight="1">
-      <c r="B38" s="310"/>
+      <c r="B38" s="328"/>
       <c r="C38" s="22" t="s">
         <v>101</v>
       </c>
@@ -30666,7 +30631,7 @@
       </c>
     </row>
     <row r="39" spans="1:19" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B39" s="310"/>
+      <c r="B39" s="328"/>
       <c r="C39" s="27" t="s">
         <v>105</v>
       </c>
@@ -30714,7 +30679,7 @@
       </c>
     </row>
     <row r="40" spans="1:19" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B40" s="311"/>
+      <c r="B40" s="329"/>
       <c r="C40" s="17" t="s">
         <v>11</v>
       </c>
@@ -30797,14 +30762,14 @@
       <c r="I42" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="J42" s="329" t="s">
+      <c r="J42" s="302" t="s">
         <v>8</v>
       </c>
-      <c r="K42" s="330"/>
-      <c r="L42" s="338" t="s">
+      <c r="K42" s="303"/>
+      <c r="L42" s="311" t="s">
         <v>48</v>
       </c>
-      <c r="M42" s="339"/>
+      <c r="M42" s="312"/>
       <c r="N42" s="84" t="s">
         <v>49</v>
       </c>
@@ -30949,53 +30914,53 @@
       <c r="R48" s="3"/>
     </row>
     <row r="49" spans="2:18" ht="18" customHeight="1" thickBot="1">
-      <c r="B49" s="316" t="s">
+      <c r="B49" s="315" t="s">
         <v>2</v>
       </c>
       <c r="C49" s="349" t="s">
         <v>3</v>
       </c>
-      <c r="D49" s="321" t="s">
+      <c r="D49" s="338" t="s">
         <v>106</v>
       </c>
-      <c r="E49" s="316" t="s">
-        <v>4</v>
-      </c>
-      <c r="F49" s="323" t="s">
+      <c r="E49" s="315" t="s">
+        <v>4</v>
+      </c>
+      <c r="F49" s="336" t="s">
         <v>51</v>
       </c>
-      <c r="G49" s="323" t="s">
+      <c r="G49" s="336" t="s">
         <v>52</v>
       </c>
       <c r="H49" s="307" t="s">
         <v>5</v>
       </c>
-      <c r="I49" s="325"/>
+      <c r="I49" s="308"/>
       <c r="J49" s="307" t="s">
         <v>6</v>
       </c>
-      <c r="K49" s="325"/>
-      <c r="L49" s="346" t="s">
+      <c r="K49" s="308"/>
+      <c r="L49" s="345" t="s">
         <v>26</v>
       </c>
       <c r="M49" s="307" t="s">
         <v>7</v>
       </c>
-      <c r="N49" s="308"/>
-      <c r="O49" s="308"/>
-      <c r="P49" s="308"/>
-      <c r="Q49" s="325"/>
-      <c r="R49" s="316" t="s">
+      <c r="N49" s="313"/>
+      <c r="O49" s="313"/>
+      <c r="P49" s="313"/>
+      <c r="Q49" s="308"/>
+      <c r="R49" s="315" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="50" spans="2:18" ht="18" customHeight="1" thickBot="1">
-      <c r="B50" s="317"/>
+      <c r="B50" s="316"/>
       <c r="C50" s="350"/>
-      <c r="D50" s="322"/>
-      <c r="E50" s="317"/>
-      <c r="F50" s="324"/>
-      <c r="G50" s="324"/>
+      <c r="D50" s="339"/>
+      <c r="E50" s="316"/>
+      <c r="F50" s="337"/>
+      <c r="G50" s="337"/>
       <c r="H50" s="90" t="s">
         <v>8</v>
       </c>
@@ -31008,7 +30973,7 @@
       <c r="K50" s="60" t="s">
         <v>30</v>
       </c>
-      <c r="L50" s="347"/>
+      <c r="L50" s="346"/>
       <c r="M50" s="10" t="s">
         <v>22</v>
       </c>
@@ -31024,10 +30989,10 @@
       <c r="Q50" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="R50" s="317"/>
+      <c r="R50" s="316"/>
     </row>
     <row r="51" spans="2:18" ht="16.5" customHeight="1">
-      <c r="B51" s="310" t="s">
+      <c r="B51" s="328" t="s">
         <v>18</v>
       </c>
       <c r="C51" s="19" t="s">
@@ -31077,7 +31042,7 @@
       </c>
     </row>
     <row r="52" spans="2:18" ht="16.5" customHeight="1">
-      <c r="B52" s="310"/>
+      <c r="B52" s="328"/>
       <c r="C52" s="43" t="s">
         <v>320</v>
       </c>
@@ -31125,7 +31090,7 @@
       </c>
     </row>
     <row r="53" spans="2:18" ht="16.5" customHeight="1">
-      <c r="B53" s="310"/>
+      <c r="B53" s="328"/>
       <c r="C53" s="43" t="s">
         <v>244</v>
       </c>
@@ -31173,7 +31138,7 @@
       </c>
     </row>
     <row r="54" spans="2:18" ht="16.5" customHeight="1">
-      <c r="B54" s="310"/>
+      <c r="B54" s="328"/>
       <c r="C54" s="43" t="s">
         <v>245</v>
       </c>
@@ -31221,7 +31186,7 @@
       </c>
     </row>
     <row r="55" spans="2:18" ht="16.5" customHeight="1">
-      <c r="B55" s="310"/>
+      <c r="B55" s="328"/>
       <c r="C55" s="43" t="s">
         <v>365</v>
       </c>
@@ -31269,7 +31234,7 @@
       </c>
     </row>
     <row r="56" spans="2:18" ht="16.5" customHeight="1">
-      <c r="B56" s="310"/>
+      <c r="B56" s="328"/>
       <c r="C56" s="43" t="s">
         <v>322</v>
       </c>
@@ -31317,7 +31282,7 @@
       </c>
     </row>
     <row r="57" spans="2:18" ht="16.5" customHeight="1">
-      <c r="B57" s="310"/>
+      <c r="B57" s="328"/>
       <c r="C57" s="43" t="s">
         <v>248</v>
       </c>
@@ -31365,7 +31330,7 @@
       </c>
     </row>
     <row r="58" spans="2:18" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B58" s="310"/>
+      <c r="B58" s="328"/>
       <c r="C58" s="147" t="s">
         <v>249</v>
       </c>
@@ -31413,7 +31378,7 @@
       </c>
     </row>
     <row r="59" spans="2:18" ht="16.5" customHeight="1">
-      <c r="B59" s="310"/>
+      <c r="B59" s="328"/>
       <c r="C59" s="19" t="s">
         <v>288</v>
       </c>
@@ -31461,7 +31426,7 @@
       </c>
     </row>
     <row r="60" spans="2:18" ht="16.5" customHeight="1">
-      <c r="B60" s="310"/>
+      <c r="B60" s="328"/>
       <c r="C60" s="43" t="s">
         <v>289</v>
       </c>
@@ -31509,7 +31474,7 @@
       </c>
     </row>
     <row r="61" spans="2:18" ht="16.5" customHeight="1">
-      <c r="B61" s="310"/>
+      <c r="B61" s="328"/>
       <c r="C61" s="22" t="s">
         <v>266</v>
       </c>
@@ -31557,7 +31522,7 @@
       </c>
     </row>
     <row r="62" spans="2:18" ht="16.5" customHeight="1">
-      <c r="B62" s="310"/>
+      <c r="B62" s="328"/>
       <c r="C62" s="22" t="s">
         <v>268</v>
       </c>
@@ -31605,7 +31570,7 @@
       </c>
     </row>
     <row r="63" spans="2:18" ht="16.5" customHeight="1">
-      <c r="B63" s="310"/>
+      <c r="B63" s="328"/>
       <c r="C63" s="22" t="s">
         <v>269</v>
       </c>
@@ -31653,7 +31618,7 @@
       </c>
     </row>
     <row r="64" spans="2:18" ht="16.5" customHeight="1">
-      <c r="B64" s="310"/>
+      <c r="B64" s="328"/>
       <c r="C64" s="43" t="s">
         <v>77</v>
       </c>
@@ -31701,7 +31666,7 @@
       </c>
     </row>
     <row r="65" spans="2:19" ht="16.5" customHeight="1">
-      <c r="B65" s="310"/>
+      <c r="B65" s="328"/>
       <c r="C65" s="43" t="s">
         <v>78</v>
       </c>
@@ -31749,7 +31714,7 @@
       </c>
     </row>
     <row r="66" spans="2:19" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B66" s="310"/>
+      <c r="B66" s="328"/>
       <c r="C66" s="43" t="s">
         <v>121</v>
       </c>
@@ -31797,7 +31762,7 @@
       </c>
     </row>
     <row r="67" spans="2:19" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B67" s="311"/>
+      <c r="B67" s="329"/>
       <c r="C67" s="17" t="s">
         <v>11</v>
       </c>
@@ -31852,7 +31817,7 @@
       <c r="S67" s="6"/>
     </row>
     <row r="68" spans="2:19" ht="16.5" customHeight="1">
-      <c r="B68" s="312" t="s">
+      <c r="B68" s="330" t="s">
         <v>40</v>
       </c>
       <c r="C68" s="19" t="s">
@@ -31902,7 +31867,7 @@
       </c>
     </row>
     <row r="69" spans="2:19" ht="16.5" customHeight="1">
-      <c r="B69" s="310"/>
+      <c r="B69" s="328"/>
       <c r="C69" s="43" t="s">
         <v>323</v>
       </c>
@@ -31950,7 +31915,7 @@
       </c>
     </row>
     <row r="70" spans="2:19" ht="16.5" customHeight="1">
-      <c r="B70" s="310"/>
+      <c r="B70" s="328"/>
       <c r="C70" s="43" t="s">
         <v>252</v>
       </c>
@@ -31998,7 +31963,7 @@
       </c>
     </row>
     <row r="71" spans="2:19" ht="16.5" customHeight="1">
-      <c r="B71" s="310"/>
+      <c r="B71" s="328"/>
       <c r="C71" s="43" t="s">
         <v>253</v>
       </c>
@@ -32046,7 +32011,7 @@
       </c>
     </row>
     <row r="72" spans="2:19" ht="16.5" customHeight="1">
-      <c r="B72" s="310"/>
+      <c r="B72" s="328"/>
       <c r="C72" s="43" t="s">
         <v>284</v>
       </c>
@@ -32094,7 +32059,7 @@
       </c>
     </row>
     <row r="73" spans="2:19" ht="16.5" customHeight="1">
-      <c r="B73" s="310"/>
+      <c r="B73" s="328"/>
       <c r="C73" s="43" t="s">
         <v>324</v>
       </c>
@@ -32142,7 +32107,7 @@
       </c>
     </row>
     <row r="74" spans="2:19" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B74" s="310"/>
+      <c r="B74" s="328"/>
       <c r="C74" s="147" t="s">
         <v>261</v>
       </c>
@@ -32190,7 +32155,7 @@
       </c>
     </row>
     <row r="75" spans="2:19" ht="16.5" customHeight="1">
-      <c r="B75" s="310"/>
+      <c r="B75" s="328"/>
       <c r="C75" s="19" t="s">
         <v>270</v>
       </c>
@@ -32238,7 +32203,7 @@
       </c>
     </row>
     <row r="76" spans="2:19" ht="16.5" customHeight="1">
-      <c r="B76" s="310"/>
+      <c r="B76" s="328"/>
       <c r="C76" s="43" t="s">
         <v>271</v>
       </c>
@@ -32286,7 +32251,7 @@
       </c>
     </row>
     <row r="77" spans="2:19" ht="16.5" customHeight="1">
-      <c r="B77" s="310"/>
+      <c r="B77" s="328"/>
       <c r="C77" s="22" t="s">
         <v>122</v>
       </c>
@@ -32334,7 +32299,7 @@
       </c>
     </row>
     <row r="78" spans="2:19" ht="16.5" customHeight="1">
-      <c r="B78" s="310"/>
+      <c r="B78" s="328"/>
       <c r="C78" s="22" t="s">
         <v>119</v>
       </c>
@@ -32382,7 +32347,7 @@
       </c>
     </row>
     <row r="79" spans="2:19" ht="16.5" customHeight="1">
-      <c r="B79" s="310"/>
+      <c r="B79" s="328"/>
       <c r="C79" s="22" t="s">
         <v>267</v>
       </c>
@@ -32430,7 +32395,7 @@
       </c>
     </row>
     <row r="80" spans="2:19" ht="16.5" customHeight="1">
-      <c r="B80" s="310"/>
+      <c r="B80" s="328"/>
       <c r="C80" s="22" t="s">
         <v>104</v>
       </c>
@@ -32478,7 +32443,7 @@
       </c>
     </row>
     <row r="81" spans="2:19" ht="16.5" customHeight="1">
-      <c r="B81" s="310"/>
+      <c r="B81" s="328"/>
       <c r="C81" s="22" t="s">
         <v>101</v>
       </c>
@@ -32526,7 +32491,7 @@
       </c>
     </row>
     <row r="82" spans="2:19" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B82" s="310"/>
+      <c r="B82" s="328"/>
       <c r="C82" s="27" t="s">
         <v>105</v>
       </c>
@@ -32575,7 +32540,7 @@
       <c r="S82" s="6"/>
     </row>
     <row r="83" spans="2:19" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B83" s="311"/>
+      <c r="B83" s="329"/>
       <c r="C83" s="17" t="s">
         <v>11</v>
       </c>
@@ -32630,7 +32595,7 @@
       <c r="S83" s="6"/>
     </row>
     <row r="84" spans="2:19" ht="16.5" customHeight="1">
-      <c r="B84" s="298" t="s">
+      <c r="B84" s="325" t="s">
         <v>45</v>
       </c>
       <c r="C84" s="19" t="s">
@@ -32680,7 +32645,7 @@
       </c>
     </row>
     <row r="85" spans="2:19" ht="16.5" customHeight="1">
-      <c r="B85" s="299"/>
+      <c r="B85" s="326"/>
       <c r="C85" s="43" t="s">
         <v>325</v>
       </c>
@@ -32728,7 +32693,7 @@
       </c>
     </row>
     <row r="86" spans="2:19" ht="16.5" customHeight="1">
-      <c r="B86" s="299"/>
+      <c r="B86" s="326"/>
       <c r="C86" s="43" t="s">
         <v>147</v>
       </c>
@@ -32776,7 +32741,7 @@
       </c>
     </row>
     <row r="87" spans="2:19" ht="16.5" customHeight="1">
-      <c r="B87" s="299"/>
+      <c r="B87" s="326"/>
       <c r="C87" s="43" t="s">
         <v>262</v>
       </c>
@@ -32824,7 +32789,7 @@
       </c>
     </row>
     <row r="88" spans="2:19" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B88" s="299"/>
+      <c r="B88" s="326"/>
       <c r="C88" s="147" t="s">
         <v>62</v>
       </c>
@@ -32872,7 +32837,7 @@
       </c>
     </row>
     <row r="89" spans="2:19" ht="16.5" customHeight="1">
-      <c r="B89" s="299"/>
+      <c r="B89" s="326"/>
       <c r="C89" s="19" t="s">
         <v>326</v>
       </c>
@@ -32920,7 +32885,7 @@
       </c>
     </row>
     <row r="90" spans="2:19" ht="16.5" customHeight="1">
-      <c r="B90" s="299"/>
+      <c r="B90" s="326"/>
       <c r="C90" s="43" t="s">
         <v>327</v>
       </c>
@@ -32968,7 +32933,7 @@
       </c>
     </row>
     <row r="91" spans="2:19" ht="16.5" customHeight="1">
-      <c r="B91" s="299"/>
+      <c r="B91" s="326"/>
       <c r="C91" s="22" t="s">
         <v>124</v>
       </c>
@@ -33016,7 +32981,7 @@
       </c>
     </row>
     <row r="92" spans="2:19" ht="16.5" customHeight="1">
-      <c r="B92" s="299"/>
+      <c r="B92" s="326"/>
       <c r="C92" s="22" t="s">
         <v>127</v>
       </c>
@@ -33064,7 +33029,7 @@
       </c>
     </row>
     <row r="93" spans="2:19" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B93" s="299"/>
+      <c r="B93" s="326"/>
       <c r="C93" s="27" t="s">
         <v>126</v>
       </c>
@@ -33113,7 +33078,7 @@
       <c r="S93" s="6"/>
     </row>
     <row r="94" spans="2:19" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B94" s="300"/>
+      <c r="B94" s="327"/>
       <c r="C94" s="33" t="s">
         <v>11</v>
       </c>
@@ -33196,14 +33161,14 @@
       <c r="I96" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="J96" s="329" t="s">
+      <c r="J96" s="302" t="s">
         <v>8</v>
       </c>
-      <c r="K96" s="330"/>
-      <c r="L96" s="338" t="s">
+      <c r="K96" s="303"/>
+      <c r="L96" s="311" t="s">
         <v>48</v>
       </c>
-      <c r="M96" s="339"/>
+      <c r="M96" s="312"/>
       <c r="N96" s="84" t="s">
         <v>49</v>
       </c>
@@ -33356,26 +33321,6 @@
     <row r="101" spans="2:18" ht="16.5" customHeight="1"/>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="J42:K42"/>
-    <mergeCell ref="L42:M42"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="M6:Q6"/>
-    <mergeCell ref="R6:R7"/>
-    <mergeCell ref="B8:B24"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="B25:B40"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="J96:K96"/>
-    <mergeCell ref="L96:M96"/>
-    <mergeCell ref="B84:B94"/>
-    <mergeCell ref="L49:L50"/>
-    <mergeCell ref="M49:Q49"/>
     <mergeCell ref="R49:R50"/>
     <mergeCell ref="B51:B67"/>
     <mergeCell ref="B68:B83"/>
@@ -33387,10 +33332,30 @@
     <mergeCell ref="H49:I49"/>
     <mergeCell ref="J49:K49"/>
     <mergeCell ref="D49:D50"/>
+    <mergeCell ref="J96:K96"/>
+    <mergeCell ref="L96:M96"/>
+    <mergeCell ref="B84:B94"/>
+    <mergeCell ref="L49:L50"/>
+    <mergeCell ref="M49:Q49"/>
+    <mergeCell ref="R6:R7"/>
+    <mergeCell ref="B8:B24"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="B25:B40"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="J42:K42"/>
+    <mergeCell ref="L42:M42"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="M6:Q6"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.78740157480314965" right="0.78740157480314965" top="0.19685039370078741" bottom="0.23622047244094491" header="0" footer="0"/>
-  <pageSetup paperSize="8" scale="82" fitToHeight="0" orientation="portrait" horizontalDpi="4294967294" r:id="rId1"/>
+  <pageSetup paperSize="8" scale="81" fitToHeight="0" orientation="portrait" horizontalDpi="4294967294" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="1" manualBreakCount="1">
     <brk id="46" max="16383" man="1"/>
@@ -33399,7 +33364,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
     <pageSetUpPr fitToPage="1"/>
@@ -33407,7 +33372,7 @@
   <dimension ref="A1:S101"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="70" zoomScaleNormal="85" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="E88" sqref="E88"/>
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.25" defaultRowHeight="13.5"/>
@@ -33479,53 +33444,53 @@
       <c r="R5" s="3"/>
     </row>
     <row r="6" spans="1:18" ht="18" customHeight="1" thickBot="1">
-      <c r="B6" s="316" t="s">
+      <c r="B6" s="315" t="s">
         <v>2</v>
       </c>
       <c r="C6" s="331" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="321" t="s">
+      <c r="D6" s="338" t="s">
         <v>106</v>
       </c>
-      <c r="E6" s="316" t="s">
-        <v>4</v>
-      </c>
-      <c r="F6" s="323" t="s">
+      <c r="E6" s="315" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="336" t="s">
         <v>51</v>
       </c>
-      <c r="G6" s="323" t="s">
+      <c r="G6" s="336" t="s">
         <v>52</v>
       </c>
       <c r="H6" s="307" t="s">
         <v>5</v>
       </c>
-      <c r="I6" s="325"/>
+      <c r="I6" s="308"/>
       <c r="J6" s="307" t="s">
         <v>6</v>
       </c>
-      <c r="K6" s="325"/>
-      <c r="L6" s="346" t="s">
+      <c r="K6" s="308"/>
+      <c r="L6" s="345" t="s">
         <v>26</v>
       </c>
       <c r="M6" s="307" t="s">
         <v>7</v>
       </c>
-      <c r="N6" s="308"/>
-      <c r="O6" s="308"/>
-      <c r="P6" s="308"/>
-      <c r="Q6" s="325"/>
-      <c r="R6" s="316" t="s">
+      <c r="N6" s="313"/>
+      <c r="O6" s="313"/>
+      <c r="P6" s="313"/>
+      <c r="Q6" s="308"/>
+      <c r="R6" s="315" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:18" ht="18" customHeight="1" thickBot="1">
-      <c r="B7" s="317"/>
-      <c r="C7" s="332"/>
-      <c r="D7" s="322"/>
-      <c r="E7" s="317"/>
-      <c r="F7" s="324"/>
-      <c r="G7" s="324"/>
+      <c r="B7" s="316"/>
+      <c r="C7" s="342"/>
+      <c r="D7" s="339"/>
+      <c r="E7" s="316"/>
+      <c r="F7" s="337"/>
+      <c r="G7" s="337"/>
       <c r="H7" s="171" t="s">
         <v>8</v>
       </c>
@@ -33538,7 +33503,7 @@
       <c r="K7" s="60" t="s">
         <v>30</v>
       </c>
-      <c r="L7" s="347"/>
+      <c r="L7" s="346"/>
       <c r="M7" s="10" t="s">
         <v>22</v>
       </c>
@@ -33554,10 +33519,10 @@
       <c r="Q7" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="R7" s="317"/>
+      <c r="R7" s="316"/>
     </row>
     <row r="8" spans="1:18" ht="16.5" customHeight="1">
-      <c r="B8" s="310" t="s">
+      <c r="B8" s="328" t="s">
         <v>145</v>
       </c>
       <c r="C8" s="19" t="s">
@@ -33607,7 +33572,7 @@
       </c>
     </row>
     <row r="9" spans="1:18" ht="16.5" customHeight="1">
-      <c r="B9" s="310"/>
+      <c r="B9" s="328"/>
       <c r="C9" s="43" t="s">
         <v>320</v>
       </c>
@@ -33655,7 +33620,7 @@
       </c>
     </row>
     <row r="10" spans="1:18" ht="16.5" customHeight="1">
-      <c r="B10" s="310"/>
+      <c r="B10" s="328"/>
       <c r="C10" s="43" t="s">
         <v>244</v>
       </c>
@@ -33703,7 +33668,7 @@
       </c>
     </row>
     <row r="11" spans="1:18" ht="16.5" customHeight="1">
-      <c r="B11" s="310"/>
+      <c r="B11" s="328"/>
       <c r="C11" s="43" t="s">
         <v>245</v>
       </c>
@@ -33751,7 +33716,7 @@
       </c>
     </row>
     <row r="12" spans="1:18" ht="16.5" customHeight="1">
-      <c r="B12" s="310"/>
+      <c r="B12" s="328"/>
       <c r="C12" s="43" t="s">
         <v>321</v>
       </c>
@@ -33799,7 +33764,7 @@
       </c>
     </row>
     <row r="13" spans="1:18" ht="16.5" customHeight="1">
-      <c r="B13" s="310"/>
+      <c r="B13" s="328"/>
       <c r="C13" s="43" t="s">
         <v>322</v>
       </c>
@@ -33847,7 +33812,7 @@
       </c>
     </row>
     <row r="14" spans="1:18" ht="16.5" customHeight="1">
-      <c r="B14" s="310"/>
+      <c r="B14" s="328"/>
       <c r="C14" s="43" t="s">
         <v>248</v>
       </c>
@@ -33895,7 +33860,7 @@
       </c>
     </row>
     <row r="15" spans="1:18" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B15" s="310"/>
+      <c r="B15" s="328"/>
       <c r="C15" s="147" t="s">
         <v>249</v>
       </c>
@@ -33943,7 +33908,7 @@
       </c>
     </row>
     <row r="16" spans="1:18" ht="16.5" customHeight="1">
-      <c r="B16" s="310"/>
+      <c r="B16" s="328"/>
       <c r="C16" s="19" t="s">
         <v>288</v>
       </c>
@@ -33991,7 +33956,7 @@
       </c>
     </row>
     <row r="17" spans="2:19" ht="16.5" customHeight="1">
-      <c r="B17" s="310"/>
+      <c r="B17" s="328"/>
       <c r="C17" s="43" t="s">
         <v>289</v>
       </c>
@@ -34039,7 +34004,7 @@
       </c>
     </row>
     <row r="18" spans="2:19" ht="16.5" customHeight="1">
-      <c r="B18" s="310"/>
+      <c r="B18" s="328"/>
       <c r="C18" s="22" t="s">
         <v>266</v>
       </c>
@@ -34087,7 +34052,7 @@
       </c>
     </row>
     <row r="19" spans="2:19" ht="16.5" customHeight="1">
-      <c r="B19" s="310"/>
+      <c r="B19" s="328"/>
       <c r="C19" s="22" t="s">
         <v>268</v>
       </c>
@@ -34135,7 +34100,7 @@
       </c>
     </row>
     <row r="20" spans="2:19" ht="16.5" customHeight="1">
-      <c r="B20" s="310"/>
+      <c r="B20" s="328"/>
       <c r="C20" s="22" t="s">
         <v>269</v>
       </c>
@@ -34183,7 +34148,7 @@
       </c>
     </row>
     <row r="21" spans="2:19" ht="16.5" customHeight="1">
-      <c r="B21" s="310"/>
+      <c r="B21" s="328"/>
       <c r="C21" s="43" t="s">
         <v>77</v>
       </c>
@@ -34231,7 +34196,7 @@
       </c>
     </row>
     <row r="22" spans="2:19" ht="16.5" customHeight="1">
-      <c r="B22" s="310"/>
+      <c r="B22" s="328"/>
       <c r="C22" s="43" t="s">
         <v>78</v>
       </c>
@@ -34279,7 +34244,7 @@
       </c>
     </row>
     <row r="23" spans="2:19" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B23" s="310"/>
+      <c r="B23" s="328"/>
       <c r="C23" s="43" t="s">
         <v>121</v>
       </c>
@@ -34327,7 +34292,7 @@
       </c>
     </row>
     <row r="24" spans="2:19" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B24" s="311"/>
+      <c r="B24" s="329"/>
       <c r="C24" s="17" t="s">
         <v>11</v>
       </c>
@@ -34382,7 +34347,7 @@
       <c r="S24" s="6"/>
     </row>
     <row r="25" spans="2:19" ht="16.5" customHeight="1">
-      <c r="B25" s="312" t="s">
+      <c r="B25" s="330" t="s">
         <v>146</v>
       </c>
       <c r="C25" s="19" t="s">
@@ -34432,7 +34397,7 @@
       </c>
     </row>
     <row r="26" spans="2:19" ht="16.5" customHeight="1">
-      <c r="B26" s="310"/>
+      <c r="B26" s="328"/>
       <c r="C26" s="43" t="s">
         <v>323</v>
       </c>
@@ -34480,7 +34445,7 @@
       </c>
     </row>
     <row r="27" spans="2:19" ht="16.5" customHeight="1">
-      <c r="B27" s="310"/>
+      <c r="B27" s="328"/>
       <c r="C27" s="43" t="s">
         <v>252</v>
       </c>
@@ -34528,7 +34493,7 @@
       </c>
     </row>
     <row r="28" spans="2:19" ht="16.5" customHeight="1">
-      <c r="B28" s="310"/>
+      <c r="B28" s="328"/>
       <c r="C28" s="43" t="s">
         <v>253</v>
       </c>
@@ -34576,7 +34541,7 @@
       </c>
     </row>
     <row r="29" spans="2:19" ht="16.5" customHeight="1">
-      <c r="B29" s="310"/>
+      <c r="B29" s="328"/>
       <c r="C29" s="43" t="s">
         <v>284</v>
       </c>
@@ -34624,7 +34589,7 @@
       </c>
     </row>
     <row r="30" spans="2:19" ht="16.5" customHeight="1">
-      <c r="B30" s="310"/>
+      <c r="B30" s="328"/>
       <c r="C30" s="43" t="s">
         <v>324</v>
       </c>
@@ -34672,7 +34637,7 @@
       </c>
     </row>
     <row r="31" spans="2:19" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B31" s="310"/>
+      <c r="B31" s="328"/>
       <c r="C31" s="147" t="s">
         <v>261</v>
       </c>
@@ -34720,7 +34685,7 @@
       </c>
     </row>
     <row r="32" spans="2:19" ht="16.5" customHeight="1">
-      <c r="B32" s="310"/>
+      <c r="B32" s="328"/>
       <c r="C32" s="19" t="s">
         <v>270</v>
       </c>
@@ -34768,7 +34733,7 @@
       </c>
     </row>
     <row r="33" spans="1:19" ht="16.5" customHeight="1">
-      <c r="B33" s="310"/>
+      <c r="B33" s="328"/>
       <c r="C33" s="43" t="s">
         <v>271</v>
       </c>
@@ -34816,7 +34781,7 @@
       </c>
     </row>
     <row r="34" spans="1:19" ht="16.5" customHeight="1">
-      <c r="B34" s="310"/>
+      <c r="B34" s="328"/>
       <c r="C34" s="22" t="s">
         <v>122</v>
       </c>
@@ -34864,7 +34829,7 @@
       </c>
     </row>
     <row r="35" spans="1:19" ht="16.5" customHeight="1">
-      <c r="B35" s="310"/>
+      <c r="B35" s="328"/>
       <c r="C35" s="22" t="s">
         <v>119</v>
       </c>
@@ -34912,7 +34877,7 @@
       </c>
     </row>
     <row r="36" spans="1:19" ht="16.5" customHeight="1">
-      <c r="B36" s="310"/>
+      <c r="B36" s="328"/>
       <c r="C36" s="22" t="s">
         <v>267</v>
       </c>
@@ -34960,7 +34925,7 @@
       </c>
     </row>
     <row r="37" spans="1:19" ht="16.5" customHeight="1">
-      <c r="B37" s="310"/>
+      <c r="B37" s="328"/>
       <c r="C37" s="22" t="s">
         <v>104</v>
       </c>
@@ -35008,7 +34973,7 @@
       </c>
     </row>
     <row r="38" spans="1:19" ht="16.5" customHeight="1">
-      <c r="B38" s="310"/>
+      <c r="B38" s="328"/>
       <c r="C38" s="22" t="s">
         <v>101</v>
       </c>
@@ -35056,7 +35021,7 @@
       </c>
     </row>
     <row r="39" spans="1:19" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B39" s="310"/>
+      <c r="B39" s="328"/>
       <c r="C39" s="27" t="s">
         <v>105</v>
       </c>
@@ -35104,7 +35069,7 @@
       </c>
     </row>
     <row r="40" spans="1:19" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B40" s="311"/>
+      <c r="B40" s="329"/>
       <c r="C40" s="17" t="s">
         <v>11</v>
       </c>
@@ -35187,14 +35152,14 @@
       <c r="I42" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="J42" s="329" t="s">
+      <c r="J42" s="302" t="s">
         <v>8</v>
       </c>
-      <c r="K42" s="330"/>
-      <c r="L42" s="338" t="s">
+      <c r="K42" s="303"/>
+      <c r="L42" s="311" t="s">
         <v>48</v>
       </c>
-      <c r="M42" s="339"/>
+      <c r="M42" s="312"/>
       <c r="N42" s="84" t="s">
         <v>49</v>
       </c>
@@ -35336,53 +35301,53 @@
       <c r="R48" s="3"/>
     </row>
     <row r="49" spans="2:18" ht="18" customHeight="1" thickBot="1">
-      <c r="B49" s="316" t="s">
+      <c r="B49" s="315" t="s">
         <v>2</v>
       </c>
       <c r="C49" s="349" t="s">
         <v>3</v>
       </c>
-      <c r="D49" s="321" t="s">
+      <c r="D49" s="338" t="s">
         <v>106</v>
       </c>
-      <c r="E49" s="316" t="s">
-        <v>4</v>
-      </c>
-      <c r="F49" s="323" t="s">
+      <c r="E49" s="315" t="s">
+        <v>4</v>
+      </c>
+      <c r="F49" s="336" t="s">
         <v>51</v>
       </c>
-      <c r="G49" s="323" t="s">
+      <c r="G49" s="336" t="s">
         <v>52</v>
       </c>
       <c r="H49" s="307" t="s">
         <v>5</v>
       </c>
-      <c r="I49" s="325"/>
+      <c r="I49" s="308"/>
       <c r="J49" s="307" t="s">
         <v>6</v>
       </c>
-      <c r="K49" s="325"/>
-      <c r="L49" s="346" t="s">
+      <c r="K49" s="308"/>
+      <c r="L49" s="345" t="s">
         <v>26</v>
       </c>
       <c r="M49" s="307" t="s">
         <v>7</v>
       </c>
-      <c r="N49" s="308"/>
-      <c r="O49" s="308"/>
-      <c r="P49" s="308"/>
-      <c r="Q49" s="325"/>
-      <c r="R49" s="316" t="s">
+      <c r="N49" s="313"/>
+      <c r="O49" s="313"/>
+      <c r="P49" s="313"/>
+      <c r="Q49" s="308"/>
+      <c r="R49" s="315" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="50" spans="2:18" ht="18" customHeight="1" thickBot="1">
-      <c r="B50" s="317"/>
+      <c r="B50" s="316"/>
       <c r="C50" s="350"/>
-      <c r="D50" s="322"/>
-      <c r="E50" s="317"/>
-      <c r="F50" s="324"/>
-      <c r="G50" s="324"/>
+      <c r="D50" s="339"/>
+      <c r="E50" s="316"/>
+      <c r="F50" s="337"/>
+      <c r="G50" s="337"/>
       <c r="H50" s="171" t="s">
         <v>8</v>
       </c>
@@ -35395,7 +35360,7 @@
       <c r="K50" s="60" t="s">
         <v>30</v>
       </c>
-      <c r="L50" s="347"/>
+      <c r="L50" s="346"/>
       <c r="M50" s="10" t="s">
         <v>22</v>
       </c>
@@ -35411,10 +35376,10 @@
       <c r="Q50" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="R50" s="317"/>
+      <c r="R50" s="316"/>
     </row>
     <row r="51" spans="2:18" ht="16.5" customHeight="1">
-      <c r="B51" s="310" t="s">
+      <c r="B51" s="328" t="s">
         <v>140</v>
       </c>
       <c r="C51" s="19" t="s">
@@ -35464,7 +35429,7 @@
       </c>
     </row>
     <row r="52" spans="2:18" ht="16.5" customHeight="1">
-      <c r="B52" s="310"/>
+      <c r="B52" s="328"/>
       <c r="C52" s="43" t="s">
         <v>320</v>
       </c>
@@ -35512,7 +35477,7 @@
       </c>
     </row>
     <row r="53" spans="2:18" ht="16.5" customHeight="1">
-      <c r="B53" s="310"/>
+      <c r="B53" s="328"/>
       <c r="C53" s="43" t="s">
         <v>244</v>
       </c>
@@ -35560,7 +35525,7 @@
       </c>
     </row>
     <row r="54" spans="2:18" ht="16.5" customHeight="1">
-      <c r="B54" s="310"/>
+      <c r="B54" s="328"/>
       <c r="C54" s="43" t="s">
         <v>245</v>
       </c>
@@ -35608,7 +35573,7 @@
       </c>
     </row>
     <row r="55" spans="2:18" ht="16.5" customHeight="1">
-      <c r="B55" s="310"/>
+      <c r="B55" s="328"/>
       <c r="C55" s="43" t="s">
         <v>321</v>
       </c>
@@ -35656,7 +35621,7 @@
       </c>
     </row>
     <row r="56" spans="2:18" ht="16.5" customHeight="1">
-      <c r="B56" s="310"/>
+      <c r="B56" s="328"/>
       <c r="C56" s="43" t="s">
         <v>322</v>
       </c>
@@ -35704,7 +35669,7 @@
       </c>
     </row>
     <row r="57" spans="2:18" ht="16.5" customHeight="1">
-      <c r="B57" s="310"/>
+      <c r="B57" s="328"/>
       <c r="C57" s="43" t="s">
         <v>248</v>
       </c>
@@ -35752,7 +35717,7 @@
       </c>
     </row>
     <row r="58" spans="2:18" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B58" s="310"/>
+      <c r="B58" s="328"/>
       <c r="C58" s="147" t="s">
         <v>249</v>
       </c>
@@ -35800,7 +35765,7 @@
       </c>
     </row>
     <row r="59" spans="2:18" ht="16.5" customHeight="1">
-      <c r="B59" s="310"/>
+      <c r="B59" s="328"/>
       <c r="C59" s="19" t="s">
         <v>288</v>
       </c>
@@ -35848,7 +35813,7 @@
       </c>
     </row>
     <row r="60" spans="2:18" ht="16.5" customHeight="1">
-      <c r="B60" s="310"/>
+      <c r="B60" s="328"/>
       <c r="C60" s="43" t="s">
         <v>289</v>
       </c>
@@ -35896,7 +35861,7 @@
       </c>
     </row>
     <row r="61" spans="2:18" ht="16.5" customHeight="1">
-      <c r="B61" s="310"/>
+      <c r="B61" s="328"/>
       <c r="C61" s="22" t="s">
         <v>266</v>
       </c>
@@ -35944,7 +35909,7 @@
       </c>
     </row>
     <row r="62" spans="2:18" ht="16.5" customHeight="1">
-      <c r="B62" s="310"/>
+      <c r="B62" s="328"/>
       <c r="C62" s="22" t="s">
         <v>268</v>
       </c>
@@ -35992,7 +35957,7 @@
       </c>
     </row>
     <row r="63" spans="2:18" ht="16.5" customHeight="1">
-      <c r="B63" s="310"/>
+      <c r="B63" s="328"/>
       <c r="C63" s="22" t="s">
         <v>269</v>
       </c>
@@ -36040,7 +36005,7 @@
       </c>
     </row>
     <row r="64" spans="2:18" ht="16.5" customHeight="1">
-      <c r="B64" s="310"/>
+      <c r="B64" s="328"/>
       <c r="C64" s="43" t="s">
         <v>77</v>
       </c>
@@ -36088,7 +36053,7 @@
       </c>
     </row>
     <row r="65" spans="2:19" ht="16.5" customHeight="1">
-      <c r="B65" s="310"/>
+      <c r="B65" s="328"/>
       <c r="C65" s="43" t="s">
         <v>78</v>
       </c>
@@ -36136,7 +36101,7 @@
       </c>
     </row>
     <row r="66" spans="2:19" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B66" s="310"/>
+      <c r="B66" s="328"/>
       <c r="C66" s="43" t="s">
         <v>121</v>
       </c>
@@ -36184,7 +36149,7 @@
       </c>
     </row>
     <row r="67" spans="2:19" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B67" s="311"/>
+      <c r="B67" s="329"/>
       <c r="C67" s="17" t="s">
         <v>11</v>
       </c>
@@ -36239,7 +36204,7 @@
       <c r="S67" s="6"/>
     </row>
     <row r="68" spans="2:19" ht="16.5" customHeight="1">
-      <c r="B68" s="312" t="s">
+      <c r="B68" s="330" t="s">
         <v>142</v>
       </c>
       <c r="C68" s="19" t="s">
@@ -36289,7 +36254,7 @@
       </c>
     </row>
     <row r="69" spans="2:19" ht="16.5" customHeight="1">
-      <c r="B69" s="310"/>
+      <c r="B69" s="328"/>
       <c r="C69" s="43" t="s">
         <v>323</v>
       </c>
@@ -36337,7 +36302,7 @@
       </c>
     </row>
     <row r="70" spans="2:19" ht="16.5" customHeight="1">
-      <c r="B70" s="310"/>
+      <c r="B70" s="328"/>
       <c r="C70" s="43" t="s">
         <v>252</v>
       </c>
@@ -36385,7 +36350,7 @@
       </c>
     </row>
     <row r="71" spans="2:19" ht="16.5" customHeight="1">
-      <c r="B71" s="310"/>
+      <c r="B71" s="328"/>
       <c r="C71" s="43" t="s">
         <v>253</v>
       </c>
@@ -36433,7 +36398,7 @@
       </c>
     </row>
     <row r="72" spans="2:19" ht="16.5" customHeight="1">
-      <c r="B72" s="310"/>
+      <c r="B72" s="328"/>
       <c r="C72" s="43" t="s">
         <v>284</v>
       </c>
@@ -36481,7 +36446,7 @@
       </c>
     </row>
     <row r="73" spans="2:19" ht="16.5" customHeight="1">
-      <c r="B73" s="310"/>
+      <c r="B73" s="328"/>
       <c r="C73" s="43" t="s">
         <v>324</v>
       </c>
@@ -36529,7 +36494,7 @@
       </c>
     </row>
     <row r="74" spans="2:19" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B74" s="310"/>
+      <c r="B74" s="328"/>
       <c r="C74" s="147" t="s">
         <v>261</v>
       </c>
@@ -36577,7 +36542,7 @@
       </c>
     </row>
     <row r="75" spans="2:19" ht="16.5" customHeight="1">
-      <c r="B75" s="310"/>
+      <c r="B75" s="328"/>
       <c r="C75" s="19" t="s">
         <v>270</v>
       </c>
@@ -36625,7 +36590,7 @@
       </c>
     </row>
     <row r="76" spans="2:19" ht="16.5" customHeight="1">
-      <c r="B76" s="310"/>
+      <c r="B76" s="328"/>
       <c r="C76" s="43" t="s">
         <v>271</v>
       </c>
@@ -36673,7 +36638,7 @@
       </c>
     </row>
     <row r="77" spans="2:19" ht="16.5" customHeight="1">
-      <c r="B77" s="310"/>
+      <c r="B77" s="328"/>
       <c r="C77" s="22" t="s">
         <v>122</v>
       </c>
@@ -36724,7 +36689,7 @@
       </c>
     </row>
     <row r="78" spans="2:19" ht="16.5" customHeight="1">
-      <c r="B78" s="310"/>
+      <c r="B78" s="328"/>
       <c r="C78" s="22" t="s">
         <v>119</v>
       </c>
@@ -36772,7 +36737,7 @@
       </c>
     </row>
     <row r="79" spans="2:19" ht="16.5" customHeight="1">
-      <c r="B79" s="310"/>
+      <c r="B79" s="328"/>
       <c r="C79" s="22" t="s">
         <v>267</v>
       </c>
@@ -36820,7 +36785,7 @@
       </c>
     </row>
     <row r="80" spans="2:19" ht="16.5" customHeight="1">
-      <c r="B80" s="310"/>
+      <c r="B80" s="328"/>
       <c r="C80" s="22" t="s">
         <v>104</v>
       </c>
@@ -36868,7 +36833,7 @@
       </c>
     </row>
     <row r="81" spans="2:19" ht="16.5" customHeight="1">
-      <c r="B81" s="310"/>
+      <c r="B81" s="328"/>
       <c r="C81" s="22" t="s">
         <v>101</v>
       </c>
@@ -36916,7 +36881,7 @@
       </c>
     </row>
     <row r="82" spans="2:19" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B82" s="310"/>
+      <c r="B82" s="328"/>
       <c r="C82" s="27" t="s">
         <v>105</v>
       </c>
@@ -36965,7 +36930,7 @@
       <c r="S82" s="6"/>
     </row>
     <row r="83" spans="2:19" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B83" s="311"/>
+      <c r="B83" s="329"/>
       <c r="C83" s="17" t="s">
         <v>11</v>
       </c>
@@ -37020,7 +36985,7 @@
       <c r="S83" s="6"/>
     </row>
     <row r="84" spans="2:19" ht="16.5" customHeight="1">
-      <c r="B84" s="298" t="s">
+      <c r="B84" s="325" t="s">
         <v>141</v>
       </c>
       <c r="C84" s="19" t="s">
@@ -37070,7 +37035,7 @@
       </c>
     </row>
     <row r="85" spans="2:19" ht="16.5" customHeight="1">
-      <c r="B85" s="299"/>
+      <c r="B85" s="326"/>
       <c r="C85" s="43" t="s">
         <v>325</v>
       </c>
@@ -37118,7 +37083,7 @@
       </c>
     </row>
     <row r="86" spans="2:19" ht="16.5" customHeight="1">
-      <c r="B86" s="299"/>
+      <c r="B86" s="326"/>
       <c r="C86" s="43" t="s">
         <v>147</v>
       </c>
@@ -37166,7 +37131,7 @@
       </c>
     </row>
     <row r="87" spans="2:19" ht="16.5" customHeight="1">
-      <c r="B87" s="299"/>
+      <c r="B87" s="326"/>
       <c r="C87" s="43" t="s">
         <v>262</v>
       </c>
@@ -37214,7 +37179,7 @@
       </c>
     </row>
     <row r="88" spans="2:19" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B88" s="299"/>
+      <c r="B88" s="326"/>
       <c r="C88" s="147" t="s">
         <v>62</v>
       </c>
@@ -37262,7 +37227,7 @@
       </c>
     </row>
     <row r="89" spans="2:19" ht="16.5" customHeight="1">
-      <c r="B89" s="299"/>
+      <c r="B89" s="326"/>
       <c r="C89" s="19" t="s">
         <v>326</v>
       </c>
@@ -37310,7 +37275,7 @@
       </c>
     </row>
     <row r="90" spans="2:19" ht="16.5" customHeight="1">
-      <c r="B90" s="299"/>
+      <c r="B90" s="326"/>
       <c r="C90" s="43" t="s">
         <v>328</v>
       </c>
@@ -37358,7 +37323,7 @@
       </c>
     </row>
     <row r="91" spans="2:19" ht="16.5" customHeight="1">
-      <c r="B91" s="299"/>
+      <c r="B91" s="326"/>
       <c r="C91" s="22" t="s">
         <v>132</v>
       </c>
@@ -37406,7 +37371,7 @@
       </c>
     </row>
     <row r="92" spans="2:19" ht="16.5" customHeight="1">
-      <c r="B92" s="299"/>
+      <c r="B92" s="326"/>
       <c r="C92" s="22" t="s">
         <v>127</v>
       </c>
@@ -37454,7 +37419,7 @@
       </c>
     </row>
     <row r="93" spans="2:19" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B93" s="299"/>
+      <c r="B93" s="326"/>
       <c r="C93" s="27" t="s">
         <v>126</v>
       </c>
@@ -37503,7 +37468,7 @@
       <c r="S93" s="6"/>
     </row>
     <row r="94" spans="2:19" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B94" s="300"/>
+      <c r="B94" s="327"/>
       <c r="C94" s="33" t="s">
         <v>11</v>
       </c>
@@ -37586,14 +37551,14 @@
       <c r="I96" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="J96" s="329" t="s">
+      <c r="J96" s="302" t="s">
         <v>8</v>
       </c>
-      <c r="K96" s="330"/>
-      <c r="L96" s="338" t="s">
+      <c r="K96" s="303"/>
+      <c r="L96" s="311" t="s">
         <v>48</v>
       </c>
-      <c r="M96" s="339"/>
+      <c r="M96" s="312"/>
       <c r="N96" s="84" t="s">
         <v>49</v>
       </c>
@@ -37746,12 +37711,17 @@
     <row r="101" spans="2:18" ht="16.5" customHeight="1"/>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="R49:R50"/>
-    <mergeCell ref="B51:B67"/>
-    <mergeCell ref="J96:K96"/>
-    <mergeCell ref="L96:M96"/>
-    <mergeCell ref="B68:B83"/>
-    <mergeCell ref="B84:B94"/>
+    <mergeCell ref="R6:R7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="M6:Q6"/>
     <mergeCell ref="B8:B24"/>
     <mergeCell ref="B25:B40"/>
     <mergeCell ref="J42:K42"/>
@@ -37766,21 +37736,16 @@
     <mergeCell ref="J49:K49"/>
     <mergeCell ref="L49:L50"/>
     <mergeCell ref="M49:Q49"/>
-    <mergeCell ref="R6:R7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="M6:Q6"/>
+    <mergeCell ref="R49:R50"/>
+    <mergeCell ref="B51:B67"/>
+    <mergeCell ref="J96:K96"/>
+    <mergeCell ref="L96:M96"/>
+    <mergeCell ref="B68:B83"/>
+    <mergeCell ref="B84:B94"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.78740157480314965" right="0.78740157480314965" top="0.19685039370078741" bottom="0.23622047244094491" header="0" footer="0"/>
-  <pageSetup paperSize="8" scale="82" fitToHeight="0" orientation="portrait" horizontalDpi="4294967294" r:id="rId1"/>
+  <pageSetup paperSize="8" scale="81" fitToHeight="0" orientation="portrait" horizontalDpi="4294967294" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="1" manualBreakCount="1">
     <brk id="46" max="16383" man="1"/>
